--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -18,177 +18,177 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>500906</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>600322</t>
+  </si>
+  <si>
+    <t>500454</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>600366</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>600360</t>
+  </si>
+  <si>
+    <t>500025</t>
+  </si>
+  <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
+    <t>600381</t>
+  </si>
+  <si>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
+    <t>600672</t>
+  </si>
+  <si>
+    <t>600326</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>500684</t>
+  </si>
+  <si>
+    <t>600961</t>
+  </si>
+  <si>
+    <t>600604</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>600346</t>
+  </si>
+  <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>600775</t>
+  </si>
+  <si>
+    <t>600640</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>600727</t>
+  </si>
+  <si>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
+    <t>600310</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>600374</t>
+  </si>
+  <si>
+    <t>600699</t>
+  </si>
+  <si>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>600611</t>
+  </si>
+  <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
+    <t>600383</t>
+  </si>
+  <si>
+    <t>600758</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
+    <t>500005</t>
+  </si>
+  <si>
     <t>600763</t>
   </si>
   <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>600775</t>
-  </si>
-  <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>600703</t>
-  </si>
-  <si>
-    <t>600961</t>
-  </si>
-  <si>
-    <t>600322</t>
-  </si>
-  <si>
-    <t>500025</t>
-  </si>
-  <si>
-    <t>500221</t>
-  </si>
-  <si>
-    <t>600758</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>600366</t>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>600947</t>
   </si>
   <si>
     <t>600687</t>
   </si>
   <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>600309</t>
-  </si>
-  <si>
-    <t>600383</t>
-  </si>
-  <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>600388</t>
-  </si>
-  <si>
-    <t>600947</t>
+    <t>400238</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>600398</t>
   </si>
   <si>
     <t>600614</t>
   </si>
   <si>
-    <t>600398</t>
-  </si>
-  <si>
-    <t>600640</t>
-  </si>
-  <si>
-    <t>500901</t>
-  </si>
-  <si>
-    <t>600360</t>
-  </si>
-  <si>
-    <t>600326</t>
-  </si>
-  <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>400230</t>
-  </si>
-  <si>
-    <t>600786</t>
-  </si>
-  <si>
-    <t>600604</t>
-  </si>
-  <si>
-    <t>500355</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>500454</t>
-  </si>
-  <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>600310</t>
-  </si>
-  <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>500951</t>
-  </si>
-  <si>
-    <t>600396</t>
-  </si>
-  <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>400238</t>
-  </si>
-  <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>600982</t>
-  </si>
-  <si>
-    <t>600602</t>
-  </si>
-  <si>
-    <t>600374</t>
-  </si>
-  <si>
-    <t>500005</t>
-  </si>
-  <si>
-    <t>600610</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>600780</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>600346</t>
-  </si>
-  <si>
-    <t>400224</t>
-  </si>
-  <si>
-    <t>600611</t>
-  </si>
-  <si>
-    <t>600682</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -231,15 +231,15 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -252,27 +252,27 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>xylazine; fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>fentanyl; crack</t>
+  </si>
+  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
-    <t>fentanyl; crack</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>xylazine; fentanyl</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
@@ -312,18 +312,18 @@
     <t>color</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
     <t>pink</t>
   </si>
   <si>
-    <t>gray</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -333,15 +333,15 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>rock; crystals</t>
+  </si>
+  <si>
     <t>powder; chunky; rock</t>
   </si>
   <si>
-    <t>rock; crystals</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
@@ -369,19 +369,19 @@
     <t>weird; sedating</t>
   </si>
   <si>
+    <t>long; unpleasant; hallucinations</t>
+  </si>
+  <si>
+    <t>stronger</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>unpleasant; hallucinations</t>
+  </si>
+  <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>long; unpleasant; hallucinations</t>
-  </si>
-  <si>
-    <t>unpleasant; hallucinations</t>
-  </si>
-  <si>
-    <t>stronger</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -668,7 +668,7 @@
         <v>112</v>
       </c>
       <c r="AA1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AB1" t="s">
         <v>113</v>
@@ -820,7 +820,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="1">
-        <v>45354</v>
+        <v>45069</v>
       </c>
       <c r="G2" t="s">
         <v>72</v>
@@ -892,43 +892,45 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO2" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45370</v>
+        <v>45096</v>
       </c>
       <c r="AS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
         <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
         <v>1</v>
       </c>
       <c r="BB2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC2" s="2">
         <v>0</v>
@@ -987,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -999,7 +1001,7 @@
         <v>69</v>
       </c>
       <c r="F3" s="1">
-        <v>45263</v>
+        <v>45041</v>
       </c>
       <c r="G3" t="s">
         <v>73</v>
@@ -1011,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1020,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1047,11 +1049,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
@@ -1065,34 +1069,34 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
-      <c r="AK3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO3" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45294</v>
+        <v>45062</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -1101,10 +1105,10 @@
         <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
@@ -1178,7 +1182,7 @@
         <v>69</v>
       </c>
       <c r="F4" s="1">
-        <v>45029</v>
+        <v>45329</v>
       </c>
       <c r="G4" t="s">
         <v>72</v>
@@ -1190,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1211,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -1220,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1246,21 +1250,21 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
+      <c r="AK4" s="2">
+        <v>1</v>
+      </c>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45050</v>
+        <v>45369</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1270,22 +1274,22 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
@@ -1297,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1347,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -1359,7 +1363,7 @@
         <v>69</v>
       </c>
       <c r="F5" s="1">
-        <v>45298</v>
+        <v>45244</v>
       </c>
       <c r="G5" t="s">
         <v>72</v>
@@ -1368,7 +1372,7 @@
         <v>72</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>81</v>
@@ -1380,10 +1384,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -1392,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1401,21 +1405,21 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>75</v>
@@ -1431,17 +1435,15 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>1</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45317</v>
+        <v>45260</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1454,19 +1456,19 @@
         <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1478,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>69</v>
       </c>
       <c r="F6" s="1">
-        <v>45340</v>
+        <v>45271</v>
       </c>
       <c r="G6" t="s">
         <v>72</v>
@@ -1549,10 +1551,10 @@
         <v>72</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1561,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1599,10 +1601,12 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1622,17 +1626,17 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW6" s="2">
         <v>3</v>
@@ -1721,7 +1725,7 @@
         <v>69</v>
       </c>
       <c r="F7" s="1">
-        <v>45298</v>
+        <v>45069</v>
       </c>
       <c r="G7" t="s">
         <v>72</v>
@@ -1803,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45316</v>
+        <v>45096</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1816,7 +1820,7 @@
         <v>5</v>
       </c>
       <c r="AW7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1858,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="2">
         <v>0</v>
@@ -1902,19 +1906,19 @@
         <v>69</v>
       </c>
       <c r="F8" s="1">
-        <v>45354</v>
+        <v>45298</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -1984,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45394</v>
+        <v>45316</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -1994,7 +1998,7 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW8" s="2">
         <v>3</v>
@@ -2039,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL8" s="2">
         <v>0</v>
@@ -2083,19 +2087,19 @@
         <v>69</v>
       </c>
       <c r="F9" s="1">
-        <v>45271</v>
+        <v>45354</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2104,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2142,12 +2146,10 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -2157,17 +2159,15 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45294</v>
+        <v>45370</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2180,10 +2180,10 @@
         <v>4</v>
       </c>
       <c r="AW9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
         <v>1</v>
@@ -2266,19 +2266,19 @@
         <v>69</v>
       </c>
       <c r="F10" s="1">
-        <v>45060</v>
+        <v>45252</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2287,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2338,15 +2338,17 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45089</v>
+        <v>45261</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2356,10 +2358,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2371,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="2">
         <v>0</v>
@@ -2445,19 +2447,19 @@
         <v>69</v>
       </c>
       <c r="F11" s="1">
-        <v>45041</v>
+        <v>45315</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2517,7 +2519,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -2525,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45062</v>
+        <v>45336</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2535,13 +2537,13 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
         <v>1</v>
@@ -2565,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -2624,7 +2626,7 @@
         <v>69</v>
       </c>
       <c r="F12" s="1">
-        <v>45349</v>
+        <v>45252</v>
       </c>
       <c r="G12" t="s">
         <v>72</v>
@@ -2636,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2645,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -2672,11 +2674,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -2694,7 +2698,7 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
@@ -2702,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45369</v>
+        <v>45260</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -2712,10 +2716,10 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -2742,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -2801,13 +2805,13 @@
         <v>69</v>
       </c>
       <c r="F13" s="1">
-        <v>45329</v>
+        <v>45060</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
@@ -2843,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
@@ -2869,13 +2873,11 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
-      <c r="AK13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
@@ -2883,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45369</v>
+        <v>45089</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -2893,7 +2895,7 @@
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW13" s="2">
         <v>2</v>
@@ -2905,13 +2907,13 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>1</v>
       </c>
       <c r="BB13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="2">
         <v>0</v>
@@ -2985,16 +2987,16 @@
         <v>45354</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3054,7 +3056,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3062,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3117,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL14" s="2">
         <v>0</v>
@@ -3161,19 +3163,19 @@
         <v>69</v>
       </c>
       <c r="F15" s="1">
-        <v>45252</v>
+        <v>45034</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3220,9 +3222,11 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD15" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3243,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45261</v>
+        <v>45054</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3253,13 +3257,13 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
         <v>1</v>
@@ -3268,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
@@ -3330,7 +3334,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
@@ -3342,19 +3346,19 @@
         <v>69</v>
       </c>
       <c r="F16" s="1">
-        <v>45312</v>
+        <v>45263</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3363,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -3390,33 +3394,31 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
+      <c r="AK16" s="2">
+        <v>1</v>
+      </c>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45348</v>
+        <v>45294</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3434,10 +3436,10 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3446,10 +3448,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3523,19 +3525,19 @@
         <v>69</v>
       </c>
       <c r="F17" s="1">
-        <v>45069</v>
+        <v>45354</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3544,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -3565,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -3582,12 +3584,10 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
@@ -3597,7 +3597,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -3605,20 +3605,20 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45089</v>
+        <v>45369</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>69</v>
       </c>
       <c r="F18" s="1">
-        <v>45272</v>
+        <v>45263</v>
       </c>
       <c r="G18" t="s">
         <v>74</v>
@@ -3713,19 +3713,19 @@
         <v>74</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -3763,18 +3763,18 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
-      <c r="AI18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
+      <c r="AK18" s="2">
+        <v>1</v>
+      </c>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
@@ -3794,14 +3794,14 @@
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -3810,13 +3810,13 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
         <v>1</v>
       </c>
       <c r="BB18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="2">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="BG18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -3887,19 +3887,19 @@
         <v>69</v>
       </c>
       <c r="F19" s="1">
-        <v>45270</v>
+        <v>45354</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -3959,7 +3959,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -3967,20 +3967,20 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45308</v>
+        <v>45370</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
         <v>4</v>
       </c>
       <c r="AW19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -4066,19 +4066,19 @@
         <v>69</v>
       </c>
       <c r="F20" s="1">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4134,23 +4134,19 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
-      <c r="AK20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45294</v>
+        <v>45308</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4160,10 +4156,10 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4172,13 +4168,13 @@
         <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
         <v>1</v>
       </c>
       <c r="BB20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="2">
         <v>0</v>
@@ -4249,19 +4245,19 @@
         <v>69</v>
       </c>
       <c r="F21" s="1">
-        <v>45328</v>
+        <v>45354</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -4270,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -4321,7 +4317,7 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
@@ -4329,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45336</v>
+        <v>45369</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -4339,10 +4335,10 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="2">
         <v>1</v>
@@ -4428,19 +4424,19 @@
         <v>69</v>
       </c>
       <c r="F22" s="1">
-        <v>45244</v>
+        <v>45069</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -4449,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -4487,10 +4483,12 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -4500,7 +4498,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
@@ -4508,17 +4506,17 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45260</v>
+        <v>45089</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW22" s="2">
         <v>2</v>
@@ -4610,16 +4608,16 @@
         <v>45354</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -4679,9 +4677,11 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO23" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0</v>
+      </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
@@ -4697,13 +4697,13 @@
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="2">
         <v>1</v>
@@ -4786,28 +4786,28 @@
         <v>69</v>
       </c>
       <c r="F24" s="1">
-        <v>45354</v>
+        <v>45260</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -4825,40 +4825,46 @@
         <v>0</v>
       </c>
       <c r="S24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
+      <c r="AA24" s="2">
+        <v>1</v>
+      </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>1</v>
+      </c>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
+      <c r="AJ24" s="2">
+        <v>1</v>
+      </c>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
@@ -4866,32 +4872,32 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45369</v>
+        <v>45316</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
@@ -4930,10 +4936,10 @@
         <v>0</v>
       </c>
       <c r="BN24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP24" t="s">
         <v>164</v>
@@ -4953,7 +4959,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>65</v>
@@ -4965,19 +4971,19 @@
         <v>69</v>
       </c>
       <c r="F25" s="1">
-        <v>45263</v>
+        <v>45328</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -5037,7 +5043,7 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
@@ -5045,20 +5051,20 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45294</v>
+        <v>45336</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX25" s="2">
         <v>1</v>
@@ -5067,10 +5073,10 @@
         <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
@@ -5144,7 +5150,7 @@
         <v>69</v>
       </c>
       <c r="F26" s="1">
-        <v>45354</v>
+        <v>45026</v>
       </c>
       <c r="G26" t="s">
         <v>74</v>
@@ -5156,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -5192,13 +5198,11 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
@@ -5216,15 +5220,17 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO26" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>0</v>
+      </c>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45370</v>
+        <v>45032</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -5234,10 +5240,10 @@
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AW26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX26" s="2">
         <v>1</v>
@@ -5264,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="BF26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG26" s="2">
         <v>0</v>
@@ -5279,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL26" s="2">
         <v>0</v>
@@ -5323,19 +5329,19 @@
         <v>69</v>
       </c>
       <c r="F27" s="1">
-        <v>45041</v>
+        <v>45286</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -5344,7 +5350,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
@@ -5371,20 +5377,20 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD27" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>1</v>
+      </c>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
@@ -5395,17 +5401,17 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45062</v>
+        <v>45308</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
@@ -5418,19 +5424,19 @@
         <v>3</v>
       </c>
       <c r="AW27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="2">
         <v>1</v>
       </c>
       <c r="AZ27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="2">
         <v>0</v>
@@ -5504,28 +5510,28 @@
         <v>69</v>
       </c>
       <c r="F28" s="1">
-        <v>45252</v>
+        <v>45272</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
@@ -5563,41 +5569,45 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
+      <c r="AI28" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO28" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>0</v>
+      </c>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>45260</v>
+        <v>45294</v>
       </c>
       <c r="AS28" s="2">
         <v>1</v>
       </c>
       <c r="AT28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW28" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX28" s="2">
         <v>1</v>
@@ -5627,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH28" s="2">
         <v>0</v>
@@ -5671,7 +5681,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
         <v>65</v>
@@ -5683,19 +5693,19 @@
         <v>69</v>
       </c>
       <c r="F29" s="1">
-        <v>45270</v>
+        <v>45298</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -5704,10 +5714,10 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
@@ -5716,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
@@ -5725,21 +5735,21 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
+      <c r="AA29" s="2">
+        <v>1</v>
+      </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
         <v>75</v>
@@ -5755,15 +5765,17 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO29" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>1</v>
+      </c>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45308</v>
+        <v>45317</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
@@ -5773,22 +5785,22 @@
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="2">
         <v>0</v>
@@ -5800,10 +5812,10 @@
         <v>0</v>
       </c>
       <c r="BE29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG29" s="2">
         <v>0</v>
@@ -5874,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
@@ -5934,7 +5946,7 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
@@ -5942,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="AS30" s="2">
         <v>1</v>
@@ -5955,7 +5967,7 @@
         <v>4</v>
       </c>
       <c r="AW30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX30" s="2">
         <v>1</v>
@@ -5997,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="BK30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL30" s="2">
         <v>0</v>
@@ -6041,19 +6053,19 @@
         <v>69</v>
       </c>
       <c r="F31" s="1">
-        <v>45034</v>
+        <v>45354</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -6062,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -6100,11 +6112,9 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
@@ -6115,17 +6125,15 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO31" s="2">
-        <v>0</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
       <c r="AR31" s="1">
-        <v>45054</v>
+        <v>45369</v>
       </c>
       <c r="AS31" s="2">
         <v>1</v>
@@ -6135,25 +6143,25 @@
       </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW31" s="2">
         <v>3</v>
       </c>
       <c r="AX31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY31" s="2">
         <v>1</v>
       </c>
       <c r="AZ31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA31" s="2">
         <v>1</v>
       </c>
       <c r="BB31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC31" s="2">
         <v>0</v>
@@ -6224,31 +6232,31 @@
         <v>69</v>
       </c>
       <c r="F32" s="1">
-        <v>45300</v>
+        <v>45029</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="2">
         <v>0</v>
       </c>
       <c r="N32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="2">
         <v>0</v>
@@ -6257,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
@@ -6266,13 +6274,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -6283,12 +6291,10 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="AD32" s="2"/>
-      <c r="AE32" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
@@ -6298,40 +6304,42 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO32" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>0</v>
+      </c>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="2">
         <v>0</v>
       </c>
       <c r="AR32" s="1">
-        <v>45317</v>
+        <v>45050</v>
       </c>
       <c r="AS32" s="2">
         <v>1</v>
       </c>
       <c r="AT32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="2">
         <v>0</v>
@@ -6343,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="BE32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG32" s="2">
         <v>0</v>
@@ -6405,7 +6413,7 @@
         <v>69</v>
       </c>
       <c r="F33" s="1">
-        <v>45260</v>
+        <v>45354</v>
       </c>
       <c r="G33" t="s">
         <v>73</v>
@@ -6414,19 +6422,19 @@
         <v>73</v>
       </c>
       <c r="I33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
@@ -6444,46 +6452,40 @@
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
+      <c r="Y33" s="2">
+        <v>1</v>
+      </c>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AD33" s="2"/>
-      <c r="AE33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
-      <c r="AJ33" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
@@ -6491,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="AR33" s="1">
-        <v>45316</v>
+        <v>45369</v>
       </c>
       <c r="AS33" s="2">
         <v>1</v>
@@ -6501,22 +6503,22 @@
       </c>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW33" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB33" s="2">
         <v>0</v>
@@ -6555,10 +6557,10 @@
         <v>0</v>
       </c>
       <c r="BN33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP33" t="s">
         <v>164</v>
@@ -6590,7 +6592,7 @@
         <v>69</v>
       </c>
       <c r="F34" s="1">
-        <v>45045</v>
+        <v>45069</v>
       </c>
       <c r="G34" t="s">
         <v>72</v>
@@ -6602,19 +6604,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
@@ -6623,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="2">
         <v>0</v>
@@ -6632,13 +6634,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
@@ -6672,32 +6674,32 @@
         <v>0</v>
       </c>
       <c r="AR34" s="1">
-        <v>45062</v>
+        <v>45089</v>
       </c>
       <c r="AS34" s="2">
         <v>1</v>
       </c>
       <c r="AT34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="2"/>
       <c r="AV34" s="2">
         <v>3</v>
       </c>
       <c r="AW34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB34" s="2">
         <v>0</v>
@@ -6709,10 +6711,10 @@
         <v>0</v>
       </c>
       <c r="BE34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG34" s="2">
         <v>0</v>
@@ -6771,19 +6773,19 @@
         <v>69</v>
       </c>
       <c r="F35" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -6830,11 +6832,9 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD35" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
@@ -6855,20 +6855,20 @@
         <v>0</v>
       </c>
       <c r="AR35" s="1">
-        <v>45050</v>
+        <v>45077</v>
       </c>
       <c r="AS35" s="2">
         <v>1</v>
       </c>
       <c r="AT35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU35" s="2"/>
       <c r="AV35" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AW35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX35" s="2">
         <v>1</v>
@@ -6880,10 +6880,10 @@
         <v>0</v>
       </c>
       <c r="BA35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC35" s="2">
         <v>0</v>
@@ -6895,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="BF35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG35" s="2">
         <v>0</v>
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL35" s="2">
         <v>0</v>
@@ -6954,19 +6954,19 @@
         <v>69</v>
       </c>
       <c r="F36" s="1">
-        <v>45270</v>
+        <v>45041</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
@@ -7026,7 +7026,7 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AO36" s="2"/>
       <c r="AP36" s="2"/>
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="AR36" s="1">
-        <v>45308</v>
+        <v>45062</v>
       </c>
       <c r="AS36" s="2">
         <v>1</v>
@@ -7044,10 +7044,10 @@
       </c>
       <c r="AU36" s="2"/>
       <c r="AV36" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX36" s="2">
         <v>1</v>
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="BF36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG36" s="2">
         <v>0</v>
@@ -7133,19 +7133,19 @@
         <v>69</v>
       </c>
       <c r="F37" s="1">
-        <v>45069</v>
+        <v>45252</v>
       </c>
       <c r="G37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -7205,17 +7205,15 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO37" s="2">
-        <v>0</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
       <c r="AQ37" s="2">
         <v>0</v>
       </c>
       <c r="AR37" s="1">
-        <v>45096</v>
+        <v>45260</v>
       </c>
       <c r="AS37" s="2">
         <v>1</v>
@@ -7225,13 +7223,13 @@
       </c>
       <c r="AU37" s="2"/>
       <c r="AV37" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY37" s="2">
         <v>1</v>
@@ -7314,19 +7312,19 @@
         <v>69</v>
       </c>
       <c r="F38" s="1">
-        <v>45354</v>
+        <v>45270</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -7356,10 +7354,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="U38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" t="s">
         <v>105</v>
@@ -7386,7 +7384,7 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
@@ -7394,17 +7392,17 @@
         <v>0</v>
       </c>
       <c r="AR38" s="1">
-        <v>45369</v>
+        <v>45308</v>
       </c>
       <c r="AS38" s="2">
         <v>1</v>
       </c>
       <c r="AT38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU38" s="2"/>
       <c r="AV38" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW38" s="2">
         <v>4</v>
@@ -7493,19 +7491,19 @@
         <v>69</v>
       </c>
       <c r="F39" s="1">
-        <v>45252</v>
+        <v>45270</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K39" s="2">
         <v>1</v>
@@ -7565,7 +7563,7 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
@@ -7573,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="AR39" s="1">
-        <v>45260</v>
+        <v>45308</v>
       </c>
       <c r="AS39" s="2">
         <v>1</v>
@@ -7583,13 +7581,13 @@
       </c>
       <c r="AU39" s="2"/>
       <c r="AV39" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW39" s="2">
         <v>3</v>
       </c>
-      <c r="AW39" s="2">
-        <v>1</v>
-      </c>
       <c r="AX39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY39" s="2">
         <v>1</v>
@@ -7672,19 +7670,19 @@
         <v>69</v>
       </c>
       <c r="F40" s="1">
-        <v>45041</v>
+        <v>45252</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -7720,51 +7718,55 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
-      <c r="Y40" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
+      <c r="AE40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>1</v>
+      </c>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
-      <c r="AM40" s="2"/>
+      <c r="AM40" s="2">
+        <v>1</v>
+      </c>
       <c r="AN40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP40" s="2"/>
       <c r="AQ40" s="2">
         <v>0</v>
       </c>
       <c r="AR40" s="1">
-        <v>45077</v>
+        <v>45259</v>
       </c>
       <c r="AS40" s="2">
         <v>1</v>
       </c>
       <c r="AT40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="2"/>
       <c r="AV40" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AW40" s="2">
         <v>3</v>
@@ -7779,10 +7781,10 @@
         <v>0</v>
       </c>
       <c r="BA40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC40" s="2">
         <v>0</v>
@@ -7794,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="BF40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG40" s="2">
         <v>0</v>
@@ -7809,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="BK40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL40" s="2">
         <v>0</v>
@@ -7853,19 +7855,19 @@
         <v>69</v>
       </c>
       <c r="F41" s="1">
-        <v>45069</v>
+        <v>45340</v>
       </c>
       <c r="G41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K41" s="2">
         <v>1</v>
@@ -7935,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="AR41" s="1">
-        <v>45089</v>
+        <v>45369</v>
       </c>
       <c r="AS41" s="2">
         <v>1</v>
@@ -8034,19 +8036,19 @@
         <v>69</v>
       </c>
       <c r="F42" s="1">
-        <v>45270</v>
+        <v>45319</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K42" s="2">
         <v>1</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="U42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42" t="s">
         <v>105</v>
@@ -8106,15 +8108,17 @@
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO42" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AO42" s="2">
+        <v>1</v>
+      </c>
       <c r="AP42" s="2"/>
       <c r="AQ42" s="2">
         <v>0</v>
       </c>
       <c r="AR42" s="1">
-        <v>45308</v>
+        <v>45336</v>
       </c>
       <c r="AS42" s="2">
         <v>1</v>
@@ -8157,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="BG42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH42" s="2">
         <v>0</v>
@@ -8216,16 +8220,16 @@
         <v>45354</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K43" s="2">
         <v>1</v>
@@ -8285,7 +8289,7 @@
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
@@ -8293,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="1">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="AS43" s="2">
         <v>1</v>
@@ -8303,13 +8307,13 @@
       </c>
       <c r="AU43" s="2"/>
       <c r="AV43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY43" s="2">
         <v>1</v>
@@ -8395,16 +8399,16 @@
         <v>45034</v>
       </c>
       <c r="G44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K44" s="2">
         <v>1</v>
@@ -8482,14 +8486,14 @@
         <v>1</v>
       </c>
       <c r="AT44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="2"/>
       <c r="AV44" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW44" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX44" s="2">
         <v>1</v>
@@ -8575,7 +8579,7 @@
         <v>69</v>
       </c>
       <c r="F45" s="1">
-        <v>45319</v>
+        <v>45300</v>
       </c>
       <c r="G45" t="s">
         <v>72</v>
@@ -8587,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
@@ -8596,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -8634,10 +8638,12 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
+      <c r="AE45" s="2">
+        <v>1</v>
+      </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
@@ -8647,30 +8653,28 @@
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
       <c r="AN45" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO45" s="2">
-        <v>1</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
       <c r="AQ45" s="2">
         <v>0</v>
       </c>
       <c r="AR45" s="1">
-        <v>45336</v>
+        <v>45317</v>
       </c>
       <c r="AS45" s="2">
         <v>1</v>
       </c>
       <c r="AT45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="2"/>
       <c r="AV45" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW45" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX45" s="2">
         <v>1</v>
@@ -8700,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="BG45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH45" s="2">
         <v>0</v>
@@ -8756,19 +8760,19 @@
         <v>69</v>
       </c>
       <c r="F46" s="1">
-        <v>45365</v>
+        <v>45270</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K46" s="2">
         <v>1</v>
@@ -8828,7 +8832,7 @@
       <c r="AL46" s="2"/>
       <c r="AM46" s="2"/>
       <c r="AN46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
@@ -8836,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="1">
-        <v>45394</v>
+        <v>45308</v>
       </c>
       <c r="AS46" s="2">
         <v>1</v>
@@ -8846,10 +8850,10 @@
       </c>
       <c r="AU46" s="2"/>
       <c r="AV46" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW46" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX46" s="2">
         <v>1</v>
@@ -8935,19 +8939,19 @@
         <v>69</v>
       </c>
       <c r="F47" s="1">
-        <v>45354</v>
+        <v>45349</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K47" s="2">
         <v>1</v>
@@ -8956,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="M47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
@@ -8977,19 +8981,17 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
-      <c r="Y47" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
@@ -9007,7 +9009,7 @@
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
@@ -9028,7 +9030,7 @@
         <v>5</v>
       </c>
       <c r="AW47" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX47" s="2">
         <v>1</v>
@@ -9055,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG47" s="2">
         <v>0</v>
@@ -9114,7 +9116,7 @@
         <v>69</v>
       </c>
       <c r="F48" s="1">
-        <v>45252</v>
+        <v>45365</v>
       </c>
       <c r="G48" t="s">
         <v>72</v>
@@ -9123,10 +9125,10 @@
         <v>72</v>
       </c>
       <c r="I48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K48" s="2">
         <v>1</v>
@@ -9135,7 +9137,7 @@
         <v>1</v>
       </c>
       <c r="M48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="2">
         <v>0</v>
@@ -9162,45 +9164,39 @@
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
+      <c r="Y48" s="2">
+        <v>1</v>
+      </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF48" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
-      <c r="AM48" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM48" s="2"/>
       <c r="AN48" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO48" s="2">
-        <v>1</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
       <c r="AQ48" s="2">
         <v>0</v>
       </c>
       <c r="AR48" s="1">
-        <v>45259</v>
+        <v>45394</v>
       </c>
       <c r="AS48" s="2">
         <v>1</v>
@@ -9222,10 +9218,10 @@
         <v>1</v>
       </c>
       <c r="AZ48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB48" s="2">
         <v>0</v>
@@ -9299,31 +9295,31 @@
         <v>69</v>
       </c>
       <c r="F49" s="1">
-        <v>45041</v>
+        <v>45045</v>
       </c>
       <c r="G49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
       </c>
       <c r="N49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="2">
         <v>0</v>
@@ -9332,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="2">
         <v>0</v>
@@ -9341,13 +9337,13 @@
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="U49" s="2">
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
@@ -9371,15 +9367,17 @@
       <c r="AL49" s="2"/>
       <c r="AM49" s="2"/>
       <c r="AN49" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO49" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO49" s="2">
+        <v>0</v>
+      </c>
       <c r="AP49" s="2"/>
       <c r="AQ49" s="2">
         <v>0</v>
       </c>
       <c r="AR49" s="1">
-        <v>45077</v>
+        <v>45062</v>
       </c>
       <c r="AS49" s="2">
         <v>1</v>
@@ -9389,25 +9387,25 @@
       </c>
       <c r="AU49" s="2"/>
       <c r="AV49" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AW49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="2">
         <v>0</v>
       </c>
       <c r="BA49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC49" s="2">
         <v>0</v>
@@ -9416,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="BE49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF49" s="2">
         <v>1</v>
@@ -9434,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="BK49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL49" s="2">
         <v>0</v>
@@ -9478,7 +9476,7 @@
         <v>69</v>
       </c>
       <c r="F50" s="1">
-        <v>45315</v>
+        <v>45041</v>
       </c>
       <c r="G50" t="s">
         <v>72</v>
@@ -9490,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K50" s="2">
         <v>1</v>
@@ -9550,7 +9548,7 @@
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
@@ -9558,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="AR50" s="1">
-        <v>45336</v>
+        <v>45077</v>
       </c>
       <c r="AS50" s="2">
         <v>1</v>
@@ -9568,25 +9566,25 @@
       </c>
       <c r="AU50" s="2"/>
       <c r="AV50" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW50" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY50" s="2">
         <v>1</v>
       </c>
       <c r="AZ50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="2">
         <v>1</v>
       </c>
       <c r="BB50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC50" s="2">
         <v>0</v>
@@ -9598,10 +9596,10 @@
         <v>0</v>
       </c>
       <c r="BF50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH50" s="2">
         <v>0</v>
@@ -9613,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="BK50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL50" s="2">
         <v>0</v>
@@ -9657,19 +9655,19 @@
         <v>69</v>
       </c>
       <c r="F51" s="1">
-        <v>45069</v>
+        <v>45354</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I51" s="2">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K51" s="2">
         <v>1</v>
@@ -9729,45 +9727,43 @@
       <c r="AL51" s="2"/>
       <c r="AM51" s="2"/>
       <c r="AN51" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO51" s="2">
-        <v>0</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
       <c r="AQ51" s="2">
         <v>0</v>
       </c>
       <c r="AR51" s="1">
-        <v>45096</v>
+        <v>45370</v>
       </c>
       <c r="AS51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="2"/>
       <c r="AV51" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW51" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY51" s="2">
         <v>1</v>
       </c>
       <c r="AZ51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA51" s="2">
         <v>1</v>
       </c>
       <c r="BB51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC51" s="2">
         <v>0</v>
@@ -9841,10 +9837,10 @@
         <v>45333</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
@@ -9880,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
@@ -10024,16 +10020,16 @@
         <v>45354</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I53" s="2">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K53" s="2">
         <v>1</v>
@@ -10093,7 +10089,7 @@
       <c r="AL53" s="2"/>
       <c r="AM53" s="2"/>
       <c r="AN53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
@@ -10101,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="AR53" s="1">
-        <v>45369</v>
+        <v>45394</v>
       </c>
       <c r="AS53" s="2">
         <v>1</v>
@@ -10111,13 +10107,13 @@
       </c>
       <c r="AU53" s="2"/>
       <c r="AV53" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW53" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY53" s="2">
         <v>1</v>
@@ -10200,19 +10196,19 @@
         <v>69</v>
       </c>
       <c r="F54" s="1">
-        <v>45354</v>
+        <v>45312</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K54" s="2">
         <v>1</v>
@@ -10221,7 +10217,7 @@
         <v>1</v>
       </c>
       <c r="M54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2">
         <v>0</v>
@@ -10259,9 +10255,11 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
       <c r="AC54" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD54" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>0</v>
+      </c>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
@@ -10272,7 +10270,7 @@
       <c r="AL54" s="2"/>
       <c r="AM54" s="2"/>
       <c r="AN54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
@@ -10280,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="AR54" s="1">
-        <v>45369</v>
+        <v>45348</v>
       </c>
       <c r="AS54" s="2">
         <v>1</v>
@@ -10290,10 +10288,10 @@
       </c>
       <c r="AU54" s="2"/>
       <c r="AV54" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW54" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX54" s="2">
         <v>1</v>
@@ -10302,10 +10300,10 @@
         <v>1</v>
       </c>
       <c r="AZ54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="2">
         <v>0</v>
@@ -10379,19 +10377,19 @@
         <v>69</v>
       </c>
       <c r="F55" s="1">
-        <v>45286</v>
+        <v>45034</v>
       </c>
       <c r="G55" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I55" s="2">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K55" s="2">
         <v>1</v>
@@ -10400,7 +10398,7 @@
         <v>1</v>
       </c>
       <c r="M55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" s="2">
         <v>0</v>
@@ -10427,19 +10425,21 @@
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
+      <c r="Y55" s="2">
+        <v>1</v>
+      </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AD55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
@@ -10451,17 +10451,17 @@
       <c r="AL55" s="2"/>
       <c r="AM55" s="2"/>
       <c r="AN55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AO55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP55" s="2"/>
       <c r="AQ55" s="2">
         <v>0</v>
       </c>
       <c r="AR55" s="1">
-        <v>45308</v>
+        <v>45050</v>
       </c>
       <c r="AS55" s="2">
         <v>1</v>
@@ -10471,22 +10471,22 @@
       </c>
       <c r="AU55" s="2"/>
       <c r="AV55" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW55" s="2">
         <v>3</v>
       </c>
-      <c r="AW55" s="2">
-        <v>1</v>
-      </c>
       <c r="AX55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY55" s="2">
         <v>1</v>
       </c>
       <c r="AZ55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="2">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
         <v>65</v>
@@ -10560,7 +10560,7 @@
         <v>69</v>
       </c>
       <c r="F56" s="1">
-        <v>45026</v>
+        <v>45312</v>
       </c>
       <c r="G56" t="s">
         <v>73</v>
@@ -10569,10 +10569,10 @@
         <v>73</v>
       </c>
       <c r="I56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K56" s="2">
         <v>1</v>
@@ -10581,10 +10581,10 @@
         <v>1</v>
       </c>
       <c r="M56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="2">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="2">
         <v>0</v>
@@ -10602,25 +10602,29 @@
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="U56" s="2">
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
+      <c r="Y56" s="2">
+        <v>1</v>
+      </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
       <c r="AC56" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD56" s="2"/>
-      <c r="AE56" s="2"/>
+      <c r="AE56" s="2">
+        <v>1</v>
+      </c>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
@@ -10630,17 +10634,15 @@
       <c r="AL56" s="2"/>
       <c r="AM56" s="2"/>
       <c r="AN56" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO56" s="2">
-        <v>0</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
       <c r="AQ56" s="2">
         <v>0</v>
       </c>
       <c r="AR56" s="1">
-        <v>45032</v>
+        <v>45316</v>
       </c>
       <c r="AS56" s="2">
         <v>1</v>
@@ -10650,22 +10652,22 @@
       </c>
       <c r="AU56" s="2"/>
       <c r="AV56" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AW56" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY56" s="2">
         <v>1</v>
       </c>
       <c r="AZ56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="2">
         <v>0</v>
@@ -10677,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF56" s="2">
         <v>1</v>
@@ -10695,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="BK56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL56" s="2">
         <v>0</v>
@@ -10727,7 +10729,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
         <v>65</v>
@@ -10739,19 +10741,19 @@
         <v>69</v>
       </c>
       <c r="F57" s="1">
-        <v>45354</v>
+        <v>45263</v>
       </c>
       <c r="G57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I57" s="2">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K57" s="2">
         <v>1</v>
@@ -10760,7 +10762,7 @@
         <v>1</v>
       </c>
       <c r="M57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="2">
         <v>0</v>
@@ -10811,7 +10813,7 @@
       <c r="AL57" s="2"/>
       <c r="AM57" s="2"/>
       <c r="AN57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
@@ -10819,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="AR57" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AS57" s="2">
         <v>1</v>
@@ -10832,7 +10834,7 @@
         <v>3</v>
       </c>
       <c r="AW57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX57" s="2">
         <v>1</v>
@@ -10841,10 +10843,10 @@
         <v>1</v>
       </c>
       <c r="AZ57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="2">
         <v>0</v>
@@ -10906,7 +10908,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -10918,19 +10920,19 @@
         <v>69</v>
       </c>
       <c r="F58" s="1">
-        <v>45312</v>
+        <v>45354</v>
       </c>
       <c r="G58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K58" s="2">
         <v>1</v>
@@ -10939,10 +10941,10 @@
         <v>1</v>
       </c>
       <c r="M58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="2">
         <v>0</v>
@@ -10951,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="2">
         <v>0</v>
@@ -10960,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="U58" s="2">
         <v>0</v>
@@ -10977,12 +10979,10 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
       <c r="AC58" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD58" s="2"/>
-      <c r="AE58" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
@@ -10992,7 +10992,7 @@
       <c r="AL58" s="2"/>
       <c r="AM58" s="2"/>
       <c r="AN58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
@@ -11000,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="AR58" s="1">
-        <v>45316</v>
+        <v>45369</v>
       </c>
       <c r="AS58" s="2">
         <v>1</v>
@@ -11010,22 +11010,22 @@
       </c>
       <c r="AU58" s="2"/>
       <c r="AV58" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW58" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY58" s="2">
         <v>1</v>
       </c>
       <c r="AZ58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB58" s="2">
         <v>0</v>
@@ -11037,10 +11037,10 @@
         <v>0</v>
       </c>
       <c r="BE58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG58" s="2">
         <v>0</v>
@@ -11102,16 +11102,16 @@
         <v>45326</v>
       </c>
       <c r="G59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I59" s="2">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K59" s="2">
         <v>1</v>
@@ -11171,7 +11171,7 @@
       <c r="AL59" s="2"/>
       <c r="AM59" s="2"/>
       <c r="AN59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>

--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -13,182 +13,188 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="999" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1031" uniqueCount="177">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>500454</t>
+  </si>
+  <si>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>600604</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>600326</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>600360</t>
+  </si>
+  <si>
+    <t>600947</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>600961</t>
+  </si>
+  <si>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>600812</t>
+  </si>
+  <si>
+    <t>600758</t>
+  </si>
+  <si>
+    <t>600640</t>
+  </si>
+  <si>
+    <t>600614</t>
+  </si>
+  <si>
+    <t>600346</t>
+  </si>
+  <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
+    <t>600322</t>
+  </si>
+  <si>
+    <t>600775</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>600398</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
     <t>500906</t>
   </si>
   <si>
-    <t>500901</t>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>600366</t>
   </si>
   <si>
     <t>600739</t>
   </si>
   <si>
-    <t>600388</t>
-  </si>
-  <si>
-    <t>600322</t>
-  </si>
-  <si>
-    <t>500454</t>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>600383</t>
+  </si>
+  <si>
+    <t>600699</t>
+  </si>
+  <si>
+    <t>400238</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
+    <t>600611</t>
+  </si>
+  <si>
+    <t>600381</t>
   </si>
   <si>
     <t>600703</t>
   </si>
   <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>600366</t>
-  </si>
-  <si>
-    <t>600610</t>
-  </si>
-  <si>
-    <t>600360</t>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>600672</t>
+  </si>
+  <si>
+    <t>600374</t>
+  </si>
+  <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>500684</t>
+  </si>
+  <si>
+    <t>600727</t>
   </si>
   <si>
     <t>500025</t>
   </si>
   <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>400230</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>600602</t>
-  </si>
-  <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>600326</t>
-  </si>
-  <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>600961</t>
-  </si>
-  <si>
-    <t>600604</t>
-  </si>
-  <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>400224</t>
-  </si>
-  <si>
-    <t>600346</t>
-  </si>
-  <si>
     <t>600309</t>
   </si>
   <si>
-    <t>600775</t>
-  </si>
-  <si>
-    <t>600640</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>500951</t>
-  </si>
-  <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>500221</t>
+    <t>600687</t>
   </si>
   <si>
     <t>600310</t>
   </si>
   <si>
-    <t>600396</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>600374</t>
-  </si>
-  <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>600611</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>600786</t>
-  </si>
-  <si>
-    <t>600383</t>
-  </si>
-  <si>
-    <t>600758</t>
-  </si>
-  <si>
-    <t>600982</t>
-  </si>
-  <si>
-    <t>500355</t>
+    <t>600996</t>
   </si>
   <si>
     <t>500005</t>
   </si>
   <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>600780</t>
-  </si>
-  <si>
-    <t>600947</t>
-  </si>
-  <si>
-    <t>600687</t>
-  </si>
-  <si>
-    <t>400238</t>
-  </si>
-  <si>
-    <t>600682</t>
-  </si>
-  <si>
-    <t>600398</t>
-  </si>
-  <si>
-    <t>600614</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -198,12 +204,12 @@
     <t>Pittsburgh</t>
   </si>
   <si>
+    <t>Garfield</t>
+  </si>
+  <si>
     <t>Penn Hills</t>
   </si>
   <si>
-    <t>Garfield</t>
-  </si>
-  <si>
     <t>Beaver County</t>
   </si>
   <si>
@@ -234,12 +240,12 @@
     <t>swab</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -255,33 +261,33 @@
     <t>xylazine; fentanyl</t>
   </si>
   <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>cocaine; fentanyl</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>ketamine</t>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl; crack</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>fentanyl; crack</t>
-  </si>
-  <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>cocaine; fentanyl</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -312,18 +318,18 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
-    <t>gray</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -360,28 +366,31 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>long; unpleasant; hallucinations</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
     <t>normal</t>
   </si>
   <si>
+    <t>stronger</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>unpleasant; hallucinations</t>
+  </si>
+  <si>
     <t>weird; sedating</t>
   </si>
   <si>
-    <t>long; unpleasant; hallucinations</t>
-  </si>
-  <si>
-    <t>stronger</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>unpleasant; hallucinations</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
+    <t>sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -582,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS59"/>
+  <dimension ref="A1:BS61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -593,214 +602,214 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="W1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Z1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AB1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AF1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AH1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AI1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AJ1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AK1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AL1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AM1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AN1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AO1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AP1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AQ1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AR1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AS1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AT1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AU1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AV1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AW1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AX1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AY1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AZ1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BA1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BB1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BC1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="BD1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="BE1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="BF1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="BG1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="BH1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="BI1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="BJ1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BK1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="BL1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="BM1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="BN1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BO1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="BP1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="BQ1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BR1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="BS1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
@@ -808,31 +817,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1">
         <v>45069</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
@@ -862,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -879,7 +888,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -892,7 +901,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AO2" s="2">
         <v>0</v>
@@ -905,32 +914,32 @@
         <v>45096</v>
       </c>
       <c r="AS2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="2">
         <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW2" s="2">
         <v>2</v>
       </c>
-      <c r="AW2" s="2">
-        <v>0</v>
-      </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
         <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
         <v>1</v>
       </c>
       <c r="BB2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="2">
         <v>0</v>
@@ -972,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3">
@@ -989,31 +998,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1">
-        <v>45041</v>
+        <v>45244</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1022,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1043,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1060,7 +1069,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -1073,17 +1082,15 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45062</v>
+        <v>45260</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1105,10 +1112,10 @@
         <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
@@ -1153,16 +1160,16 @@
         <v>0</v>
       </c>
       <c r="BP3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
@@ -1170,40 +1177,40 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1">
-        <v>45329</v>
+        <v>45260</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1221,42 +1228,46 @@
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1</v>
+      </c>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
@@ -1264,32 +1275,32 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45369</v>
+        <v>45316</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
@@ -1328,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="BN4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
@@ -1351,31 +1362,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1">
-        <v>45244</v>
+        <v>45354</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1405,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1422,7 +1433,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
@@ -1435,7 +1446,7 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
@@ -1443,20 +1454,20 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45260</v>
+        <v>45370</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
         <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1513,16 +1524,16 @@
         <v>0</v>
       </c>
       <c r="BP5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6">
@@ -1530,31 +1541,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1">
-        <v>45271</v>
+        <v>45312</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1566,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1575,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1584,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1601,7 +1612,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2">
@@ -1616,17 +1627,15 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45294</v>
+        <v>45316</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1636,22 +1645,22 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
         <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1663,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1696,16 +1705,16 @@
         <v>0</v>
       </c>
       <c r="BP6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
@@ -1713,31 +1722,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1">
-        <v>45069</v>
+        <v>45354</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1767,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1784,7 +1793,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -1797,17 +1806,15 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45096</v>
+        <v>45369</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1817,10 +1824,10 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1862,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7" s="2">
         <v>0</v>
@@ -1877,16 +1884,16 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8">
@@ -1894,31 +1901,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1">
-        <v>45298</v>
+        <v>45041</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -1927,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1948,13 +1955,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1965,7 +1972,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -1978,7 +1985,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AO8" s="2">
         <v>0</v>
@@ -1988,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45316</v>
+        <v>45077</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -1998,7 +2005,7 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AW8" s="2">
         <v>3</v>
@@ -2010,13 +2017,13 @@
         <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
         <v>1</v>
       </c>
       <c r="BB8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="2">
         <v>0</v>
@@ -2028,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2058,16 +2065,16 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9">
@@ -2075,31 +2082,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1">
-        <v>45354</v>
+        <v>45270</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2129,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2146,7 +2153,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -2159,7 +2166,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
@@ -2167,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45370</v>
+        <v>45308</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2180,10 +2187,10 @@
         <v>4</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
         <v>1</v>
@@ -2237,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
@@ -2254,31 +2261,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1">
-        <v>45252</v>
+        <v>45354</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2287,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -2308,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2325,7 +2332,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -2338,17 +2345,15 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45261</v>
+        <v>45369</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2358,10 +2363,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2370,10 +2375,10 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2418,16 +2423,16 @@
         <v>0</v>
       </c>
       <c r="BP10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
@@ -2435,31 +2440,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1">
-        <v>45315</v>
+        <v>45252</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2468,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -2489,13 +2494,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2506,7 +2511,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -2519,7 +2524,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -2527,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45336</v>
+        <v>45260</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2537,13 +2542,13 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
         <v>1</v>
@@ -2570,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="BG11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -2597,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
@@ -2614,31 +2619,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1">
-        <v>45252</v>
+        <v>45354</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2668,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2685,7 +2690,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -2698,7 +2703,7 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
@@ -2706,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45260</v>
+        <v>45394</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -2716,13 +2721,13 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
         <v>1</v>
@@ -2776,16 +2781,16 @@
         <v>0</v>
       </c>
       <c r="BP12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13">
@@ -2793,49 +2798,49 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1">
-        <v>45060</v>
+        <v>45333</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2847,26 +2852,28 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD13" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -2877,49 +2884,51 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45089</v>
+        <v>45364</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW13" s="2">
         <v>2</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
         <v>0</v>
@@ -2955,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="BP13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14">
@@ -2972,31 +2981,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1">
         <v>45354</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3026,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3043,7 +3052,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -3056,15 +3065,17 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45369</v>
+        <v>45394</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3119,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL14" s="2">
         <v>0</v>
@@ -3134,16 +3145,16 @@
         <v>0</v>
       </c>
       <c r="BP14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
@@ -3151,31 +3162,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1">
-        <v>45034</v>
+        <v>45319</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3184,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -3205,13 +3216,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3222,11 +3233,9 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3237,17 +3246,17 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AO15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45054</v>
+        <v>45336</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3260,22 +3269,22 @@
         <v>5</v>
       </c>
       <c r="AW15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
         <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
         <v>1</v>
       </c>
       <c r="BB15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
@@ -3290,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3317,16 +3326,16 @@
         <v>0</v>
       </c>
       <c r="BP15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -3334,19 +3343,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1">
-        <v>45263</v>
+        <v>45365</v>
       </c>
       <c r="G16" t="s">
         <v>74</v>
@@ -3358,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3388,22 +3397,24 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -3412,13 +3423,11 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
-      <c r="AK16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
@@ -3426,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45294</v>
+        <v>45399</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3436,10 +3445,10 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3448,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3496,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="BP16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
@@ -3513,31 +3522,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
-        <v>45354</v>
+        <v>45349</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3546,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -3567,24 +3576,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -3597,7 +3604,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -3618,7 +3625,7 @@
         <v>5</v>
       </c>
       <c r="AW17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
@@ -3645,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -3675,16 +3682,16 @@
         <v>0</v>
       </c>
       <c r="BP17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
@@ -3692,19 +3699,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1">
-        <v>45263</v>
+        <v>45354</v>
       </c>
       <c r="G18" t="s">
         <v>74</v>
@@ -3716,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -3746,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -3763,7 +3770,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -3772,23 +3779,19 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
-      <c r="AK18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45294</v>
+        <v>45370</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -3798,7 +3801,7 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW18" s="2">
         <v>2</v>
@@ -3810,13 +3813,13 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
         <v>1</v>
       </c>
       <c r="BB18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="2">
         <v>0</v>
@@ -3858,16 +3861,16 @@
         <v>0</v>
       </c>
       <c r="BP18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
@@ -3875,31 +3878,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1">
         <v>45354</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -3929,13 +3932,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -3946,7 +3949,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
@@ -3959,7 +3962,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -3967,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -3977,7 +3980,7 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW19" s="2">
         <v>3</v>
@@ -4037,16 +4040,16 @@
         <v>0</v>
       </c>
       <c r="BP19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
@@ -4054,31 +4057,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1">
-        <v>45270</v>
+        <v>45286</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4108,26 +4111,26 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD20" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
@@ -4138,9 +4141,11 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>1</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
@@ -4156,13 +4161,13 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="2">
         <v>1</v>
@@ -4216,16 +4221,16 @@
         <v>0</v>
       </c>
       <c r="BP20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
@@ -4233,43 +4238,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1">
-        <v>45354</v>
+        <v>45029</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4278,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -4287,13 +4292,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4304,7 +4309,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -4317,40 +4322,42 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO21" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>0</v>
+      </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45369</v>
+        <v>45050</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
         <v>4</v>
       </c>
       <c r="AW21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
@@ -4362,10 +4369,10 @@
         <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -4395,16 +4402,16 @@
         <v>0</v>
       </c>
       <c r="BP21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
@@ -4412,31 +4419,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1">
-        <v>45069</v>
+        <v>45365</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -4445,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -4466,13 +4473,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -4483,12 +4490,10 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -4498,7 +4503,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
@@ -4506,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45089</v>
+        <v>45394</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -4516,10 +4521,10 @@
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX22" s="2">
         <v>1</v>
@@ -4576,16 +4581,16 @@
         <v>0</v>
       </c>
       <c r="BP22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
@@ -4593,31 +4598,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1">
-        <v>45354</v>
+        <v>45270</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -4647,13 +4652,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="U23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -4664,7 +4669,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
@@ -4677,17 +4682,15 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO23" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45394</v>
+        <v>45308</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -4697,11 +4700,11 @@
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW23" s="2">
         <v>4</v>
       </c>
-      <c r="AW23" s="2">
-        <v>3</v>
-      </c>
       <c r="AX23" s="2">
         <v>1</v>
       </c>
@@ -4757,16 +4760,16 @@
         <v>0</v>
       </c>
       <c r="BP23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR23" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
@@ -4774,31 +4777,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F24" s="1">
-        <v>45260</v>
+        <v>45045</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -4810,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -4819,13 +4822,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
       </c>
       <c r="S24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="s">
         <v>101</v>
@@ -4834,55 +4837,51 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AD24" s="2"/>
-      <c r="AE24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO24" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0</v>
+      </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45316</v>
+        <v>45062</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW24" s="2">
         <v>1</v>
@@ -4909,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="BE24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -4936,22 +4935,22 @@
         <v>0</v>
       </c>
       <c r="BN24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ24" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR24" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS24" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
@@ -4959,31 +4958,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F25" s="1">
-        <v>45328</v>
+        <v>45300</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -5013,13 +5012,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5030,10 +5029,12 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
+      <c r="AE25" s="2">
+        <v>1</v>
+      </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -5043,7 +5044,7 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
@@ -5051,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45336</v>
+        <v>45317</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -5121,16 +5122,16 @@
         <v>0</v>
       </c>
       <c r="BP25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ25" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5139,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1">
-        <v>45026</v>
+        <v>45041</v>
       </c>
       <c r="G26" t="s">
         <v>74</v>
@@ -5162,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -5171,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2">
         <v>0</v>
@@ -5192,22 +5193,24 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -5220,17 +5223,15 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO26" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45032</v>
+        <v>45062</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -5240,10 +5241,10 @@
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AW26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX26" s="2">
         <v>1</v>
@@ -5285,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL26" s="2">
         <v>0</v>
@@ -5300,16 +5301,16 @@
         <v>0</v>
       </c>
       <c r="BP26" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR26" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS26" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27">
@@ -5317,31 +5318,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F27" s="1">
-        <v>45286</v>
+        <v>45271</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -5350,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
@@ -5371,27 +5372,29 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
+      <c r="Y27" s="2">
+        <v>1</v>
+      </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2">
+        <v>1</v>
+      </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
@@ -5401,17 +5404,17 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AO27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45308</v>
+        <v>45294</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
@@ -5421,13 +5424,13 @@
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW27" s="2">
         <v>3</v>
       </c>
-      <c r="AW27" s="2">
-        <v>1</v>
-      </c>
       <c r="AX27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY27" s="2">
         <v>1</v>
@@ -5481,16 +5484,16 @@
         <v>0</v>
       </c>
       <c r="BP27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR27" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS27" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28">
@@ -5498,43 +5501,43 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1">
-        <v>45272</v>
+        <v>45298</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -5543,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -5552,74 +5555,72 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
+      <c r="AA28" s="2">
+        <v>1</v>
+      </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
-      <c r="AI28" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AO28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>45294</v>
+        <v>45317</v>
       </c>
       <c r="AS28" s="2">
         <v>1</v>
       </c>
       <c r="AT28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW28" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="2">
         <v>0</v>
@@ -5631,13 +5632,13 @@
         <v>0</v>
       </c>
       <c r="BE28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH28" s="2">
         <v>0</v>
@@ -5664,16 +5665,16 @@
         <v>0</v>
       </c>
       <c r="BP28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR28" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">
@@ -5684,28 +5685,28 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="1">
-        <v>45298</v>
+        <v>45354</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -5714,10 +5715,10 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
@@ -5726,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
@@ -5735,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
@@ -5745,14 +5746,14 @@
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="2">
+        <v>1</v>
+      </c>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
@@ -5765,17 +5766,15 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO29" s="2">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45317</v>
+        <v>45370</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
@@ -5785,7 +5784,7 @@
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW29" s="2">
         <v>1</v>
@@ -5794,13 +5793,13 @@
         <v>0</v>
       </c>
       <c r="AY29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB29" s="2">
         <v>0</v>
@@ -5812,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="BE29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG29" s="2">
         <v>0</v>
@@ -5845,16 +5844,16 @@
         <v>0</v>
       </c>
       <c r="BP29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ29" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR29" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS29" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30">
@@ -5862,25 +5861,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30" s="1">
-        <v>45354</v>
+        <v>45069</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -5916,13 +5915,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -5933,7 +5932,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -5946,28 +5945,30 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO30" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>0</v>
+      </c>
       <c r="AP30" s="2"/>
       <c r="AQ30" s="2">
         <v>0</v>
       </c>
       <c r="AR30" s="1">
-        <v>45370</v>
+        <v>45089</v>
       </c>
       <c r="AS30" s="2">
         <v>1</v>
       </c>
       <c r="AT30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX30" s="2">
         <v>1</v>
@@ -6024,16 +6025,16 @@
         <v>0</v>
       </c>
       <c r="BP30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR30" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS30" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31">
@@ -6041,31 +6042,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F31" s="1">
-        <v>45354</v>
+        <v>45263</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -6074,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -6095,13 +6096,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -6112,7 +6113,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
@@ -6125,7 +6126,7 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
@@ -6133,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="AR31" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AS31" s="2">
         <v>1</v>
@@ -6143,10 +6144,10 @@
       </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW31" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX31" s="2">
         <v>1</v>
@@ -6155,10 +6156,10 @@
         <v>1</v>
       </c>
       <c r="AZ31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="2">
         <v>0</v>
@@ -6203,16 +6204,16 @@
         <v>0</v>
       </c>
       <c r="BP31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR31" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32">
@@ -6220,43 +6221,43 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F32" s="1">
-        <v>45029</v>
+        <v>45034</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>85</v>
       </c>
       <c r="K32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="2">
         <v>0</v>
       </c>
       <c r="N32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
         <v>0</v>
@@ -6265,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
@@ -6274,13 +6275,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -6291,9 +6292,11 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD32" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
@@ -6304,7 +6307,7 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AO32" s="2">
         <v>0</v>
@@ -6314,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="1">
-        <v>45050</v>
+        <v>45054</v>
       </c>
       <c r="AS32" s="2">
         <v>1</v>
@@ -6324,25 +6327,25 @@
       </c>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW32" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX32" s="2">
         <v>0</v>
       </c>
       <c r="AY32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ32" s="2">
         <v>0</v>
       </c>
       <c r="BA32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC32" s="2">
         <v>0</v>
@@ -6351,10 +6354,10 @@
         <v>0</v>
       </c>
       <c r="BE32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG32" s="2">
         <v>0</v>
@@ -6384,16 +6387,16 @@
         <v>0</v>
       </c>
       <c r="BP32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR32" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS32" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33">
@@ -6401,31 +6404,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" s="1">
-        <v>45354</v>
+        <v>45041</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -6434,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="M33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
@@ -6455,13 +6458,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -6472,7 +6475,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
@@ -6485,28 +6488,30 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO33" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>0</v>
+      </c>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
       <c r="AR33" s="1">
-        <v>45369</v>
+        <v>45062</v>
       </c>
       <c r="AS33" s="2">
         <v>1</v>
       </c>
       <c r="AT33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2">
         <v>3</v>
       </c>
       <c r="AW33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX33" s="2">
         <v>1</v>
@@ -6515,10 +6520,10 @@
         <v>1</v>
       </c>
       <c r="AZ33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="2">
         <v>0</v>
@@ -6563,16 +6568,16 @@
         <v>0</v>
       </c>
       <c r="BP33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ33" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34">
@@ -6580,31 +6585,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1">
         <v>45069</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -6634,13 +6639,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
@@ -6651,7 +6656,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
@@ -6664,7 +6669,7 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AO34" s="2">
         <v>0</v>
@@ -6674,35 +6679,35 @@
         <v>0</v>
       </c>
       <c r="AR34" s="1">
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="AS34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU34" s="2"/>
       <c r="AV34" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW34" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="2">
         <v>1</v>
       </c>
       <c r="AZ34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="2">
         <v>1</v>
       </c>
       <c r="BB34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC34" s="2">
         <v>0</v>
@@ -6744,16 +6749,16 @@
         <v>0</v>
       </c>
       <c r="BP34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR34" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS34" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35">
@@ -6761,31 +6766,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F35" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -6794,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
@@ -6815,13 +6820,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -6832,7 +6837,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
@@ -6845,17 +6850,15 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO35" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="2">
         <v>0</v>
       </c>
       <c r="AR35" s="1">
-        <v>45077</v>
+        <v>45369</v>
       </c>
       <c r="AS35" s="2">
         <v>1</v>
@@ -6865,10 +6868,10 @@
       </c>
       <c r="AU35" s="2"/>
       <c r="AV35" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AW35" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX35" s="2">
         <v>1</v>
@@ -6877,13 +6880,13 @@
         <v>1</v>
       </c>
       <c r="AZ35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA35" s="2">
         <v>1</v>
       </c>
       <c r="BB35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC35" s="2">
         <v>0</v>
@@ -6895,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="BF35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG35" s="2">
         <v>0</v>
@@ -6910,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL35" s="2">
         <v>0</v>
@@ -6925,16 +6928,16 @@
         <v>0</v>
       </c>
       <c r="BP35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR35" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS35" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36">
@@ -6942,31 +6945,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F36" s="1">
-        <v>45041</v>
+        <v>45252</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -6996,13 +6999,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U36" s="2">
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -7013,7 +7016,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
@@ -7026,15 +7029,17 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO36" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>0</v>
+      </c>
       <c r="AP36" s="2"/>
       <c r="AQ36" s="2">
         <v>0</v>
       </c>
       <c r="AR36" s="1">
-        <v>45062</v>
+        <v>45261</v>
       </c>
       <c r="AS36" s="2">
         <v>1</v>
@@ -7044,10 +7049,10 @@
       </c>
       <c r="AU36" s="2"/>
       <c r="AV36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW36" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX36" s="2">
         <v>1</v>
@@ -7056,10 +7061,10 @@
         <v>1</v>
       </c>
       <c r="AZ36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="2">
         <v>0</v>
@@ -7074,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="BF36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG36" s="2">
         <v>0</v>
@@ -7104,16 +7109,16 @@
         <v>0</v>
       </c>
       <c r="BP36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ36" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37">
@@ -7121,31 +7126,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1">
-        <v>45252</v>
+        <v>45329</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -7175,13 +7180,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -7192,7 +7197,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
@@ -7201,11 +7206,13 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
+      <c r="AK37" s="2">
+        <v>1</v>
+      </c>
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
@@ -7213,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="AR37" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="AS37" s="2">
         <v>1</v>
@@ -7226,10 +7233,10 @@
         <v>3</v>
       </c>
       <c r="AW37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY37" s="2">
         <v>1</v>
@@ -7283,16 +7290,16 @@
         <v>0</v>
       </c>
       <c r="BP37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ37" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS37" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38">
@@ -7300,31 +7307,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F38" s="1">
-        <v>45270</v>
+        <v>45328</v>
       </c>
       <c r="G38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -7333,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="M38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -7354,13 +7361,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="U38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -7371,7 +7378,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
@@ -7384,7 +7391,7 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
@@ -7392,20 +7399,20 @@
         <v>0</v>
       </c>
       <c r="AR38" s="1">
-        <v>45308</v>
+        <v>45336</v>
       </c>
       <c r="AS38" s="2">
         <v>1</v>
       </c>
       <c r="AT38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="2"/>
       <c r="AV38" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW38" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX38" s="2">
         <v>1</v>
@@ -7462,16 +7469,16 @@
         <v>0</v>
       </c>
       <c r="BP38" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ38" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR38" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS38" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39">
@@ -7479,31 +7486,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F39" s="1">
-        <v>45270</v>
+        <v>45026</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K39" s="2">
         <v>1</v>
@@ -7533,24 +7540,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
-      <c r="Y39" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
@@ -7563,15 +7568,17 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO39" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>0</v>
+      </c>
       <c r="AP39" s="2"/>
       <c r="AQ39" s="2">
         <v>0</v>
       </c>
       <c r="AR39" s="1">
-        <v>45308</v>
+        <v>45032</v>
       </c>
       <c r="AS39" s="2">
         <v>1</v>
@@ -7581,7 +7588,7 @@
       </c>
       <c r="AU39" s="2"/>
       <c r="AV39" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AW39" s="2">
         <v>3</v>
@@ -7611,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="BF39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG39" s="2">
         <v>0</v>
@@ -7626,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="BK39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL39" s="2">
         <v>0</v>
@@ -7641,16 +7648,16 @@
         <v>0</v>
       </c>
       <c r="BP39" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ39" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR39" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS39" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
@@ -7658,31 +7665,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F40" s="1">
-        <v>45252</v>
+        <v>45270</v>
       </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -7691,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
@@ -7712,51 +7719,45 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U40" s="2">
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
+      <c r="Y40" s="2">
+        <v>1</v>
+      </c>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="AD40" s="2"/>
-      <c r="AE40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
-      <c r="AM40" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM40" s="2"/>
       <c r="AN40" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO40" s="2">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
       <c r="AQ40" s="2">
         <v>0</v>
       </c>
       <c r="AR40" s="1">
-        <v>45259</v>
+        <v>45308</v>
       </c>
       <c r="AS40" s="2">
         <v>1</v>
@@ -7766,10 +7767,10 @@
       </c>
       <c r="AU40" s="2"/>
       <c r="AV40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX40" s="2">
         <v>1</v>
@@ -7778,10 +7779,10 @@
         <v>1</v>
       </c>
       <c r="AZ40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB40" s="2">
         <v>0</v>
@@ -7826,16 +7827,16 @@
         <v>0</v>
       </c>
       <c r="BP40" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ40" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR40" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS40" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41">
@@ -7843,31 +7844,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F41" s="1">
         <v>45340</v>
       </c>
       <c r="G41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K41" s="2">
         <v>1</v>
@@ -7897,13 +7898,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -7914,7 +7915,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
@@ -7927,7 +7928,7 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AO41" s="2">
         <v>0</v>
@@ -8007,16 +8008,16 @@
         <v>0</v>
       </c>
       <c r="BP41" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR41" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS41" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42">
@@ -8024,31 +8025,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F42" s="1">
-        <v>45319</v>
+        <v>45034</v>
       </c>
       <c r="G42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K42" s="2">
         <v>1</v>
@@ -8057,7 +8058,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -8078,13 +8079,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -8095,9 +8096,11 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD42" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>0</v>
+      </c>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
@@ -8108,17 +8111,17 @@
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AO42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="2"/>
       <c r="AQ42" s="2">
         <v>0</v>
       </c>
       <c r="AR42" s="1">
-        <v>45336</v>
+        <v>45050</v>
       </c>
       <c r="AS42" s="2">
         <v>1</v>
@@ -8128,10 +8131,10 @@
       </c>
       <c r="AU42" s="2"/>
       <c r="AV42" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW42" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX42" s="2">
         <v>1</v>
@@ -8140,10 +8143,10 @@
         <v>1</v>
       </c>
       <c r="AZ42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="2">
         <v>0</v>
@@ -8161,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="BG42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH42" s="2">
         <v>0</v>
@@ -8188,16 +8191,16 @@
         <v>0</v>
       </c>
       <c r="BP42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ42" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43">
@@ -8205,31 +8208,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F43" s="1">
-        <v>45354</v>
+        <v>45315</v>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K43" s="2">
         <v>1</v>
@@ -8238,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
@@ -8259,13 +8262,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -8276,7 +8279,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
@@ -8289,7 +8292,7 @@
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
@@ -8297,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="1">
-        <v>45369</v>
+        <v>45336</v>
       </c>
       <c r="AS43" s="2">
         <v>1</v>
@@ -8307,13 +8310,13 @@
       </c>
       <c r="AU43" s="2"/>
       <c r="AV43" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW43" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY43" s="2">
         <v>1</v>
@@ -8340,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="BG43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH43" s="2">
         <v>0</v>
@@ -8367,16 +8370,16 @@
         <v>0</v>
       </c>
       <c r="BP43" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ43" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR43" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS43" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44">
@@ -8384,31 +8387,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F44" s="1">
-        <v>45034</v>
+        <v>45354</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K44" s="2">
         <v>1</v>
@@ -8417,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -8438,13 +8441,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -8455,11 +8458,9 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD44" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
@@ -8470,17 +8471,15 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO44" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="2">
         <v>0</v>
       </c>
       <c r="AR44" s="1">
-        <v>45050</v>
+        <v>45369</v>
       </c>
       <c r="AS44" s="2">
         <v>1</v>
@@ -8490,10 +8489,10 @@
       </c>
       <c r="AU44" s="2"/>
       <c r="AV44" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW44" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX44" s="2">
         <v>1</v>
@@ -8502,10 +8501,10 @@
         <v>1</v>
       </c>
       <c r="AZ44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB44" s="2">
         <v>0</v>
@@ -8550,16 +8549,16 @@
         <v>0</v>
       </c>
       <c r="BP44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ44" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR44" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS44" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45">
@@ -8567,31 +8566,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F45" s="1">
-        <v>45300</v>
+        <v>45263</v>
       </c>
       <c r="G45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
@@ -8600,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -8621,13 +8620,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U45" s="2">
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -8638,40 +8637,42 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
+      <c r="AK45" s="2">
+        <v>1</v>
+      </c>
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
       <c r="AN45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO45" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AO45" s="2">
+        <v>0</v>
+      </c>
       <c r="AP45" s="2"/>
       <c r="AQ45" s="2">
         <v>0</v>
       </c>
       <c r="AR45" s="1">
-        <v>45317</v>
+        <v>45294</v>
       </c>
       <c r="AS45" s="2">
         <v>1</v>
       </c>
       <c r="AT45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU45" s="2"/>
       <c r="AV45" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW45" s="2">
         <v>2</v>
@@ -8683,13 +8684,13 @@
         <v>1</v>
       </c>
       <c r="AZ45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="2">
         <v>1</v>
       </c>
       <c r="BB45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC45" s="2">
         <v>0</v>
@@ -8731,16 +8732,16 @@
         <v>0</v>
       </c>
       <c r="BP45" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ45" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR45" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS45" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46">
@@ -8748,31 +8749,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F46" s="1">
-        <v>45270</v>
+        <v>45354</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K46" s="2">
         <v>1</v>
@@ -8802,13 +8803,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U46" s="2">
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -8819,7 +8820,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
@@ -8832,7 +8833,7 @@
       <c r="AL46" s="2"/>
       <c r="AM46" s="2"/>
       <c r="AN46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
@@ -8840,20 +8841,20 @@
         <v>0</v>
       </c>
       <c r="AR46" s="1">
-        <v>45308</v>
+        <v>45369</v>
       </c>
       <c r="AS46" s="2">
         <v>1</v>
       </c>
       <c r="AT46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU46" s="2"/>
       <c r="AV46" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW46" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX46" s="2">
         <v>1</v>
@@ -8910,16 +8911,16 @@
         <v>0</v>
       </c>
       <c r="BP46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ46" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR46" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS46" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47">
@@ -8927,31 +8928,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F47" s="1">
-        <v>45349</v>
+        <v>45263</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K47" s="2">
         <v>1</v>
@@ -8960,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="M47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
@@ -8981,13 +8982,13 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
@@ -8996,7 +8997,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
@@ -9005,11 +9006,13 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
-      <c r="AK47" s="2"/>
+      <c r="AK47" s="2">
+        <v>1</v>
+      </c>
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
@@ -9017,20 +9020,20 @@
         <v>0</v>
       </c>
       <c r="AR47" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AS47" s="2">
         <v>1</v>
       </c>
       <c r="AT47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="2"/>
       <c r="AV47" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW47" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX47" s="2">
         <v>1</v>
@@ -9057,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG47" s="2">
         <v>0</v>
@@ -9087,16 +9090,16 @@
         <v>0</v>
       </c>
       <c r="BP47" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ47" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR47" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS47" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48">
@@ -9104,31 +9107,31 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F48" s="1">
-        <v>45365</v>
+        <v>45298</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K48" s="2">
         <v>1</v>
@@ -9158,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U48" s="2">
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -9175,7 +9178,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
@@ -9188,25 +9191,27 @@
       <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
       <c r="AN48" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO48" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AO48" s="2">
+        <v>0</v>
+      </c>
       <c r="AP48" s="2"/>
       <c r="AQ48" s="2">
         <v>0</v>
       </c>
       <c r="AR48" s="1">
-        <v>45394</v>
+        <v>45316</v>
       </c>
       <c r="AS48" s="2">
         <v>1</v>
       </c>
       <c r="AT48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU48" s="2"/>
       <c r="AV48" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW48" s="2">
         <v>3</v>
@@ -9251,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="BK48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL48" s="2">
         <v>0</v>
@@ -9266,16 +9271,16 @@
         <v>0</v>
       </c>
       <c r="BP48" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ48" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR48" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS48" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49">
@@ -9283,43 +9288,43 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F49" s="1">
-        <v>45045</v>
+        <v>45270</v>
       </c>
       <c r="G49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" s="2">
         <v>0</v>
@@ -9328,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="2">
         <v>0</v>
@@ -9337,13 +9342,13 @@
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="U49" s="2">
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
@@ -9354,7 +9359,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
@@ -9367,17 +9372,15 @@
       <c r="AL49" s="2"/>
       <c r="AM49" s="2"/>
       <c r="AN49" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO49" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
       <c r="AQ49" s="2">
         <v>0</v>
       </c>
       <c r="AR49" s="1">
-        <v>45062</v>
+        <v>45308</v>
       </c>
       <c r="AS49" s="2">
         <v>1</v>
@@ -9387,22 +9390,22 @@
       </c>
       <c r="AU49" s="2"/>
       <c r="AV49" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW49" s="2">
         <v>3</v>
       </c>
-      <c r="AW49" s="2">
-        <v>1</v>
-      </c>
       <c r="AX49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB49" s="2">
         <v>0</v>
@@ -9414,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="BE49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG49" s="2">
         <v>0</v>
@@ -9447,16 +9450,16 @@
         <v>0</v>
       </c>
       <c r="BP49" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ49" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50">
@@ -9464,31 +9467,31 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F50" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K50" s="2">
         <v>1</v>
@@ -9497,7 +9500,7 @@
         <v>1</v>
       </c>
       <c r="M50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="2">
         <v>0</v>
@@ -9518,13 +9521,13 @@
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U50" s="2">
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
@@ -9535,7 +9538,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -9548,7 +9551,7 @@
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
@@ -9556,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="AR50" s="1">
-        <v>45077</v>
+        <v>45370</v>
       </c>
       <c r="AS50" s="2">
         <v>1</v>
@@ -9566,10 +9569,10 @@
       </c>
       <c r="AU50" s="2"/>
       <c r="AV50" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW50" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX50" s="2">
         <v>1</v>
@@ -9578,13 +9581,13 @@
         <v>1</v>
       </c>
       <c r="AZ50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA50" s="2">
         <v>1</v>
       </c>
       <c r="BB50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC50" s="2">
         <v>0</v>
@@ -9596,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="BF50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG50" s="2">
         <v>0</v>
@@ -9611,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="BK50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL50" s="2">
         <v>0</v>
@@ -9626,16 +9629,16 @@
         <v>0</v>
       </c>
       <c r="BP50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ50" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS50" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51">
@@ -9643,31 +9646,31 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F51" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K51" s="2">
         <v>1</v>
@@ -9676,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="M51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="2">
         <v>0</v>
@@ -9697,45 +9700,51 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U51" s="2">
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
-      <c r="Y51" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
+      <c r="AE51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>1</v>
+      </c>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
-      <c r="AM51" s="2"/>
+      <c r="AM51" s="2">
+        <v>1</v>
+      </c>
       <c r="AN51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO51" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AO51" s="2">
+        <v>1</v>
+      </c>
       <c r="AP51" s="2"/>
       <c r="AQ51" s="2">
         <v>0</v>
       </c>
       <c r="AR51" s="1">
-        <v>45370</v>
+        <v>45259</v>
       </c>
       <c r="AS51" s="2">
         <v>1</v>
@@ -9757,10 +9766,10 @@
         <v>1</v>
       </c>
       <c r="AZ51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="2">
         <v>0</v>
@@ -9805,16 +9814,16 @@
         <v>0</v>
       </c>
       <c r="BP51" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ51" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR51" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS51" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52">
@@ -9822,49 +9831,49 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F52" s="1">
-        <v>45333</v>
+        <v>45034</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
       </c>
       <c r="N52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="2">
         <v>0</v>
       </c>
       <c r="P52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="2">
         <v>0</v>
@@ -9876,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
@@ -9886,14 +9895,14 @@
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
+      <c r="Y52" s="2">
+        <v>1</v>
+      </c>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
       <c r="AC52" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AD52" s="2">
         <v>0</v>
@@ -9908,7 +9917,7 @@
       <c r="AL52" s="2"/>
       <c r="AM52" s="2"/>
       <c r="AN52" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AO52" s="2">
         <v>0</v>
@@ -9918,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="AR52" s="1">
-        <v>45364</v>
+        <v>45050</v>
       </c>
       <c r="AS52" s="2">
         <v>1</v>
@@ -9934,10 +9943,10 @@
         <v>2</v>
       </c>
       <c r="AX52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ52" s="2">
         <v>0</v>
@@ -9949,10 +9958,10 @@
         <v>0</v>
       </c>
       <c r="BC52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE52" s="2">
         <v>0</v>
@@ -9988,16 +9997,16 @@
         <v>0</v>
       </c>
       <c r="BP52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ52" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR52" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS52" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53">
@@ -10005,31 +10014,31 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F53" s="1">
-        <v>45354</v>
+        <v>45069</v>
       </c>
       <c r="G53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K53" s="2">
         <v>1</v>
@@ -10038,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="M53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="2">
         <v>0</v>
@@ -10059,13 +10068,13 @@
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U53" s="2">
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
@@ -10076,10 +10085,12 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
       <c r="AC53" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
+      <c r="AE53" s="2">
+        <v>1</v>
+      </c>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
@@ -10089,7 +10100,7 @@
       <c r="AL53" s="2"/>
       <c r="AM53" s="2"/>
       <c r="AN53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
@@ -10097,23 +10108,23 @@
         <v>0</v>
       </c>
       <c r="AR53" s="1">
-        <v>45394</v>
+        <v>45089</v>
       </c>
       <c r="AS53" s="2">
         <v>1</v>
       </c>
       <c r="AT53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU53" s="2"/>
       <c r="AV53" s="2">
         <v>2</v>
       </c>
       <c r="AW53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY53" s="2">
         <v>1</v>
@@ -10167,16 +10178,16 @@
         <v>0</v>
       </c>
       <c r="BP53" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ53" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR53" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS53" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54">
@@ -10184,31 +10195,31 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F54" s="1">
-        <v>45312</v>
+        <v>45354</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K54" s="2">
         <v>1</v>
@@ -10217,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="M54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" s="2">
         <v>0</v>
@@ -10238,13 +10249,13 @@
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U54" s="2">
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
@@ -10255,11 +10266,9 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
       <c r="AC54" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD54" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
@@ -10270,7 +10279,7 @@
       <c r="AL54" s="2"/>
       <c r="AM54" s="2"/>
       <c r="AN54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
@@ -10278,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="AR54" s="1">
-        <v>45348</v>
+        <v>45369</v>
       </c>
       <c r="AS54" s="2">
         <v>1</v>
@@ -10288,10 +10297,10 @@
       </c>
       <c r="AU54" s="2"/>
       <c r="AV54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX54" s="2">
         <v>1</v>
@@ -10300,10 +10309,10 @@
         <v>1</v>
       </c>
       <c r="AZ54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB54" s="2">
         <v>0</v>
@@ -10348,16 +10357,16 @@
         <v>0</v>
       </c>
       <c r="BP54" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ54" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR54" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS54" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55">
@@ -10365,31 +10374,31 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F55" s="1">
-        <v>45034</v>
+        <v>45060</v>
       </c>
       <c r="G55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K55" s="2">
         <v>1</v>
@@ -10398,7 +10407,7 @@
         <v>1</v>
       </c>
       <c r="M55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="2">
         <v>0</v>
@@ -10419,13 +10428,13 @@
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="U55" s="2">
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
@@ -10436,11 +10445,9 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD55" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
@@ -10451,17 +10458,15 @@
       <c r="AL55" s="2"/>
       <c r="AM55" s="2"/>
       <c r="AN55" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO55" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
       <c r="AQ55" s="2">
         <v>0</v>
       </c>
       <c r="AR55" s="1">
-        <v>45050</v>
+        <v>45089</v>
       </c>
       <c r="AS55" s="2">
         <v>1</v>
@@ -10471,10 +10476,10 @@
       </c>
       <c r="AU55" s="2"/>
       <c r="AV55" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW55" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX55" s="2">
         <v>1</v>
@@ -10486,10 +10491,10 @@
         <v>0</v>
       </c>
       <c r="BA55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC55" s="2">
         <v>0</v>
@@ -10531,16 +10536,16 @@
         <v>0</v>
       </c>
       <c r="BP55" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ55" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS55" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56">
@@ -10551,40 +10556,40 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F56" s="1">
-        <v>45312</v>
+        <v>45272</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I56" s="2">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K56" s="2">
         <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="2">
         <v>0</v>
       </c>
       <c r="N56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="2">
         <v>0</v>
@@ -10593,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="2">
         <v>0</v>
@@ -10602,13 +10607,13 @@
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="U56" s="2">
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
@@ -10619,55 +10624,57 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
       <c r="AC56" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AD56" s="2"/>
-      <c r="AE56" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
-      <c r="AI56" s="2"/>
+      <c r="AI56" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ56" s="2"/>
       <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
       <c r="AM56" s="2"/>
       <c r="AN56" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO56" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AO56" s="2">
+        <v>0</v>
+      </c>
       <c r="AP56" s="2"/>
       <c r="AQ56" s="2">
         <v>0</v>
       </c>
       <c r="AR56" s="1">
-        <v>45316</v>
+        <v>45294</v>
       </c>
       <c r="AS56" s="2">
         <v>1</v>
       </c>
       <c r="AT56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU56" s="2"/>
       <c r="AV56" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW56" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY56" s="2">
         <v>1</v>
       </c>
       <c r="AZ56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB56" s="2">
         <v>0</v>
@@ -10679,13 +10686,13 @@
         <v>0</v>
       </c>
       <c r="BE56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH56" s="2">
         <v>0</v>
@@ -10712,16 +10719,16 @@
         <v>0</v>
       </c>
       <c r="BP56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ56" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR56" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS56" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57">
@@ -10732,28 +10739,28 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F57" s="1">
-        <v>45263</v>
+        <v>45312</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K57" s="2">
         <v>1</v>
@@ -10783,13 +10790,13 @@
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U57" s="2">
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
@@ -10800,9 +10807,11 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
       <c r="AC57" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD57" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>0</v>
+      </c>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
@@ -10813,7 +10822,7 @@
       <c r="AL57" s="2"/>
       <c r="AM57" s="2"/>
       <c r="AN57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
@@ -10821,20 +10830,20 @@
         <v>0</v>
       </c>
       <c r="AR57" s="1">
-        <v>45294</v>
+        <v>45348</v>
       </c>
       <c r="AS57" s="2">
         <v>1</v>
       </c>
       <c r="AT57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU57" s="2"/>
       <c r="AV57" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW57" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX57" s="2">
         <v>1</v>
@@ -10891,16 +10900,16 @@
         <v>0</v>
       </c>
       <c r="BP57" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ57" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS57" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58">
@@ -10908,31 +10917,31 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F58" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I58" s="2">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K58" s="2">
         <v>1</v>
@@ -10962,13 +10971,13 @@
         <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U58" s="2">
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
@@ -10979,7 +10988,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
       <c r="AC58" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
@@ -10992,7 +11001,7 @@
       <c r="AL58" s="2"/>
       <c r="AM58" s="2"/>
       <c r="AN58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
@@ -11000,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="AR58" s="1">
-        <v>45369</v>
+        <v>45260</v>
       </c>
       <c r="AS58" s="2">
         <v>1</v>
@@ -11010,13 +11019,13 @@
       </c>
       <c r="AU58" s="2"/>
       <c r="AV58" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW58" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="2">
         <v>1</v>
@@ -11070,16 +11079,16 @@
         <v>0</v>
       </c>
       <c r="BP58" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BQ58" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR58" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS58" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59">
@@ -11087,31 +11096,31 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F59" s="1">
-        <v>45326</v>
+        <v>45365</v>
       </c>
       <c r="G59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K59" s="2">
         <v>1</v>
@@ -11141,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="T59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U59" s="2">
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
@@ -11158,20 +11167,22 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
       <c r="AC59" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
-      <c r="AH59" s="2"/>
+      <c r="AH59" s="2">
+        <v>1</v>
+      </c>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="2"/>
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
       <c r="AM59" s="2"/>
       <c r="AN59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
@@ -11179,86 +11190,444 @@
         <v>0</v>
       </c>
       <c r="AR59" s="1">
-        <v>45336</v>
+        <v>45399</v>
       </c>
       <c r="AS59" s="2">
         <v>1</v>
       </c>
       <c r="AT59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU59" s="2"/>
       <c r="AV59" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP59" t="s">
+        <v>167</v>
+      </c>
+      <c r="BQ59" t="s">
+        <v>170</v>
+      </c>
+      <c r="BR59" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="1">
+        <v>45041</v>
+      </c>
+      <c r="G60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>85</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0</v>
+      </c>
+      <c r="R60" s="2">
+        <v>0</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0</v>
+      </c>
+      <c r="T60" t="s">
+        <v>77</v>
+      </c>
+      <c r="U60" s="2">
+        <v>0</v>
+      </c>
+      <c r="V60" t="s">
+        <v>107</v>
+      </c>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="2"/>
+      <c r="AM60" s="2"/>
+      <c r="AN60" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO60" s="2"/>
+      <c r="AP60" s="2"/>
+      <c r="AQ60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="1">
+        <v>45077</v>
+      </c>
+      <c r="AS60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU60" s="2"/>
+      <c r="AV60" s="2">
+        <v>9</v>
+      </c>
+      <c r="AW60" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ60" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA60" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB60" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC60" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD60" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE60" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF60" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG60" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH60" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI60" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ60" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK60" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL60" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM60" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN60" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO60" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP60" t="s">
+        <v>167</v>
+      </c>
+      <c r="BQ60" t="s">
+        <v>170</v>
+      </c>
+      <c r="BR60" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="1">
+        <v>45326</v>
+      </c>
+      <c r="G61" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" t="s">
+        <v>76</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>82</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>0</v>
+      </c>
+      <c r="R61" s="2">
+        <v>0</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0</v>
+      </c>
+      <c r="T61" t="s">
+        <v>77</v>
+      </c>
+      <c r="U61" s="2">
+        <v>0</v>
+      </c>
+      <c r="V61" t="s">
+        <v>107</v>
+      </c>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2"/>
+      <c r="AL61" s="2"/>
+      <c r="AM61" s="2"/>
+      <c r="AN61" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO61" s="2"/>
+      <c r="AP61" s="2"/>
+      <c r="AQ61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR61" s="1">
+        <v>45336</v>
+      </c>
+      <c r="AS61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU61" s="2"/>
+      <c r="AV61" s="2">
         <v>3</v>
       </c>
-      <c r="AW59" s="2">
+      <c r="AW61" s="2">
         <v>3</v>
       </c>
-      <c r="AX59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ59" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA59" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP59" t="s">
-        <v>165</v>
-      </c>
-      <c r="BQ59" t="s">
-        <v>167</v>
-      </c>
-      <c r="BR59" t="s">
+      <c r="AX61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ61" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA61" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP61" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ61" t="s">
         <v>170</v>
       </c>
-      <c r="BS59" t="s">
+      <c r="BR61" t="s">
         <v>173</v>
+      </c>
+      <c r="BS61" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -18,180 +18,180 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600604</t>
+  </si>
+  <si>
+    <t>600398</t>
+  </si>
+  <si>
+    <t>600383</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>600374</t>
+  </si>
+  <si>
+    <t>600947</t>
+  </si>
+  <si>
+    <t>600758</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
+    <t>600366</t>
+  </si>
+  <si>
+    <t>600346</t>
+  </si>
+  <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>600672</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>600812</t>
+  </si>
+  <si>
+    <t>600996</t>
+  </si>
+  <si>
+    <t>500025</t>
+  </si>
+  <si>
+    <t>500906</t>
+  </si>
+  <si>
+    <t>600381</t>
+  </si>
+  <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
     <t>500454</t>
   </si>
   <si>
-    <t>600388</t>
-  </si>
-  <si>
-    <t>600604</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>600682</t>
-  </si>
-  <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>500091</t>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
+    <t>600322</t>
+  </si>
+  <si>
+    <t>600310</t>
+  </si>
+  <si>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>600614</t>
+  </si>
+  <si>
+    <t>600775</t>
+  </si>
+  <si>
+    <t>600360</t>
   </si>
   <si>
     <t>600326</t>
   </si>
   <si>
+    <t>600611</t>
+  </si>
+  <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>400238</t>
+  </si>
+  <si>
     <t>600776</t>
   </si>
   <si>
-    <t>600360</t>
-  </si>
-  <si>
-    <t>600947</t>
-  </si>
-  <si>
-    <t>600780</t>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>500684</t>
+  </si>
+  <si>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>600687</t>
   </si>
   <si>
     <t>600961</t>
   </si>
   <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>600812</t>
-  </si>
-  <si>
-    <t>600758</t>
-  </si>
-  <si>
     <t>600640</t>
   </si>
   <si>
-    <t>600614</t>
-  </si>
-  <si>
-    <t>600346</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>600982</t>
-  </si>
-  <si>
-    <t>600396</t>
+    <t>600727</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
+    <t>600699</t>
   </si>
   <si>
     <t>500355</t>
   </si>
   <si>
-    <t>600786</t>
-  </si>
-  <si>
-    <t>500221</t>
-  </si>
-  <si>
-    <t>600322</t>
-  </si>
-  <si>
-    <t>600775</t>
-  </si>
-  <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>500951</t>
-  </si>
-  <si>
-    <t>600398</t>
-  </si>
-  <si>
-    <t>400230</t>
-  </si>
-  <si>
-    <t>500901</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>600602</t>
-  </si>
-  <si>
-    <t>600366</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>400224</t>
-  </si>
-  <si>
-    <t>600383</t>
-  </si>
-  <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>400238</t>
-  </si>
-  <si>
-    <t>600610</t>
-  </si>
-  <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>600611</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>600703</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>600374</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>500025</t>
-  </si>
-  <si>
-    <t>600309</t>
-  </si>
-  <si>
-    <t>600687</t>
-  </si>
-  <si>
-    <t>600310</t>
-  </si>
-  <si>
-    <t>600996</t>
-  </si>
-  <si>
     <t>500005</t>
   </si>
   <si>
@@ -225,12 +225,12 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>spatula</t>
   </si>
   <si>
@@ -246,22 +246,28 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>cocaine; fentanyl</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>xylazine; fentanyl</t>
   </si>
   <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>cocaine; fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
+    <t>fentanyl; crack</t>
   </si>
   <si>
     <t>cocaine; crack</t>
@@ -270,12 +276,6 @@
     <t>cocaine</t>
   </si>
   <si>
-    <t>fentanyl; crack</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -312,24 +312,24 @@
     <t>pink</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>gray</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>rock; crystals</t>
   </si>
   <si>
@@ -357,28 +357,28 @@
     <t>long; unpleasant; hallucinations</t>
   </si>
   <si>
+    <t>unpleasant; hallucinations</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
     <t>stronger</t>
   </si>
   <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>unpleasant; hallucinations</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>sedating</t>
   </si>
   <si>
     <t>weird; sedating</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -656,13 +656,13 @@
         <v>109</v>
       </c>
       <c r="X1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y1" t="s">
         <v>110</v>
       </c>
       <c r="Z1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA1" t="s">
         <v>111</v>
@@ -811,7 +811,7 @@
         <v>67</v>
       </c>
       <c r="E2" s="1">
-        <v>45069</v>
+        <v>45260</v>
       </c>
       <c r="F2" t="s">
         <v>70</v>
@@ -820,19 +820,19 @@
         <v>70</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>77</v>
       </c>
       <c r="J2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="R2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
@@ -863,62 +863,66 @@
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2">
-        <v>1</v>
-      </c>
+      <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
       <c r="AA2" s="2"/>
       <c r="AB2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
+      <c r="AD2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
+      <c r="AI2" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2">
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>45096</v>
+        <v>45316</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
       </c>
       <c r="AS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
         <v>0</v>
@@ -957,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="BM2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO2" t="s">
         <v>163</v>
@@ -989,7 +993,7 @@
         <v>67</v>
       </c>
       <c r="E3" s="1">
-        <v>45244</v>
+        <v>45263</v>
       </c>
       <c r="F3" t="s">
         <v>70</v>
@@ -1010,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1037,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1061,7 +1065,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
@@ -1069,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>45260</v>
+        <v>45294</v>
       </c>
       <c r="AR3" s="2">
         <v>1</v>
@@ -1082,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="AV3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
         <v>1</v>
@@ -1091,10 +1095,10 @@
         <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="2">
         <v>0</v>
@@ -1165,7 +1169,7 @@
         <v>67</v>
       </c>
       <c r="E4" s="1">
-        <v>45260</v>
+        <v>45270</v>
       </c>
       <c r="F4" t="s">
         <v>71</v>
@@ -1174,19 +1178,19 @@
         <v>71</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>79</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1204,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
@@ -1217,33 +1221,27 @@
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="AC4" s="2"/>
-      <c r="AD4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
-      <c r="AI4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
@@ -1251,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>45316</v>
+        <v>45308</v>
       </c>
       <c r="AR4" s="2">
         <v>1</v>
@@ -1261,22 +1259,22 @@
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1315,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="BM4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="s">
         <v>163</v>
@@ -1347,7 +1345,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="1">
-        <v>45354</v>
+        <v>45298</v>
       </c>
       <c r="F5" t="s">
         <v>72</v>
@@ -1359,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -1395,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -1419,25 +1417,27 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN5" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0</v>
+      </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2">
         <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>45370</v>
+        <v>45316</v>
       </c>
       <c r="AR5" s="2">
         <v>1</v>
       </c>
       <c r="AS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV5" s="2">
         <v>3</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5" s="2">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>67</v>
       </c>
       <c r="E6" s="1">
-        <v>45312</v>
+        <v>45041</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1565,13 +1565,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1582,12 +1582,10 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -1597,15 +1595,17 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN6" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0</v>
+      </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2">
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>45316</v>
+        <v>45077</v>
       </c>
       <c r="AR6" s="2">
         <v>1</v>
@@ -1615,13 +1615,13 @@
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
         <v>1</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK6" s="2">
         <v>0</v>
@@ -1701,19 +1701,19 @@
         <v>67</v>
       </c>
       <c r="E7" s="1">
-        <v>45354</v>
+        <v>45244</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1773,7 +1773,7 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>45369</v>
+        <v>45260</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
@@ -1791,10 +1791,10 @@
       </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW7" s="2">
         <v>1</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK7" s="2">
         <v>0</v>
@@ -1877,19 +1877,19 @@
         <v>67</v>
       </c>
       <c r="E8" s="1">
-        <v>45041</v>
+        <v>45365</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -1949,27 +1949,25 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>45077</v>
+        <v>45394</v>
       </c>
       <c r="AR8" s="2">
         <v>1</v>
       </c>
       <c r="AS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AV8" s="2">
         <v>3</v>
@@ -1981,13 +1979,13 @@
         <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
         <v>1</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
@@ -1999,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2014,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK8" s="2">
         <v>0</v>
@@ -2055,16 +2053,16 @@
         <v>67</v>
       </c>
       <c r="E9" s="1">
-        <v>45270</v>
+        <v>45252</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>78</v>
@@ -2076,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -2103,49 +2101,55 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="2">
-        <v>1</v>
-      </c>
+      <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
+      <c r="AL9" s="2">
+        <v>1</v>
+      </c>
       <c r="AM9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN9" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>1</v>
+      </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2">
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>45308</v>
+        <v>45259</v>
       </c>
       <c r="AR9" s="2">
         <v>1</v>
       </c>
       <c r="AS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV9" s="2">
         <v>3</v>
@@ -2157,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2234,16 +2238,16 @@
         <v>45354</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2279,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -2303,7 +2307,7 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
@@ -2311,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>45369</v>
+        <v>45394</v>
       </c>
       <c r="AR10" s="2">
         <v>1</v>
@@ -2321,13 +2325,13 @@
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2407,13 +2411,13 @@
         <v>67</v>
       </c>
       <c r="E11" s="1">
-        <v>45252</v>
+        <v>45349</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -2428,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -2455,13 +2459,11 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="2">
-        <v>1</v>
-      </c>
+      <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -2479,7 +2481,7 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
@@ -2487,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
@@ -2497,11 +2499,11 @@
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV11" s="2">
         <v>3</v>
       </c>
-      <c r="AV11" s="2">
-        <v>2</v>
-      </c>
       <c r="AW11" s="2">
         <v>1</v>
       </c>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -2583,7 +2585,7 @@
         <v>67</v>
       </c>
       <c r="E12" s="1">
-        <v>45354</v>
+        <v>45312</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -2592,10 +2594,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2604,10 +2606,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -2616,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2625,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -2642,10 +2644,12 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
+      <c r="AD12" s="2">
+        <v>1</v>
+      </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -2655,7 +2659,7 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -2663,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>45394</v>
+        <v>45316</v>
       </c>
       <c r="AR12" s="2">
         <v>1</v>
@@ -2685,10 +2689,10 @@
         <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -2700,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
         <v>0</v>
@@ -2759,37 +2763,37 @@
         <v>67</v>
       </c>
       <c r="E13" s="1">
-        <v>45333</v>
+        <v>45270</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
@@ -2801,28 +2805,26 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
+      <c r="X13" s="2">
+        <v>1</v>
+      </c>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -2833,51 +2835,49 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN13" s="2">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2">
         <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <v>45364</v>
+        <v>45308</v>
       </c>
       <c r="AR13" s="2">
         <v>1</v>
       </c>
       <c r="AS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
       </c>
       <c r="BB13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="2">
         <v>0</v>
@@ -2942,16 +2942,16 @@
         <v>45354</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -3011,30 +3011,28 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN14" s="2">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2">
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>45394</v>
+        <v>45369</v>
       </c>
       <c r="AR14" s="2">
         <v>1</v>
       </c>
       <c r="AS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2">
         <v>4</v>
       </c>
       <c r="AV14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW14" s="2">
         <v>1</v>
@@ -3117,13 +3115,13 @@
         <v>67</v>
       </c>
       <c r="E15" s="1">
-        <v>45319</v>
+        <v>45300</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -3138,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3165,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -3176,10 +3174,12 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3189,30 +3189,28 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2">
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>45336</v>
+        <v>45317</v>
       </c>
       <c r="AR15" s="2">
         <v>1</v>
       </c>
       <c r="AS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW15" s="2">
         <v>1</v>
@@ -3242,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3295,16 +3293,16 @@
         <v>67</v>
       </c>
       <c r="E16" s="1">
-        <v>45365</v>
+        <v>45034</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
         <v>78</v>
@@ -3316,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3343,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -3354,9 +3352,11 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -3367,31 +3367,33 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN16" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>0</v>
+      </c>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2">
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>45399</v>
+        <v>45054</v>
       </c>
       <c r="AR16" s="2">
         <v>1</v>
       </c>
       <c r="AS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3400,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3471,19 +3473,19 @@
         <v>67</v>
       </c>
       <c r="E17" s="1">
-        <v>45349</v>
+        <v>45252</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -3519,11 +3521,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
+      <c r="X17" s="2">
+        <v>1</v>
+      </c>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -3541,15 +3545,17 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN17" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2">
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>45369</v>
+        <v>45261</v>
       </c>
       <c r="AR17" s="2">
         <v>1</v>
@@ -3559,10 +3565,10 @@
       </c>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="2">
         <v>1</v>
@@ -3571,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -3589,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -3645,19 +3651,19 @@
         <v>67</v>
       </c>
       <c r="E18" s="1">
-        <v>45354</v>
+        <v>45286</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -3693,20 +3699,20 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="2">
-        <v>1</v>
-      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>1</v>
+      </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -3717,15 +3723,17 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN18" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>1</v>
+      </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2">
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>45370</v>
+        <v>45308</v>
       </c>
       <c r="AR18" s="2">
         <v>1</v>
@@ -3735,13 +3743,13 @@
       </c>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -3821,28 +3829,28 @@
         <v>67</v>
       </c>
       <c r="E19" s="1">
-        <v>45354</v>
+        <v>45272</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -3869,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -3880,41 +3888,45 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
+      <c r="AH19" s="2">
+        <v>1</v>
+      </c>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN19" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>0</v>
+      </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2">
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AR19" s="2">
         <v>1</v>
       </c>
       <c r="AS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW19" s="2">
         <v>1</v>
@@ -3944,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -3997,19 +4009,19 @@
         <v>67</v>
       </c>
       <c r="E20" s="1">
-        <v>45286</v>
+        <v>45354</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -4045,20 +4057,20 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
@@ -4069,17 +4081,15 @@
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN20" s="2">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2">
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>45308</v>
+        <v>45370</v>
       </c>
       <c r="AR20" s="2">
         <v>1</v>
@@ -4089,13 +4099,13 @@
       </c>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV20" s="2">
         <v>3</v>
       </c>
-      <c r="AV20" s="2">
-        <v>1</v>
-      </c>
       <c r="AW20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4175,7 +4185,7 @@
         <v>67</v>
       </c>
       <c r="E21" s="1">
-        <v>45029</v>
+        <v>45354</v>
       </c>
       <c r="F21" t="s">
         <v>72</v>
@@ -4187,19 +4197,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -4208,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -4217,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -4247,42 +4257,40 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN21" s="2">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2">
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>45050</v>
+        <v>45370</v>
       </c>
       <c r="AR21" s="2">
         <v>1</v>
       </c>
       <c r="AS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
         <v>0</v>
@@ -4294,10 +4302,10 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="2">
         <v>0</v>
@@ -4353,37 +4361,37 @@
         <v>67</v>
       </c>
       <c r="E22" s="1">
-        <v>45365</v>
+        <v>45333</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
@@ -4395,26 +4403,28 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="2">
-        <v>1</v>
-      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="Z22" s="2">
+        <v>1</v>
+      </c>
       <c r="AA22" s="2"/>
       <c r="AB22" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
@@ -4425,15 +4435,17 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN22" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>0</v>
+      </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2">
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>45394</v>
+        <v>45364</v>
       </c>
       <c r="AR22" s="2">
         <v>1</v>
@@ -4443,31 +4455,31 @@
       </c>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
         <v>0</v>
       </c>
       <c r="BB22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD22" s="2">
         <v>0</v>
@@ -4529,19 +4541,19 @@
         <v>67</v>
       </c>
       <c r="E23" s="1">
-        <v>45270</v>
+        <v>45365</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -4571,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="T23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -4601,7 +4613,7 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
@@ -4609,20 +4621,20 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>45308</v>
+        <v>45399</v>
       </c>
       <c r="AR23" s="2">
         <v>1</v>
       </c>
       <c r="AS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV23" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW23" s="2">
         <v>1</v>
@@ -4631,10 +4643,10 @@
         <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
         <v>0</v>
@@ -4705,31 +4717,31 @@
         <v>67</v>
       </c>
       <c r="E24" s="1">
-        <v>45045</v>
+        <v>45365</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -4738,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -4747,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -4764,30 +4776,30 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
+      <c r="AG24" s="2">
+        <v>1</v>
+      </c>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN24" s="2">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2">
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>45062</v>
+        <v>45399</v>
       </c>
       <c r="AR24" s="2">
         <v>1</v>
@@ -4797,7 +4809,7 @@
       </c>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV24" s="2">
         <v>1</v>
@@ -4806,13 +4818,13 @@
         <v>0</v>
       </c>
       <c r="AX24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="2">
         <v>0</v>
@@ -4824,10 +4836,10 @@
         <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="2">
         <v>0</v>
@@ -4883,19 +4895,19 @@
         <v>67</v>
       </c>
       <c r="E25" s="1">
-        <v>45300</v>
+        <v>45060</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -4904,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -4925,13 +4937,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="T25" s="2">
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -4942,12 +4954,10 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -4957,7 +4967,7 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
@@ -4965,17 +4975,17 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>45317</v>
+        <v>45089</v>
       </c>
       <c r="AR25" s="2">
         <v>1</v>
       </c>
       <c r="AS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV25" s="2">
         <v>2</v>
@@ -4987,13 +4997,13 @@
         <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
         <v>1</v>
       </c>
       <c r="BA25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
@@ -5061,19 +5071,19 @@
         <v>67</v>
       </c>
       <c r="E26" s="1">
-        <v>45041</v>
+        <v>45069</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -5082,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -5109,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -5133,43 +5143,45 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN26" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>0</v>
+      </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2">
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>45062</v>
+        <v>45096</v>
       </c>
       <c r="AR26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="2">
         <v>1</v>
       </c>
       <c r="AY26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="2">
         <v>1</v>
       </c>
       <c r="BA26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="2">
         <v>0</v>
@@ -5181,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="2">
         <v>0</v>
@@ -5237,7 +5249,7 @@
         <v>67</v>
       </c>
       <c r="E27" s="1">
-        <v>45271</v>
+        <v>45263</v>
       </c>
       <c r="F27" t="s">
         <v>70</v>
@@ -5246,10 +5258,10 @@
         <v>70</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
@@ -5258,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -5285,37 +5297,33 @@
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="2">
-        <v>1</v>
-      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="AC27" s="2"/>
-      <c r="AD27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
+      <c r="AJ27" s="2">
+        <v>1</v>
+      </c>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN27" s="2">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2">
         <v>0</v>
@@ -5327,14 +5335,14 @@
         <v>1</v>
       </c>
       <c r="AS27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2">
         <v>4</v>
       </c>
       <c r="AV27" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW27" s="2">
         <v>1</v>
@@ -5417,7 +5425,7 @@
         <v>67</v>
       </c>
       <c r="E28" s="1">
-        <v>45298</v>
+        <v>45354</v>
       </c>
       <c r="F28" t="s">
         <v>72</v>
@@ -5426,10 +5434,10 @@
         <v>72</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -5438,10 +5446,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
@@ -5450,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -5459,21 +5467,21 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
+      <c r="X28" s="2">
+        <v>1</v>
+      </c>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" t="s">
         <v>73</v>
@@ -5489,17 +5497,15 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN28" s="2">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
       <c r="AP28" s="2">
         <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <v>45317</v>
+        <v>45369</v>
       </c>
       <c r="AR28" s="2">
         <v>1</v>
@@ -5509,22 +5515,22 @@
       </c>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV28" s="2">
         <v>3</v>
       </c>
-      <c r="AV28" s="2">
-        <v>1</v>
-      </c>
       <c r="AW28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA28" s="2">
         <v>0</v>
@@ -5536,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="BD28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF28" s="2">
         <v>0</v>
@@ -5554,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK28" s="2">
         <v>0</v>
@@ -5607,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -5643,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -5667,7 +5673,7 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
@@ -5774,16 +5780,16 @@
         <v>45069</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -5819,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
@@ -5853,20 +5859,20 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="AR30" s="2">
         <v>1</v>
       </c>
       <c r="AS30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="2"/>
       <c r="AU30" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW30" s="2">
         <v>1</v>
@@ -5949,7 +5955,7 @@
         <v>67</v>
       </c>
       <c r="E31" s="1">
-        <v>45263</v>
+        <v>45328</v>
       </c>
       <c r="F31" t="s">
         <v>71</v>
@@ -5961,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -5997,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -6021,7 +6027,7 @@
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
@@ -6029,20 +6035,20 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>45294</v>
+        <v>45336</v>
       </c>
       <c r="AR31" s="2">
         <v>1</v>
       </c>
       <c r="AS31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="2"/>
       <c r="AU31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW31" s="2">
         <v>1</v>
@@ -6051,10 +6057,10 @@
         <v>1</v>
       </c>
       <c r="AY31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA31" s="2">
         <v>0</v>
@@ -6128,16 +6134,16 @@
         <v>45034</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -6173,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -6184,7 +6190,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AC32" s="2">
         <v>0</v>
@@ -6209,23 +6215,23 @@
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>45054</v>
+        <v>45050</v>
       </c>
       <c r="AR32" s="2">
         <v>1</v>
       </c>
       <c r="AS32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX32" s="2">
         <v>1</v>
@@ -6234,10 +6240,10 @@
         <v>0</v>
       </c>
       <c r="AZ32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="2">
         <v>0</v>
@@ -6308,16 +6314,16 @@
         <v>45041</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -6353,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
@@ -6377,11 +6383,9 @@
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN33" s="2">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
       <c r="AP33" s="2">
         <v>0</v>
@@ -6409,10 +6413,10 @@
         <v>1</v>
       </c>
       <c r="AY33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA33" s="2">
         <v>0</v>
@@ -6427,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="BE33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF33" s="2">
         <v>0</v>
@@ -6483,19 +6487,19 @@
         <v>67</v>
       </c>
       <c r="E34" s="1">
-        <v>45069</v>
+        <v>45271</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -6504,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2">
         <v>0</v>
@@ -6531,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
@@ -6542,10 +6546,12 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
+      <c r="AD34" s="2">
+        <v>1</v>
+      </c>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
@@ -6565,35 +6571,35 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>45096</v>
+        <v>45294</v>
       </c>
       <c r="AR34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS34" s="2">
         <v>1</v>
       </c>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV34" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX34" s="2">
         <v>1</v>
       </c>
       <c r="AY34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ34" s="2">
         <v>1</v>
       </c>
       <c r="BA34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="2">
         <v>0</v>
@@ -6661,19 +6667,19 @@
         <v>67</v>
       </c>
       <c r="E35" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -6703,13 +6709,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
@@ -6733,7 +6739,7 @@
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN35" s="2"/>
       <c r="AO35" s="2"/>
@@ -6741,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>45369</v>
+        <v>45260</v>
       </c>
       <c r="AR35" s="2">
         <v>1</v>
@@ -6751,13 +6757,13 @@
       </c>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV35" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX35" s="2">
         <v>1</v>
@@ -6837,19 +6843,19 @@
         <v>67</v>
       </c>
       <c r="E36" s="1">
-        <v>45252</v>
+        <v>45270</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -6858,7 +6864,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -6885,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
@@ -6909,17 +6915,15 @@
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN36" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
       <c r="AP36" s="2">
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>45261</v>
+        <v>45308</v>
       </c>
       <c r="AR36" s="2">
         <v>1</v>
@@ -6929,10 +6933,10 @@
       </c>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV36" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW36" s="2">
         <v>1</v>
@@ -6941,10 +6945,10 @@
         <v>1</v>
       </c>
       <c r="AY36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA36" s="2">
         <v>0</v>
@@ -7015,19 +7019,19 @@
         <v>67</v>
       </c>
       <c r="E37" s="1">
-        <v>45329</v>
+        <v>45354</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -7063,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
@@ -7083,13 +7087,11 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
-      <c r="AJ37" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
@@ -7107,10 +7109,10 @@
       </c>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV37" s="2">
         <v>3</v>
-      </c>
-      <c r="AV37" s="2">
-        <v>2</v>
       </c>
       <c r="AW37" s="2">
         <v>1</v>
@@ -7193,19 +7195,19 @@
         <v>67</v>
       </c>
       <c r="E38" s="1">
-        <v>45328</v>
+        <v>45298</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -7217,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -7226,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="2">
         <v>0</v>
@@ -7235,21 +7237,21 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
-      <c r="X38" s="2">
-        <v>1</v>
-      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
+      <c r="Z38" s="2">
+        <v>1</v>
+      </c>
       <c r="AA38" s="2"/>
       <c r="AB38" t="s">
         <v>73</v>
@@ -7265,40 +7267,42 @@
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
       <c r="AM38" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN38" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>1</v>
+      </c>
       <c r="AO38" s="2"/>
       <c r="AP38" s="2">
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>45336</v>
+        <v>45317</v>
       </c>
       <c r="AR38" s="2">
         <v>1</v>
       </c>
       <c r="AS38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="2">
         <v>0</v>
@@ -7310,10 +7314,10 @@
         <v>0</v>
       </c>
       <c r="BD38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF38" s="2">
         <v>0</v>
@@ -7369,7 +7373,7 @@
         <v>67</v>
       </c>
       <c r="E39" s="1">
-        <v>45026</v>
+        <v>45252</v>
       </c>
       <c r="F39" t="s">
         <v>71</v>
@@ -7381,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
@@ -7417,11 +7421,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
+      <c r="X39" s="2">
+        <v>1</v>
+      </c>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
@@ -7439,17 +7445,15 @@
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN39" s="2">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2">
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>45032</v>
+        <v>45260</v>
       </c>
       <c r="AR39" s="2">
         <v>1</v>
@@ -7459,10 +7463,10 @@
       </c>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AV39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW39" s="2">
         <v>1</v>
@@ -7489,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="BE39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF39" s="2">
         <v>0</v>
@@ -7504,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="BJ39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK39" s="2">
         <v>0</v>
@@ -7548,16 +7552,16 @@
         <v>45270</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -7593,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
@@ -7617,7 +7621,7 @@
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
@@ -7631,14 +7635,14 @@
         <v>1</v>
       </c>
       <c r="AS40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2">
         <v>4</v>
       </c>
       <c r="AV40" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW40" s="2">
         <v>1</v>
@@ -7721,7 +7725,7 @@
         <v>67</v>
       </c>
       <c r="E41" s="1">
-        <v>45340</v>
+        <v>45354</v>
       </c>
       <c r="F41" t="s">
         <v>72</v>
@@ -7733,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -7769,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
@@ -7793,11 +7797,9 @@
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN41" s="2">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="2">
         <v>0</v>
@@ -7809,14 +7811,14 @@
         <v>1</v>
       </c>
       <c r="AS41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2">
         <v>3</v>
       </c>
       <c r="AV41" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW41" s="2">
         <v>1</v>
@@ -7899,31 +7901,31 @@
         <v>67</v>
       </c>
       <c r="E42" s="1">
-        <v>45034</v>
+        <v>45029</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -7932,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="2">
         <v>0</v>
@@ -7941,13 +7943,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
@@ -7958,11 +7960,9 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC42" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
@@ -7996,13 +7996,13 @@
         <v>4</v>
       </c>
       <c r="AV42" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY42" s="2">
         <v>0</v>
@@ -8020,10 +8020,10 @@
         <v>0</v>
       </c>
       <c r="BD42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF42" s="2">
         <v>0</v>
@@ -8079,19 +8079,19 @@
         <v>67</v>
       </c>
       <c r="E43" s="1">
-        <v>45315</v>
+        <v>45034</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
@@ -8138,9 +8138,11 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
@@ -8151,15 +8153,17 @@
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN43" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>0</v>
+      </c>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2">
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>45336</v>
+        <v>45050</v>
       </c>
       <c r="AR43" s="2">
         <v>1</v>
@@ -8169,22 +8173,22 @@
       </c>
       <c r="AT43" s="2"/>
       <c r="AU43" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX43" s="2">
         <v>1</v>
       </c>
       <c r="AY43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="2">
         <v>0</v>
@@ -8202,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="BF43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG43" s="2">
         <v>0</v>
@@ -8258,16 +8262,16 @@
         <v>45354</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -8303,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
@@ -8327,7 +8331,7 @@
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
@@ -8341,14 +8345,14 @@
         <v>1</v>
       </c>
       <c r="AS44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44" s="2"/>
       <c r="AU44" s="2">
         <v>4</v>
       </c>
       <c r="AV44" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW44" s="2">
         <v>1</v>
@@ -8431,7 +8435,7 @@
         <v>67</v>
       </c>
       <c r="E45" s="1">
-        <v>45263</v>
+        <v>45069</v>
       </c>
       <c r="F45" t="s">
         <v>71</v>
@@ -8443,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -8479,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
@@ -8499,9 +8503,7 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
-      <c r="AJ45" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ45" s="2"/>
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" t="s">
@@ -8515,20 +8517,20 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>45294</v>
+        <v>45089</v>
       </c>
       <c r="AR45" s="2">
         <v>1</v>
       </c>
       <c r="AS45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV45" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW45" s="2">
         <v>1</v>
@@ -8537,13 +8539,13 @@
         <v>1</v>
       </c>
       <c r="AY45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ45" s="2">
         <v>1</v>
       </c>
       <c r="BA45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="2">
         <v>0</v>
@@ -8611,16 +8613,16 @@
         <v>67</v>
       </c>
       <c r="E46" s="1">
-        <v>45354</v>
+        <v>45069</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
         <v>78</v>
@@ -8632,7 +8634,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="2">
         <v>0</v>
@@ -8659,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
@@ -8670,10 +8672,12 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
+      <c r="AD46" s="2">
+        <v>1</v>
+      </c>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
@@ -8683,7 +8687,7 @@
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
       <c r="AM46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
@@ -8691,17 +8695,17 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>45369</v>
+        <v>45089</v>
       </c>
       <c r="AR46" s="2">
         <v>1</v>
       </c>
       <c r="AS46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV46" s="2">
         <v>2</v>
@@ -8787,19 +8791,19 @@
         <v>67</v>
       </c>
       <c r="E47" s="1">
-        <v>45263</v>
+        <v>45319</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -8835,11 +8839,13 @@
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
+      <c r="X47" s="2">
+        <v>1</v>
+      </c>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
@@ -8853,31 +8859,31 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
-      <c r="AJ47" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
       <c r="AM47" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN47" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>1</v>
+      </c>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2">
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>45294</v>
+        <v>45336</v>
       </c>
       <c r="AR47" s="2">
         <v>1</v>
       </c>
       <c r="AS47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV47" s="2">
         <v>4</v>
@@ -8910,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG47" s="2">
         <v>0</v>
@@ -8963,19 +8969,19 @@
         <v>67</v>
       </c>
       <c r="E48" s="1">
-        <v>45298</v>
+        <v>45026</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -9011,13 +9017,11 @@
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
-      <c r="X48" s="2">
-        <v>1</v>
-      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
@@ -9045,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>45316</v>
+        <v>45032</v>
       </c>
       <c r="AR48" s="2">
         <v>1</v>
@@ -9055,7 +9059,7 @@
       </c>
       <c r="AT48" s="2"/>
       <c r="AU48" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV48" s="2">
         <v>3</v>
@@ -9085,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="BE48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF48" s="2">
         <v>0</v>
@@ -9141,16 +9145,16 @@
         <v>67</v>
       </c>
       <c r="E49" s="1">
-        <v>45270</v>
+        <v>45312</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
         <v>78</v>
@@ -9162,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -9189,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
@@ -9200,9 +9204,11 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>0</v>
+      </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
@@ -9213,7 +9219,7 @@
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
@@ -9221,20 +9227,20 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>45308</v>
+        <v>45348</v>
       </c>
       <c r="AR49" s="2">
         <v>1</v>
       </c>
       <c r="AS49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW49" s="2">
         <v>1</v>
@@ -9243,10 +9249,10 @@
         <v>1</v>
       </c>
       <c r="AY49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="2">
         <v>0</v>
@@ -9329,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -9365,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
@@ -9389,15 +9395,17 @@
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
       <c r="AM50" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN50" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>0</v>
+      </c>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2">
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>45370</v>
+        <v>45394</v>
       </c>
       <c r="AR50" s="2">
         <v>1</v>
@@ -9493,19 +9501,19 @@
         <v>67</v>
       </c>
       <c r="E51" s="1">
-        <v>45252</v>
+        <v>45354</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -9514,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="2">
         <v>0</v>
@@ -9541,58 +9549,52 @@
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
+      <c r="X51" s="2">
+        <v>1</v>
+      </c>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="AC51" s="2"/>
-      <c r="AD51" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
       <c r="AK51" s="2"/>
-      <c r="AL51" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL51" s="2"/>
       <c r="AM51" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN51" s="2">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
       <c r="AP51" s="2">
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>45259</v>
+        <v>45370</v>
       </c>
       <c r="AR51" s="2">
         <v>1</v>
       </c>
       <c r="AS51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV51" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW51" s="2">
         <v>1</v>
@@ -9601,10 +9603,10 @@
         <v>1</v>
       </c>
       <c r="AY51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA51" s="2">
         <v>0</v>
@@ -9675,19 +9677,19 @@
         <v>67</v>
       </c>
       <c r="E52" s="1">
-        <v>45034</v>
+        <v>45354</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -9696,7 +9698,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
@@ -9723,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
@@ -9734,11 +9736,9 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC52" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
@@ -9749,17 +9749,15 @@
       <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
       <c r="AM52" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN52" s="2">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
       <c r="AP52" s="2">
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <v>45050</v>
+        <v>45369</v>
       </c>
       <c r="AR52" s="2">
         <v>1</v>
@@ -9769,10 +9767,10 @@
       </c>
       <c r="AT52" s="2"/>
       <c r="AU52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW52" s="2">
         <v>1</v>
@@ -9781,10 +9779,10 @@
         <v>1</v>
       </c>
       <c r="AY52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA52" s="2">
         <v>0</v>
@@ -9855,19 +9853,19 @@
         <v>67</v>
       </c>
       <c r="E53" s="1">
-        <v>45069</v>
+        <v>45315</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -9903,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
@@ -9914,12 +9912,10 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="AC53" s="2"/>
-      <c r="AD53" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
@@ -9929,7 +9925,7 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
@@ -9937,23 +9933,23 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>45089</v>
+        <v>45336</v>
       </c>
       <c r="AR53" s="2">
         <v>1</v>
       </c>
       <c r="AS53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AV53" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX53" s="2">
         <v>1</v>
@@ -9980,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="BF53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG53" s="2">
         <v>0</v>
@@ -10045,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -10075,13 +10071,13 @@
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
@@ -10105,7 +10101,7 @@
       <c r="AK54" s="2"/>
       <c r="AL54" s="2"/>
       <c r="AM54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
@@ -10119,14 +10115,14 @@
         <v>1</v>
       </c>
       <c r="AS54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV54" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW54" s="2">
         <v>1</v>
@@ -10209,19 +10205,19 @@
         <v>67</v>
       </c>
       <c r="E55" s="1">
-        <v>45060</v>
+        <v>45329</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -10251,13 +10247,13 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="T55" s="2">
         <v>0</v>
       </c>
       <c r="U55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
@@ -10277,11 +10273,13 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
-      <c r="AJ55" s="2"/>
+      <c r="AJ55" s="2">
+        <v>1</v>
+      </c>
       <c r="AK55" s="2"/>
       <c r="AL55" s="2"/>
       <c r="AM55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
@@ -10289,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>45089</v>
+        <v>45369</v>
       </c>
       <c r="AR55" s="2">
         <v>1</v>
@@ -10299,7 +10297,7 @@
       </c>
       <c r="AT55" s="2"/>
       <c r="AU55" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV55" s="2">
         <v>2</v>
@@ -10311,13 +10309,13 @@
         <v>1</v>
       </c>
       <c r="AY55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ55" s="2">
         <v>1</v>
       </c>
       <c r="BA55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="2">
         <v>0</v>
@@ -10385,25 +10383,25 @@
         <v>67</v>
       </c>
       <c r="E56" s="1">
-        <v>45272</v>
+        <v>45041</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
       </c>
       <c r="K56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="2">
         <v>0</v>
@@ -10433,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
@@ -10444,16 +10442,14 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2"/>
-      <c r="AH56" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
       <c r="AK56" s="2"/>
@@ -10469,20 +10465,20 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>45294</v>
+        <v>45062</v>
       </c>
       <c r="AR56" s="2">
         <v>1</v>
       </c>
       <c r="AS56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV56" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW56" s="2">
         <v>1</v>
@@ -10491,10 +10487,10 @@
         <v>1</v>
       </c>
       <c r="AY56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA56" s="2">
         <v>0</v>
@@ -10512,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="2">
         <v>0</v>
@@ -10565,19 +10561,19 @@
         <v>67</v>
       </c>
       <c r="E57" s="1">
-        <v>45312</v>
+        <v>45263</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -10586,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
@@ -10613,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
@@ -10624,40 +10620,42 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC57" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
-      <c r="AJ57" s="2"/>
+      <c r="AJ57" s="2">
+        <v>1</v>
+      </c>
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
       <c r="AM57" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN57" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="AN57" s="2">
+        <v>0</v>
+      </c>
       <c r="AO57" s="2"/>
       <c r="AP57" s="2">
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>45348</v>
+        <v>45294</v>
       </c>
       <c r="AR57" s="2">
         <v>1</v>
       </c>
       <c r="AS57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV57" s="2">
         <v>2</v>
@@ -10672,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="AZ57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB57" s="2">
         <v>0</v>
@@ -10743,19 +10741,19 @@
         <v>67</v>
       </c>
       <c r="E58" s="1">
-        <v>45252</v>
+        <v>45340</v>
       </c>
       <c r="F58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -10791,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
@@ -10815,31 +10813,33 @@
       <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
       <c r="AM58" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN58" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="AN58" s="2">
+        <v>0</v>
+      </c>
       <c r="AO58" s="2"/>
       <c r="AP58" s="2">
         <v>0</v>
       </c>
       <c r="AQ58" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="AR58" s="2">
         <v>1</v>
       </c>
       <c r="AS58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="2"/>
       <c r="AU58" s="2">
         <v>3</v>
       </c>
       <c r="AV58" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX58" s="2">
         <v>1</v>
@@ -10919,31 +10919,31 @@
         <v>67</v>
       </c>
       <c r="E59" s="1">
-        <v>45365</v>
+        <v>45045</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="2">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="2">
         <v>0</v>
@@ -10961,13 +10961,13 @@
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="T59" s="2">
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
@@ -10978,30 +10978,30 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
-      <c r="AG59" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="2"/>
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
       <c r="AM59" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN59" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="AN59" s="2">
+        <v>0</v>
+      </c>
       <c r="AO59" s="2"/>
       <c r="AP59" s="2">
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>45399</v>
+        <v>45062</v>
       </c>
       <c r="AR59" s="2">
         <v>1</v>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="AT59" s="2"/>
       <c r="AU59" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV59" s="2">
         <v>1</v>
@@ -11020,13 +11020,13 @@
         <v>0</v>
       </c>
       <c r="AX59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="2">
         <v>0</v>
@@ -11038,10 +11038,10 @@
         <v>0</v>
       </c>
       <c r="BD59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF59" s="2">
         <v>0</v>
@@ -11100,16 +11100,16 @@
         <v>45041</v>
       </c>
       <c r="F60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
@@ -11169,7 +11169,7 @@
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
       <c r="AM60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
@@ -11345,7 +11345,7 @@
       <c r="AK61" s="2"/>
       <c r="AL61" s="2"/>
       <c r="AM61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>

--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -13,188 +13,194 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="970" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1000" uniqueCount="175">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>600322</t>
+  </si>
+  <si>
+    <t>600687</t>
+  </si>
+  <si>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
+    <t>600699</t>
+  </si>
+  <si>
+    <t>600381</t>
+  </si>
+  <si>
+    <t>600346</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>600727</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>600886</t>
+  </si>
+  <si>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>500005</t>
+  </si>
+  <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>500684</t>
+  </si>
+  <si>
+    <t>600374</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>600961</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>500454</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
+    <t>600360</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>600758</t>
+  </si>
+  <si>
+    <t>600611</t>
+  </si>
+  <si>
+    <t>600398</t>
+  </si>
+  <si>
+    <t>600853</t>
+  </si>
+  <si>
     <t>600604</t>
   </si>
   <si>
-    <t>600398</t>
+    <t>600672</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
+    <t>600614</t>
+  </si>
+  <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>600996</t>
+  </si>
+  <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>600775</t>
+  </si>
+  <si>
+    <t>500025</t>
   </si>
   <si>
     <t>600383</t>
   </si>
   <si>
+    <t>600947</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>600310</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
     <t>600703</t>
   </si>
   <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>600388</t>
-  </si>
-  <si>
-    <t>600982</t>
-  </si>
-  <si>
-    <t>600374</t>
-  </si>
-  <si>
-    <t>600947</t>
-  </si>
-  <si>
-    <t>600758</t>
-  </si>
-  <si>
-    <t>600682</t>
-  </si>
-  <si>
-    <t>600396</t>
+    <t>500906</t>
+  </si>
+  <si>
+    <t>500901</t>
   </si>
   <si>
     <t>600627</t>
   </si>
   <si>
-    <t>600786</t>
-  </si>
-  <si>
-    <t>400230</t>
+    <t>400238</t>
+  </si>
+  <si>
+    <t>600812</t>
+  </si>
+  <si>
+    <t>600326</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>600640</t>
   </si>
   <si>
     <t>600366</t>
   </si>
   <si>
-    <t>600346</t>
-  </si>
-  <si>
-    <t>600309</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>600780</t>
-  </si>
-  <si>
-    <t>600812</t>
-  </si>
-  <si>
-    <t>600996</t>
-  </si>
-  <si>
-    <t>500025</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>500454</t>
-  </si>
-  <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>500221</t>
-  </si>
-  <si>
-    <t>600322</t>
-  </si>
-  <si>
-    <t>600310</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>600614</t>
-  </si>
-  <si>
-    <t>600775</t>
-  </si>
-  <si>
-    <t>600360</t>
-  </si>
-  <si>
-    <t>600326</t>
-  </si>
-  <si>
-    <t>600611</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>400238</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>500951</t>
-  </si>
-  <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>400224</t>
-  </si>
-  <si>
-    <t>600687</t>
-  </si>
-  <si>
-    <t>600961</t>
-  </si>
-  <si>
-    <t>600640</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>600610</t>
-  </si>
-  <si>
-    <t>600602</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>500901</t>
-  </si>
-  <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>500355</t>
-  </si>
-  <si>
-    <t>500005</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -246,36 +252,36 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>cocaine; fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
+    <t>xylazine; fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>cocaine; fentanyl</t>
-  </si>
-  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>xylazine; fentanyl</t>
-  </si>
-  <si>
     <t>fentanyl; crack</t>
   </si>
   <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -306,39 +312,39 @@
     <t>color</t>
   </si>
   <si>
+    <t>gray</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>pink</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>gray</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>powder; chunky; rock</t>
+  </si>
+  <si>
+    <t>rock; crystals</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>rock; crystals</t>
-  </si>
-  <si>
-    <t>powder; chunky; rock</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -354,31 +360,31 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>stronger</t>
+  </si>
+  <si>
+    <t>weird; sedating</t>
+  </si>
+  <si>
+    <t>unpleasant; hallucinations</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>long; unpleasant; hallucinations</t>
   </si>
   <si>
-    <t>unpleasant; hallucinations</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>stronger</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>sedating</t>
-  </si>
-  <si>
-    <t>weird; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -579,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR61"/>
+  <dimension ref="A1:BR63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -590,211 +596,211 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="V1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z1" t="s">
         <v>109</v>
       </c>
-      <c r="X1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>103</v>
-      </c>
       <c r="AA1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AB1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AD1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AE1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AH1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AI1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AJ1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AK1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AM1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AN1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AO1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AP1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AR1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AS1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AT1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AU1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AV1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AW1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AX1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AY1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AZ1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BA1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="BB1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BC1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="BD1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="BE1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="BF1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="BG1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BH1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="BI1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="BJ1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="BK1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BL1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BM1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BN1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BO1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BP1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BQ1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BR1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
@@ -802,37 +808,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1">
-        <v>45260</v>
+        <v>45026</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -850,79 +856,73 @@
         <v>0</v>
       </c>
       <c r="R2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN2" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2">
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>45316</v>
+        <v>45032</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
       </c>
       <c r="AS2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AV2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2" s="2">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2" s="2">
         <v>0</v>
@@ -961,22 +961,22 @@
         <v>0</v>
       </c>
       <c r="BM2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -984,28 +984,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1">
-        <v>45263</v>
+        <v>45271</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1052,10 +1052,12 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
+      <c r="AD3" s="2">
+        <v>1</v>
+      </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -1065,9 +1067,11 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN3" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>0</v>
+      </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2">
         <v>0</v>
@@ -1083,11 +1087,11 @@
       </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV3" s="2">
         <v>3</v>
       </c>
-      <c r="AV3" s="2">
-        <v>1</v>
-      </c>
       <c r="AW3" s="2">
         <v>1</v>
       </c>
@@ -1095,10 +1099,10 @@
         <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="2">
         <v>0</v>
@@ -1143,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -1160,28 +1164,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1">
-        <v>45270</v>
+        <v>45312</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -1190,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1211,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -1228,9 +1232,11 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC4" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1241,7 +1247,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
@@ -1249,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>45308</v>
+        <v>45348</v>
       </c>
       <c r="AR4" s="2">
         <v>1</v>
@@ -1259,10 +1265,10 @@
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW4" s="2">
         <v>1</v>
@@ -1271,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1319,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="BO4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
@@ -1336,22 +1342,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1">
-        <v>45298</v>
+        <v>45354</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1387,13 +1393,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -1404,7 +1410,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
@@ -1417,17 +1423,15 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2">
         <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>45316</v>
+        <v>45369</v>
       </c>
       <c r="AR5" s="2">
         <v>1</v>
@@ -1440,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW5" s="2">
         <v>1</v>
@@ -1482,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5" s="2">
         <v>0</v>
@@ -1497,16 +1501,16 @@
         <v>0</v>
       </c>
       <c r="BO5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
@@ -1514,40 +1518,40 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1">
-        <v>45041</v>
+        <v>45045</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1556,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1565,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1582,7 +1586,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
@@ -1595,7 +1599,7 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AN6" s="2">
         <v>0</v>
@@ -1605,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>45077</v>
+        <v>45062</v>
       </c>
       <c r="AR6" s="2">
         <v>1</v>
@@ -1615,25 +1619,25 @@
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
         <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1642,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
         <v>1</v>
@@ -1660,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="2">
         <v>0</v>
@@ -1675,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="BO6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7">
@@ -1692,22 +1696,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1">
         <v>45244</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1743,13 +1747,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1760,7 +1764,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -1773,7 +1777,7 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
@@ -1851,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="BO7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
@@ -1868,22 +1872,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1">
-        <v>45365</v>
+        <v>45263</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1919,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -1936,7 +1940,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -1945,32 +1949,36 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
+      <c r="AJ8" s="2">
+        <v>1</v>
+      </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN8" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>0</v>
+      </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>45394</v>
+        <v>45294</v>
       </c>
       <c r="AR8" s="2">
         <v>1</v>
       </c>
       <c r="AS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW8" s="2">
         <v>1</v>
@@ -1979,13 +1987,13 @@
         <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
         <v>1</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
@@ -2027,16 +2035,16 @@
         <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
@@ -2044,28 +2052,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1">
-        <v>45252</v>
+        <v>45340</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2074,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -2095,51 +2103,47 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
-      <c r="AL9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL9" s="2"/>
       <c r="AM9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AN9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2">
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>45259</v>
+        <v>45369</v>
       </c>
       <c r="AR9" s="2">
         <v>1</v>
@@ -2161,10 +2165,10 @@
         <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2209,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="BO9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -2226,16 +2230,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1">
-        <v>45354</v>
+        <v>45263</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -2277,24 +2281,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T10" s="2">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="2">
-        <v>1</v>
-      </c>
+      <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -2303,11 +2305,13 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
+      <c r="AJ10" s="2">
+        <v>1</v>
+      </c>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
@@ -2315,23 +2319,23 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>45394</v>
+        <v>45294</v>
       </c>
       <c r="AR10" s="2">
         <v>1</v>
       </c>
       <c r="AS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV10" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2385,16 +2389,16 @@
         <v>0</v>
       </c>
       <c r="BO10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
@@ -2402,28 +2406,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1">
-        <v>45349</v>
+        <v>45286</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2432,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -2453,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -2468,9 +2472,11 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>1</v>
+      </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -2481,15 +2487,17 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN11" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>1</v>
+      </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2">
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>45369</v>
+        <v>45308</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
@@ -2499,13 +2507,13 @@
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="2">
         <v>1</v>
@@ -2529,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -2559,16 +2567,16 @@
         <v>0</v>
       </c>
       <c r="BO11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12">
@@ -2576,28 +2584,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1">
-        <v>45312</v>
+        <v>45354</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2606,10 +2614,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -2618,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2627,13 +2635,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -2644,12 +2652,10 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AC12" s="2"/>
-      <c r="AD12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -2659,7 +2665,7 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -2667,32 +2673,32 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>45316</v>
+        <v>45370</v>
       </c>
       <c r="AR12" s="2">
         <v>1</v>
       </c>
       <c r="AS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -2704,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
         <v>0</v>
@@ -2737,16 +2743,16 @@
         <v>0</v>
       </c>
       <c r="BO12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
@@ -2754,28 +2760,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1">
-        <v>45270</v>
+        <v>45312</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -2784,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -2796,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2805,13 +2811,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="T13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -2822,10 +2828,12 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
+      <c r="AD13" s="2">
+        <v>1</v>
+      </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -2835,7 +2843,7 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
@@ -2843,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <v>45308</v>
+        <v>45316</v>
       </c>
       <c r="AR13" s="2">
         <v>1</v>
@@ -2853,22 +2861,22 @@
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -2880,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -2913,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="BO13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -2930,22 +2938,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1">
         <v>45354</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -2981,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -2998,7 +3006,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -3011,7 +3019,7 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
@@ -3029,10 +3037,10 @@
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="2">
         <v>1</v>
@@ -3089,16 +3097,16 @@
         <v>0</v>
       </c>
       <c r="BO14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
@@ -3106,28 +3114,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1">
-        <v>45300</v>
+        <v>45329</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -3136,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3157,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T15" s="2">
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -3174,22 +3182,22 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AC15" s="2"/>
-      <c r="AD15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
+      <c r="AJ15" s="2">
+        <v>1</v>
+      </c>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
@@ -3197,17 +3205,17 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>45317</v>
+        <v>45369</v>
       </c>
       <c r="AR15" s="2">
         <v>1</v>
       </c>
       <c r="AS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV15" s="2">
         <v>2</v>
@@ -3267,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="BO15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
@@ -3284,28 +3292,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1">
         <v>45034</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -3335,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -3352,7 +3360,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC16" s="2">
         <v>0</v>
@@ -3367,7 +3375,7 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AN16" s="2">
         <v>0</v>
@@ -3377,23 +3385,23 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>45054</v>
+        <v>45050</v>
       </c>
       <c r="AR16" s="2">
         <v>1</v>
       </c>
       <c r="AS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3402,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3447,16 +3455,16 @@
         <v>0</v>
       </c>
       <c r="BO16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
@@ -3464,40 +3472,40 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1">
-        <v>45252</v>
+        <v>45390</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -3506,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -3515,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -3532,9 +3540,11 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC17" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -3545,7 +3555,7 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AN17" s="2">
         <v>0</v>
@@ -3555,26 +3565,26 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>45261</v>
+        <v>45401</v>
       </c>
       <c r="AR17" s="2">
         <v>1</v>
       </c>
       <c r="AS17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV17" s="2">
         <v>1</v>
       </c>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="2">
         <v>0</v>
@@ -3592,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -3625,16 +3635,16 @@
         <v>0</v>
       </c>
       <c r="BO17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
@@ -3642,16 +3652,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1">
-        <v>45286</v>
+        <v>45270</v>
       </c>
       <c r="F18" t="s">
         <v>73</v>
@@ -3660,7 +3670,7 @@
         <v>73</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>79</v>
@@ -3693,26 +3703,26 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T18" s="2">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
+      <c r="X18" s="2">
+        <v>1</v>
+      </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -3723,11 +3733,9 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN18" s="2">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2">
         <v>0</v>
@@ -3743,13 +3751,13 @@
       </c>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV18" s="2">
         <v>3</v>
       </c>
-      <c r="AV18" s="2">
-        <v>1</v>
-      </c>
       <c r="AW18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -3803,16 +3811,16 @@
         <v>0</v>
       </c>
       <c r="BO18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
@@ -3820,34 +3828,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1">
-        <v>45272</v>
+        <v>45041</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -3871,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T19" s="2">
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -3888,45 +3896,41 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN19" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2">
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>45294</v>
+        <v>45077</v>
       </c>
       <c r="AR19" s="2">
         <v>1</v>
       </c>
       <c r="AS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW19" s="2">
         <v>1</v>
@@ -3935,13 +3939,13 @@
         <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
         <v>1</v>
       </c>
       <c r="BA19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
@@ -3953,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -3968,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="BJ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK19" s="2">
         <v>0</v>
@@ -3983,16 +3987,16 @@
         <v>0</v>
       </c>
       <c r="BO19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
@@ -4000,40 +4004,40 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1">
-        <v>45354</v>
+        <v>45029</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -4042,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4051,13 +4055,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -4068,7 +4072,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
@@ -4081,15 +4085,17 @@
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN20" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>0</v>
+      </c>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2">
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>45370</v>
+        <v>45050</v>
       </c>
       <c r="AR20" s="2">
         <v>1</v>
@@ -4102,19 +4108,19 @@
         <v>4</v>
       </c>
       <c r="AV20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -4126,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="2">
         <v>0</v>
@@ -4159,16 +4165,16 @@
         <v>0</v>
       </c>
       <c r="BO20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
@@ -4176,28 +4182,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1">
-        <v>45354</v>
+        <v>45069</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -4206,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -4227,13 +4233,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -4244,10 +4250,12 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
+      <c r="AD21" s="2">
+        <v>1</v>
+      </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -4257,7 +4265,7 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
@@ -4265,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>45370</v>
+        <v>45089</v>
       </c>
       <c r="AR21" s="2">
         <v>1</v>
@@ -4275,10 +4283,10 @@
       </c>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW21" s="2">
         <v>1</v>
@@ -4335,16 +4343,16 @@
         <v>0</v>
       </c>
       <c r="BO21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
@@ -4352,46 +4360,46 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1">
-        <v>45333</v>
+        <v>45252</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
@@ -4403,49 +4411,51 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
+      <c r="AL22" s="2">
+        <v>1</v>
+      </c>
       <c r="AM22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2">
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>45364</v>
+        <v>45259</v>
       </c>
       <c r="AR22" s="2">
         <v>1</v>
@@ -4455,16 +4465,16 @@
       </c>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="2">
         <v>0</v>
@@ -4476,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="BB22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="2">
         <v>0</v>
@@ -4515,16 +4525,16 @@
         <v>0</v>
       </c>
       <c r="BO22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
@@ -4532,22 +4542,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1">
         <v>45365</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -4583,13 +4593,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T23" s="2">
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -4600,7 +4610,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
@@ -4613,7 +4623,7 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
@@ -4621,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>45399</v>
+        <v>45394</v>
       </c>
       <c r="AR23" s="2">
         <v>1</v>
@@ -4631,10 +4641,10 @@
       </c>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW23" s="2">
         <v>1</v>
@@ -4643,10 +4653,10 @@
         <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="2">
         <v>0</v>
@@ -4691,16 +4701,16 @@
         <v>0</v>
       </c>
       <c r="BO23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
@@ -4708,25 +4718,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1">
-        <v>45365</v>
+        <v>45354</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
         <v>79</v>
@@ -4759,13 +4769,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -4776,22 +4786,20 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
@@ -4799,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>45399</v>
+        <v>45369</v>
       </c>
       <c r="AR24" s="2">
         <v>1</v>
@@ -4812,10 +4820,10 @@
         <v>4</v>
       </c>
       <c r="AV24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
@@ -4869,16 +4877,16 @@
         <v>0</v>
       </c>
       <c r="BO24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
@@ -4886,28 +4894,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1">
-        <v>45060</v>
+        <v>45354</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -4937,13 +4945,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T25" s="2">
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -4954,7 +4962,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -4967,15 +4975,17 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN25" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>0</v>
+      </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2">
         <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>45089</v>
+        <v>45394</v>
       </c>
       <c r="AR25" s="2">
         <v>1</v>
@@ -4985,10 +4995,10 @@
       </c>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW25" s="2">
         <v>1</v>
@@ -4997,13 +5007,13 @@
         <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
         <v>1</v>
       </c>
       <c r="BA25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
@@ -5045,16 +5055,16 @@
         <v>0</v>
       </c>
       <c r="BO25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26">
@@ -5062,28 +5072,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E26" s="1">
-        <v>45069</v>
+        <v>45041</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -5092,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -5113,13 +5123,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -5130,7 +5140,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -5143,7 +5153,7 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AN26" s="2">
         <v>0</v>
@@ -5153,23 +5163,23 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>45096</v>
+        <v>45077</v>
       </c>
       <c r="AR26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AV26" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="2">
         <v>1</v>
@@ -5193,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF26" s="2">
         <v>0</v>
@@ -5208,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK26" s="2">
         <v>0</v>
@@ -5223,16 +5233,16 @@
         <v>0</v>
       </c>
       <c r="BO26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27">
@@ -5240,28 +5250,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E27" s="1">
-        <v>45263</v>
+        <v>45069</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
@@ -5291,22 +5301,24 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T27" s="2">
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
+      <c r="X27" s="2">
+        <v>1</v>
+      </c>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
@@ -5315,34 +5327,34 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
-      <c r="AJ27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN27" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>0</v>
+      </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2">
         <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>45294</v>
+        <v>45096</v>
       </c>
       <c r="AR27" s="2">
         <v>1</v>
       </c>
       <c r="AS27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV27" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW27" s="2">
         <v>1</v>
@@ -5399,16 +5411,16 @@
         <v>0</v>
       </c>
       <c r="BO27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28">
@@ -5416,22 +5428,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E28" s="1">
         <v>45354</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -5467,13 +5479,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -5484,7 +5496,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
@@ -5497,7 +5509,7 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
@@ -5505,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="AR28" s="2">
         <v>1</v>
@@ -5518,10 +5530,10 @@
         <v>4</v>
       </c>
       <c r="AV28" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="2">
         <v>1</v>
@@ -5560,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK28" s="2">
         <v>0</v>
@@ -5575,16 +5587,16 @@
         <v>0</v>
       </c>
       <c r="BO28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -5592,25 +5604,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E29" s="1">
-        <v>45354</v>
+        <v>45319</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
         <v>79</v>
@@ -5643,13 +5655,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -5660,7 +5672,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -5673,15 +5685,17 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN29" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>1</v>
+      </c>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2">
         <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>45370</v>
+        <v>45336</v>
       </c>
       <c r="AR29" s="2">
         <v>1</v>
@@ -5691,13 +5705,13 @@
       </c>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV29" s="2">
         <v>4</v>
       </c>
-      <c r="AV29" s="2">
-        <v>1</v>
-      </c>
       <c r="AW29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX29" s="2">
         <v>1</v>
@@ -5724,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="BF29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG29" s="2">
         <v>0</v>
@@ -5751,16 +5765,16 @@
         <v>0</v>
       </c>
       <c r="BO29" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30">
@@ -5768,28 +5782,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E30" s="1">
         <v>45069</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -5819,13 +5833,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
@@ -5836,7 +5850,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
@@ -5849,7 +5863,7 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AN30" s="2">
         <v>0</v>
@@ -5859,20 +5873,20 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="AR30" s="2">
         <v>1</v>
       </c>
       <c r="AS30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="2"/>
       <c r="AU30" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW30" s="2">
         <v>1</v>
@@ -5929,16 +5943,16 @@
         <v>0</v>
       </c>
       <c r="BO30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31">
@@ -5946,28 +5960,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E31" s="1">
-        <v>45328</v>
+        <v>45300</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -5997,13 +6011,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -6014,10 +6028,12 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
+      <c r="AD31" s="2">
+        <v>1</v>
+      </c>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
@@ -6027,7 +6043,7 @@
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
@@ -6035,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>45336</v>
+        <v>45317</v>
       </c>
       <c r="AR31" s="2">
         <v>1</v>
@@ -6105,16 +6121,16 @@
         <v>0</v>
       </c>
       <c r="BO31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32">
@@ -6122,28 +6138,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E32" s="1">
-        <v>45034</v>
+        <v>45252</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -6152,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="2">
         <v>0</v>
@@ -6173,13 +6189,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -6190,11 +6206,9 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC32" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
@@ -6205,27 +6219,25 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2">
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>45050</v>
+        <v>45260</v>
       </c>
       <c r="AR32" s="2">
         <v>1</v>
       </c>
       <c r="AS32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV32" s="2">
         <v>2</v>
@@ -6237,10 +6249,10 @@
         <v>1</v>
       </c>
       <c r="AY32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA32" s="2">
         <v>0</v>
@@ -6285,16 +6297,16 @@
         <v>0</v>
       </c>
       <c r="BO32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
@@ -6302,46 +6314,46 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E33" s="1">
-        <v>45041</v>
+        <v>45333</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="2">
         <v>0</v>
@@ -6353,26 +6365,28 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
-      <c r="X33" s="2">
-        <v>1</v>
-      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
+      <c r="Z33" s="2">
+        <v>1</v>
+      </c>
       <c r="AA33" s="2"/>
       <c r="AB33" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC33" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>0</v>
+      </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
@@ -6383,55 +6397,57 @@
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN33" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>0</v>
+      </c>
       <c r="AO33" s="2"/>
       <c r="AP33" s="2">
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>45062</v>
+        <v>45364</v>
       </c>
       <c r="AR33" s="2">
         <v>1</v>
       </c>
       <c r="AS33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="2"/>
       <c r="AU33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV33" s="2">
         <v>2</v>
       </c>
       <c r="AW33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="2">
         <v>0</v>
       </c>
       <c r="BB33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD33" s="2">
         <v>0</v>
       </c>
       <c r="BE33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF33" s="2">
         <v>0</v>
@@ -6461,16 +6477,16 @@
         <v>0</v>
       </c>
       <c r="BO33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34">
@@ -6478,28 +6494,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E34" s="1">
-        <v>45271</v>
+        <v>45349</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -6529,29 +6545,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
-      <c r="X34" s="2">
-        <v>1</v>
-      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AC34" s="2"/>
-      <c r="AD34" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
@@ -6561,17 +6573,15 @@
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN34" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
       <c r="AP34" s="2">
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>45294</v>
+        <v>45369</v>
       </c>
       <c r="AR34" s="2">
         <v>1</v>
@@ -6581,7 +6591,7 @@
       </c>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV34" s="2">
         <v>3</v>
@@ -6611,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="BE34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF34" s="2">
         <v>0</v>
@@ -6641,16 +6651,16 @@
         <v>0</v>
       </c>
       <c r="BO34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35">
@@ -6658,22 +6668,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" s="1">
-        <v>45252</v>
+        <v>45354</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -6709,13 +6719,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
@@ -6726,7 +6736,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
@@ -6739,7 +6749,7 @@
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN35" s="2"/>
       <c r="AO35" s="2"/>
@@ -6747,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="AR35" s="2">
         <v>1</v>
@@ -6760,10 +6770,10 @@
         <v>3</v>
       </c>
       <c r="AV35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX35" s="2">
         <v>1</v>
@@ -6817,16 +6827,16 @@
         <v>0</v>
       </c>
       <c r="BO35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36">
@@ -6834,28 +6844,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E36" s="1">
-        <v>45270</v>
+        <v>45263</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -6864,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -6885,13 +6895,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T36" s="2">
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
@@ -6902,7 +6912,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
@@ -6915,7 +6925,7 @@
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
@@ -6923,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>45308</v>
+        <v>45294</v>
       </c>
       <c r="AR36" s="2">
         <v>1</v>
@@ -6933,10 +6943,10 @@
       </c>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV36" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW36" s="2">
         <v>1</v>
@@ -6945,10 +6955,10 @@
         <v>1</v>
       </c>
       <c r="AY36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="2">
         <v>0</v>
@@ -6993,16 +7003,16 @@
         <v>0</v>
       </c>
       <c r="BO36" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37">
@@ -7010,37 +7020,37 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E37" s="1">
-        <v>45354</v>
+        <v>45390</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
@@ -7058,29 +7068,31 @@
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T37" s="2">
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
-      <c r="X37" s="2">
-        <v>1</v>
-      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
+      <c r="Z37" s="2">
+        <v>1</v>
+      </c>
       <c r="AA37" s="2"/>
       <c r="AB37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
@@ -7091,40 +7103,42 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN37" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>0</v>
+      </c>
       <c r="AO37" s="2"/>
       <c r="AP37" s="2">
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>45369</v>
+        <v>45401</v>
       </c>
       <c r="AR37" s="2">
         <v>1</v>
       </c>
       <c r="AS37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV37" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="2">
         <v>0</v>
@@ -7163,22 +7177,22 @@
         <v>0</v>
       </c>
       <c r="BM37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO37" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR37" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -7186,16 +7200,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E38" s="1">
-        <v>45298</v>
+        <v>45260</v>
       </c>
       <c r="F38" t="s">
         <v>72</v>
@@ -7207,19 +7221,19 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
       </c>
       <c r="M38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -7228,22 +7242,22 @@
         <v>0</v>
       </c>
       <c r="P38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="2">
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
@@ -7254,40 +7268,44 @@
       </c>
       <c r="AA38" s="2"/>
       <c r="AB38" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
+      <c r="AD38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>1</v>
+      </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
-      <c r="AI38" s="2"/>
+      <c r="AI38" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
       <c r="AM38" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN38" s="2">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
       <c r="AP38" s="2">
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>45317</v>
+        <v>45316</v>
       </c>
       <c r="AR38" s="2">
         <v>1</v>
       </c>
       <c r="AS38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV38" s="2">
         <v>1</v>
@@ -7314,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="BD38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF38" s="2">
         <v>0</v>
@@ -7341,22 +7359,22 @@
         <v>0</v>
       </c>
       <c r="BM38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO38" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP38" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39">
@@ -7364,22 +7382,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E39" s="1">
-        <v>45252</v>
+        <v>45354</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -7415,13 +7433,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
@@ -7432,7 +7450,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
@@ -7445,7 +7463,7 @@
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
@@ -7453,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>45260</v>
+        <v>45370</v>
       </c>
       <c r="AR39" s="2">
         <v>1</v>
@@ -7463,11 +7481,11 @@
       </c>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV39" s="2">
         <v>3</v>
       </c>
-      <c r="AV39" s="2">
-        <v>2</v>
-      </c>
       <c r="AW39" s="2">
         <v>1</v>
       </c>
@@ -7523,16 +7541,16 @@
         <v>0</v>
       </c>
       <c r="BO39" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -7540,28 +7558,28 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E40" s="1">
-        <v>45270</v>
+        <v>45034</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -7570,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -7591,13 +7609,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T40" s="2">
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
@@ -7608,9 +7626,11 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
@@ -7621,15 +7641,17 @@
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN40" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>0</v>
+      </c>
       <c r="AO40" s="2"/>
       <c r="AP40" s="2">
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>45308</v>
+        <v>45054</v>
       </c>
       <c r="AR40" s="2">
         <v>1</v>
@@ -7639,25 +7661,25 @@
       </c>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV40" s="2">
         <v>3</v>
       </c>
       <c r="AW40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX40" s="2">
         <v>1</v>
       </c>
       <c r="AY40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="2">
         <v>1</v>
       </c>
       <c r="BA40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB40" s="2">
         <v>0</v>
@@ -7699,16 +7721,16 @@
         <v>0</v>
       </c>
       <c r="BO40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41">
@@ -7716,22 +7738,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E41" s="1">
         <v>45354</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -7767,13 +7789,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
@@ -7784,7 +7806,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
@@ -7797,7 +7819,7 @@
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
@@ -7815,11 +7837,11 @@
       </c>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV41" s="2">
         <v>3</v>
       </c>
-      <c r="AV41" s="2">
-        <v>2</v>
-      </c>
       <c r="AW41" s="2">
         <v>1</v>
       </c>
@@ -7875,16 +7897,16 @@
         <v>0</v>
       </c>
       <c r="BO41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP41" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ41" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42">
@@ -7892,31 +7914,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E42" s="1">
-        <v>45029</v>
+        <v>45272</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -7925,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -7934,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="2">
         <v>0</v>
@@ -7943,13 +7965,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
@@ -7960,20 +7982,22 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
+      <c r="AH42" s="2">
+        <v>1</v>
+      </c>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
       <c r="AM42" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AN42" s="2">
         <v>0</v>
@@ -7983,32 +8007,32 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>45050</v>
+        <v>45294</v>
       </c>
       <c r="AR42" s="2">
         <v>1</v>
       </c>
       <c r="AS42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="2"/>
       <c r="AU42" s="2">
         <v>4</v>
       </c>
       <c r="AV42" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA42" s="2">
         <v>0</v>
@@ -8020,13 +8044,13 @@
         <v>0</v>
       </c>
       <c r="BD42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG42" s="2">
         <v>0</v>
@@ -8053,16 +8077,16 @@
         <v>0</v>
       </c>
       <c r="BO42" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP42" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR42" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43">
@@ -8070,28 +8094,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E43" s="1">
-        <v>45034</v>
+        <v>45365</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -8100,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="2">
         <v>0</v>
@@ -8121,13 +8145,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
@@ -8138,32 +8162,30 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC43" s="2">
-        <v>0</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
+      <c r="AG43" s="2">
+        <v>1</v>
+      </c>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN43" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2">
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>45050</v>
+        <v>45399</v>
       </c>
       <c r="AR43" s="2">
         <v>1</v>
@@ -8176,19 +8198,19 @@
         <v>4</v>
       </c>
       <c r="AV43" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="2">
         <v>1</v>
       </c>
       <c r="AY43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA43" s="2">
         <v>0</v>
@@ -8233,16 +8255,16 @@
         <v>0</v>
       </c>
       <c r="BO43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44">
@@ -8250,22 +8272,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E44" s="1">
         <v>45354</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -8301,13 +8323,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T44" s="2">
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
@@ -8318,7 +8340,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
@@ -8331,7 +8353,7 @@
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
@@ -8394,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="BJ44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK44" s="2">
         <v>0</v>
@@ -8409,16 +8431,16 @@
         <v>0</v>
       </c>
       <c r="BO44" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP44" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ44" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45">
@@ -8426,28 +8448,28 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E45" s="1">
-        <v>45069</v>
+        <v>45298</v>
       </c>
       <c r="F45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -8456,10 +8478,10 @@
         <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -8468,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="2">
         <v>0</v>
@@ -8477,24 +8499,24 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="T45" s="2">
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
-      <c r="X45" s="2">
-        <v>1</v>
-      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
+      <c r="Z45" s="2">
+        <v>1</v>
+      </c>
       <c r="AA45" s="2"/>
       <c r="AB45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
@@ -8507,42 +8529,42 @@
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO45" s="2"/>
       <c r="AP45" s="2">
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>45089</v>
+        <v>45317</v>
       </c>
       <c r="AR45" s="2">
         <v>1</v>
       </c>
       <c r="AS45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2">
         <v>3</v>
       </c>
       <c r="AV45" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="2">
         <v>0</v>
@@ -8554,10 +8576,10 @@
         <v>0</v>
       </c>
       <c r="BD45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF45" s="2">
         <v>0</v>
@@ -8587,16 +8609,16 @@
         <v>0</v>
       </c>
       <c r="BO45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46">
@@ -8604,28 +8626,28 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E46" s="1">
-        <v>45069</v>
+        <v>45060</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -8634,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2">
         <v>0</v>
@@ -8655,13 +8677,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="T46" s="2">
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
@@ -8672,12 +8694,10 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
@@ -8687,7 +8707,7 @@
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
       <c r="AM46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
@@ -8701,11 +8721,11 @@
         <v>1</v>
       </c>
       <c r="AS46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV46" s="2">
         <v>2</v>
@@ -8717,13 +8737,13 @@
         <v>1</v>
       </c>
       <c r="AY46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ46" s="2">
         <v>1</v>
       </c>
       <c r="BA46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB46" s="2">
         <v>0</v>
@@ -8765,16 +8785,16 @@
         <v>0</v>
       </c>
       <c r="BO46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR46" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47">
@@ -8782,25 +8802,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E47" s="1">
-        <v>45319</v>
+        <v>45270</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="s">
         <v>79</v>
@@ -8833,13 +8853,13 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T47" s="2">
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
@@ -8850,7 +8870,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
@@ -8863,27 +8883,25 @@
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
       <c r="AM47" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN47" s="2">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2">
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>45336</v>
+        <v>45308</v>
       </c>
       <c r="AR47" s="2">
         <v>1</v>
       </c>
       <c r="AS47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV47" s="2">
         <v>4</v>
@@ -8916,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG47" s="2">
         <v>0</v>
@@ -8943,16 +8961,16 @@
         <v>0</v>
       </c>
       <c r="BO47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48">
@@ -8960,22 +8978,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E48" s="1">
-        <v>45026</v>
+        <v>45354</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -9011,22 +9029,24 @@
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T48" s="2">
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
+      <c r="X48" s="2">
+        <v>1</v>
+      </c>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
@@ -9039,17 +9059,15 @@
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
       <c r="AM48" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN48" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
       <c r="AP48" s="2">
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>45032</v>
+        <v>45394</v>
       </c>
       <c r="AR48" s="2">
         <v>1</v>
@@ -9059,13 +9077,13 @@
       </c>
       <c r="AT48" s="2"/>
       <c r="AU48" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AV48" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="2">
         <v>1</v>
@@ -9089,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="BE48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF48" s="2">
         <v>0</v>
@@ -9104,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="BJ48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK48" s="2">
         <v>0</v>
@@ -9119,16 +9137,16 @@
         <v>0</v>
       </c>
       <c r="BO48" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP48" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ48" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49">
@@ -9136,28 +9154,28 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E49" s="1">
-        <v>45312</v>
+        <v>45315</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -9187,13 +9205,13 @@
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T49" s="2">
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
@@ -9204,11 +9222,9 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC49" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
@@ -9219,7 +9235,7 @@
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
@@ -9227,32 +9243,32 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>45348</v>
+        <v>45336</v>
       </c>
       <c r="AR49" s="2">
         <v>1</v>
       </c>
       <c r="AS49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AV49" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="2">
         <v>1</v>
       </c>
       <c r="AY49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA49" s="2">
         <v>0</v>
@@ -9270,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="BF49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG49" s="2">
         <v>0</v>
@@ -9297,16 +9313,16 @@
         <v>0</v>
       </c>
       <c r="BO49" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP49" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50">
@@ -9314,22 +9330,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E50" s="1">
-        <v>45354</v>
+        <v>45270</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -9365,13 +9381,13 @@
         <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="T50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
@@ -9382,7 +9398,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
@@ -9395,17 +9411,15 @@
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
       <c r="AM50" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN50" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2">
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>45394</v>
+        <v>45308</v>
       </c>
       <c r="AR50" s="2">
         <v>1</v>
@@ -9415,11 +9429,11 @@
       </c>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV50" s="2">
         <v>4</v>
       </c>
-      <c r="AV50" s="2">
-        <v>3</v>
-      </c>
       <c r="AW50" s="2">
         <v>1</v>
       </c>
@@ -9475,16 +9489,16 @@
         <v>0</v>
       </c>
       <c r="BO50" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP50" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ50" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51">
@@ -9492,22 +9506,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E51" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -9543,13 +9557,13 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T51" s="2">
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
@@ -9560,7 +9574,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
@@ -9573,7 +9587,7 @@
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
       <c r="AM51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
@@ -9581,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>45370</v>
+        <v>45260</v>
       </c>
       <c r="AR51" s="2">
         <v>1</v>
@@ -9591,13 +9605,13 @@
       </c>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="2">
         <v>1</v>
@@ -9651,16 +9665,16 @@
         <v>0</v>
       </c>
       <c r="BO51" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ51" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52">
@@ -9668,28 +9682,28 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E52" s="1">
-        <v>45354</v>
+        <v>45041</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -9698,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
@@ -9719,13 +9733,13 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
@@ -9736,7 +9750,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
@@ -9749,7 +9763,7 @@
       <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
       <c r="AM52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
@@ -9757,20 +9771,20 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <v>45369</v>
+        <v>45062</v>
       </c>
       <c r="AR52" s="2">
         <v>1</v>
       </c>
       <c r="AS52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT52" s="2"/>
       <c r="AU52" s="2">
         <v>3</v>
       </c>
       <c r="AV52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW52" s="2">
         <v>1</v>
@@ -9797,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="BE52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF52" s="2">
         <v>0</v>
@@ -9827,16 +9841,16 @@
         <v>0</v>
       </c>
       <c r="BO52" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP52" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ52" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR52" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53">
@@ -9844,28 +9858,28 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E53" s="1">
-        <v>45315</v>
+        <v>45298</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -9874,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="2">
         <v>0</v>
@@ -9895,13 +9909,13 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T53" s="2">
         <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
@@ -9912,7 +9926,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
@@ -9925,15 +9939,17 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN53" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN53" s="2">
+        <v>0</v>
+      </c>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2">
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>45336</v>
+        <v>45316</v>
       </c>
       <c r="AR53" s="2">
         <v>1</v>
@@ -9943,13 +9959,13 @@
       </c>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV53" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX53" s="2">
         <v>1</v>
@@ -9976,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="BF53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG53" s="2">
         <v>0</v>
@@ -9988,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK53" s="2">
         <v>0</v>
@@ -10003,16 +10019,16 @@
         <v>0</v>
       </c>
       <c r="BO53" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP53" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ53" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR53" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54">
@@ -10020,28 +10036,28 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E54" s="1">
-        <v>45354</v>
+        <v>45069</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -10071,13 +10087,13 @@
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
@@ -10088,7 +10104,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
@@ -10101,43 +10117,45 @@
       <c r="AK54" s="2"/>
       <c r="AL54" s="2"/>
       <c r="AM54" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN54" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>0</v>
+      </c>
       <c r="AO54" s="2"/>
       <c r="AP54" s="2">
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>45369</v>
+        <v>45096</v>
       </c>
       <c r="AR54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS54" s="2">
         <v>1</v>
       </c>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV54" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX54" s="2">
         <v>1</v>
       </c>
       <c r="AY54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="2">
         <v>1</v>
       </c>
       <c r="BA54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB54" s="2">
         <v>0</v>
@@ -10179,16 +10197,16 @@
         <v>0</v>
       </c>
       <c r="BO54" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP54" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55">
@@ -10196,28 +10214,28 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E55" s="1">
-        <v>45329</v>
+        <v>45041</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -10226,7 +10244,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="2">
         <v>0</v>
@@ -10247,13 +10265,13 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T55" s="2">
         <v>0</v>
       </c>
       <c r="U55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
@@ -10264,7 +10282,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
@@ -10273,21 +10291,21 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
-      <c r="AJ55" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ55" s="2"/>
       <c r="AK55" s="2"/>
       <c r="AL55" s="2"/>
       <c r="AM55" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN55" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN55" s="2">
+        <v>0</v>
+      </c>
       <c r="AO55" s="2"/>
       <c r="AP55" s="2">
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>45369</v>
+        <v>45062</v>
       </c>
       <c r="AR55" s="2">
         <v>1</v>
@@ -10309,10 +10327,10 @@
         <v>1</v>
       </c>
       <c r="AY55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA55" s="2">
         <v>0</v>
@@ -10357,16 +10375,16 @@
         <v>0</v>
       </c>
       <c r="BO55" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP55" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ55" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56">
@@ -10374,28 +10392,28 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E56" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -10404,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="2">
         <v>0</v>
@@ -10425,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T56" s="2">
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
@@ -10442,7 +10460,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
@@ -10455,30 +10473,28 @@
       <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
       <c r="AM56" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN56" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
       <c r="AP56" s="2">
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>45062</v>
+        <v>45369</v>
       </c>
       <c r="AR56" s="2">
         <v>1</v>
       </c>
       <c r="AS56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV56" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW56" s="2">
         <v>1</v>
@@ -10487,10 +10503,10 @@
         <v>1</v>
       </c>
       <c r="AY56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA56" s="2">
         <v>0</v>
@@ -10535,16 +10551,16 @@
         <v>0</v>
       </c>
       <c r="BO56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP56" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ56" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57">
@@ -10552,28 +10568,28 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E57" s="1">
-        <v>45263</v>
+        <v>45034</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -10582,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
@@ -10603,13 +10619,13 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
@@ -10620,22 +10636,22 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>0</v>
+      </c>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
-      <c r="AJ57" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ57" s="2"/>
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
       <c r="AM57" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AN57" s="2">
         <v>0</v>
@@ -10645,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>45294</v>
+        <v>45050</v>
       </c>
       <c r="AR57" s="2">
         <v>1</v>
@@ -10655,10 +10671,10 @@
       </c>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV57" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW57" s="2">
         <v>1</v>
@@ -10670,10 +10686,10 @@
         <v>0</v>
       </c>
       <c r="AZ57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="2">
         <v>0</v>
@@ -10715,16 +10731,16 @@
         <v>0</v>
       </c>
       <c r="BO57" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP57" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ57" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58">
@@ -10732,22 +10748,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E58" s="1">
-        <v>45340</v>
+        <v>45365</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -10783,13 +10799,13 @@
         <v>0</v>
       </c>
       <c r="S58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T58" s="2">
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
@@ -10800,7 +10816,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
@@ -10813,17 +10829,15 @@
       <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
       <c r="AM58" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN58" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
       <c r="AP58" s="2">
         <v>0</v>
       </c>
       <c r="AQ58" s="1">
-        <v>45369</v>
+        <v>45399</v>
       </c>
       <c r="AR58" s="2">
         <v>1</v>
@@ -10833,10 +10847,10 @@
       </c>
       <c r="AT58" s="2"/>
       <c r="AU58" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV58" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW58" s="2">
         <v>1</v>
@@ -10845,10 +10859,10 @@
         <v>1</v>
       </c>
       <c r="AY58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="2">
         <v>0</v>
@@ -10893,16 +10907,16 @@
         <v>0</v>
       </c>
       <c r="BO58" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP58" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59">
@@ -10910,40 +10924,40 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E59" s="1">
-        <v>45045</v>
+        <v>45270</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="2">
         <v>0</v>
@@ -10952,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="2">
         <v>0</v>
@@ -10961,13 +10975,13 @@
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="T59" s="2">
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
@@ -10978,7 +10992,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
@@ -10991,17 +11005,15 @@
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
       <c r="AM59" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN59" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN59" s="2"/>
       <c r="AO59" s="2"/>
       <c r="AP59" s="2">
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>45062</v>
+        <v>45308</v>
       </c>
       <c r="AR59" s="2">
         <v>1</v>
@@ -11011,22 +11023,22 @@
       </c>
       <c r="AT59" s="2"/>
       <c r="AU59" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV59" s="2">
         <v>3</v>
       </c>
-      <c r="AV59" s="2">
-        <v>1</v>
-      </c>
       <c r="AW59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA59" s="2">
         <v>0</v>
@@ -11038,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="BD59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="2">
         <v>0</v>
@@ -11071,16 +11083,16 @@
         <v>0</v>
       </c>
       <c r="BO59" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP59" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ59" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60">
@@ -11088,28 +11100,28 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E60" s="1">
-        <v>45041</v>
+        <v>45328</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -11139,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T60" s="2">
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
@@ -11156,7 +11168,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
@@ -11169,7 +11181,7 @@
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
       <c r="AM60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
@@ -11177,17 +11189,17 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="1">
-        <v>45077</v>
+        <v>45336</v>
       </c>
       <c r="AR60" s="2">
         <v>1</v>
       </c>
       <c r="AS60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="2"/>
       <c r="AU60" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV60" s="2">
         <v>2</v>
@@ -11199,13 +11211,13 @@
         <v>1</v>
       </c>
       <c r="AY60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ60" s="2">
         <v>1</v>
       </c>
       <c r="BA60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="2">
         <v>0</v>
@@ -11217,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="BE60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF60" s="2">
         <v>0</v>
@@ -11232,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="2">
         <v>0</v>
@@ -11247,16 +11259,16 @@
         <v>0</v>
       </c>
       <c r="BO60" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BP60" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BQ60" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR60" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61">
@@ -11264,22 +11276,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E61" s="1">
-        <v>45326</v>
+        <v>45354</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -11315,13 +11327,13 @@
         <v>0</v>
       </c>
       <c r="S61" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T61" s="2">
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
@@ -11332,7 +11344,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
@@ -11345,7 +11357,7 @@
       <c r="AK61" s="2"/>
       <c r="AL61" s="2"/>
       <c r="AM61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
@@ -11353,86 +11365,440 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="1">
-        <v>45336</v>
+        <v>45370</v>
       </c>
       <c r="AR61" s="2">
         <v>1</v>
       </c>
       <c r="AS61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="2"/>
       <c r="AU61" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV61" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ61" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO61" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP61" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ61" t="s">
+        <v>170</v>
+      </c>
+      <c r="BR61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45252</v>
+      </c>
+      <c r="F62" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>80</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
+        <v>0</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0</v>
+      </c>
+      <c r="R62" s="2">
+        <v>0</v>
+      </c>
+      <c r="S62" t="s">
+        <v>75</v>
+      </c>
+      <c r="T62" s="2">
+        <v>0</v>
+      </c>
+      <c r="U62" t="s">
+        <v>105</v>
+      </c>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="2"/>
+      <c r="AK62" s="2"/>
+      <c r="AL62" s="2"/>
+      <c r="AM62" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="2"/>
+      <c r="AP62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="1">
+        <v>45261</v>
+      </c>
+      <c r="AR62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT62" s="2"/>
+      <c r="AU62" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN62" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO62" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP62" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ62" t="s">
+        <v>170</v>
+      </c>
+      <c r="BR62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45326</v>
+      </c>
+      <c r="F63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>79</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0</v>
+      </c>
+      <c r="R63" s="2">
+        <v>0</v>
+      </c>
+      <c r="S63" t="s">
+        <v>75</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0</v>
+      </c>
+      <c r="U63" t="s">
+        <v>105</v>
+      </c>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="2"/>
+      <c r="AM63" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN63" s="2"/>
+      <c r="AO63" s="2"/>
+      <c r="AP63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="1">
+        <v>45336</v>
+      </c>
+      <c r="AR63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT63" s="2"/>
+      <c r="AU63" s="2">
         <v>3</v>
       </c>
-      <c r="AV61" s="2">
+      <c r="AV63" s="2">
         <v>3</v>
       </c>
-      <c r="AW61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ61" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA61" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB61" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC61" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD61" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE61" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF61" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG61" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH61" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI61" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ61" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK61" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL61" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM61" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN61" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO61" t="s">
-        <v>164</v>
-      </c>
-      <c r="BP61" t="s">
+      <c r="AW63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ63" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO63" t="s">
         <v>166</v>
       </c>
-      <c r="BQ61" t="s">
-        <v>169</v>
-      </c>
-      <c r="BR61" t="s">
-        <v>172</v>
+      <c r="BP63" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ63" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR63" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -18,100 +18,169 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600961</t>
+  </si>
+  <si>
+    <t>600398</t>
+  </si>
+  <si>
+    <t>600699</t>
+  </si>
+  <si>
+    <t>600727</t>
+  </si>
+  <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
+    <t>600381</t>
+  </si>
+  <si>
+    <t>600310</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>600853</t>
+  </si>
+  <si>
+    <t>500906</t>
+  </si>
+  <si>
+    <t>600383</t>
+  </si>
+  <si>
+    <t>600346</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>500684</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>600360</t>
+  </si>
+  <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>600374</t>
+  </si>
+  <si>
+    <t>600886</t>
+  </si>
+  <si>
+    <t>400238</t>
+  </si>
+  <si>
+    <t>500005</t>
+  </si>
+  <si>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>600947</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
     <t>400224</t>
   </si>
   <si>
+    <t>600604</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
     <t>600322</t>
   </si>
   <si>
+    <t>600996</t>
+  </si>
+  <si>
     <t>600687</t>
   </si>
   <si>
-    <t>600602</t>
-  </si>
-  <si>
-    <t>500355</t>
-  </si>
-  <si>
-    <t>600388</t>
-  </si>
-  <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>600346</t>
+    <t>600640</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>600672</t>
+  </si>
+  <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>500025</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
+    <t>500454</t>
   </si>
   <si>
     <t>600763</t>
   </si>
   <si>
-    <t>600682</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>600886</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>500005</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>600374</t>
-  </si>
-  <si>
-    <t>600982</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>600961</t>
-  </si>
-  <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>500454</t>
-  </si>
-  <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>500951</t>
-  </si>
-  <si>
-    <t>600786</t>
-  </si>
-  <si>
-    <t>600360</t>
-  </si>
-  <si>
-    <t>600780</t>
+    <t>600812</t>
   </si>
   <si>
     <t>600758</t>
@@ -120,87 +189,18 @@
     <t>600611</t>
   </si>
   <si>
-    <t>600398</t>
-  </si>
-  <si>
-    <t>600853</t>
-  </si>
-  <si>
-    <t>600604</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>400230</t>
+    <t>600366</t>
+  </si>
+  <si>
+    <t>600775</t>
   </si>
   <si>
     <t>600614</t>
   </si>
   <si>
-    <t>600309</t>
-  </si>
-  <si>
-    <t>600996</t>
-  </si>
-  <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>600775</t>
-  </si>
-  <si>
-    <t>500025</t>
-  </si>
-  <si>
-    <t>600383</t>
-  </si>
-  <si>
-    <t>600947</t>
-  </si>
-  <si>
-    <t>600610</t>
-  </si>
-  <si>
-    <t>600396</t>
-  </si>
-  <si>
-    <t>600310</t>
-  </si>
-  <si>
-    <t>500221</t>
-  </si>
-  <si>
-    <t>600703</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>500901</t>
-  </si>
-  <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>400238</t>
-  </si>
-  <si>
-    <t>600812</t>
-  </si>
-  <si>
     <t>600326</t>
   </si>
   <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>600640</t>
-  </si>
-  <si>
-    <t>600366</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -231,15 +231,15 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
     <t>swab</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -258,27 +258,27 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>xylazine; fentanyl</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>cocaine; fentanyl</t>
   </si>
   <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
-    <t>xylazine; fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>fentanyl; crack</t>
   </si>
   <si>
@@ -312,6 +312,9 @@
     <t>color</t>
   </si>
   <si>
+    <t>pink</t>
+  </si>
+  <si>
     <t>gray</t>
   </si>
   <si>
@@ -321,9 +324,6 @@
     <t>brown</t>
   </si>
   <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -333,18 +333,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder; chunky; rock</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>powder; chunky; rock</t>
-  </si>
-  <si>
     <t>rock; crystals</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -360,31 +360,31 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>stronger</t>
+  </si>
+  <si>
+    <t>weird; sedating</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>unpleasant; hallucinations</t>
+  </si>
+  <si>
+    <t>long; unpleasant; hallucinations</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>stronger</t>
-  </si>
-  <si>
-    <t>weird; sedating</t>
-  </si>
-  <si>
-    <t>unpleasant; hallucinations</t>
+    <t>sedating</t>
   </si>
   <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>long; unpleasant; hallucinations</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -668,7 +668,7 @@
         <v>112</v>
       </c>
       <c r="Z1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA1" t="s">
         <v>113</v>
@@ -817,7 +817,7 @@
         <v>69</v>
       </c>
       <c r="E2" s="1">
-        <v>45026</v>
+        <v>45354</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
@@ -865,11 +865,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -897,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>45032</v>
+        <v>45394</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
@@ -907,7 +909,7 @@
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AV2" s="2">
         <v>3</v>
@@ -937,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="2">
         <v>0</v>
@@ -952,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK2" s="2">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="E3" s="1">
-        <v>45271</v>
+        <v>45263</v>
       </c>
       <c r="F3" t="s">
         <v>73</v>
@@ -1002,7 +1004,7 @@
         <v>73</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>80</v>
@@ -1052,12 +1054,10 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AC3" s="2"/>
-      <c r="AD3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -1067,11 +1067,9 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2">
         <v>0</v>
@@ -1087,10 +1085,10 @@
       </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
         <v>1</v>
@@ -1099,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="2">
         <v>0</v>
@@ -1173,19 +1171,19 @@
         <v>69</v>
       </c>
       <c r="E4" s="1">
-        <v>45312</v>
+        <v>45340</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -1194,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1232,11 +1230,9 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1247,15 +1243,17 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN4" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0</v>
+      </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2">
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>45348</v>
+        <v>45369</v>
       </c>
       <c r="AR4" s="2">
         <v>1</v>
@@ -1265,10 +1263,10 @@
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
         <v>1</v>
@@ -1277,10 +1275,10 @@
         <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1354,10 +1352,10 @@
         <v>45354</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1393,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
@@ -1423,7 +1421,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
@@ -1437,14 +1435,14 @@
         <v>1</v>
       </c>
       <c r="AS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
         <v>1</v>
@@ -1527,7 +1525,7 @@
         <v>69</v>
       </c>
       <c r="E6" s="1">
-        <v>45045</v>
+        <v>45034</v>
       </c>
       <c r="F6" t="s">
         <v>74</v>
@@ -1536,22 +1534,22 @@
         <v>74</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1560,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1569,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1586,9 +1584,11 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -1609,26 +1609,26 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>45062</v>
+        <v>45050</v>
       </c>
       <c r="AR6" s="2">
         <v>1</v>
       </c>
       <c r="AS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
         <v>0</v>
@@ -1646,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1705,13 +1705,13 @@
         <v>69</v>
       </c>
       <c r="E7" s="1">
-        <v>45244</v>
+        <v>45329</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1773,11 +1773,13 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+      <c r="AJ7" s="2">
+        <v>1</v>
+      </c>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
@@ -1785,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
@@ -1884,10 +1886,10 @@
         <v>45263</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1929,13 +1931,11 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="2">
-        <v>1</v>
-      </c>
+      <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -1955,11 +1955,9 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
         <v>0</v>
@@ -1971,14 +1969,14 @@
         <v>1</v>
       </c>
       <c r="AS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW8" s="2">
         <v>1</v>
@@ -1987,13 +1985,13 @@
         <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
         <v>1</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
@@ -2061,7 +2059,7 @@
         <v>69</v>
       </c>
       <c r="E9" s="1">
-        <v>45340</v>
+        <v>45252</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -2133,33 +2131,31 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2">
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>45369</v>
+        <v>45260</v>
       </c>
       <c r="AR9" s="2">
         <v>1</v>
       </c>
       <c r="AS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2">
         <v>3</v>
       </c>
       <c r="AV9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
@@ -2239,19 +2235,19 @@
         <v>69</v>
       </c>
       <c r="E10" s="1">
-        <v>45263</v>
+        <v>45041</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2260,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -2287,11 +2283,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
+      <c r="X10" s="2">
+        <v>1</v>
+      </c>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
@@ -2305,13 +2303,11 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
@@ -2319,20 +2315,20 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>45294</v>
+        <v>45062</v>
       </c>
       <c r="AR10" s="2">
         <v>1</v>
       </c>
       <c r="AS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV10" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW10" s="2">
         <v>1</v>
@@ -2359,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2415,13 +2411,13 @@
         <v>69</v>
       </c>
       <c r="E11" s="1">
-        <v>45286</v>
+        <v>45319</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -2463,20 +2459,20 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -2497,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>45308</v>
+        <v>45336</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
@@ -2507,13 +2503,13 @@
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
         <v>1</v>
@@ -2540,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2593,19 +2589,19 @@
         <v>69</v>
       </c>
       <c r="E12" s="1">
-        <v>45354</v>
+        <v>45041</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2614,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -2665,28 +2661,30 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN12" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>0</v>
+      </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2">
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>45370</v>
+        <v>45062</v>
       </c>
       <c r="AR12" s="2">
         <v>1</v>
       </c>
       <c r="AS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2">
         <v>3</v>
       </c>
       <c r="AV12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW12" s="2">
         <v>1</v>
@@ -2695,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -2769,19 +2767,19 @@
         <v>69</v>
       </c>
       <c r="E13" s="1">
-        <v>45312</v>
+        <v>45298</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -2790,10 +2788,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -2802,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2811,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
@@ -2828,12 +2826,10 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -2843,9 +2839,11 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN13" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>0</v>
+      </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2">
         <v>0</v>
@@ -2861,22 +2859,22 @@
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -2888,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -2906,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="BJ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK13" s="2">
         <v>0</v>
@@ -2947,28 +2945,28 @@
         <v>69</v>
       </c>
       <c r="E14" s="1">
-        <v>45354</v>
+        <v>45390</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -2986,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="s">
         <v>75</v>
@@ -2995,20 +2993,22 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="2">
-        <v>1</v>
-      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
       <c r="AA14" s="2"/>
       <c r="AB14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -3019,15 +3019,17 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN14" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>0</v>
+      </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2">
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>45369</v>
+        <v>45401</v>
       </c>
       <c r="AR14" s="2">
         <v>1</v>
@@ -3037,22 +3039,22 @@
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
@@ -3091,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="BM14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO14" t="s">
         <v>165</v>
@@ -3123,19 +3125,19 @@
         <v>69</v>
       </c>
       <c r="E15" s="1">
-        <v>45329</v>
+        <v>45069</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -3191,49 +3193,49 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN15" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>0</v>
+      </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2">
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>45369</v>
+        <v>45096</v>
       </c>
       <c r="AR15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
         <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3301,19 +3303,19 @@
         <v>69</v>
       </c>
       <c r="E16" s="1">
-        <v>45034</v>
+        <v>45270</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -3322,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3360,11 +3362,9 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -3375,17 +3375,15 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN16" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2">
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>45050</v>
+        <v>45308</v>
       </c>
       <c r="AR16" s="2">
         <v>1</v>
@@ -3395,10 +3393,10 @@
       </c>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW16" s="2">
         <v>1</v>
@@ -3407,10 +3405,10 @@
         <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -3481,31 +3479,31 @@
         <v>69</v>
       </c>
       <c r="E17" s="1">
-        <v>45390</v>
+        <v>45286</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -3514,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -3523,19 +3521,17 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="2">
-        <v>1</v>
-      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -3543,7 +3539,7 @@
         <v>116</v>
       </c>
       <c r="AC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -3555,27 +3551,27 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2">
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>45401</v>
+        <v>45308</v>
       </c>
       <c r="AR17" s="2">
         <v>1</v>
       </c>
       <c r="AS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV17" s="2">
         <v>1</v>
@@ -3584,13 +3580,13 @@
         <v>0</v>
       </c>
       <c r="AX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -3602,10 +3598,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -3661,19 +3657,19 @@
         <v>69</v>
       </c>
       <c r="E18" s="1">
-        <v>45270</v>
+        <v>45034</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -3682,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -3720,9 +3716,11 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -3733,15 +3731,17 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN18" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>0</v>
+      </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2">
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>45308</v>
+        <v>45054</v>
       </c>
       <c r="AR18" s="2">
         <v>1</v>
@@ -3751,25 +3751,25 @@
       </c>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV18" s="2">
         <v>3</v>
       </c>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
         <v>1</v>
       </c>
       <c r="BA18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
@@ -3837,19 +3837,19 @@
         <v>69</v>
       </c>
       <c r="E19" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -3909,7 +3909,7 @@
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>45077</v>
+        <v>45369</v>
       </c>
       <c r="AR19" s="2">
         <v>1</v>
@@ -3927,10 +3927,10 @@
       </c>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW19" s="2">
         <v>1</v>
@@ -3939,13 +3939,13 @@
         <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
         <v>1</v>
       </c>
       <c r="BA19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
         <v>0</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="BJ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK19" s="2">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="1">
-        <v>45029</v>
+        <v>45069</v>
       </c>
       <c r="F20" t="s">
         <v>74</v>
@@ -4022,22 +4022,22 @@
         <v>74</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -4072,10 +4072,12 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
@@ -4085,42 +4087,40 @@
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN20" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2">
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>45050</v>
+        <v>45089</v>
       </c>
       <c r="AR20" s="2">
         <v>1</v>
       </c>
       <c r="AS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="2">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>69</v>
       </c>
       <c r="E21" s="1">
-        <v>45069</v>
+        <v>45270</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -4233,10 +4233,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="s">
         <v>105</v>
@@ -4250,12 +4250,10 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -4265,7 +4263,7 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
@@ -4273,20 +4271,20 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>45089</v>
+        <v>45308</v>
       </c>
       <c r="AR21" s="2">
         <v>1</v>
       </c>
       <c r="AS21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW21" s="2">
         <v>1</v>
@@ -4369,7 +4367,7 @@
         <v>69</v>
       </c>
       <c r="E22" s="1">
-        <v>45252</v>
+        <v>45244</v>
       </c>
       <c r="F22" t="s">
         <v>74</v>
@@ -4378,10 +4376,10 @@
         <v>74</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -4390,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -4417,58 +4415,52 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
-      <c r="AL22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL22" s="2"/>
       <c r="AM22" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN22" s="2">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2">
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="AR22" s="2">
         <v>1</v>
       </c>
       <c r="AS22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2">
         <v>3</v>
       </c>
       <c r="AV22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW22" s="2">
         <v>1</v>
@@ -4477,10 +4469,10 @@
         <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="2">
         <v>0</v>
@@ -4554,10 +4546,10 @@
         <v>45365</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -4623,7 +4615,7 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
@@ -4727,28 +4719,28 @@
         <v>69</v>
       </c>
       <c r="E24" s="1">
-        <v>45354</v>
+        <v>45272</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -4786,41 +4778,45 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
+      <c r="AH24" s="2">
+        <v>1</v>
+      </c>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN24" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>0</v>
+      </c>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2">
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AR24" s="2">
         <v>1</v>
       </c>
       <c r="AS24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2">
         <v>4</v>
       </c>
       <c r="AV24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW24" s="2">
         <v>1</v>
@@ -4850,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -4975,30 +4971,28 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN25" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2">
         <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>45394</v>
+        <v>45369</v>
       </c>
       <c r="AR25" s="2">
         <v>1</v>
       </c>
       <c r="AS25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2">
         <v>4</v>
       </c>
       <c r="AV25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW25" s="2">
         <v>1</v>
@@ -5081,19 +5075,19 @@
         <v>69</v>
       </c>
       <c r="E26" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -5102,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -5123,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
@@ -5153,17 +5147,15 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN26" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2">
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>45077</v>
+        <v>45369</v>
       </c>
       <c r="AR26" s="2">
         <v>1</v>
@@ -5173,10 +5165,10 @@
       </c>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW26" s="2">
         <v>1</v>
@@ -5185,13 +5177,13 @@
         <v>1</v>
       </c>
       <c r="AY26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="2">
         <v>1</v>
       </c>
       <c r="BA26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="2">
         <v>0</v>
@@ -5203,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="2">
         <v>0</v>
@@ -5218,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK26" s="2">
         <v>0</v>
@@ -5259,19 +5251,19 @@
         <v>69</v>
       </c>
       <c r="E27" s="1">
-        <v>45069</v>
+        <v>45315</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
@@ -5280,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -5331,17 +5323,15 @@
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN27" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2">
         <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>45096</v>
+        <v>45336</v>
       </c>
       <c r="AR27" s="2">
         <v>1</v>
@@ -5351,13 +5341,13 @@
       </c>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV27" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX27" s="2">
         <v>1</v>
@@ -5384,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="BF27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG27" s="2">
         <v>0</v>
@@ -5437,7 +5427,7 @@
         <v>69</v>
       </c>
       <c r="E28" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="F28" t="s">
         <v>74</v>
@@ -5509,7 +5499,7 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
@@ -5517,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <v>45370</v>
+        <v>45260</v>
       </c>
       <c r="AR28" s="2">
         <v>1</v>
@@ -5527,13 +5517,13 @@
       </c>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="2">
         <v>1</v>
@@ -5613,31 +5603,31 @@
         <v>69</v>
       </c>
       <c r="E29" s="1">
-        <v>45319</v>
+        <v>45029</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -5646,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
@@ -5655,13 +5645,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -5685,17 +5675,17 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2">
         <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>45336</v>
+        <v>45050</v>
       </c>
       <c r="AR29" s="2">
         <v>1</v>
@@ -5705,22 +5695,22 @@
       </c>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV29" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="2">
         <v>0</v>
@@ -5732,13 +5722,13 @@
         <v>0</v>
       </c>
       <c r="BD29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG29" s="2">
         <v>0</v>
@@ -5791,19 +5781,19 @@
         <v>69</v>
       </c>
       <c r="E30" s="1">
-        <v>45069</v>
+        <v>45354</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -5863,33 +5853,31 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN30" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="2">
         <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>45089</v>
+        <v>45370</v>
       </c>
       <c r="AR30" s="2">
         <v>1</v>
       </c>
       <c r="AS30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="2"/>
       <c r="AU30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="2">
         <v>1</v>
@@ -5969,31 +5957,31 @@
         <v>69</v>
       </c>
       <c r="E31" s="1">
-        <v>45300</v>
+        <v>45045</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -6002,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="2">
         <v>0</v>
@@ -6011,13 +5999,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -6028,12 +6016,10 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
@@ -6043,40 +6029,42 @@
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN31" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>0</v>
+      </c>
       <c r="AO31" s="2"/>
       <c r="AP31" s="2">
         <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>45317</v>
+        <v>45062</v>
       </c>
       <c r="AR31" s="2">
         <v>1</v>
       </c>
       <c r="AS31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="2"/>
       <c r="AU31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="2">
         <v>0</v>
@@ -6088,10 +6076,10 @@
         <v>0</v>
       </c>
       <c r="BD31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF31" s="2">
         <v>0</v>
@@ -6147,19 +6135,19 @@
         <v>69</v>
       </c>
       <c r="E32" s="1">
-        <v>45252</v>
+        <v>45069</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -6219,28 +6207,30 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN32" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>0</v>
+      </c>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2">
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>45260</v>
+        <v>45089</v>
       </c>
       <c r="AR32" s="2">
         <v>1</v>
       </c>
       <c r="AS32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2">
         <v>3</v>
       </c>
       <c r="AV32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW32" s="2">
         <v>1</v>
@@ -6323,37 +6313,37 @@
         <v>69</v>
       </c>
       <c r="E33" s="1">
-        <v>45333</v>
+        <v>45252</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2">
         <v>0</v>
@@ -6365,49 +6355,51 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>1</v>
+      </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
+      <c r="AL33" s="2">
+        <v>1</v>
+      </c>
       <c r="AM33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO33" s="2"/>
       <c r="AP33" s="2">
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>45364</v>
+        <v>45259</v>
       </c>
       <c r="AR33" s="2">
         <v>1</v>
@@ -6417,16 +6409,16 @@
       </c>
       <c r="AT33" s="2"/>
       <c r="AU33" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV33" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY33" s="2">
         <v>0</v>
@@ -6438,10 +6430,10 @@
         <v>0</v>
       </c>
       <c r="BB33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD33" s="2">
         <v>0</v>
@@ -6503,31 +6495,31 @@
         <v>69</v>
       </c>
       <c r="E34" s="1">
-        <v>45349</v>
+        <v>45390</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
       </c>
       <c r="M34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
@@ -6536,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="2">
         <v>0</v>
@@ -6545,24 +6537,28 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
+      <c r="X34" s="2">
+        <v>1</v>
+      </c>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
@@ -6573,40 +6569,42 @@
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN34" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>0</v>
+      </c>
       <c r="AO34" s="2"/>
       <c r="AP34" s="2">
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>45369</v>
+        <v>45401</v>
       </c>
       <c r="AR34" s="2">
         <v>1</v>
       </c>
       <c r="AS34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV34" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="2">
         <v>0</v>
@@ -6618,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="BD34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE34" s="2">
         <v>1</v>
@@ -6677,7 +6675,7 @@
         <v>69</v>
       </c>
       <c r="E35" s="1">
-        <v>45354</v>
+        <v>45034</v>
       </c>
       <c r="F35" t="s">
         <v>74</v>
@@ -6686,10 +6684,10 @@
         <v>74</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -6698,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
@@ -6736,9 +6734,11 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
@@ -6749,15 +6749,17 @@
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN35" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>0</v>
+      </c>
       <c r="AO35" s="2"/>
       <c r="AP35" s="2">
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>45369</v>
+        <v>45050</v>
       </c>
       <c r="AR35" s="2">
         <v>1</v>
@@ -6767,11 +6769,11 @@
       </c>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV35" s="2">
         <v>3</v>
       </c>
-      <c r="AV35" s="2">
-        <v>2</v>
-      </c>
       <c r="AW35" s="2">
         <v>1</v>
       </c>
@@ -6779,10 +6781,10 @@
         <v>1</v>
       </c>
       <c r="AY35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="2">
         <v>0</v>
@@ -6853,13 +6855,13 @@
         <v>69</v>
       </c>
       <c r="E36" s="1">
-        <v>45263</v>
+        <v>45041</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -6925,7 +6927,7 @@
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
@@ -6933,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>45294</v>
+        <v>45077</v>
       </c>
       <c r="AR36" s="2">
         <v>1</v>
@@ -6943,10 +6945,10 @@
       </c>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV36" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW36" s="2">
         <v>1</v>
@@ -6958,10 +6960,10 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB36" s="2">
         <v>0</v>
@@ -6973,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="BE36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF36" s="2">
         <v>0</v>
@@ -6988,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="BJ36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK36" s="2">
         <v>0</v>
@@ -7029,7 +7031,7 @@
         <v>69</v>
       </c>
       <c r="E37" s="1">
-        <v>45390</v>
+        <v>45270</v>
       </c>
       <c r="F37" t="s">
         <v>74</v>
@@ -7038,19 +7040,19 @@
         <v>74</v>
       </c>
       <c r="H37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
@@ -7068,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" t="s">
         <v>75</v>
@@ -7077,22 +7079,20 @@
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
+      <c r="X37" s="2">
+        <v>1</v>
+      </c>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC37" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
@@ -7103,42 +7103,40 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN37" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
       <c r="AP37" s="2">
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>45401</v>
+        <v>45308</v>
       </c>
       <c r="AR37" s="2">
         <v>1</v>
       </c>
       <c r="AS37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV37" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA37" s="2">
         <v>0</v>
@@ -7177,10 +7175,10 @@
         <v>0</v>
       </c>
       <c r="BM37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO37" t="s">
         <v>165</v>
@@ -7209,7 +7207,7 @@
         <v>69</v>
       </c>
       <c r="E38" s="1">
-        <v>45260</v>
+        <v>45354</v>
       </c>
       <c r="F38" t="s">
         <v>72</v>
@@ -7218,19 +7216,19 @@
         <v>72</v>
       </c>
       <c r="H38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
@@ -7248,46 +7246,40 @@
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
+      <c r="X38" s="2">
+        <v>1</v>
+      </c>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
-      <c r="AI38" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
       <c r="AM38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
@@ -7295,17 +7287,17 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>45316</v>
+        <v>45394</v>
       </c>
       <c r="AR38" s="2">
         <v>1</v>
       </c>
       <c r="AS38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV38" s="2">
         <v>1</v>
@@ -7314,13 +7306,13 @@
         <v>0</v>
       </c>
       <c r="AX38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA38" s="2">
         <v>0</v>
@@ -7359,10 +7351,10 @@
         <v>0</v>
       </c>
       <c r="BM38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO38" t="s">
         <v>165</v>
@@ -7391,37 +7383,37 @@
         <v>69</v>
       </c>
       <c r="E39" s="1">
-        <v>45354</v>
+        <v>45333</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2">
         <v>0</v>
@@ -7433,26 +7425,28 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="2">
-        <v>1</v>
-      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
+      <c r="Z39" s="2">
+        <v>1</v>
+      </c>
       <c r="AA39" s="2"/>
       <c r="AB39" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
@@ -7463,49 +7457,51 @@
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN39" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>0</v>
+      </c>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2">
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>45370</v>
+        <v>45364</v>
       </c>
       <c r="AR39" s="2">
         <v>1</v>
       </c>
       <c r="AS39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="2">
         <v>0</v>
       </c>
       <c r="BB39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD39" s="2">
         <v>0</v>
@@ -7567,7 +7563,7 @@
         <v>69</v>
       </c>
       <c r="E40" s="1">
-        <v>45034</v>
+        <v>45026</v>
       </c>
       <c r="F40" t="s">
         <v>73</v>
@@ -7576,10 +7572,10 @@
         <v>73</v>
       </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -7588,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -7615,22 +7611,18 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="2">
-        <v>1</v>
-      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC40" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
@@ -7651,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>45054</v>
+        <v>45032</v>
       </c>
       <c r="AR40" s="2">
         <v>1</v>
@@ -7661,25 +7653,25 @@
       </c>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV40" s="2">
         <v>3</v>
       </c>
       <c r="AW40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX40" s="2">
         <v>1</v>
       </c>
       <c r="AY40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ40" s="2">
         <v>1</v>
       </c>
       <c r="BA40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="2">
         <v>0</v>
@@ -7691,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="BE40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF40" s="2">
         <v>0</v>
@@ -7706,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="BJ40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK40" s="2">
         <v>0</v>
@@ -7747,28 +7739,28 @@
         <v>69</v>
       </c>
       <c r="E41" s="1">
-        <v>45354</v>
+        <v>45260</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="2">
         <v>0</v>
@@ -7786,40 +7778,46 @@
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="2">
-        <v>1</v>
-      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
+      <c r="Z41" s="2">
+        <v>1</v>
+      </c>
       <c r="AA41" s="2"/>
       <c r="AB41" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
+      <c r="AD41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>1</v>
+      </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
+      <c r="AI41" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
@@ -7827,32 +7825,32 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="1">
-        <v>45369</v>
+        <v>45316</v>
       </c>
       <c r="AR41" s="2">
         <v>1</v>
       </c>
       <c r="AS41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV41" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="2">
         <v>0</v>
@@ -7891,10 +7889,10 @@
         <v>0</v>
       </c>
       <c r="BM41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO41" t="s">
         <v>165</v>
@@ -7923,7 +7921,7 @@
         <v>69</v>
       </c>
       <c r="E42" s="1">
-        <v>45272</v>
+        <v>45263</v>
       </c>
       <c r="F42" t="s">
         <v>73</v>
@@ -7932,19 +7930,19 @@
         <v>73</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
       </c>
       <c r="K42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="2">
         <v>0</v>
@@ -7982,18 +7980,18 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
+      <c r="AJ42" s="2">
+        <v>1</v>
+      </c>
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
       <c r="AM42" t="s">
@@ -8013,14 +8011,14 @@
         <v>1</v>
       </c>
       <c r="AS42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42" s="2"/>
       <c r="AU42" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV42" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW42" s="2">
         <v>1</v>
@@ -8029,13 +8027,13 @@
         <v>1</v>
       </c>
       <c r="AY42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="2">
         <v>1</v>
       </c>
       <c r="BA42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB42" s="2">
         <v>0</v>
@@ -8050,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="BF42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG42" s="2">
         <v>0</v>
@@ -8103,19 +8101,19 @@
         <v>69</v>
       </c>
       <c r="E43" s="1">
-        <v>45365</v>
+        <v>45271</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -8124,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="2">
         <v>0</v>
@@ -8162,30 +8160,32 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
+      <c r="AD43" s="2">
+        <v>1</v>
+      </c>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN43" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>0</v>
+      </c>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2">
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>45399</v>
+        <v>45294</v>
       </c>
       <c r="AR43" s="2">
         <v>1</v>
@@ -8198,10 +8198,10 @@
         <v>4</v>
       </c>
       <c r="AV43" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX43" s="2">
         <v>1</v>
@@ -8281,7 +8281,7 @@
         <v>69</v>
       </c>
       <c r="E44" s="1">
-        <v>45354</v>
+        <v>45365</v>
       </c>
       <c r="F44" t="s">
         <v>74</v>
@@ -8290,7 +8290,7 @@
         <v>74</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="s">
         <v>79</v>
@@ -8340,20 +8340,22 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
+      <c r="AG44" s="2">
+        <v>1</v>
+      </c>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
@@ -8361,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>45369</v>
+        <v>45399</v>
       </c>
       <c r="AR44" s="2">
         <v>1</v>
@@ -8374,10 +8376,10 @@
         <v>4</v>
       </c>
       <c r="AV44" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX44" s="2">
         <v>1</v>
@@ -8416,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="BJ44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK44" s="2">
         <v>0</v>
@@ -8457,19 +8459,19 @@
         <v>69</v>
       </c>
       <c r="E45" s="1">
-        <v>45298</v>
+        <v>45312</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H45" s="2">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -8481,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -8490,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="2">
         <v>0</v>
@@ -8499,26 +8501,28 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="T45" s="2">
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
+      <c r="X45" s="2">
+        <v>1</v>
+      </c>
       <c r="Y45" s="2"/>
-      <c r="Z45" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>0</v>
+      </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
@@ -8529,36 +8533,34 @@
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN45" s="2">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
       <c r="AP45" s="2">
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>45317</v>
+        <v>45348</v>
       </c>
       <c r="AR45" s="2">
         <v>1</v>
       </c>
       <c r="AS45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY45" s="2">
         <v>0</v>
@@ -8576,10 +8578,10 @@
         <v>0</v>
       </c>
       <c r="BD45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF45" s="2">
         <v>0</v>
@@ -8635,19 +8637,19 @@
         <v>69</v>
       </c>
       <c r="E46" s="1">
-        <v>45060</v>
+        <v>45354</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -8677,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="T46" s="2">
         <v>0</v>
@@ -8707,7 +8709,7 @@
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
       <c r="AM46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
@@ -8715,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>45089</v>
+        <v>45370</v>
       </c>
       <c r="AR46" s="2">
         <v>1</v>
@@ -8725,7 +8727,7 @@
       </c>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV46" s="2">
         <v>2</v>
@@ -8737,13 +8739,13 @@
         <v>1</v>
       </c>
       <c r="AY46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ46" s="2">
         <v>1</v>
       </c>
       <c r="BA46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB46" s="2">
         <v>0</v>
@@ -8811,19 +8813,19 @@
         <v>69</v>
       </c>
       <c r="E47" s="1">
-        <v>45270</v>
+        <v>45328</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -8832,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="2">
         <v>0</v>
@@ -8883,7 +8885,7 @@
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
       <c r="AM47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
@@ -8891,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>45308</v>
+        <v>45336</v>
       </c>
       <c r="AR47" s="2">
         <v>1</v>
@@ -8901,10 +8903,10 @@
       </c>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV47" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW47" s="2">
         <v>1</v>
@@ -8990,10 +8992,10 @@
         <v>45354</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -9059,7 +9061,7 @@
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
       <c r="AM48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
@@ -9067,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>45394</v>
+        <v>45370</v>
       </c>
       <c r="AR48" s="2">
         <v>1</v>
@@ -9077,13 +9079,13 @@
       </c>
       <c r="AT48" s="2"/>
       <c r="AU48" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV48" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX48" s="2">
         <v>1</v>
@@ -9163,19 +9165,19 @@
         <v>69</v>
       </c>
       <c r="E49" s="1">
-        <v>45315</v>
+        <v>45354</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -9184,7 +9186,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -9235,7 +9237,7 @@
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
@@ -9243,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>45336</v>
+        <v>45369</v>
       </c>
       <c r="AR49" s="2">
         <v>1</v>
@@ -9253,13 +9255,13 @@
       </c>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV49" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX49" s="2">
         <v>1</v>
@@ -9286,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="BF49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG49" s="2">
         <v>0</v>
@@ -9298,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="BJ49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK49" s="2">
         <v>0</v>
@@ -9339,19 +9341,19 @@
         <v>69</v>
       </c>
       <c r="E50" s="1">
-        <v>45270</v>
+        <v>45041</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -9360,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
@@ -9381,10 +9383,10 @@
         <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="T50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" t="s">
         <v>105</v>
@@ -9411,15 +9413,17 @@
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
       <c r="AM50" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN50" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>0</v>
+      </c>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2">
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>45308</v>
+        <v>45077</v>
       </c>
       <c r="AR50" s="2">
         <v>1</v>
@@ -9429,10 +9433,10 @@
       </c>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV50" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW50" s="2">
         <v>1</v>
@@ -9441,13 +9445,13 @@
         <v>1</v>
       </c>
       <c r="AY50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="2">
         <v>1</v>
       </c>
       <c r="BA50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB50" s="2">
         <v>0</v>
@@ -9459,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="BE50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF50" s="2">
         <v>0</v>
@@ -9474,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="BJ50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK50" s="2">
         <v>0</v>
@@ -9515,19 +9519,19 @@
         <v>69</v>
       </c>
       <c r="E51" s="1">
-        <v>45252</v>
+        <v>45312</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -9536,10 +9540,10 @@
         <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="2">
         <v>0</v>
@@ -9548,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="2">
         <v>0</v>
@@ -9557,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="T51" s="2">
         <v>0</v>
@@ -9574,10 +9578,12 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
+      <c r="AD51" s="2">
+        <v>1</v>
+      </c>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
@@ -9587,7 +9593,7 @@
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
       <c r="AM51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
@@ -9595,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>45260</v>
+        <v>45316</v>
       </c>
       <c r="AR51" s="2">
         <v>1</v>
@@ -9605,7 +9611,7 @@
       </c>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV51" s="2">
         <v>1</v>
@@ -9617,10 +9623,10 @@
         <v>1</v>
       </c>
       <c r="AY51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="2">
         <v>0</v>
@@ -9632,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="BD51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF51" s="2">
         <v>0</v>
@@ -9691,19 +9697,19 @@
         <v>69</v>
       </c>
       <c r="E52" s="1">
-        <v>45041</v>
+        <v>45060</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -9712,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
@@ -9733,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
@@ -9763,7 +9769,7 @@
       <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
       <c r="AM52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
@@ -9771,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <v>45062</v>
+        <v>45089</v>
       </c>
       <c r="AR52" s="2">
         <v>1</v>
@@ -9781,7 +9787,7 @@
       </c>
       <c r="AT52" s="2"/>
       <c r="AU52" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV52" s="2">
         <v>2</v>
@@ -9793,13 +9799,13 @@
         <v>1</v>
       </c>
       <c r="AY52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="2">
         <v>1</v>
       </c>
       <c r="BA52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB52" s="2">
         <v>0</v>
@@ -9811,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="BE52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF52" s="2">
         <v>0</v>
@@ -9867,7 +9873,7 @@
         <v>69</v>
       </c>
       <c r="E53" s="1">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="F53" t="s">
         <v>74</v>
@@ -9876,10 +9882,10 @@
         <v>74</v>
       </c>
       <c r="H53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -9888,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" s="2">
         <v>0</v>
@@ -9926,10 +9932,12 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
+      <c r="AD53" s="2">
+        <v>1</v>
+      </c>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
@@ -9939,30 +9947,28 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN53" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2">
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>45316</v>
+        <v>45317</v>
       </c>
       <c r="AR53" s="2">
         <v>1</v>
       </c>
       <c r="AS53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV53" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW53" s="2">
         <v>1</v>
@@ -10004,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK53" s="2">
         <v>0</v>
@@ -10048,16 +10054,16 @@
         <v>45069</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -10130,32 +10136,32 @@
         <v>45096</v>
       </c>
       <c r="AR54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS54" s="2">
         <v>1</v>
       </c>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV54" s="2">
         <v>2</v>
       </c>
-      <c r="AV54" s="2">
-        <v>0</v>
-      </c>
       <c r="AW54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX54" s="2">
         <v>1</v>
       </c>
       <c r="AY54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ54" s="2">
         <v>1</v>
       </c>
       <c r="BA54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="2">
         <v>0</v>
@@ -10223,19 +10229,19 @@
         <v>69</v>
       </c>
       <c r="E55" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -10244,7 +10250,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="2">
         <v>0</v>
@@ -10295,30 +10301,28 @@
       <c r="AK55" s="2"/>
       <c r="AL55" s="2"/>
       <c r="AM55" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN55" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
       <c r="AP55" s="2">
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>45062</v>
+        <v>45370</v>
       </c>
       <c r="AR55" s="2">
         <v>1</v>
       </c>
       <c r="AS55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="2"/>
       <c r="AU55" s="2">
         <v>3</v>
       </c>
       <c r="AV55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW55" s="2">
         <v>1</v>
@@ -10327,10 +10331,10 @@
         <v>1</v>
       </c>
       <c r="AY55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA55" s="2">
         <v>0</v>
@@ -10401,13 +10405,13 @@
         <v>69</v>
       </c>
       <c r="E56" s="1">
-        <v>45354</v>
+        <v>45365</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -10473,7 +10477,7 @@
       <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
       <c r="AM56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
@@ -10481,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>45369</v>
+        <v>45399</v>
       </c>
       <c r="AR56" s="2">
         <v>1</v>
@@ -10491,10 +10495,10 @@
       </c>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV56" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW56" s="2">
         <v>1</v>
@@ -10503,10 +10507,10 @@
         <v>1</v>
       </c>
       <c r="AY56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA56" s="2">
         <v>0</v>
@@ -10577,16 +10581,16 @@
         <v>69</v>
       </c>
       <c r="E57" s="1">
-        <v>45034</v>
+        <v>45349</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
         <v>80</v>
@@ -10625,22 +10629,18 @@
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
-      <c r="X57" s="2">
-        <v>1</v>
-      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC57" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
@@ -10651,17 +10651,15 @@
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
       <c r="AM57" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN57" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
       <c r="AP57" s="2">
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>45050</v>
+        <v>45369</v>
       </c>
       <c r="AR57" s="2">
         <v>1</v>
@@ -10671,7 +10669,7 @@
       </c>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV57" s="2">
         <v>3</v>
@@ -10683,10 +10681,10 @@
         <v>1</v>
       </c>
       <c r="AY57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA57" s="2">
         <v>0</v>
@@ -10701,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="BE57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF57" s="2">
         <v>0</v>
@@ -10757,13 +10755,13 @@
         <v>69</v>
       </c>
       <c r="E58" s="1">
-        <v>45365</v>
+        <v>45354</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -10829,7 +10827,7 @@
       <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
       <c r="AM58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
@@ -10837,17 +10835,17 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="1">
-        <v>45399</v>
+        <v>45369</v>
       </c>
       <c r="AR58" s="2">
         <v>1</v>
       </c>
       <c r="AS58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="2"/>
       <c r="AU58" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV58" s="2">
         <v>2</v>
@@ -10859,10 +10857,10 @@
         <v>1</v>
       </c>
       <c r="AY58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA58" s="2">
         <v>0</v>
@@ -10933,19 +10931,19 @@
         <v>69</v>
       </c>
       <c r="E59" s="1">
-        <v>45270</v>
+        <v>45252</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -10954,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="2">
         <v>0</v>
@@ -11005,15 +11003,17 @@
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
       <c r="AM59" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN59" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN59" s="2">
+        <v>0</v>
+      </c>
       <c r="AO59" s="2"/>
       <c r="AP59" s="2">
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>45308</v>
+        <v>45261</v>
       </c>
       <c r="AR59" s="2">
         <v>1</v>
@@ -11023,10 +11023,10 @@
       </c>
       <c r="AT59" s="2"/>
       <c r="AU59" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV59" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW59" s="2">
         <v>1</v>
@@ -11035,10 +11035,10 @@
         <v>1</v>
       </c>
       <c r="AY59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="2">
         <v>0</v>
@@ -11109,19 +11109,19 @@
         <v>69</v>
       </c>
       <c r="E60" s="1">
-        <v>45328</v>
+        <v>45298</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="2">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="2">
         <v>0</v>
@@ -11151,21 +11151,21 @@
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="T60" s="2">
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
-      <c r="X60" s="2">
-        <v>1</v>
-      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
+      <c r="Z60" s="2">
+        <v>1</v>
+      </c>
       <c r="AA60" s="2"/>
       <c r="AB60" t="s">
         <v>75</v>
@@ -11181,40 +11181,42 @@
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
       <c r="AM60" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN60" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN60" s="2">
+        <v>1</v>
+      </c>
       <c r="AO60" s="2"/>
       <c r="AP60" s="2">
         <v>0</v>
       </c>
       <c r="AQ60" s="1">
-        <v>45336</v>
+        <v>45317</v>
       </c>
       <c r="AR60" s="2">
         <v>1</v>
       </c>
       <c r="AS60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="2"/>
       <c r="AU60" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV60" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA60" s="2">
         <v>0</v>
@@ -11226,10 +11228,10 @@
         <v>0</v>
       </c>
       <c r="BD60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF60" s="2">
         <v>0</v>
@@ -11288,10 +11290,10 @@
         <v>45354</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -11357,7 +11359,7 @@
       <c r="AK61" s="2"/>
       <c r="AL61" s="2"/>
       <c r="AM61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
@@ -11365,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="1">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="AR61" s="2">
         <v>1</v>
@@ -11375,10 +11377,10 @@
       </c>
       <c r="AT61" s="2"/>
       <c r="AU61" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV61" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW61" s="2">
         <v>1</v>
@@ -11461,19 +11463,19 @@
         <v>69</v>
       </c>
       <c r="E62" s="1">
-        <v>45252</v>
+        <v>45270</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -11482,7 +11484,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="2">
         <v>0</v>
@@ -11533,17 +11535,15 @@
       <c r="AK62" s="2"/>
       <c r="AL62" s="2"/>
       <c r="AM62" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN62" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
       <c r="AP62" s="2">
         <v>0</v>
       </c>
       <c r="AQ62" s="1">
-        <v>45261</v>
+        <v>45308</v>
       </c>
       <c r="AR62" s="2">
         <v>1</v>
@@ -11553,10 +11553,10 @@
       </c>
       <c r="AT62" s="2"/>
       <c r="AU62" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV62" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW62" s="2">
         <v>1</v>
@@ -11565,10 +11565,10 @@
         <v>1</v>
       </c>
       <c r="AY62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA62" s="2">
         <v>0</v>
@@ -11642,10 +11642,10 @@
         <v>45326</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -11711,7 +11711,7 @@
       <c r="AK63" s="2"/>
       <c r="AL63" s="2"/>
       <c r="AM63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN63" s="2"/>
       <c r="AO63" s="2"/>

--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -18,189 +18,189 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>500005</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
+    <t>600758</t>
+  </si>
+  <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
+    <t>600614</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>600996</t>
+  </si>
+  <si>
+    <t>500684</t>
+  </si>
+  <si>
+    <t>600360</t>
+  </si>
+  <si>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>600326</t>
+  </si>
+  <si>
+    <t>600640</t>
+  </si>
+  <si>
+    <t>600812</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
+    <t>600699</t>
+  </si>
+  <si>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
+    <t>600611</t>
+  </si>
+  <si>
+    <t>600322</t>
+  </si>
+  <si>
+    <t>600381</t>
+  </si>
+  <si>
     <t>600961</t>
   </si>
   <si>
+    <t>500906</t>
+  </si>
+  <si>
+    <t>600687</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>600672</t>
+  </si>
+  <si>
+    <t>600604</t>
+  </si>
+  <si>
+    <t>500025</t>
+  </si>
+  <si>
+    <t>500454</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>600366</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
+    <t>600374</t>
+  </si>
+  <si>
+    <t>600727</t>
+  </si>
+  <si>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>600853</t>
+  </si>
+  <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>600383</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>600886</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
+    <t>600947</t>
+  </si>
+  <si>
+    <t>600310</t>
+  </si>
+  <si>
+    <t>600775</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>400238</t>
+  </si>
+  <si>
     <t>600398</t>
   </si>
   <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>600310</t>
-  </si>
-  <si>
-    <t>500221</t>
-  </si>
-  <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>500901</t>
-  </si>
-  <si>
-    <t>600703</t>
-  </si>
-  <si>
-    <t>600853</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>600383</t>
+    <t>600776</t>
   </si>
   <si>
     <t>600346</t>
   </si>
   <si>
-    <t>400230</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>600396</t>
-  </si>
-  <si>
-    <t>600388</t>
-  </si>
-  <si>
-    <t>600982</t>
-  </si>
-  <si>
-    <t>600309</t>
-  </si>
-  <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>600602</t>
-  </si>
-  <si>
-    <t>600610</t>
-  </si>
-  <si>
-    <t>600360</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>500355</t>
-  </si>
-  <si>
-    <t>500951</t>
-  </si>
-  <si>
-    <t>600374</t>
-  </si>
-  <si>
-    <t>600886</t>
-  </si>
-  <si>
-    <t>400238</t>
-  </si>
-  <si>
-    <t>500005</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>600947</t>
-  </si>
-  <si>
-    <t>600780</t>
-  </si>
-  <si>
-    <t>400224</t>
-  </si>
-  <si>
-    <t>600604</t>
-  </si>
-  <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>600322</t>
-  </si>
-  <si>
-    <t>600996</t>
-  </si>
-  <si>
-    <t>600687</t>
-  </si>
-  <si>
-    <t>600640</t>
-  </si>
-  <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>600682</t>
-  </si>
-  <si>
-    <t>500025</t>
-  </si>
-  <si>
-    <t>600786</t>
-  </si>
-  <si>
-    <t>500454</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>600812</t>
-  </si>
-  <si>
-    <t>600758</t>
-  </si>
-  <si>
-    <t>600611</t>
-  </si>
-  <si>
-    <t>600366</t>
-  </si>
-  <si>
-    <t>600775</t>
-  </si>
-  <si>
-    <t>600614</t>
-  </si>
-  <si>
-    <t>600326</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -231,15 +231,15 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -252,36 +252,36 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
+    <t>xylazine; fentanyl</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>xylazine; fentanyl</t>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>cocaine; fentanyl</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
-    <t>cocaine</t>
+    <t>fentanyl; crack</t>
   </si>
   <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>cocaine; fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; crack</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -312,15 +312,15 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>pink</t>
   </si>
   <si>
     <t>gray</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>brown</t>
   </si>
   <si>
@@ -333,12 +333,12 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; chunky; rock</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder; chunky; rock</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
@@ -360,31 +360,31 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>weird; sedating</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>long; unpleasant; hallucinations</t>
+  </si>
+  <si>
+    <t>unpleasant; hallucinations</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>stronger</t>
-  </si>
-  <si>
-    <t>weird; sedating</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>unpleasant; hallucinations</t>
-  </si>
-  <si>
-    <t>long; unpleasant; hallucinations</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>sedating</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -668,7 +668,7 @@
         <v>112</v>
       </c>
       <c r="Z1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA1" t="s">
         <v>113</v>
@@ -817,7 +817,7 @@
         <v>69</v>
       </c>
       <c r="E2" s="1">
-        <v>45354</v>
+        <v>45041</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -889,17 +889,15 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2">
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>45394</v>
+        <v>45077</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
@@ -909,10 +907,10 @@
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW2" s="2">
         <v>1</v>
@@ -921,13 +919,13 @@
         <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
         <v>1</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -939,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2" s="2">
         <v>0</v>
@@ -954,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2" s="2">
         <v>0</v>
@@ -1016,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1063,13 +1061,17 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
+      <c r="AJ3" s="2">
+        <v>1</v>
+      </c>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN3" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>0</v>
+      </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2">
         <v>0</v>
@@ -1085,10 +1087,10 @@
       </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW3" s="2">
         <v>1</v>
@@ -1100,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
@@ -1171,13 +1173,13 @@
         <v>69</v>
       </c>
       <c r="E4" s="1">
-        <v>45340</v>
+        <v>45349</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1192,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1219,13 +1221,11 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
+      <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
@@ -1243,11 +1243,9 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2">
         <v>0</v>
@@ -1259,11 +1257,11 @@
         <v>1</v>
       </c>
       <c r="AS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV4" s="2">
         <v>3</v>
@@ -1293,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1349,31 +1347,31 @@
         <v>69</v>
       </c>
       <c r="E5" s="1">
-        <v>45354</v>
+        <v>45029</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1382,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1391,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -1421,40 +1419,42 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN5" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0</v>
+      </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2">
         <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>45369</v>
+        <v>45050</v>
       </c>
       <c r="AR5" s="2">
         <v>1</v>
       </c>
       <c r="AS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>69</v>
       </c>
       <c r="E6" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="F6" t="s">
         <v>74</v>
@@ -1534,10 +1534,10 @@
         <v>74</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -1584,11 +1584,9 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -1609,17 +1607,17 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>45050</v>
+        <v>45062</v>
       </c>
       <c r="AR6" s="2">
         <v>1</v>
       </c>
       <c r="AS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV6" s="2">
         <v>2</v>
@@ -1705,7 +1703,7 @@
         <v>69</v>
       </c>
       <c r="E7" s="1">
-        <v>45329</v>
+        <v>45354</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -1717,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1773,9 +1771,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
@@ -1797,10 +1793,10 @@
       </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV7" s="2">
         <v>3</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>2</v>
       </c>
       <c r="AW7" s="2">
         <v>1</v>
@@ -1883,13 +1879,13 @@
         <v>69</v>
       </c>
       <c r="E8" s="1">
-        <v>45263</v>
+        <v>45315</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1904,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1931,11 +1927,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -1949,9 +1947,7 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" t="s">
@@ -1963,23 +1959,23 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>45294</v>
+        <v>45336</v>
       </c>
       <c r="AR8" s="2">
         <v>1</v>
       </c>
       <c r="AS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV8" s="2">
         <v>4</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -2006,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2059,19 +2055,19 @@
         <v>69</v>
       </c>
       <c r="E9" s="1">
-        <v>45252</v>
+        <v>45365</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2118,13 +2114,15 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
+      <c r="AG9" s="2">
+        <v>1</v>
+      </c>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
@@ -2139,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>45260</v>
+        <v>45399</v>
       </c>
       <c r="AR9" s="2">
         <v>1</v>
@@ -2149,7 +2147,7 @@
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV9" s="2">
         <v>1</v>
@@ -2235,19 +2233,19 @@
         <v>69</v>
       </c>
       <c r="E10" s="1">
-        <v>45041</v>
+        <v>45069</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2294,10 +2292,12 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2315,17 +2315,17 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>45062</v>
+        <v>45089</v>
       </c>
       <c r="AR10" s="2">
         <v>1</v>
       </c>
       <c r="AS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV10" s="2">
         <v>2</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="1">
-        <v>45319</v>
+        <v>45252</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -2420,10 +2420,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2483,17 +2483,15 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2">
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>45336</v>
+        <v>45260</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
@@ -2503,10 +2501,10 @@
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW11" s="2">
         <v>1</v>
@@ -2536,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2589,7 +2587,7 @@
         <v>69</v>
       </c>
       <c r="E12" s="1">
-        <v>45041</v>
+        <v>45069</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -2601,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2610,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -2671,20 +2669,20 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>45062</v>
+        <v>45089</v>
       </c>
       <c r="AR12" s="2">
         <v>1</v>
       </c>
       <c r="AS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2">
         <v>3</v>
       </c>
       <c r="AV12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW12" s="2">
         <v>1</v>
@@ -2693,10 +2691,10 @@
         <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -2767,7 +2765,7 @@
         <v>69</v>
       </c>
       <c r="E13" s="1">
-        <v>45298</v>
+        <v>45270</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -2779,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -2809,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="s">
         <v>105</v>
@@ -2839,17 +2837,15 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN13" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2">
         <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <v>45316</v>
+        <v>45308</v>
       </c>
       <c r="AR13" s="2">
         <v>1</v>
@@ -2862,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW13" s="2">
         <v>1</v>
@@ -2904,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="BJ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK13" s="2">
         <v>0</v>
@@ -2945,7 +2941,7 @@
         <v>69</v>
       </c>
       <c r="E14" s="1">
-        <v>45390</v>
+        <v>45034</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
@@ -2957,13 +2953,13 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -2984,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="s">
         <v>75</v>
@@ -2993,18 +2989,18 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AC14" s="2">
         <v>0</v>
@@ -3029,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>45401</v>
+        <v>45050</v>
       </c>
       <c r="AR14" s="2">
         <v>1</v>
@@ -3039,16 +3035,16 @@
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
         <v>0</v>
@@ -3093,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="BM14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="s">
         <v>165</v>
@@ -3125,19 +3121,19 @@
         <v>69</v>
       </c>
       <c r="E15" s="1">
-        <v>45069</v>
+        <v>45270</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -3197,45 +3193,43 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2">
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>45096</v>
+        <v>45308</v>
       </c>
       <c r="AR15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV15" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
         <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3303,19 +3297,19 @@
         <v>69</v>
       </c>
       <c r="E16" s="1">
-        <v>45270</v>
+        <v>45354</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -3383,20 +3377,20 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>45308</v>
+        <v>45370</v>
       </c>
       <c r="AR16" s="2">
         <v>1</v>
       </c>
       <c r="AS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2">
         <v>4</v>
       </c>
       <c r="AV16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW16" s="2">
         <v>1</v>
@@ -3479,19 +3473,19 @@
         <v>69</v>
       </c>
       <c r="E17" s="1">
-        <v>45286</v>
+        <v>45365</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -3527,20 +3521,20 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
+      <c r="X17" s="2">
+        <v>1</v>
+      </c>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -3551,42 +3545,40 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN17" s="2">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2">
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>45308</v>
+        <v>45399</v>
       </c>
       <c r="AR17" s="2">
         <v>1</v>
       </c>
       <c r="AS17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -3660,16 +3652,16 @@
         <v>45034</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -3716,7 +3708,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AC18" s="2">
         <v>0</v>
@@ -3837,7 +3829,7 @@
         <v>69</v>
       </c>
       <c r="E19" s="1">
-        <v>45354</v>
+        <v>45340</v>
       </c>
       <c r="F19" t="s">
         <v>74</v>
@@ -3849,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -3909,9 +3901,11 @@
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN19" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>0</v>
+      </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2">
         <v>0</v>
@@ -3923,11 +3917,11 @@
         <v>1</v>
       </c>
       <c r="AS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV19" s="2">
         <v>3</v>
@@ -4013,7 +4007,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="1">
-        <v>45069</v>
+        <v>45319</v>
       </c>
       <c r="F20" t="s">
         <v>74</v>
@@ -4034,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -4072,12 +4066,10 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
@@ -4087,28 +4079,30 @@
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN20" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>1</v>
+      </c>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2">
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>45089</v>
+        <v>45336</v>
       </c>
       <c r="AR20" s="2">
         <v>1</v>
       </c>
       <c r="AS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW20" s="2">
         <v>1</v>
@@ -4138,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20" s="2">
         <v>0</v>
@@ -4191,19 +4185,19 @@
         <v>69</v>
       </c>
       <c r="E21" s="1">
-        <v>45270</v>
+        <v>45244</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -4233,10 +4227,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="s">
         <v>105</v>
@@ -4271,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>45308</v>
+        <v>45260</v>
       </c>
       <c r="AR21" s="2">
         <v>1</v>
@@ -4281,10 +4275,10 @@
       </c>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV21" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW21" s="2">
         <v>1</v>
@@ -4367,7 +4361,7 @@
         <v>69</v>
       </c>
       <c r="E22" s="1">
-        <v>45244</v>
+        <v>45354</v>
       </c>
       <c r="F22" t="s">
         <v>74</v>
@@ -4379,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -4409,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
@@ -4447,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="AR22" s="2">
         <v>1</v>
@@ -4457,10 +4451,10 @@
       </c>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW22" s="2">
         <v>1</v>
@@ -4543,13 +4537,13 @@
         <v>69</v>
       </c>
       <c r="E23" s="1">
-        <v>45365</v>
+        <v>45041</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -4564,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -4615,25 +4609,27 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN23" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>0</v>
+      </c>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2">
         <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>45394</v>
+        <v>45077</v>
       </c>
       <c r="AR23" s="2">
         <v>1</v>
       </c>
       <c r="AS23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AV23" s="2">
         <v>3</v>
@@ -4645,13 +4641,13 @@
         <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
         <v>1</v>
       </c>
       <c r="BA23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="2">
         <v>0</v>
@@ -4663,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="2">
         <v>0</v>
@@ -4678,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="BJ23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK23" s="2">
         <v>0</v>
@@ -4719,28 +4715,28 @@
         <v>69</v>
       </c>
       <c r="E24" s="1">
-        <v>45272</v>
+        <v>45329</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -4778,45 +4774,43 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
-      <c r="AH24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
+      <c r="AJ24" s="2">
+        <v>1</v>
+      </c>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN24" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2">
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>45294</v>
+        <v>45369</v>
       </c>
       <c r="AR24" s="2">
         <v>1</v>
       </c>
       <c r="AS24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV24" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW24" s="2">
         <v>1</v>
@@ -4846,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -4899,19 +4893,19 @@
         <v>69</v>
       </c>
       <c r="E25" s="1">
-        <v>45354</v>
+        <v>45026</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -4947,13 +4941,11 @@
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
-      <c r="X25" s="2">
-        <v>1</v>
-      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -4971,28 +4963,30 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN25" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>0</v>
+      </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2">
         <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>45369</v>
+        <v>45032</v>
       </c>
       <c r="AR25" s="2">
         <v>1</v>
       </c>
       <c r="AS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AV25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW25" s="2">
         <v>1</v>
@@ -5019,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="2">
         <v>0</v>
@@ -5034,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="BJ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK25" s="2">
         <v>0</v>
@@ -5075,7 +5069,7 @@
         <v>69</v>
       </c>
       <c r="E26" s="1">
-        <v>45354</v>
+        <v>45300</v>
       </c>
       <c r="F26" t="s">
         <v>72</v>
@@ -5084,7 +5078,7 @@
         <v>72</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
         <v>79</v>
@@ -5096,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -5117,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
@@ -5134,10 +5128,12 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
+      <c r="AD26" s="2">
+        <v>1</v>
+      </c>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
@@ -5155,20 +5151,20 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>45369</v>
+        <v>45317</v>
       </c>
       <c r="AR26" s="2">
         <v>1</v>
       </c>
       <c r="AS26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV26" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW26" s="2">
         <v>1</v>
@@ -5251,13 +5247,13 @@
         <v>69</v>
       </c>
       <c r="E27" s="1">
-        <v>45315</v>
+        <v>45354</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -5272,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -5331,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>45336</v>
+        <v>45369</v>
       </c>
       <c r="AR27" s="2">
         <v>1</v>
@@ -5341,13 +5337,13 @@
       </c>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AV27" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX27" s="2">
         <v>1</v>
@@ -5374,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="BF27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG27" s="2">
         <v>0</v>
@@ -5427,16 +5423,16 @@
         <v>69</v>
       </c>
       <c r="E28" s="1">
-        <v>45252</v>
+        <v>45271</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>79</v>
@@ -5448,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -5486,10 +5482,12 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
+      <c r="AD28" s="2">
+        <v>1</v>
+      </c>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
@@ -5499,15 +5497,17 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN28" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>0</v>
+      </c>
       <c r="AO28" s="2"/>
       <c r="AP28" s="2">
         <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <v>45260</v>
+        <v>45294</v>
       </c>
       <c r="AR28" s="2">
         <v>1</v>
@@ -5517,10 +5517,10 @@
       </c>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV28" s="2">
         <v>3</v>
-      </c>
-      <c r="AV28" s="2">
-        <v>2</v>
       </c>
       <c r="AW28" s="2">
         <v>1</v>
@@ -5603,31 +5603,31 @@
         <v>69</v>
       </c>
       <c r="E29" s="1">
-        <v>45029</v>
+        <v>45263</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -5636,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
@@ -5645,19 +5645,17 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="2">
-        <v>1</v>
-      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
@@ -5671,46 +5669,46 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
+      <c r="AJ29" s="2">
+        <v>1</v>
+      </c>
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN29" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2">
         <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>45050</v>
+        <v>45294</v>
       </c>
       <c r="AR29" s="2">
         <v>1</v>
       </c>
       <c r="AS29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2">
         <v>4</v>
       </c>
       <c r="AV29" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29" s="2">
         <v>0</v>
@@ -5722,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="BD29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF29" s="2">
         <v>0</v>
@@ -5784,16 +5782,16 @@
         <v>45354</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -5853,15 +5851,17 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN30" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>0</v>
+      </c>
       <c r="AO30" s="2"/>
       <c r="AP30" s="2">
         <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>45370</v>
+        <v>45394</v>
       </c>
       <c r="AR30" s="2">
         <v>1</v>
@@ -5874,10 +5874,10 @@
         <v>4</v>
       </c>
       <c r="AV30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX30" s="2">
         <v>1</v>
@@ -5957,7 +5957,7 @@
         <v>69</v>
       </c>
       <c r="E31" s="1">
-        <v>45045</v>
+        <v>45069</v>
       </c>
       <c r="F31" t="s">
         <v>72</v>
@@ -5969,19 +5969,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2">
         <v>0</v>
@@ -5999,13 +5999,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -6039,35 +6039,35 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>45062</v>
+        <v>45096</v>
       </c>
       <c r="AR31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="2">
         <v>1</v>
       </c>
       <c r="AT31" s="2"/>
       <c r="AU31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="2">
         <v>0</v>
       </c>
       <c r="AX31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY31" s="2">
         <v>0</v>
       </c>
       <c r="AZ31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB31" s="2">
         <v>0</v>
@@ -6076,10 +6076,10 @@
         <v>0</v>
       </c>
       <c r="BD31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF31" s="2">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>69</v>
       </c>
       <c r="E32" s="1">
-        <v>45069</v>
+        <v>45312</v>
       </c>
       <c r="F32" t="s">
         <v>74</v>
@@ -6144,10 +6144,10 @@
         <v>74</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -6156,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="2">
         <v>0</v>
@@ -6194,9 +6194,11 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
@@ -6207,17 +6209,15 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2">
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>45089</v>
+        <v>45348</v>
       </c>
       <c r="AR32" s="2">
         <v>1</v>
@@ -6227,10 +6227,10 @@
       </c>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW32" s="2">
         <v>1</v>
@@ -6239,10 +6239,10 @@
         <v>1</v>
       </c>
       <c r="AY32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="2">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>69</v>
       </c>
       <c r="E33" s="1">
-        <v>45252</v>
+        <v>45365</v>
       </c>
       <c r="F33" t="s">
         <v>72</v>
@@ -6322,7 +6322,7 @@
         <v>72</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="s">
         <v>80</v>
@@ -6334,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
@@ -6361,45 +6361,39 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
+      <c r="X33" s="2">
+        <v>1</v>
+      </c>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="AC33" s="2"/>
-      <c r="AD33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
-      <c r="AL33" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL33" s="2"/>
       <c r="AM33" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN33" s="2">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
       <c r="AP33" s="2">
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>45259</v>
+        <v>45394</v>
       </c>
       <c r="AR33" s="2">
         <v>1</v>
@@ -6421,10 +6415,10 @@
         <v>1</v>
       </c>
       <c r="AY33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA33" s="2">
         <v>0</v>
@@ -6495,31 +6489,31 @@
         <v>69</v>
       </c>
       <c r="E34" s="1">
-        <v>45390</v>
+        <v>45354</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
@@ -6528,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2">
         <v>0</v>
@@ -6537,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
@@ -6554,11 +6548,9 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC34" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
@@ -6569,42 +6561,40 @@
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN34" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
       <c r="AP34" s="2">
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>45401</v>
+        <v>45370</v>
       </c>
       <c r="AR34" s="2">
         <v>1</v>
       </c>
       <c r="AS34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA34" s="2">
         <v>0</v>
@@ -6616,10 +6606,10 @@
         <v>0</v>
       </c>
       <c r="BD34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF34" s="2">
         <v>0</v>
@@ -6675,25 +6665,25 @@
         <v>69</v>
       </c>
       <c r="E35" s="1">
-        <v>45034</v>
+        <v>45260</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -6714,71 +6704,73 @@
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="2">
-        <v>1</v>
-      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
+      <c r="Z35" s="2">
+        <v>1</v>
+      </c>
       <c r="AA35" s="2"/>
       <c r="AB35" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>1</v>
+      </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
+      <c r="AI35" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN35" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN35" s="2"/>
       <c r="AO35" s="2"/>
       <c r="AP35" s="2">
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>45050</v>
+        <v>45316</v>
       </c>
       <c r="AR35" s="2">
         <v>1</v>
       </c>
       <c r="AS35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV35" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY35" s="2">
         <v>0</v>
@@ -6823,10 +6815,10 @@
         <v>0</v>
       </c>
       <c r="BM35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO35" t="s">
         <v>165</v>
@@ -6855,19 +6847,19 @@
         <v>69</v>
       </c>
       <c r="E36" s="1">
-        <v>45041</v>
+        <v>45060</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -6876,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -6897,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="T36" s="2">
         <v>0</v>
@@ -6935,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>45077</v>
+        <v>45089</v>
       </c>
       <c r="AR36" s="2">
         <v>1</v>
@@ -6945,7 +6937,7 @@
       </c>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV36" s="2">
         <v>2</v>
@@ -6975,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="BE36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF36" s="2">
         <v>0</v>
@@ -6990,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="BJ36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK36" s="2">
         <v>0</v>
@@ -7031,19 +7023,19 @@
         <v>69</v>
       </c>
       <c r="E37" s="1">
-        <v>45270</v>
+        <v>45069</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -7103,15 +7095,17 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN37" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>0</v>
+      </c>
       <c r="AO37" s="2"/>
       <c r="AP37" s="2">
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>45308</v>
+        <v>45096</v>
       </c>
       <c r="AR37" s="2">
         <v>1</v>
@@ -7121,10 +7115,10 @@
       </c>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV37" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW37" s="2">
         <v>1</v>
@@ -7207,7 +7201,7 @@
         <v>69</v>
       </c>
       <c r="E38" s="1">
-        <v>45354</v>
+        <v>45328</v>
       </c>
       <c r="F38" t="s">
         <v>72</v>
@@ -7228,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
@@ -7287,23 +7281,23 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>45394</v>
+        <v>45336</v>
       </c>
       <c r="AR38" s="2">
         <v>1</v>
       </c>
       <c r="AS38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2">
         <v>2</v>
       </c>
       <c r="AV38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX38" s="2">
         <v>1</v>
@@ -7383,37 +7377,37 @@
         <v>69</v>
       </c>
       <c r="E39" s="1">
-        <v>45333</v>
+        <v>45354</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="2">
         <v>0</v>
@@ -7425,28 +7419,26 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
+      <c r="X39" s="2">
+        <v>1</v>
+      </c>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC39" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
@@ -7457,17 +7449,15 @@
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN39" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2">
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>45364</v>
+        <v>45370</v>
       </c>
       <c r="AR39" s="2">
         <v>1</v>
@@ -7477,31 +7467,31 @@
       </c>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA39" s="2">
         <v>0</v>
       </c>
       <c r="BB39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD39" s="2">
         <v>0</v>
@@ -7563,13 +7553,13 @@
         <v>69</v>
       </c>
       <c r="E40" s="1">
-        <v>45026</v>
+        <v>45252</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -7584,7 +7574,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -7611,11 +7601,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
+      <c r="X40" s="2">
+        <v>1</v>
+      </c>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
@@ -7643,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>45032</v>
+        <v>45261</v>
       </c>
       <c r="AR40" s="2">
         <v>1</v>
@@ -7653,10 +7645,10 @@
       </c>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AV40" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW40" s="2">
         <v>1</v>
@@ -7665,10 +7657,10 @@
         <v>1</v>
       </c>
       <c r="AY40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="2">
         <v>0</v>
@@ -7683,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="BE40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF40" s="2">
         <v>0</v>
@@ -7698,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="BJ40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK40" s="2">
         <v>0</v>
@@ -7739,19 +7731,19 @@
         <v>69</v>
       </c>
       <c r="E41" s="1">
-        <v>45260</v>
+        <v>45045</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
@@ -7763,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
@@ -7772,70 +7764,66 @@
         <v>0</v>
       </c>
       <c r="P41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="2">
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
+      <c r="X41" s="2">
+        <v>1</v>
+      </c>
       <c r="Y41" s="2"/>
-      <c r="Z41" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AC41" s="2"/>
-      <c r="AD41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
-      <c r="AI41" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN41" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>0</v>
+      </c>
       <c r="AO41" s="2"/>
       <c r="AP41" s="2">
         <v>0</v>
       </c>
       <c r="AQ41" s="1">
-        <v>45316</v>
+        <v>45062</v>
       </c>
       <c r="AR41" s="2">
         <v>1</v>
       </c>
       <c r="AS41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV41" s="2">
         <v>1</v>
@@ -7862,10 +7850,10 @@
         <v>0</v>
       </c>
       <c r="BD41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF41" s="2">
         <v>0</v>
@@ -7889,10 +7877,10 @@
         <v>0</v>
       </c>
       <c r="BM41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO41" t="s">
         <v>165</v>
@@ -7921,16 +7909,16 @@
         <v>69</v>
       </c>
       <c r="E42" s="1">
-        <v>45263</v>
+        <v>45252</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
         <v>79</v>
@@ -7942,7 +7930,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="2">
         <v>0</v>
@@ -7969,56 +7957,58 @@
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
-      <c r="X42" s="2">
-        <v>1</v>
-      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
+      <c r="AD42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>1</v>
+      </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
-      <c r="AJ42" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ42" s="2"/>
       <c r="AK42" s="2"/>
-      <c r="AL42" s="2"/>
+      <c r="AL42" s="2">
+        <v>1</v>
+      </c>
       <c r="AM42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO42" s="2"/>
       <c r="AP42" s="2">
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>45294</v>
+        <v>45259</v>
       </c>
       <c r="AR42" s="2">
         <v>1</v>
       </c>
       <c r="AS42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="2"/>
       <c r="AU42" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW42" s="2">
         <v>1</v>
@@ -8030,10 +8020,10 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="2">
         <v>0</v>
@@ -8101,7 +8091,7 @@
         <v>69</v>
       </c>
       <c r="E43" s="1">
-        <v>45271</v>
+        <v>45354</v>
       </c>
       <c r="F43" t="s">
         <v>74</v>
@@ -8110,7 +8100,7 @@
         <v>74</v>
       </c>
       <c r="H43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
         <v>80</v>
@@ -8122,7 +8112,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="2">
         <v>0</v>
@@ -8160,12 +8150,10 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="AC43" s="2"/>
-      <c r="AD43" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
@@ -8175,27 +8163,25 @@
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN43" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2">
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>45294</v>
+        <v>45369</v>
       </c>
       <c r="AR43" s="2">
         <v>1</v>
       </c>
       <c r="AS43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="2"/>
       <c r="AU43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV43" s="2">
         <v>3</v>
@@ -8281,19 +8267,19 @@
         <v>69</v>
       </c>
       <c r="E44" s="1">
-        <v>45365</v>
+        <v>45270</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -8340,22 +8326,20 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
@@ -8363,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>45399</v>
+        <v>45308</v>
       </c>
       <c r="AR44" s="2">
         <v>1</v>
@@ -8376,10 +8360,10 @@
         <v>4</v>
       </c>
       <c r="AV44" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX44" s="2">
         <v>1</v>
@@ -8459,25 +8443,25 @@
         <v>69</v>
       </c>
       <c r="E45" s="1">
-        <v>45312</v>
+        <v>45390</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H45" s="2">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="2">
         <v>0</v>
@@ -8498,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" t="s">
         <v>75</v>
@@ -8507,18 +8491,18 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
-      <c r="X45" s="2">
-        <v>1</v>
-      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
+      <c r="Z45" s="2">
+        <v>1</v>
+      </c>
       <c r="AA45" s="2"/>
       <c r="AB45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AC45" s="2">
         <v>0</v>
@@ -8533,15 +8517,17 @@
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN45" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN45" s="2">
+        <v>0</v>
+      </c>
       <c r="AO45" s="2"/>
       <c r="AP45" s="2">
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>45348</v>
+        <v>45401</v>
       </c>
       <c r="AR45" s="2">
         <v>1</v>
@@ -8551,16 +8537,16 @@
       </c>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY45" s="2">
         <v>0</v>
@@ -8605,10 +8591,10 @@
         <v>0</v>
       </c>
       <c r="BM45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO45" t="s">
         <v>165</v>
@@ -8649,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -8717,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="AR46" s="2">
         <v>1</v>
@@ -8730,7 +8716,7 @@
         <v>4</v>
       </c>
       <c r="AV46" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW46" s="2">
         <v>1</v>
@@ -8772,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK46" s="2">
         <v>0</v>
@@ -8813,7 +8799,7 @@
         <v>69</v>
       </c>
       <c r="E47" s="1">
-        <v>45328</v>
+        <v>45354</v>
       </c>
       <c r="F47" t="s">
         <v>74</v>
@@ -8834,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="2">
         <v>0</v>
@@ -8893,23 +8879,23 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>45336</v>
+        <v>45370</v>
       </c>
       <c r="AR47" s="2">
         <v>1</v>
       </c>
       <c r="AS47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="2">
         <v>1</v>
@@ -8989,19 +8975,19 @@
         <v>69</v>
       </c>
       <c r="E48" s="1">
-        <v>45354</v>
+        <v>45312</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -9010,10 +8996,10 @@
         <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="2">
         <v>0</v>
@@ -9022,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="2">
         <v>0</v>
@@ -9031,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T48" s="2">
         <v>0</v>
@@ -9048,10 +9034,12 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
+      <c r="AD48" s="2">
+        <v>1</v>
+      </c>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
@@ -9069,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>45370</v>
+        <v>45316</v>
       </c>
       <c r="AR48" s="2">
         <v>1</v>
@@ -9079,22 +9067,22 @@
       </c>
       <c r="AT48" s="2"/>
       <c r="AU48" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV48" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="2">
         <v>1</v>
       </c>
       <c r="AY48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA48" s="2">
         <v>0</v>
@@ -9106,10 +9094,10 @@
         <v>0</v>
       </c>
       <c r="BD48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF48" s="2">
         <v>0</v>
@@ -9165,7 +9153,7 @@
         <v>69</v>
       </c>
       <c r="E49" s="1">
-        <v>45354</v>
+        <v>45272</v>
       </c>
       <c r="F49" t="s">
         <v>72</v>
@@ -9174,19 +9162,19 @@
         <v>72</v>
       </c>
       <c r="H49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
       </c>
       <c r="K49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -9224,41 +9212,45 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="2"/>
+      <c r="AH49" s="2">
+        <v>1</v>
+      </c>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN49" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>0</v>
+      </c>
       <c r="AO49" s="2"/>
       <c r="AP49" s="2">
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AR49" s="2">
         <v>1</v>
       </c>
       <c r="AS49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2">
         <v>4</v>
       </c>
       <c r="AV49" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW49" s="2">
         <v>1</v>
@@ -9288,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="BF49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG49" s="2">
         <v>0</v>
@@ -9300,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="BJ49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK49" s="2">
         <v>0</v>
@@ -9341,7 +9333,7 @@
         <v>69</v>
       </c>
       <c r="E50" s="1">
-        <v>45041</v>
+        <v>45298</v>
       </c>
       <c r="F50" t="s">
         <v>74</v>
@@ -9362,7 +9354,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
@@ -9423,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>45077</v>
+        <v>45316</v>
       </c>
       <c r="AR50" s="2">
         <v>1</v>
@@ -9433,7 +9425,7 @@
       </c>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV50" s="2">
         <v>3</v>
@@ -9445,13 +9437,13 @@
         <v>1</v>
       </c>
       <c r="AY50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ50" s="2">
         <v>1</v>
       </c>
       <c r="BA50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB50" s="2">
         <v>0</v>
@@ -9463,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="BE50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF50" s="2">
         <v>0</v>
@@ -9519,7 +9511,7 @@
         <v>69</v>
       </c>
       <c r="E51" s="1">
-        <v>45312</v>
+        <v>45270</v>
       </c>
       <c r="F51" t="s">
         <v>72</v>
@@ -9528,10 +9520,10 @@
         <v>72</v>
       </c>
       <c r="H51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -9540,10 +9532,10 @@
         <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="2">
         <v>0</v>
@@ -9552,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="2">
         <v>0</v>
@@ -9561,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="T51" s="2">
         <v>0</v>
@@ -9578,12 +9570,10 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="AC51" s="2"/>
-      <c r="AD51" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
@@ -9601,32 +9591,32 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>45316</v>
+        <v>45308</v>
       </c>
       <c r="AR51" s="2">
         <v>1</v>
       </c>
       <c r="AS51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV51" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX51" s="2">
         <v>1</v>
       </c>
       <c r="AY51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA51" s="2">
         <v>0</v>
@@ -9638,10 +9628,10 @@
         <v>0</v>
       </c>
       <c r="BD51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF51" s="2">
         <v>0</v>
@@ -9697,19 +9687,19 @@
         <v>69</v>
       </c>
       <c r="E52" s="1">
-        <v>45060</v>
+        <v>45354</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -9739,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
@@ -9777,20 +9767,20 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <v>45089</v>
+        <v>45369</v>
       </c>
       <c r="AR52" s="2">
         <v>1</v>
       </c>
       <c r="AS52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT52" s="2"/>
       <c r="AU52" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV52" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW52" s="2">
         <v>1</v>
@@ -9799,13 +9789,13 @@
         <v>1</v>
       </c>
       <c r="AY52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ52" s="2">
         <v>1</v>
       </c>
       <c r="BA52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="2">
         <v>0</v>
@@ -9873,7 +9863,7 @@
         <v>69</v>
       </c>
       <c r="E53" s="1">
-        <v>45300</v>
+        <v>45390</v>
       </c>
       <c r="F53" t="s">
         <v>74</v>
@@ -9885,19 +9875,19 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="2">
         <v>0</v>
       </c>
       <c r="M53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="2">
         <v>0</v>
@@ -9906,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="2">
         <v>0</v>
@@ -9915,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T53" s="2">
         <v>0</v>
@@ -9932,12 +9922,12 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2">
-        <v>1</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
@@ -9947,15 +9937,17 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN53" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN53" s="2">
+        <v>0</v>
+      </c>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2">
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>45317</v>
+        <v>45401</v>
       </c>
       <c r="AR53" s="2">
         <v>1</v>
@@ -9965,22 +9957,22 @@
       </c>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="2">
         <v>0</v>
@@ -9992,10 +9984,10 @@
         <v>0</v>
       </c>
       <c r="BD53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF53" s="2">
         <v>0</v>
@@ -10051,19 +10043,19 @@
         <v>69</v>
       </c>
       <c r="E54" s="1">
-        <v>45069</v>
+        <v>45041</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -10072,7 +10064,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" s="2">
         <v>0</v>
@@ -10123,17 +10115,15 @@
       <c r="AK54" s="2"/>
       <c r="AL54" s="2"/>
       <c r="AM54" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN54" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
       <c r="AP54" s="2">
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>45096</v>
+        <v>45062</v>
       </c>
       <c r="AR54" s="2">
         <v>1</v>
@@ -10143,7 +10133,7 @@
       </c>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV54" s="2">
         <v>2</v>
@@ -10173,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="BE54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF54" s="2">
         <v>0</v>
@@ -10232,16 +10222,16 @@
         <v>45354</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -10309,23 +10299,23 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>45370</v>
+        <v>45394</v>
       </c>
       <c r="AR55" s="2">
         <v>1</v>
       </c>
       <c r="AS55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT55" s="2"/>
       <c r="AU55" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV55" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX55" s="2">
         <v>1</v>
@@ -10405,19 +10395,19 @@
         <v>69</v>
       </c>
       <c r="E56" s="1">
-        <v>45365</v>
+        <v>45252</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -10485,32 +10475,32 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>45399</v>
+        <v>45260</v>
       </c>
       <c r="AR56" s="2">
         <v>1</v>
       </c>
       <c r="AS56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX56" s="2">
         <v>1</v>
       </c>
       <c r="AY56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA56" s="2">
         <v>0</v>
@@ -10581,19 +10571,19 @@
         <v>69</v>
       </c>
       <c r="E57" s="1">
-        <v>45349</v>
+        <v>45298</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -10605,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="2">
         <v>0</v>
@@ -10614,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="2">
         <v>0</v>
@@ -10623,19 +10613,21 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
+      <c r="Z57" s="2">
+        <v>1</v>
+      </c>
       <c r="AA57" s="2"/>
       <c r="AB57" t="s">
         <v>75</v>
@@ -10651,15 +10643,17 @@
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
       <c r="AM57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN57" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN57" s="2">
+        <v>1</v>
+      </c>
       <c r="AO57" s="2"/>
       <c r="AP57" s="2">
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>45369</v>
+        <v>45317</v>
       </c>
       <c r="AR57" s="2">
         <v>1</v>
@@ -10669,22 +10663,22 @@
       </c>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV57" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA57" s="2">
         <v>0</v>
@@ -10696,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE57" s="2">
         <v>1</v>
@@ -10755,37 +10749,37 @@
         <v>69</v>
       </c>
       <c r="E58" s="1">
-        <v>45354</v>
+        <v>45333</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="2">
         <v>0</v>
       </c>
       <c r="O58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="2">
         <v>0</v>
@@ -10797,26 +10791,28 @@
         <v>0</v>
       </c>
       <c r="S58" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T58" s="2">
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
-      <c r="X58" s="2">
-        <v>1</v>
-      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
+      <c r="Z58" s="2">
+        <v>1</v>
+      </c>
       <c r="AA58" s="2"/>
       <c r="AB58" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>0</v>
+      </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
@@ -10827,49 +10823,51 @@
       <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
       <c r="AM58" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN58" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN58" s="2">
+        <v>0</v>
+      </c>
       <c r="AO58" s="2"/>
       <c r="AP58" s="2">
         <v>0</v>
       </c>
       <c r="AQ58" s="1">
-        <v>45369</v>
+        <v>45364</v>
       </c>
       <c r="AR58" s="2">
         <v>1</v>
       </c>
       <c r="AS58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="2"/>
       <c r="AU58" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV58" s="2">
         <v>2</v>
       </c>
       <c r="AW58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="2">
         <v>0</v>
       </c>
       <c r="BB58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD58" s="2">
         <v>0</v>
@@ -10931,19 +10929,19 @@
         <v>69</v>
       </c>
       <c r="E59" s="1">
-        <v>45252</v>
+        <v>45034</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -10990,9 +10988,11 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>0</v>
+      </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>45261</v>
+        <v>45050</v>
       </c>
       <c r="AR59" s="2">
         <v>1</v>
@@ -11023,10 +11023,10 @@
       </c>
       <c r="AT59" s="2"/>
       <c r="AU59" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV59" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW59" s="2">
         <v>1</v>
@@ -11109,19 +11109,19 @@
         <v>69</v>
       </c>
       <c r="E60" s="1">
-        <v>45298</v>
+        <v>45263</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" s="2">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="2">
         <v>0</v>
@@ -11151,21 +11151,21 @@
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="T60" s="2">
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
+      <c r="X60" s="2">
+        <v>1</v>
+      </c>
       <c r="Y60" s="2"/>
-      <c r="Z60" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" t="s">
         <v>75</v>
@@ -11181,17 +11181,15 @@
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
       <c r="AM60" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN60" s="2">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
       <c r="AP60" s="2">
         <v>0</v>
       </c>
       <c r="AQ60" s="1">
-        <v>45317</v>
+        <v>45294</v>
       </c>
       <c r="AR60" s="2">
         <v>1</v>
@@ -11207,10 +11205,10 @@
         <v>1</v>
       </c>
       <c r="AW60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY60" s="2">
         <v>0</v>
@@ -11228,10 +11226,10 @@
         <v>0</v>
       </c>
       <c r="BD60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF60" s="2">
         <v>0</v>
@@ -11299,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
@@ -11377,7 +11375,7 @@
       </c>
       <c r="AT61" s="2"/>
       <c r="AU61" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV61" s="2">
         <v>3</v>
@@ -11463,19 +11461,19 @@
         <v>69</v>
       </c>
       <c r="E62" s="1">
-        <v>45270</v>
+        <v>45286</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -11511,20 +11509,20 @@
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
-      <c r="X62" s="2">
-        <v>1</v>
-      </c>
+      <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC62" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>1</v>
+      </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
@@ -11535,9 +11533,11 @@
       <c r="AK62" s="2"/>
       <c r="AL62" s="2"/>
       <c r="AM62" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN62" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN62" s="2">
+        <v>1</v>
+      </c>
       <c r="AO62" s="2"/>
       <c r="AP62" s="2">
         <v>0</v>
@@ -11553,13 +11553,13 @@
       </c>
       <c r="AT62" s="2"/>
       <c r="AU62" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV62" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX62" s="2">
         <v>1</v>
@@ -11642,16 +11642,16 @@
         <v>45326</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G63" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>

--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -18,189 +18,189 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600383</t>
+  </si>
+  <si>
+    <t>600326</t>
+  </si>
+  <si>
+    <t>600604</t>
+  </si>
+  <si>
+    <t>600374</t>
+  </si>
+  <si>
+    <t>600812</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
+    <t>600322</t>
+  </si>
+  <si>
+    <t>600398</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
+    <t>600611</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>600310</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>500025</t>
+  </si>
+  <si>
+    <t>600381</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>500684</t>
+  </si>
+  <si>
+    <t>600672</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
+    <t>600996</t>
+  </si>
+  <si>
+    <t>600775</t>
+  </si>
+  <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>600727</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>600961</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>600346</t>
+  </si>
+  <si>
+    <t>600687</t>
+  </si>
+  <si>
+    <t>600886</t>
+  </si>
+  <si>
+    <t>600758</t>
+  </si>
+  <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>600947</t>
+  </si>
+  <si>
     <t>500005</t>
   </si>
   <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>600758</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>500901</t>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>600640</t>
+  </si>
+  <si>
+    <t>400238</t>
+  </si>
+  <si>
+    <t>600366</t>
+  </si>
+  <si>
+    <t>500906</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>600699</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>500454</t>
+  </si>
+  <si>
+    <t>600703</t>
   </si>
   <si>
     <t>600614</t>
   </si>
   <si>
-    <t>600610</t>
-  </si>
-  <si>
-    <t>600996</t>
-  </si>
-  <si>
-    <t>500684</t>
+    <t>600853</t>
   </si>
   <si>
     <t>600360</t>
   </si>
   <si>
-    <t>500951</t>
-  </si>
-  <si>
-    <t>600396</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>600326</t>
-  </si>
-  <si>
-    <t>600640</t>
-  </si>
-  <si>
-    <t>600812</t>
-  </si>
-  <si>
-    <t>400230</t>
-  </si>
-  <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>600388</t>
-  </si>
-  <si>
-    <t>600602</t>
-  </si>
-  <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>400224</t>
-  </si>
-  <si>
-    <t>600786</t>
-  </si>
-  <si>
-    <t>600611</t>
-  </si>
-  <si>
-    <t>600322</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>600961</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>600687</t>
-  </si>
-  <si>
-    <t>600982</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>600604</t>
-  </si>
-  <si>
-    <t>500025</t>
-  </si>
-  <si>
-    <t>500454</t>
-  </si>
-  <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>600366</t>
-  </si>
-  <si>
-    <t>500355</t>
-  </si>
-  <si>
-    <t>600374</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>600853</t>
-  </si>
-  <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>600682</t>
-  </si>
-  <si>
-    <t>600309</t>
-  </si>
-  <si>
-    <t>600703</t>
-  </si>
-  <si>
-    <t>600383</t>
-  </si>
-  <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>600886</t>
-  </si>
-  <si>
-    <t>500221</t>
-  </si>
-  <si>
-    <t>600947</t>
-  </si>
-  <si>
-    <t>600310</t>
-  </si>
-  <si>
-    <t>600775</t>
-  </si>
-  <si>
-    <t>600780</t>
-  </si>
-  <si>
-    <t>400238</t>
-  </si>
-  <si>
-    <t>600398</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>600346</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -252,36 +252,36 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>xylazine; fentanyl</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
+    <t>fentanyl; crack</t>
+  </si>
+  <si>
+    <t>heroin</t>
   </si>
   <si>
     <t>cocaine; fentanyl</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>fentanyl; crack</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -315,15 +315,15 @@
     <t>white</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>pink</t>
   </si>
   <si>
     <t>gray</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -333,12 +333,12 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder; chunky; rock</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
@@ -360,33 +360,33 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>long; unpleasant; hallucinations</t>
+  </si>
+  <si>
+    <t>unpleasant; hallucinations</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>weird; sedating</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>sedating</t>
   </si>
   <si>
-    <t>weird; sedating</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>long; unpleasant; hallucinations</t>
-  </si>
-  <si>
-    <t>unpleasant; hallucinations</t>
+    <t>stronger</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>stronger</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -420,10 +420,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>involved in OD</t>
+  </si>
+  <si>
     <t>not overdose related</t>
-  </si>
-  <si>
-    <t>involved in OD</t>
   </si>
   <si>
     <t>od</t>
@@ -668,7 +668,7 @@
         <v>112</v>
       </c>
       <c r="Z1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA1" t="s">
         <v>113</v>
@@ -817,7 +817,7 @@
         <v>69</v>
       </c>
       <c r="E2" s="1">
-        <v>45041</v>
+        <v>45270</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -897,20 +897,20 @@
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>45077</v>
+        <v>45308</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
       </c>
       <c r="AS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW2" s="2">
         <v>1</v>
@@ -919,13 +919,13 @@
         <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
         <v>1</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="2">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK2" s="2">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>69</v>
       </c>
       <c r="E3" s="1">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1061,23 +1061,19 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
-      <c r="AJ3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2">
         <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>45294</v>
+        <v>45308</v>
       </c>
       <c r="AR3" s="2">
         <v>1</v>
@@ -1087,10 +1083,10 @@
       </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
         <v>1</v>
@@ -1099,13 +1095,13 @@
         <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
         <v>1</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
@@ -1173,25 +1169,25 @@
         <v>69</v>
       </c>
       <c r="E4" s="1">
-        <v>45349</v>
+        <v>45260</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1212,33 +1208,41 @@
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
       <c r="AA4" s="2"/>
       <c r="AB4" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
+      <c r="AI4" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
@@ -1251,32 +1255,32 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>45369</v>
+        <v>45316</v>
       </c>
       <c r="AR4" s="2">
         <v>1</v>
       </c>
       <c r="AS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1291,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1315,10 +1319,10 @@
         <v>0</v>
       </c>
       <c r="BM4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO4" t="s">
         <v>165</v>
@@ -1347,7 +1351,7 @@
         <v>69</v>
       </c>
       <c r="E5" s="1">
-        <v>45029</v>
+        <v>45252</v>
       </c>
       <c r="F5" t="s">
         <v>74</v>
@@ -1356,22 +1360,22 @@
         <v>74</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>81</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1380,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1389,66 +1393,70 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
+      <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="AD5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="AL5" s="2">
+        <v>1</v>
+      </c>
       <c r="AM5" t="s">
         <v>135</v>
       </c>
       <c r="AN5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2">
         <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>45050</v>
+        <v>45259</v>
       </c>
       <c r="AR5" s="2">
         <v>1</v>
       </c>
       <c r="AS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
         <v>0</v>
@@ -1466,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1525,13 +1533,13 @@
         <v>69</v>
       </c>
       <c r="E6" s="1">
-        <v>45041</v>
+        <v>45365</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1546,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1597,27 +1605,25 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2">
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>45062</v>
+        <v>45399</v>
       </c>
       <c r="AR6" s="2">
         <v>1</v>
       </c>
       <c r="AS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV6" s="2">
         <v>2</v>
@@ -1703,7 +1709,7 @@
         <v>69</v>
       </c>
       <c r="E7" s="1">
-        <v>45354</v>
+        <v>45041</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -1715,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1724,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1775,15 +1781,17 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN7" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0</v>
+      </c>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2">
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>45369</v>
+        <v>45062</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
@@ -1793,10 +1801,10 @@
       </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW7" s="2">
         <v>1</v>
@@ -1805,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -1879,19 +1887,19 @@
         <v>69</v>
       </c>
       <c r="E8" s="1">
-        <v>45315</v>
+        <v>45271</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -1938,10 +1946,12 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -1951,15 +1961,17 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN8" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>0</v>
+      </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>45336</v>
+        <v>45294</v>
       </c>
       <c r="AR8" s="2">
         <v>1</v>
@@ -1969,13 +1981,13 @@
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -2002,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2055,19 +2067,19 @@
         <v>69</v>
       </c>
       <c r="E9" s="1">
-        <v>45365</v>
+        <v>45263</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2076,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -2114,15 +2126,13 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
@@ -2137,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>45399</v>
+        <v>45294</v>
       </c>
       <c r="AR9" s="2">
         <v>1</v>
@@ -2147,22 +2157,22 @@
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV9" s="2">
         <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2233,7 +2243,7 @@
         <v>69</v>
       </c>
       <c r="E10" s="1">
-        <v>45069</v>
+        <v>45041</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -2242,10 +2252,10 @@
         <v>72</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2292,12 +2302,10 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2307,28 +2315,30 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN10" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>0</v>
+      </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2">
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>45089</v>
+        <v>45077</v>
       </c>
       <c r="AR10" s="2">
         <v>1</v>
       </c>
       <c r="AS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AV10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW10" s="2">
         <v>1</v>
@@ -2337,13 +2347,13 @@
         <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
         <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2355,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2370,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK10" s="2">
         <v>0</v>
@@ -2411,7 +2421,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="1">
-        <v>45252</v>
+        <v>45328</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -2423,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2432,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -2491,17 +2501,17 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>45260</v>
+        <v>45336</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
       </c>
       <c r="AS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV11" s="2">
         <v>2</v>
@@ -2587,7 +2597,7 @@
         <v>69</v>
       </c>
       <c r="E12" s="1">
-        <v>45069</v>
+        <v>45034</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -2596,10 +2606,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2608,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -2646,9 +2656,11 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC12" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -2659,7 +2671,7 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN12" s="2">
         <v>0</v>
@@ -2669,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>45089</v>
+        <v>45050</v>
       </c>
       <c r="AR12" s="2">
         <v>1</v>
@@ -2679,10 +2691,10 @@
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW12" s="2">
         <v>1</v>
@@ -2691,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -2765,31 +2777,31 @@
         <v>69</v>
       </c>
       <c r="E13" s="1">
-        <v>45270</v>
+        <v>45029</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -2798,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2807,13 +2819,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -2837,15 +2849,17 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN13" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>0</v>
+      </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2">
         <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <v>45308</v>
+        <v>45050</v>
       </c>
       <c r="AR13" s="2">
         <v>1</v>
@@ -2855,22 +2869,22 @@
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -2882,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -2941,31 +2955,31 @@
         <v>69</v>
       </c>
       <c r="E14" s="1">
-        <v>45034</v>
+        <v>45045</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -2974,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -2983,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -3000,11 +3014,9 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -3015,7 +3027,7 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN14" s="2">
         <v>0</v>
@@ -3025,26 +3037,26 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>45050</v>
+        <v>45062</v>
       </c>
       <c r="AR14" s="2">
         <v>1</v>
       </c>
       <c r="AS14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
         <v>0</v>
@@ -3062,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
         <v>0</v>
@@ -3121,19 +3133,19 @@
         <v>69</v>
       </c>
       <c r="E15" s="1">
-        <v>45270</v>
+        <v>45354</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -3201,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>45308</v>
+        <v>45369</v>
       </c>
       <c r="AR15" s="2">
         <v>1</v>
@@ -3211,10 +3223,10 @@
       </c>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW15" s="2">
         <v>1</v>
@@ -3297,37 +3309,37 @@
         <v>69</v>
       </c>
       <c r="E16" s="1">
-        <v>45354</v>
+        <v>45333</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2">
         <v>0</v>
@@ -3339,26 +3351,28 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="2">
-        <v>1</v>
-      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
+      <c r="Z16" s="2">
+        <v>1</v>
+      </c>
       <c r="AA16" s="2"/>
       <c r="AB16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -3369,49 +3383,51 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN16" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>0</v>
+      </c>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2">
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>45370</v>
+        <v>45364</v>
       </c>
       <c r="AR16" s="2">
         <v>1</v>
       </c>
       <c r="AS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV16" s="2">
         <v>2</v>
       </c>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
       </c>
       <c r="BB16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
         <v>0</v>
@@ -3473,7 +3489,7 @@
         <v>69</v>
       </c>
       <c r="E17" s="1">
-        <v>45365</v>
+        <v>45244</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -3485,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -3553,17 +3569,17 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>45399</v>
+        <v>45260</v>
       </c>
       <c r="AR17" s="2">
         <v>1</v>
       </c>
       <c r="AS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV17" s="2">
         <v>2</v>
@@ -3575,10 +3591,10 @@
         <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -3649,7 +3665,7 @@
         <v>69</v>
       </c>
       <c r="E18" s="1">
-        <v>45034</v>
+        <v>45252</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>
@@ -3658,7 +3674,7 @@
         <v>72</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>79</v>
@@ -3670,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -3708,11 +3724,9 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -3723,17 +3737,15 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN18" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2">
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>45054</v>
+        <v>45260</v>
       </c>
       <c r="AR18" s="2">
         <v>1</v>
@@ -3743,10 +3755,10 @@
       </c>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW18" s="2">
         <v>0</v>
@@ -3755,13 +3767,13 @@
         <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
         <v>1</v>
       </c>
       <c r="BA18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
@@ -3829,19 +3841,19 @@
         <v>69</v>
       </c>
       <c r="E19" s="1">
-        <v>45340</v>
+        <v>45263</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -3897,11 +3909,13 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
+      <c r="AJ19" s="2">
+        <v>1</v>
+      </c>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN19" s="2">
         <v>0</v>
@@ -3911,20 +3925,20 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AR19" s="2">
         <v>1</v>
       </c>
       <c r="AS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW19" s="2">
         <v>1</v>
@@ -3933,13 +3947,13 @@
         <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
         <v>1</v>
       </c>
       <c r="BA19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
@@ -4007,19 +4021,19 @@
         <v>69</v>
       </c>
       <c r="E20" s="1">
-        <v>45319</v>
+        <v>45069</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -4082,27 +4096,27 @@
         <v>136</v>
       </c>
       <c r="AN20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2">
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>45336</v>
+        <v>45089</v>
       </c>
       <c r="AR20" s="2">
         <v>1</v>
       </c>
       <c r="AS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" s="2">
         <v>1</v>
@@ -4132,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="2">
         <v>0</v>
@@ -4185,7 +4199,7 @@
         <v>69</v>
       </c>
       <c r="E21" s="1">
-        <v>45244</v>
+        <v>45354</v>
       </c>
       <c r="F21" t="s">
         <v>72</v>
@@ -4197,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -4265,20 +4279,20 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="AR21" s="2">
         <v>1</v>
       </c>
       <c r="AS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW21" s="2">
         <v>1</v>
@@ -4361,19 +4375,19 @@
         <v>69</v>
       </c>
       <c r="E22" s="1">
-        <v>45354</v>
+        <v>45270</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -4403,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
@@ -4433,7 +4447,7 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
@@ -4441,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>45369</v>
+        <v>45308</v>
       </c>
       <c r="AR22" s="2">
         <v>1</v>
@@ -4451,10 +4465,10 @@
       </c>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW22" s="2">
         <v>1</v>
@@ -4537,7 +4551,7 @@
         <v>69</v>
       </c>
       <c r="E23" s="1">
-        <v>45041</v>
+        <v>45060</v>
       </c>
       <c r="F23" t="s">
         <v>72</v>
@@ -4549,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -4558,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -4579,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T23" s="2">
         <v>0</v>
@@ -4609,17 +4623,15 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN23" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2">
         <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>45077</v>
+        <v>45089</v>
       </c>
       <c r="AR23" s="2">
         <v>1</v>
@@ -4629,10 +4641,10 @@
       </c>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AV23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW23" s="2">
         <v>1</v>
@@ -4659,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="2">
         <v>0</v>
@@ -4674,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="BJ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK23" s="2">
         <v>0</v>
@@ -4715,19 +4727,19 @@
         <v>69</v>
       </c>
       <c r="E24" s="1">
-        <v>45329</v>
+        <v>45263</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -4763,13 +4775,11 @@
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="2">
-        <v>1</v>
-      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -4797,20 +4807,20 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AR24" s="2">
         <v>1</v>
       </c>
       <c r="AS24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW24" s="2">
         <v>1</v>
@@ -4893,19 +4903,19 @@
         <v>69</v>
       </c>
       <c r="E25" s="1">
-        <v>45026</v>
+        <v>45329</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -4941,11 +4951,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
+      <c r="X25" s="2">
+        <v>1</v>
+      </c>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -4959,21 +4971,21 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
+      <c r="AJ25" s="2">
+        <v>1</v>
+      </c>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN25" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2">
         <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>45032</v>
+        <v>45369</v>
       </c>
       <c r="AR25" s="2">
         <v>1</v>
@@ -4983,10 +4995,10 @@
       </c>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AV25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW25" s="2">
         <v>1</v>
@@ -5013,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="2">
         <v>0</v>
@@ -5028,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="BJ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK25" s="2">
         <v>0</v>
@@ -5069,13 +5081,13 @@
         <v>69</v>
       </c>
       <c r="E26" s="1">
-        <v>45300</v>
+        <v>45319</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H26" s="2">
         <v>1</v>
@@ -5090,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -5128,12 +5140,10 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
@@ -5143,28 +5153,30 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN26" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>1</v>
+      </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2">
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>45317</v>
+        <v>45336</v>
       </c>
       <c r="AR26" s="2">
         <v>1</v>
       </c>
       <c r="AS26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV26" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW26" s="2">
         <v>1</v>
@@ -5194,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="BF26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG26" s="2">
         <v>0</v>
@@ -5247,19 +5259,19 @@
         <v>69</v>
       </c>
       <c r="E27" s="1">
-        <v>45354</v>
+        <v>45069</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
@@ -5268,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -5306,10 +5318,12 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
+      <c r="AD27" s="2">
+        <v>1</v>
+      </c>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
@@ -5327,17 +5341,17 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>45369</v>
+        <v>45089</v>
       </c>
       <c r="AR27" s="2">
         <v>1</v>
       </c>
       <c r="AS27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV27" s="2">
         <v>2</v>
@@ -5423,16 +5437,16 @@
         <v>69</v>
       </c>
       <c r="E28" s="1">
-        <v>45271</v>
+        <v>45354</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>79</v>
@@ -5444,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -5482,12 +5496,10 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="AC28" s="2"/>
-      <c r="AD28" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
@@ -5497,17 +5509,15 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN28" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
       <c r="AP28" s="2">
         <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <v>45294</v>
+        <v>45370</v>
       </c>
       <c r="AR28" s="2">
         <v>1</v>
@@ -5603,19 +5613,19 @@
         <v>69</v>
       </c>
       <c r="E29" s="1">
-        <v>45263</v>
+        <v>45300</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -5624,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -5651,27 +5661,29 @@
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
+      <c r="X29" s="2">
+        <v>1</v>
+      </c>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
+      <c r="AD29" s="2">
+        <v>1</v>
+      </c>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
-      <c r="AJ29" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
@@ -5683,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>45294</v>
+        <v>45317</v>
       </c>
       <c r="AR29" s="2">
         <v>1</v>
@@ -5693,10 +5705,10 @@
       </c>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV29" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW29" s="2">
         <v>1</v>
@@ -5779,19 +5791,19 @@
         <v>69</v>
       </c>
       <c r="E30" s="1">
-        <v>45354</v>
+        <v>45041</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -5800,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -5851,17 +5863,15 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN30" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="2">
         <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>45394</v>
+        <v>45062</v>
       </c>
       <c r="AR30" s="2">
         <v>1</v>
@@ -5871,10 +5881,10 @@
       </c>
       <c r="AT30" s="2"/>
       <c r="AU30" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW30" s="2">
         <v>1</v>
@@ -5901,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30" s="2">
         <v>0</v>
@@ -5957,7 +5967,7 @@
         <v>69</v>
       </c>
       <c r="E31" s="1">
-        <v>45069</v>
+        <v>45365</v>
       </c>
       <c r="F31" t="s">
         <v>72</v>
@@ -5966,10 +5976,10 @@
         <v>72</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -6016,43 +6026,43 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
+      <c r="AG31" s="2">
+        <v>1</v>
+      </c>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN31" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
       <c r="AP31" s="2">
         <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>45096</v>
+        <v>45399</v>
       </c>
       <c r="AR31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS31" s="2">
         <v>1</v>
       </c>
       <c r="AT31" s="2"/>
       <c r="AU31" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW31" s="2">
         <v>0</v>
@@ -6061,13 +6071,13 @@
         <v>1</v>
       </c>
       <c r="AY31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ31" s="2">
         <v>1</v>
       </c>
       <c r="BA31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="2">
         <v>0</v>
@@ -6135,7 +6145,7 @@
         <v>69</v>
       </c>
       <c r="E32" s="1">
-        <v>45312</v>
+        <v>45298</v>
       </c>
       <c r="F32" t="s">
         <v>74</v>
@@ -6147,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -6159,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
@@ -6168,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>
@@ -6177,28 +6187,26 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
-      <c r="X32" s="2">
-        <v>1</v>
-      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
+      <c r="Z32" s="2">
+        <v>1</v>
+      </c>
       <c r="AA32" s="2"/>
       <c r="AB32" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC32" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
@@ -6209,34 +6217,36 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN32" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>1</v>
+      </c>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2">
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>45348</v>
+        <v>45317</v>
       </c>
       <c r="AR32" s="2">
         <v>1</v>
       </c>
       <c r="AS32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY32" s="2">
         <v>0</v>
@@ -6254,10 +6264,10 @@
         <v>0</v>
       </c>
       <c r="BD32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF32" s="2">
         <v>0</v>
@@ -6313,19 +6323,19 @@
         <v>69</v>
       </c>
       <c r="E33" s="1">
-        <v>45365</v>
+        <v>45354</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -6393,17 +6403,17 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>45394</v>
+        <v>45369</v>
       </c>
       <c r="AR33" s="2">
         <v>1</v>
       </c>
       <c r="AS33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="2"/>
       <c r="AU33" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV33" s="2">
         <v>3</v>
@@ -6448,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK33" s="2">
         <v>0</v>
@@ -6489,19 +6499,19 @@
         <v>69</v>
       </c>
       <c r="E34" s="1">
-        <v>45354</v>
+        <v>45270</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -6531,10 +6541,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="T34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" t="s">
         <v>105</v>
@@ -6569,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>45370</v>
+        <v>45308</v>
       </c>
       <c r="AR34" s="2">
         <v>1</v>
@@ -6579,10 +6589,10 @@
       </c>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV34" s="2">
         <v>4</v>
-      </c>
-      <c r="AV34" s="2">
-        <v>3</v>
       </c>
       <c r="AW34" s="2">
         <v>1</v>
@@ -6665,28 +6675,28 @@
         <v>69</v>
       </c>
       <c r="E35" s="1">
-        <v>45260</v>
+        <v>45354</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
@@ -6704,41 +6714,35 @@
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
+      <c r="X35" s="2">
+        <v>1</v>
+      </c>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AC35" s="2"/>
-      <c r="AD35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
-      <c r="AI35" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
@@ -6751,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>45316</v>
+        <v>45369</v>
       </c>
       <c r="AR35" s="2">
         <v>1</v>
@@ -6761,22 +6765,22 @@
       </c>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA35" s="2">
         <v>0</v>
@@ -6815,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="BM35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO35" t="s">
         <v>165</v>
@@ -6847,7 +6851,7 @@
         <v>69</v>
       </c>
       <c r="E36" s="1">
-        <v>45060</v>
+        <v>45354</v>
       </c>
       <c r="F36" t="s">
         <v>72</v>
@@ -6859,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -6889,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="T36" s="2">
         <v>0</v>
@@ -6927,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>45089</v>
+        <v>45369</v>
       </c>
       <c r="AR36" s="2">
         <v>1</v>
@@ -6937,10 +6941,10 @@
       </c>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV36" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW36" s="2">
         <v>1</v>
@@ -6949,13 +6953,13 @@
         <v>1</v>
       </c>
       <c r="AY36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ36" s="2">
         <v>1</v>
       </c>
       <c r="BA36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="2">
         <v>0</v>
@@ -7023,19 +7027,19 @@
         <v>69</v>
       </c>
       <c r="E37" s="1">
-        <v>45069</v>
+        <v>45354</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -7095,7 +7099,7 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN37" s="2">
         <v>0</v>
@@ -7105,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>45096</v>
+        <v>45394</v>
       </c>
       <c r="AR37" s="2">
         <v>1</v>
@@ -7115,10 +7119,10 @@
       </c>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW37" s="2">
         <v>1</v>
@@ -7201,7 +7205,7 @@
         <v>69</v>
       </c>
       <c r="E38" s="1">
-        <v>45328</v>
+        <v>45365</v>
       </c>
       <c r="F38" t="s">
         <v>72</v>
@@ -7222,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
@@ -7281,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>45336</v>
+        <v>45394</v>
       </c>
       <c r="AR38" s="2">
         <v>1</v>
@@ -7291,10 +7295,10 @@
       </c>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW38" s="2">
         <v>1</v>
@@ -7377,19 +7381,19 @@
         <v>69</v>
       </c>
       <c r="E39" s="1">
-        <v>45354</v>
+        <v>45286</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
@@ -7425,20 +7429,20 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="2">
-        <v>1</v>
-      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>1</v>
+      </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
@@ -7449,31 +7453,33 @@
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN39" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>1</v>
+      </c>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2">
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>45370</v>
+        <v>45308</v>
       </c>
       <c r="AR39" s="2">
         <v>1</v>
       </c>
       <c r="AS39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2">
         <v>3</v>
       </c>
       <c r="AV39" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="2">
         <v>1</v>
@@ -7553,19 +7559,19 @@
         <v>69</v>
       </c>
       <c r="E40" s="1">
-        <v>45252</v>
+        <v>45312</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -7612,9 +7618,11 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
@@ -7625,30 +7633,28 @@
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN40" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
       <c r="AP40" s="2">
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>45261</v>
+        <v>45348</v>
       </c>
       <c r="AR40" s="2">
         <v>1</v>
       </c>
       <c r="AS40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2">
         <v>2</v>
       </c>
       <c r="AV40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW40" s="2">
         <v>1</v>
@@ -7731,7 +7737,7 @@
         <v>69</v>
       </c>
       <c r="E41" s="1">
-        <v>45045</v>
+        <v>45390</v>
       </c>
       <c r="F41" t="s">
         <v>74</v>
@@ -7740,10 +7746,10 @@
         <v>74</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
@@ -7779,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
@@ -7790,9 +7796,11 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0</v>
+      </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
@@ -7803,7 +7811,7 @@
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN41" s="2">
         <v>0</v>
@@ -7813,17 +7821,17 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="1">
-        <v>45062</v>
+        <v>45401</v>
       </c>
       <c r="AR41" s="2">
         <v>1</v>
       </c>
       <c r="AS41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV41" s="2">
         <v>1</v>
@@ -7909,7 +7917,7 @@
         <v>69</v>
       </c>
       <c r="E42" s="1">
-        <v>45252</v>
+        <v>45349</v>
       </c>
       <c r="F42" t="s">
         <v>74</v>
@@ -7918,10 +7926,10 @@
         <v>74</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -7966,46 +7974,38 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="AC42" s="2"/>
-      <c r="AD42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
       <c r="AK42" s="2"/>
-      <c r="AL42" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL42" s="2"/>
       <c r="AM42" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN42" s="2">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
       <c r="AP42" s="2">
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>45259</v>
+        <v>45369</v>
       </c>
       <c r="AR42" s="2">
         <v>1</v>
       </c>
       <c r="AS42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42" s="2"/>
       <c r="AU42" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV42" s="2">
         <v>3</v>
@@ -8017,10 +8017,10 @@
         <v>1</v>
       </c>
       <c r="AY42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA42" s="2">
         <v>0</v>
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="BE42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF42" s="2">
         <v>0</v>
@@ -8091,28 +8091,28 @@
         <v>69</v>
       </c>
       <c r="E43" s="1">
-        <v>45354</v>
+        <v>45272</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
       </c>
       <c r="K43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="2">
         <v>0</v>
@@ -8150,28 +8150,32 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
+      <c r="AH43" s="2">
+        <v>1</v>
+      </c>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN43" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>0</v>
+      </c>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2">
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AR43" s="2">
         <v>1</v>
@@ -8181,10 +8185,10 @@
       </c>
       <c r="AT43" s="2"/>
       <c r="AU43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW43" s="2">
         <v>1</v>
@@ -8214,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="BF43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG43" s="2">
         <v>0</v>
@@ -8267,19 +8271,19 @@
         <v>69</v>
       </c>
       <c r="E44" s="1">
-        <v>45270</v>
+        <v>45354</v>
       </c>
       <c r="F44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -8339,7 +8343,7 @@
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
@@ -8347,17 +8351,17 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>45308</v>
+        <v>45370</v>
       </c>
       <c r="AR44" s="2">
         <v>1</v>
       </c>
       <c r="AS44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="2"/>
       <c r="AU44" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV44" s="2">
         <v>3</v>
@@ -8443,7 +8447,7 @@
         <v>69</v>
       </c>
       <c r="E45" s="1">
-        <v>45390</v>
+        <v>45354</v>
       </c>
       <c r="F45" t="s">
         <v>74</v>
@@ -8452,19 +8456,19 @@
         <v>74</v>
       </c>
       <c r="H45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="2">
         <v>0</v>
@@ -8482,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="s">
         <v>75</v>
@@ -8491,22 +8495,20 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
+      <c r="X45" s="2">
+        <v>1</v>
+      </c>
       <c r="Y45" s="2"/>
-      <c r="Z45" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC45" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
@@ -8517,27 +8519,25 @@
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN45" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
       <c r="AP45" s="2">
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>45401</v>
+        <v>45394</v>
       </c>
       <c r="AR45" s="2">
         <v>1</v>
       </c>
       <c r="AS45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV45" s="2">
         <v>1</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="AX45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA45" s="2">
         <v>0</v>
@@ -8591,10 +8591,10 @@
         <v>0</v>
       </c>
       <c r="BM45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO45" t="s">
         <v>165</v>
@@ -8623,19 +8623,19 @@
         <v>69</v>
       </c>
       <c r="E46" s="1">
-        <v>45354</v>
+        <v>45041</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="2">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>45369</v>
+        <v>45077</v>
       </c>
       <c r="AR46" s="2">
         <v>1</v>
@@ -8713,10 +8713,10 @@
       </c>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV46" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW46" s="2">
         <v>1</v>
@@ -8725,13 +8725,13 @@
         <v>1</v>
       </c>
       <c r="AY46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ46" s="2">
         <v>1</v>
       </c>
       <c r="BA46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB46" s="2">
         <v>0</v>
@@ -8743,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="BE46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF46" s="2">
         <v>0</v>
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -8841,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="T47" s="2">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="AR47" s="2">
         <v>1</v>
@@ -8889,13 +8889,13 @@
       </c>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV47" s="2">
         <v>4</v>
       </c>
-      <c r="AV47" s="2">
-        <v>1</v>
-      </c>
       <c r="AW47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX47" s="2">
         <v>1</v>
@@ -8975,19 +8975,19 @@
         <v>69</v>
       </c>
       <c r="E48" s="1">
-        <v>45312</v>
+        <v>45354</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -8996,10 +8996,10 @@
         <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="2">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T48" s="2">
         <v>0</v>
@@ -9034,12 +9034,10 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="AC48" s="2"/>
-      <c r="AD48" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
@@ -9057,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>45316</v>
+        <v>45370</v>
       </c>
       <c r="AR48" s="2">
         <v>1</v>
@@ -9067,22 +9065,22 @@
       </c>
       <c r="AT48" s="2"/>
       <c r="AU48" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV48" s="2">
         <v>2</v>
       </c>
-      <c r="AV48" s="2">
-        <v>1</v>
-      </c>
       <c r="AW48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX48" s="2">
         <v>1</v>
       </c>
       <c r="AY48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA48" s="2">
         <v>0</v>
@@ -9094,10 +9092,10 @@
         <v>0</v>
       </c>
       <c r="BD48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF48" s="2">
         <v>0</v>
@@ -9153,7 +9151,7 @@
         <v>69</v>
       </c>
       <c r="E49" s="1">
-        <v>45272</v>
+        <v>45034</v>
       </c>
       <c r="F49" t="s">
         <v>72</v>
@@ -9165,13 +9163,13 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
       </c>
       <c r="K49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="2">
         <v>0</v>
@@ -9212,22 +9210,22 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>0</v>
+      </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN49" s="2">
         <v>0</v>
@@ -9237,20 +9235,20 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>45294</v>
+        <v>45050</v>
       </c>
       <c r="AR49" s="2">
         <v>1</v>
       </c>
       <c r="AS49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2">
         <v>4</v>
       </c>
       <c r="AV49" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW49" s="2">
         <v>1</v>
@@ -9259,10 +9257,10 @@
         <v>1</v>
       </c>
       <c r="AY49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="2">
         <v>0</v>
@@ -9280,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="BF49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG49" s="2">
         <v>0</v>
@@ -9333,19 +9331,19 @@
         <v>69</v>
       </c>
       <c r="E50" s="1">
-        <v>45298</v>
+        <v>45252</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -9354,7 +9352,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
@@ -9405,7 +9403,7 @@
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
       <c r="AM50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN50" s="2">
         <v>0</v>
@@ -9415,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>45316</v>
+        <v>45261</v>
       </c>
       <c r="AR50" s="2">
         <v>1</v>
@@ -9425,10 +9423,10 @@
       </c>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW50" s="2">
         <v>1</v>
@@ -9437,10 +9435,10 @@
         <v>1</v>
       </c>
       <c r="AY50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="2">
         <v>0</v>
@@ -9470,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="BJ50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK50" s="2">
         <v>0</v>
@@ -9511,7 +9509,7 @@
         <v>69</v>
       </c>
       <c r="E51" s="1">
-        <v>45270</v>
+        <v>45069</v>
       </c>
       <c r="F51" t="s">
         <v>72</v>
@@ -9523,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -9583,43 +9581,45 @@
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
       <c r="AM51" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN51" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN51" s="2">
+        <v>0</v>
+      </c>
       <c r="AO51" s="2"/>
       <c r="AP51" s="2">
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>45308</v>
+        <v>45096</v>
       </c>
       <c r="AR51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV51" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="2">
         <v>1</v>
       </c>
       <c r="AY51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ51" s="2">
         <v>1</v>
       </c>
       <c r="BA51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB51" s="2">
         <v>0</v>
@@ -9687,19 +9687,19 @@
         <v>69</v>
       </c>
       <c r="E52" s="1">
-        <v>45354</v>
+        <v>45312</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -9708,10 +9708,10 @@
         <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="2">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="2">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
@@ -9746,10 +9746,12 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
+      <c r="AD52" s="2">
+        <v>1</v>
+      </c>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
@@ -9767,32 +9769,32 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <v>45369</v>
+        <v>45316</v>
       </c>
       <c r="AR52" s="2">
         <v>1</v>
       </c>
       <c r="AS52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT52" s="2"/>
       <c r="AU52" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV52" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX52" s="2">
         <v>1</v>
       </c>
       <c r="AY52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA52" s="2">
         <v>0</v>
@@ -9804,10 +9806,10 @@
         <v>0</v>
       </c>
       <c r="BD52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF52" s="2">
         <v>0</v>
@@ -9863,31 +9865,31 @@
         <v>69</v>
       </c>
       <c r="E53" s="1">
-        <v>45390</v>
+        <v>45034</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H53" s="2">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="2">
         <v>0</v>
       </c>
       <c r="M53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="2">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="2">
         <v>0</v>
@@ -9905,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T53" s="2">
         <v>0</v>
@@ -9922,7 +9924,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC53" s="2">
         <v>0</v>
@@ -9937,7 +9939,7 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN53" s="2">
         <v>0</v>
@@ -9947,35 +9949,35 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>45401</v>
+        <v>45054</v>
       </c>
       <c r="AR53" s="2">
         <v>1</v>
       </c>
       <c r="AS53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV53" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW53" s="2">
         <v>0</v>
       </c>
       <c r="AX53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY53" s="2">
         <v>0</v>
       </c>
       <c r="AZ53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB53" s="2">
         <v>0</v>
@@ -9984,10 +9986,10 @@
         <v>0</v>
       </c>
       <c r="BD53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF53" s="2">
         <v>0</v>
@@ -10043,13 +10045,13 @@
         <v>69</v>
       </c>
       <c r="E54" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -10064,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="2">
         <v>0</v>
@@ -10123,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>45062</v>
+        <v>45370</v>
       </c>
       <c r="AR54" s="2">
         <v>1</v>
@@ -10133,13 +10135,13 @@
       </c>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX54" s="2">
         <v>1</v>
@@ -10163,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="BE54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF54" s="2">
         <v>0</v>
@@ -10219,7 +10221,7 @@
         <v>69</v>
       </c>
       <c r="E55" s="1">
-        <v>45354</v>
+        <v>45340</v>
       </c>
       <c r="F55" t="s">
         <v>74</v>
@@ -10231,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -10291,31 +10293,33 @@
       <c r="AK55" s="2"/>
       <c r="AL55" s="2"/>
       <c r="AM55" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN55" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN55" s="2">
+        <v>0</v>
+      </c>
       <c r="AO55" s="2"/>
       <c r="AP55" s="2">
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>45394</v>
+        <v>45369</v>
       </c>
       <c r="AR55" s="2">
         <v>1</v>
       </c>
       <c r="AS55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="2"/>
       <c r="AU55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV55" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX55" s="2">
         <v>1</v>
@@ -10395,19 +10399,19 @@
         <v>69</v>
       </c>
       <c r="E56" s="1">
-        <v>45252</v>
+        <v>45315</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -10416,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="2">
         <v>0</v>
@@ -10475,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>45260</v>
+        <v>45336</v>
       </c>
       <c r="AR56" s="2">
         <v>1</v>
@@ -10485,10 +10489,10 @@
       </c>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AV56" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW56" s="2">
         <v>0</v>
@@ -10518,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG56" s="2">
         <v>0</v>
@@ -10571,19 +10575,19 @@
         <v>69</v>
       </c>
       <c r="E57" s="1">
-        <v>45298</v>
+        <v>45026</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -10592,10 +10596,10 @@
         <v>1</v>
       </c>
       <c r="L57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="2">
         <v>0</v>
@@ -10604,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="2">
         <v>0</v>
@@ -10613,21 +10617,19 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
-      <c r="Z57" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" t="s">
         <v>75</v>
@@ -10646,14 +10648,14 @@
         <v>136</v>
       </c>
       <c r="AN57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO57" s="2"/>
       <c r="AP57" s="2">
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>45317</v>
+        <v>45032</v>
       </c>
       <c r="AR57" s="2">
         <v>1</v>
@@ -10663,22 +10665,22 @@
       </c>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2">
+        <v>11</v>
+      </c>
+      <c r="AV57" s="2">
         <v>3</v>
       </c>
-      <c r="AV57" s="2">
-        <v>1</v>
-      </c>
       <c r="AW57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA57" s="2">
         <v>0</v>
@@ -10690,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="2">
         <v>1</v>
@@ -10708,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="BJ57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK57" s="2">
         <v>0</v>
@@ -10749,37 +10751,37 @@
         <v>69</v>
       </c>
       <c r="E58" s="1">
-        <v>45333</v>
+        <v>45069</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" s="2">
         <v>0</v>
       </c>
       <c r="O58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" s="2">
         <v>0</v>
@@ -10791,28 +10793,26 @@
         <v>0</v>
       </c>
       <c r="S58" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T58" s="2">
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
+      <c r="X58" s="2">
+        <v>1</v>
+      </c>
       <c r="Y58" s="2"/>
-      <c r="Z58" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC58" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
@@ -10823,7 +10823,7 @@
       <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
       <c r="AM58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN58" s="2">
         <v>0</v>
@@ -10833,41 +10833,41 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="1">
-        <v>45364</v>
+        <v>45096</v>
       </c>
       <c r="AR58" s="2">
         <v>1</v>
       </c>
       <c r="AS58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="2"/>
       <c r="AU58" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV58" s="2">
         <v>2</v>
       </c>
       <c r="AW58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA58" s="2">
         <v>0</v>
       </c>
       <c r="BB58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD58" s="2">
         <v>0</v>
@@ -10929,16 +10929,16 @@
         <v>69</v>
       </c>
       <c r="E59" s="1">
-        <v>45034</v>
+        <v>45298</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
         <v>79</v>
@@ -10950,7 +10950,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="2">
         <v>0</v>
@@ -10988,11 +10988,9 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC59" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
@@ -11003,7 +11001,7 @@
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
       <c r="AM59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN59" s="2">
         <v>0</v>
@@ -11013,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>45050</v>
+        <v>45316</v>
       </c>
       <c r="AR59" s="2">
         <v>1</v>
@@ -11023,7 +11021,7 @@
       </c>
       <c r="AT59" s="2"/>
       <c r="AU59" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV59" s="2">
         <v>3</v>
@@ -11035,10 +11033,10 @@
         <v>1</v>
       </c>
       <c r="AY59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA59" s="2">
         <v>0</v>
@@ -11068,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="BJ59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK59" s="2">
         <v>0</v>
@@ -11109,13 +11107,13 @@
         <v>69</v>
       </c>
       <c r="E60" s="1">
-        <v>45263</v>
+        <v>45354</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -11130,7 +11128,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="2">
         <v>0</v>
@@ -11189,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="1">
-        <v>45294</v>
+        <v>45369</v>
       </c>
       <c r="AR60" s="2">
         <v>1</v>
@@ -11199,11 +11197,11 @@
       </c>
       <c r="AT60" s="2"/>
       <c r="AU60" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV60" s="2">
         <v>3</v>
       </c>
-      <c r="AV60" s="2">
-        <v>1</v>
-      </c>
       <c r="AW60" s="2">
         <v>1</v>
       </c>
@@ -11211,10 +11209,10 @@
         <v>1</v>
       </c>
       <c r="AY60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA60" s="2">
         <v>0</v>
@@ -11285,28 +11283,28 @@
         <v>69</v>
       </c>
       <c r="E61" s="1">
-        <v>45354</v>
+        <v>45390</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G61" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="s">
         <v>80</v>
       </c>
       <c r="J61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="2">
         <v>0</v>
@@ -11324,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" t="s">
         <v>75</v>
@@ -11333,20 +11331,22 @@
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
-      <c r="X61" s="2">
-        <v>1</v>
-      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
+      <c r="Z61" s="2">
+        <v>1</v>
+      </c>
       <c r="AA61" s="2"/>
       <c r="AB61" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC61" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>0</v>
+      </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
@@ -11357,40 +11357,42 @@
       <c r="AK61" s="2"/>
       <c r="AL61" s="2"/>
       <c r="AM61" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN61" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN61" s="2">
+        <v>0</v>
+      </c>
       <c r="AO61" s="2"/>
       <c r="AP61" s="2">
         <v>0</v>
       </c>
       <c r="AQ61" s="1">
-        <v>45369</v>
+        <v>45401</v>
       </c>
       <c r="AR61" s="2">
         <v>1</v>
       </c>
       <c r="AS61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="2"/>
       <c r="AU61" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV61" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA61" s="2">
         <v>0</v>
@@ -11429,10 +11431,10 @@
         <v>0</v>
       </c>
       <c r="BM61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO61" t="s">
         <v>165</v>
@@ -11461,19 +11463,19 @@
         <v>69</v>
       </c>
       <c r="E62" s="1">
-        <v>45286</v>
+        <v>45252</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -11509,20 +11511,20 @@
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
+      <c r="X62" s="2">
+        <v>1</v>
+      </c>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC62" s="2">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
@@ -11533,17 +11535,15 @@
       <c r="AK62" s="2"/>
       <c r="AL62" s="2"/>
       <c r="AM62" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN62" s="2">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
       <c r="AP62" s="2">
         <v>0</v>
       </c>
       <c r="AQ62" s="1">
-        <v>45308</v>
+        <v>45260</v>
       </c>
       <c r="AR62" s="2">
         <v>1</v>
@@ -11556,10 +11556,10 @@
         <v>3</v>
       </c>
       <c r="AV62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX62" s="2">
         <v>1</v>
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>

--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -18,189 +18,189 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
+    <t>600775</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>600640</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
     <t>600383</t>
   </si>
   <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
+    <t>600398</t>
+  </si>
+  <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
+    <t>600322</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>600699</t>
+  </si>
+  <si>
+    <t>500025</t>
+  </si>
+  <si>
+    <t>600853</t>
+  </si>
+  <si>
+    <t>600961</t>
+  </si>
+  <si>
+    <t>500684</t>
+  </si>
+  <si>
+    <t>600758</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>600672</t>
+  </si>
+  <si>
     <t>600326</t>
   </si>
   <si>
+    <t>600381</t>
+  </si>
+  <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>600727</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>600346</t>
+  </si>
+  <si>
+    <t>500906</t>
+  </si>
+  <si>
+    <t>600360</t>
+  </si>
+  <si>
     <t>600604</t>
   </si>
   <si>
+    <t>600886</t>
+  </si>
+  <si>
+    <t>600366</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
     <t>600374</t>
   </si>
   <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>600947</t>
+  </si>
+  <si>
+    <t>500005</t>
+  </si>
+  <si>
+    <t>600687</t>
+  </si>
+  <si>
+    <t>500454</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>600996</t>
+  </si>
+  <si>
+    <t>600310</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>600611</t>
+  </si>
+  <si>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
     <t>600812</t>
   </si>
   <si>
-    <t>500901</t>
-  </si>
-  <si>
-    <t>600322</t>
-  </si>
-  <si>
-    <t>600398</t>
-  </si>
-  <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>500355</t>
-  </si>
-  <si>
-    <t>600611</t>
-  </si>
-  <si>
-    <t>600780</t>
-  </si>
-  <si>
-    <t>600388</t>
-  </si>
-  <si>
-    <t>600310</t>
-  </si>
-  <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>500951</t>
-  </si>
-  <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>500025</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>600786</t>
-  </si>
-  <si>
-    <t>500221</t>
-  </si>
-  <si>
-    <t>600996</t>
-  </si>
-  <si>
-    <t>600775</t>
-  </si>
-  <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>600396</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>600961</t>
-  </si>
-  <si>
-    <t>600982</t>
-  </si>
-  <si>
-    <t>600346</t>
-  </si>
-  <si>
-    <t>600687</t>
-  </si>
-  <si>
-    <t>600886</t>
-  </si>
-  <si>
-    <t>600758</t>
-  </si>
-  <si>
-    <t>600309</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>600947</t>
-  </si>
-  <si>
-    <t>500005</t>
-  </si>
-  <si>
-    <t>600602</t>
-  </si>
-  <si>
-    <t>600640</t>
-  </si>
-  <si>
     <t>400238</t>
   </si>
   <si>
-    <t>600366</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>600682</t>
-  </si>
-  <si>
-    <t>400230</t>
-  </si>
-  <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>600610</t>
-  </si>
-  <si>
-    <t>400224</t>
-  </si>
-  <si>
-    <t>500454</t>
-  </si>
-  <si>
-    <t>600703</t>
-  </si>
-  <si>
     <t>600614</t>
   </si>
   <si>
-    <t>600853</t>
-  </si>
-  <si>
-    <t>600360</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -231,15 +231,15 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -255,30 +255,30 @@
     <t>fentanyl; xylazine</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl; crack</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>xylazine; fentanyl</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>xylazine; fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; crack</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>cocaine; fentanyl</t>
   </si>
   <si>
@@ -312,18 +312,18 @@
     <t>color</t>
   </si>
   <si>
+    <t>gray</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
+    <t>pink</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>gray</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -333,18 +333,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>rock; crystals</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
     <t>powder; chunky; rock</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>rock; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -360,33 +360,33 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>weird; sedating</t>
+  </si>
+  <si>
+    <t>stronger</t>
+  </si>
+  <si>
     <t>long; unpleasant; hallucinations</t>
   </si>
   <si>
     <t>unpleasant; hallucinations</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>weird; sedating</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
     <t>sedating</t>
   </si>
   <si>
-    <t>stronger</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -420,10 +420,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
     <t>involved in OD</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
   </si>
   <si>
     <t>od</t>
@@ -668,7 +668,7 @@
         <v>112</v>
       </c>
       <c r="Z1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AA1" t="s">
         <v>113</v>
@@ -817,7 +817,7 @@
         <v>69</v>
       </c>
       <c r="E2" s="1">
-        <v>45270</v>
+        <v>45026</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
@@ -865,13 +865,11 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2">
-        <v>1</v>
-      </c>
+      <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -889,28 +887,30 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN2" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2">
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>45308</v>
+        <v>45032</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
       </c>
       <c r="AS2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AV2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW2" s="2">
         <v>1</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2" s="2">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2" s="2">
         <v>0</v>
@@ -993,13 +993,13 @@
         <v>69</v>
       </c>
       <c r="E3" s="1">
-        <v>45270</v>
+        <v>45354</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
@@ -1065,7 +1065,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>45308</v>
+        <v>45369</v>
       </c>
       <c r="AR3" s="2">
         <v>1</v>
@@ -1083,10 +1083,10 @@
       </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV3" s="2">
         <v>4</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>3</v>
       </c>
       <c r="AW3" s="2">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>69</v>
       </c>
       <c r="E4" s="1">
-        <v>45260</v>
+        <v>45045</v>
       </c>
       <c r="F4" t="s">
         <v>73</v>
@@ -1178,7 +1178,7 @@
         <v>73</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>80</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1202,16 +1202,16 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
@@ -1221,51 +1221,47 @@
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AC4" s="2"/>
-      <c r="AD4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
-      <c r="AI4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN4" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0</v>
+      </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2">
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>45316</v>
+        <v>45062</v>
       </c>
       <c r="AR4" s="2">
         <v>1</v>
       </c>
       <c r="AS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV4" s="2">
         <v>1</v>
@@ -1292,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1319,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="BM4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="s">
         <v>165</v>
@@ -1351,13 +1347,13 @@
         <v>69</v>
       </c>
       <c r="E5" s="1">
-        <v>45252</v>
+        <v>45298</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1375,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1384,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1393,41 +1389,37 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
       <c r="AA5" s="2"/>
       <c r="AB5" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AC5" s="2"/>
-      <c r="AD5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL5" s="2"/>
       <c r="AM5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN5" s="2">
         <v>1</v>
@@ -1437,26 +1429,26 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>45259</v>
+        <v>45317</v>
       </c>
       <c r="AR5" s="2">
         <v>1</v>
       </c>
       <c r="AS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
         <v>3</v>
       </c>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
         <v>0</v>
@@ -1474,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1533,13 +1525,13 @@
         <v>69</v>
       </c>
       <c r="E6" s="1">
-        <v>45365</v>
+        <v>45354</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1605,7 +1597,7 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
@@ -1613,20 +1605,20 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>45399</v>
+        <v>45369</v>
       </c>
       <c r="AR6" s="2">
         <v>1</v>
       </c>
       <c r="AS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
         <v>1</v>
@@ -1635,10 +1627,10 @@
         <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1709,7 +1701,7 @@
         <v>69</v>
       </c>
       <c r="E7" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -1721,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1730,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1781,17 +1773,15 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2">
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>45062</v>
+        <v>45370</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
@@ -1801,7 +1791,7 @@
       </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV7" s="2">
         <v>2</v>
@@ -1813,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -1887,19 +1877,19 @@
         <v>69</v>
       </c>
       <c r="E8" s="1">
-        <v>45271</v>
+        <v>45041</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -1946,12 +1936,10 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -1961,7 +1949,7 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN8" s="2">
         <v>0</v>
@@ -1971,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>45294</v>
+        <v>45062</v>
       </c>
       <c r="AR8" s="2">
         <v>1</v>
@@ -1981,10 +1969,10 @@
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW8" s="2">
         <v>1</v>
@@ -1993,10 +1981,10 @@
         <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2067,19 +2055,19 @@
         <v>69</v>
       </c>
       <c r="E9" s="1">
-        <v>45263</v>
+        <v>45354</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2088,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -2139,7 +2127,7 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
@@ -2147,20 +2135,20 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>45294</v>
+        <v>45369</v>
       </c>
       <c r="AR9" s="2">
         <v>1</v>
       </c>
       <c r="AS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW9" s="2">
         <v>1</v>
@@ -2169,10 +2157,10 @@
         <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2243,19 +2231,19 @@
         <v>69</v>
       </c>
       <c r="E10" s="1">
-        <v>45041</v>
+        <v>45300</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2302,10 +2290,12 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2315,30 +2305,28 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN10" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2">
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>45077</v>
+        <v>45317</v>
       </c>
       <c r="AR10" s="2">
         <v>1</v>
       </c>
       <c r="AS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AV10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW10" s="2">
         <v>1</v>
@@ -2347,13 +2335,13 @@
         <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
         <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2365,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2380,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="2">
         <v>0</v>
@@ -2421,19 +2409,19 @@
         <v>69</v>
       </c>
       <c r="E11" s="1">
-        <v>45328</v>
+        <v>45270</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2442,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -2493,7 +2481,7 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
@@ -2501,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>45336</v>
+        <v>45308</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
@@ -2511,10 +2499,10 @@
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW11" s="2">
         <v>1</v>
@@ -2597,19 +2585,19 @@
         <v>69</v>
       </c>
       <c r="E12" s="1">
-        <v>45034</v>
+        <v>45270</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2618,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -2639,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="T12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="s">
         <v>105</v>
@@ -2656,11 +2644,9 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -2671,30 +2657,28 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2">
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>45050</v>
+        <v>45308</v>
       </c>
       <c r="AR12" s="2">
         <v>1</v>
       </c>
       <c r="AS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW12" s="2">
         <v>1</v>
@@ -2703,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -2777,7 +2761,7 @@
         <v>69</v>
       </c>
       <c r="E13" s="1">
-        <v>45029</v>
+        <v>45041</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
@@ -2792,16 +2776,16 @@
         <v>82</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -2810,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2819,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -2849,17 +2833,15 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN13" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2">
         <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <v>45050</v>
+        <v>45062</v>
       </c>
       <c r="AR13" s="2">
         <v>1</v>
@@ -2869,22 +2851,22 @@
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -2896,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
         <v>1</v>
@@ -2955,31 +2937,31 @@
         <v>69</v>
       </c>
       <c r="E14" s="1">
-        <v>45045</v>
+        <v>45263</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -2988,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -2997,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -3027,17 +3009,15 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN14" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2">
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>45062</v>
+        <v>45294</v>
       </c>
       <c r="AR14" s="2">
         <v>1</v>
@@ -3053,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="AW14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
         <v>0</v>
@@ -3074,10 +3054,10 @@
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
         <v>0</v>
@@ -3133,7 +3113,7 @@
         <v>69</v>
       </c>
       <c r="E15" s="1">
-        <v>45354</v>
+        <v>45272</v>
       </c>
       <c r="F15" t="s">
         <v>74</v>
@@ -3142,19 +3122,19 @@
         <v>74</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3192,41 +3172,45 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
+      <c r="AH15" s="2">
+        <v>1</v>
+      </c>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN15" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>0</v>
+      </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2">
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AR15" s="2">
         <v>1</v>
       </c>
       <c r="AS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW15" s="2">
         <v>1</v>
@@ -3256,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3312,10 +3296,10 @@
         <v>45333</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
@@ -3351,13 +3335,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -3368,7 +3352,7 @@
       </c>
       <c r="AA16" s="2"/>
       <c r="AB16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC16" s="2">
         <v>0</v>
@@ -3383,7 +3367,7 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN16" s="2">
         <v>0</v>
@@ -3489,7 +3473,7 @@
         <v>69</v>
       </c>
       <c r="E17" s="1">
-        <v>45244</v>
+        <v>45263</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -3557,19 +3541,23 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
+      <c r="AJ17" s="2">
+        <v>1</v>
+      </c>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN17" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2">
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>45260</v>
+        <v>45294</v>
       </c>
       <c r="AR17" s="2">
         <v>1</v>
@@ -3579,7 +3567,7 @@
       </c>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV17" s="2">
         <v>2</v>
@@ -3591,13 +3579,13 @@
         <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
         <v>1</v>
       </c>
       <c r="BA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -3665,19 +3653,19 @@
         <v>69</v>
       </c>
       <c r="E18" s="1">
-        <v>45252</v>
+        <v>45271</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -3686,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -3724,10 +3712,12 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
+      <c r="AD18" s="2">
+        <v>1</v>
+      </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -3737,15 +3727,17 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN18" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>0</v>
+      </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2">
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>45260</v>
+        <v>45294</v>
       </c>
       <c r="AR18" s="2">
         <v>1</v>
@@ -3755,13 +3747,13 @@
       </c>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV18" s="2">
         <v>3</v>
       </c>
-      <c r="AV18" s="2">
-        <v>1</v>
-      </c>
       <c r="AW18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -3841,19 +3833,19 @@
         <v>69</v>
       </c>
       <c r="E19" s="1">
-        <v>45263</v>
+        <v>45034</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -3862,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -3900,22 +3892,22 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
-      <c r="AJ19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN19" s="2">
         <v>0</v>
@@ -3925,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>45294</v>
+        <v>45054</v>
       </c>
       <c r="AR19" s="2">
         <v>1</v>
@@ -3938,10 +3930,10 @@
         <v>5</v>
       </c>
       <c r="AV19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -4021,19 +4013,19 @@
         <v>69</v>
       </c>
       <c r="E20" s="1">
-        <v>45069</v>
+        <v>45298</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -4093,7 +4085,7 @@
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN20" s="2">
         <v>0</v>
@@ -4103,17 +4095,17 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>45089</v>
+        <v>45316</v>
       </c>
       <c r="AR20" s="2">
         <v>1</v>
       </c>
       <c r="AS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV20" s="2">
         <v>3</v>
@@ -4158,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK20" s="2">
         <v>0</v>
@@ -4199,13 +4191,13 @@
         <v>69</v>
       </c>
       <c r="E21" s="1">
-        <v>45354</v>
+        <v>45340</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -4271,9 +4263,11 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN21" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>0</v>
+      </c>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2">
         <v>0</v>
@@ -4289,10 +4283,10 @@
       </c>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW21" s="2">
         <v>1</v>
@@ -4375,19 +4369,19 @@
         <v>69</v>
       </c>
       <c r="E22" s="1">
-        <v>45270</v>
+        <v>45060</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -4417,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
@@ -4447,7 +4441,7 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
@@ -4455,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>45308</v>
+        <v>45089</v>
       </c>
       <c r="AR22" s="2">
         <v>1</v>
@@ -4465,10 +4459,10 @@
       </c>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW22" s="2">
         <v>1</v>
@@ -4477,13 +4471,13 @@
         <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="2">
         <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
@@ -4551,28 +4545,28 @@
         <v>69</v>
       </c>
       <c r="E23" s="1">
-        <v>45060</v>
+        <v>45390</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -4590,29 +4584,31 @@
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="T23" s="2">
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="2">
-        <v>1</v>
-      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="Z23" s="2">
+        <v>1</v>
+      </c>
       <c r="AA23" s="2"/>
       <c r="AB23" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
@@ -4623,43 +4619,45 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN23" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>0</v>
+      </c>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2">
         <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>45089</v>
+        <v>45401</v>
       </c>
       <c r="AR23" s="2">
         <v>1</v>
       </c>
       <c r="AS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AV23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="2">
         <v>0</v>
       </c>
       <c r="AZ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="2">
         <v>0</v>
@@ -4695,10 +4693,10 @@
         <v>0</v>
       </c>
       <c r="BM23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO23" t="s">
         <v>165</v>
@@ -4727,7 +4725,7 @@
         <v>69</v>
       </c>
       <c r="E24" s="1">
-        <v>45263</v>
+        <v>45354</v>
       </c>
       <c r="F24" t="s">
         <v>73</v>
@@ -4775,11 +4773,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
+      <c r="X24" s="2">
+        <v>1</v>
+      </c>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -4793,34 +4793,34 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN24" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>0</v>
+      </c>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2">
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>45294</v>
+        <v>45394</v>
       </c>
       <c r="AR24" s="2">
         <v>1</v>
       </c>
       <c r="AS24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2">
         <v>4</v>
       </c>
       <c r="AV24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW24" s="2">
         <v>1</v>
@@ -4903,19 +4903,19 @@
         <v>69</v>
       </c>
       <c r="E25" s="1">
-        <v>45329</v>
+        <v>45069</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -4962,22 +4962,22 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
+      <c r="AD25" s="2">
+        <v>1</v>
+      </c>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
@@ -4985,17 +4985,17 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>45369</v>
+        <v>45089</v>
       </c>
       <c r="AR25" s="2">
         <v>1</v>
       </c>
       <c r="AS25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV25" s="2">
         <v>2</v>
@@ -5081,19 +5081,19 @@
         <v>69</v>
       </c>
       <c r="E26" s="1">
-        <v>45319</v>
+        <v>45349</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -5102,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -5129,13 +5129,11 @@
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="2">
-        <v>1</v>
-      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
@@ -5153,17 +5151,15 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN26" s="2">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2">
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>45336</v>
+        <v>45369</v>
       </c>
       <c r="AR26" s="2">
         <v>1</v>
@@ -5176,7 +5172,7 @@
         <v>5</v>
       </c>
       <c r="AV26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW26" s="2">
         <v>1</v>
@@ -5203,10 +5199,10 @@
         <v>0</v>
       </c>
       <c r="BE26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG26" s="2">
         <v>0</v>
@@ -5259,19 +5255,19 @@
         <v>69</v>
       </c>
       <c r="E27" s="1">
-        <v>45069</v>
+        <v>45041</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
@@ -5318,12 +5314,10 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="AC27" s="2"/>
-      <c r="AD27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
@@ -5333,28 +5327,30 @@
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN27" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>0</v>
+      </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2">
         <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>45089</v>
+        <v>45077</v>
       </c>
       <c r="AR27" s="2">
         <v>1</v>
       </c>
       <c r="AS27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AV27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW27" s="2">
         <v>1</v>
@@ -5363,13 +5359,13 @@
         <v>1</v>
       </c>
       <c r="AY27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="2">
         <v>1</v>
       </c>
       <c r="BA27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="2">
         <v>0</v>
@@ -5381,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27" s="2">
         <v>0</v>
@@ -5396,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK27" s="2">
         <v>0</v>
@@ -5440,10 +5436,10 @@
         <v>45354</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -5509,7 +5505,7 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
@@ -5613,19 +5609,19 @@
         <v>69</v>
       </c>
       <c r="E29" s="1">
-        <v>45300</v>
+        <v>45270</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -5634,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -5672,12 +5668,10 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
@@ -5687,7 +5681,7 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
@@ -5695,20 +5689,20 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>45317</v>
+        <v>45308</v>
       </c>
       <c r="AR29" s="2">
         <v>1</v>
       </c>
       <c r="AS29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW29" s="2">
         <v>1</v>
@@ -5791,7 +5785,7 @@
         <v>69</v>
       </c>
       <c r="E30" s="1">
-        <v>45041</v>
+        <v>45263</v>
       </c>
       <c r="F30" t="s">
         <v>72</v>
@@ -5803,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -5812,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -5839,13 +5833,11 @@
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="2">
-        <v>1</v>
-      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
@@ -5859,11 +5851,13 @@
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
-      <c r="AJ30" s="2"/>
+      <c r="AJ30" s="2">
+        <v>1</v>
+      </c>
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
@@ -5871,20 +5865,20 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>45062</v>
+        <v>45294</v>
       </c>
       <c r="AR30" s="2">
         <v>1</v>
       </c>
       <c r="AS30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="2"/>
       <c r="AU30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV30" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW30" s="2">
         <v>1</v>
@@ -5911,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF30" s="2">
         <v>0</v>
@@ -5967,31 +5961,31 @@
         <v>69</v>
       </c>
       <c r="E31" s="1">
-        <v>45365</v>
+        <v>45029</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -6000,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="2">
         <v>0</v>
@@ -6009,13 +6003,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -6026,30 +6020,30 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
-      <c r="AG31" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN31" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>0</v>
+      </c>
       <c r="AO31" s="2"/>
       <c r="AP31" s="2">
         <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>45399</v>
+        <v>45050</v>
       </c>
       <c r="AR31" s="2">
         <v>1</v>
@@ -6068,13 +6062,13 @@
         <v>0</v>
       </c>
       <c r="AX31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="2">
         <v>0</v>
@@ -6086,10 +6080,10 @@
         <v>0</v>
       </c>
       <c r="BD31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF31" s="2">
         <v>0</v>
@@ -6145,7 +6139,7 @@
         <v>69</v>
       </c>
       <c r="E32" s="1">
-        <v>45298</v>
+        <v>45328</v>
       </c>
       <c r="F32" t="s">
         <v>74</v>
@@ -6154,10 +6148,10 @@
         <v>74</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -6169,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
@@ -6178,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>
@@ -6187,21 +6181,21 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
+      <c r="X32" s="2">
+        <v>1</v>
+      </c>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" t="s">
         <v>75</v>
@@ -6217,42 +6211,40 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2">
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>45317</v>
+        <v>45336</v>
       </c>
       <c r="AR32" s="2">
         <v>1</v>
       </c>
       <c r="AS32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA32" s="2">
         <v>0</v>
@@ -6264,10 +6256,10 @@
         <v>0</v>
       </c>
       <c r="BD32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF32" s="2">
         <v>0</v>
@@ -6326,10 +6318,10 @@
         <v>45354</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -6395,7 +6387,7 @@
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
@@ -6409,11 +6401,11 @@
         <v>1</v>
       </c>
       <c r="AS33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="2"/>
       <c r="AU33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV33" s="2">
         <v>3</v>
@@ -6458,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK33" s="2">
         <v>0</v>
@@ -6499,19 +6491,19 @@
         <v>69</v>
       </c>
       <c r="E34" s="1">
-        <v>45270</v>
+        <v>45312</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -6520,10 +6512,10 @@
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
@@ -6532,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="2">
         <v>0</v>
@@ -6541,10 +6533,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="s">
         <v>105</v>
@@ -6558,10 +6550,12 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
+      <c r="AD34" s="2">
+        <v>1</v>
+      </c>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
@@ -6571,7 +6565,7 @@
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
@@ -6579,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>45308</v>
+        <v>45316</v>
       </c>
       <c r="AR34" s="2">
         <v>1</v>
@@ -6589,22 +6583,22 @@
       </c>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV34" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="2">
         <v>1</v>
       </c>
       <c r="AY34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="2">
         <v>0</v>
@@ -6616,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="BD34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF34" s="2">
         <v>0</v>
@@ -6675,16 +6669,16 @@
         <v>69</v>
       </c>
       <c r="E35" s="1">
-        <v>45354</v>
+        <v>45286</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
         <v>79</v>
@@ -6723,20 +6717,20 @@
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="2">
-        <v>1</v>
-      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>1</v>
+      </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
@@ -6747,31 +6741,33 @@
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN35" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>1</v>
+      </c>
       <c r="AO35" s="2"/>
       <c r="AP35" s="2">
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>45369</v>
+        <v>45308</v>
       </c>
       <c r="AR35" s="2">
         <v>1</v>
       </c>
       <c r="AS35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2">
         <v>3</v>
       </c>
       <c r="AV35" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX35" s="2">
         <v>1</v>
@@ -6851,19 +6847,19 @@
         <v>69</v>
       </c>
       <c r="E36" s="1">
-        <v>45354</v>
+        <v>45069</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -6923,43 +6919,45 @@
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN36" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>0</v>
+      </c>
       <c r="AO36" s="2"/>
       <c r="AP36" s="2">
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>45369</v>
+        <v>45096</v>
       </c>
       <c r="AR36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS36" s="2">
         <v>1</v>
       </c>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV36" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX36" s="2">
         <v>1</v>
       </c>
       <c r="AY36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="2">
         <v>1</v>
       </c>
       <c r="BA36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB36" s="2">
         <v>0</v>
@@ -7027,7 +7025,7 @@
         <v>69</v>
       </c>
       <c r="E37" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="F37" t="s">
         <v>74</v>
@@ -7099,17 +7097,15 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN37" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
       <c r="AP37" s="2">
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>45394</v>
+        <v>45260</v>
       </c>
       <c r="AR37" s="2">
         <v>1</v>
@@ -7119,10 +7115,10 @@
       </c>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV37" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW37" s="2">
         <v>1</v>
@@ -7205,7 +7201,7 @@
         <v>69</v>
       </c>
       <c r="E38" s="1">
-        <v>45365</v>
+        <v>45260</v>
       </c>
       <c r="F38" t="s">
         <v>72</v>
@@ -7214,19 +7210,19 @@
         <v>72</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
@@ -7244,40 +7240,46 @@
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
-      <c r="X38" s="2">
-        <v>1</v>
-      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
+      <c r="Z38" s="2">
+        <v>1</v>
+      </c>
       <c r="AA38" s="2"/>
       <c r="AB38" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
+      <c r="AD38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>1</v>
+      </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
-      <c r="AI38" s="2"/>
+      <c r="AI38" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
       <c r="AM38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
@@ -7285,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>45394</v>
+        <v>45316</v>
       </c>
       <c r="AR38" s="2">
         <v>1</v>
@@ -7295,22 +7297,22 @@
       </c>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV38" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="2">
         <v>0</v>
@@ -7349,10 +7351,10 @@
         <v>0</v>
       </c>
       <c r="BM38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO38" t="s">
         <v>165</v>
@@ -7381,31 +7383,31 @@
         <v>69</v>
       </c>
       <c r="E39" s="1">
-        <v>45286</v>
+        <v>45390</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
@@ -7414,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="2">
         <v>0</v>
@@ -7423,25 +7425,27 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
+      <c r="X39" s="2">
+        <v>1</v>
+      </c>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AC39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
@@ -7456,24 +7460,24 @@
         <v>135</v>
       </c>
       <c r="AN39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2">
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>45308</v>
+        <v>45401</v>
       </c>
       <c r="AR39" s="2">
         <v>1</v>
       </c>
       <c r="AS39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV39" s="2">
         <v>1</v>
@@ -7482,13 +7486,13 @@
         <v>0</v>
       </c>
       <c r="AX39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="2">
         <v>0</v>
@@ -7500,10 +7504,10 @@
         <v>0</v>
       </c>
       <c r="BD39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF39" s="2">
         <v>0</v>
@@ -7559,7 +7563,7 @@
         <v>69</v>
       </c>
       <c r="E40" s="1">
-        <v>45312</v>
+        <v>45252</v>
       </c>
       <c r="F40" t="s">
         <v>74</v>
@@ -7568,10 +7572,10 @@
         <v>74</v>
       </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -7618,11 +7622,9 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC40" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
@@ -7633,28 +7635,30 @@
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN40" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>0</v>
+      </c>
       <c r="AO40" s="2"/>
       <c r="AP40" s="2">
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>45348</v>
+        <v>45261</v>
       </c>
       <c r="AR40" s="2">
         <v>1</v>
       </c>
       <c r="AS40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2">
         <v>2</v>
       </c>
       <c r="AV40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW40" s="2">
         <v>1</v>
@@ -7737,7 +7741,7 @@
         <v>69</v>
       </c>
       <c r="E41" s="1">
-        <v>45390</v>
+        <v>45365</v>
       </c>
       <c r="F41" t="s">
         <v>74</v>
@@ -7746,22 +7750,22 @@
         <v>74</v>
       </c>
       <c r="H41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
@@ -7770,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="2">
         <v>0</v>
@@ -7779,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
@@ -7796,11 +7800,9 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC41" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
@@ -7811,17 +7813,15 @@
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN41" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="2">
         <v>0</v>
       </c>
       <c r="AQ41" s="1">
-        <v>45401</v>
+        <v>45394</v>
       </c>
       <c r="AR41" s="2">
         <v>1</v>
@@ -7831,22 +7831,22 @@
       </c>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV41" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA41" s="2">
         <v>0</v>
@@ -7858,10 +7858,10 @@
         <v>0</v>
       </c>
       <c r="BD41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF41" s="2">
         <v>0</v>
@@ -7917,19 +7917,19 @@
         <v>69</v>
       </c>
       <c r="E42" s="1">
-        <v>45349</v>
+        <v>45252</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -7974,38 +7974,46 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
+      <c r="AD42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>1</v>
+      </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
       <c r="AK42" s="2"/>
-      <c r="AL42" s="2"/>
+      <c r="AL42" s="2">
+        <v>1</v>
+      </c>
       <c r="AM42" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN42" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>1</v>
+      </c>
       <c r="AO42" s="2"/>
       <c r="AP42" s="2">
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>45369</v>
+        <v>45259</v>
       </c>
       <c r="AR42" s="2">
         <v>1</v>
       </c>
       <c r="AS42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="2"/>
       <c r="AU42" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV42" s="2">
         <v>3</v>
@@ -8017,10 +8025,10 @@
         <v>1</v>
       </c>
       <c r="AY42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="2">
         <v>0</v>
@@ -8035,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="BE42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF42" s="2">
         <v>0</v>
@@ -8091,28 +8099,28 @@
         <v>69</v>
       </c>
       <c r="E43" s="1">
-        <v>45272</v>
+        <v>45354</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
       </c>
       <c r="K43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="2">
         <v>0</v>
@@ -8150,48 +8158,44 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN43" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2">
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>45294</v>
+        <v>45370</v>
       </c>
       <c r="AR43" s="2">
         <v>1</v>
       </c>
       <c r="AS43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43" s="2"/>
       <c r="AU43" s="2">
         <v>4</v>
       </c>
       <c r="AV43" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="2">
         <v>1</v>
@@ -8218,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="BF43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG43" s="2">
         <v>0</v>
@@ -8274,10 +8278,10 @@
         <v>45354</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -8343,7 +8347,7 @@
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
@@ -8351,23 +8355,23 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>45370</v>
+        <v>45394</v>
       </c>
       <c r="AR44" s="2">
         <v>1</v>
       </c>
       <c r="AS44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44" s="2"/>
       <c r="AU44" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV44" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX44" s="2">
         <v>1</v>
@@ -8447,7 +8451,7 @@
         <v>69</v>
       </c>
       <c r="E45" s="1">
-        <v>45354</v>
+        <v>45041</v>
       </c>
       <c r="F45" t="s">
         <v>74</v>
@@ -8459,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -8468,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="2">
         <v>0</v>
@@ -8519,7 +8523,7 @@
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
@@ -8527,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>45394</v>
+        <v>45077</v>
       </c>
       <c r="AR45" s="2">
         <v>1</v>
@@ -8537,25 +8541,25 @@
       </c>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2">
+        <v>9</v>
+      </c>
+      <c r="AV45" s="2">
         <v>2</v>
       </c>
-      <c r="AV45" s="2">
-        <v>1</v>
-      </c>
       <c r="AW45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX45" s="2">
         <v>1</v>
       </c>
       <c r="AY45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="2">
         <v>1</v>
       </c>
       <c r="BA45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB45" s="2">
         <v>0</v>
@@ -8567,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="BE45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF45" s="2">
         <v>0</v>
@@ -8582,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="BJ45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK45" s="2">
         <v>0</v>
@@ -8623,19 +8627,19 @@
         <v>69</v>
       </c>
       <c r="E46" s="1">
-        <v>45041</v>
+        <v>45312</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -8682,9 +8686,11 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>0</v>
+      </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
@@ -8695,7 +8701,7 @@
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
       <c r="AM46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
@@ -8703,17 +8709,17 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>45077</v>
+        <v>45348</v>
       </c>
       <c r="AR46" s="2">
         <v>1</v>
       </c>
       <c r="AS46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV46" s="2">
         <v>2</v>
@@ -8728,10 +8734,10 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB46" s="2">
         <v>0</v>
@@ -8743,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="BE46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF46" s="2">
         <v>0</v>
@@ -8758,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK46" s="2">
         <v>0</v>
@@ -8799,7 +8805,7 @@
         <v>69</v>
       </c>
       <c r="E47" s="1">
-        <v>45354</v>
+        <v>45069</v>
       </c>
       <c r="F47" t="s">
         <v>74</v>
@@ -8811,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -8841,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="T47" s="2">
         <v>0</v>
@@ -8871,15 +8877,17 @@
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
       <c r="AM47" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN47" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>0</v>
+      </c>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2">
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>45369</v>
+        <v>45096</v>
       </c>
       <c r="AR47" s="2">
         <v>1</v>
@@ -8892,7 +8900,7 @@
         <v>5</v>
       </c>
       <c r="AV47" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW47" s="2">
         <v>1</v>
@@ -8978,10 +8986,10 @@
         <v>45354</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -9047,7 +9055,7 @@
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
       <c r="AM48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
@@ -9061,14 +9069,14 @@
         <v>1</v>
       </c>
       <c r="AS48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="2"/>
       <c r="AU48" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV48" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW48" s="2">
         <v>1</v>
@@ -9151,19 +9159,19 @@
         <v>69</v>
       </c>
       <c r="E49" s="1">
-        <v>45034</v>
+        <v>45365</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -9172,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -9210,32 +9218,30 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC49" s="2">
-        <v>0</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
+      <c r="AG49" s="2">
+        <v>1</v>
+      </c>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN49" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
       <c r="AP49" s="2">
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>45050</v>
+        <v>45399</v>
       </c>
       <c r="AR49" s="2">
         <v>1</v>
@@ -9248,19 +9254,19 @@
         <v>4</v>
       </c>
       <c r="AV49" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="2">
         <v>1</v>
       </c>
       <c r="AY49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA49" s="2">
         <v>0</v>
@@ -9334,16 +9340,16 @@
         <v>45252</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -9352,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
@@ -9403,17 +9409,15 @@
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
       <c r="AM50" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN50" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2">
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>45261</v>
+        <v>45260</v>
       </c>
       <c r="AR50" s="2">
         <v>1</v>
@@ -9423,22 +9427,22 @@
       </c>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV50" s="2">
         <v>1</v>
       </c>
       <c r="AW50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="2">
         <v>1</v>
       </c>
       <c r="AY50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA50" s="2">
         <v>0</v>
@@ -9509,19 +9513,19 @@
         <v>69</v>
       </c>
       <c r="E51" s="1">
-        <v>45069</v>
+        <v>45315</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -9530,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="2">
         <v>0</v>
@@ -9581,30 +9585,28 @@
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
       <c r="AM51" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN51" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
       <c r="AP51" s="2">
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>45096</v>
+        <v>45336</v>
       </c>
       <c r="AR51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS51" s="2">
         <v>1</v>
       </c>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AV51" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW51" s="2">
         <v>0</v>
@@ -9613,13 +9615,13 @@
         <v>1</v>
       </c>
       <c r="AY51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ51" s="2">
         <v>1</v>
       </c>
       <c r="BA51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="2">
         <v>0</v>
@@ -9634,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG51" s="2">
         <v>0</v>
@@ -9687,7 +9689,7 @@
         <v>69</v>
       </c>
       <c r="E52" s="1">
-        <v>45312</v>
+        <v>45270</v>
       </c>
       <c r="F52" t="s">
         <v>74</v>
@@ -9696,10 +9698,10 @@
         <v>74</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -9708,10 +9710,10 @@
         <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="2">
         <v>0</v>
@@ -9729,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
@@ -9746,12 +9748,10 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="AC52" s="2"/>
-      <c r="AD52" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
@@ -9761,7 +9761,7 @@
       <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
       <c r="AM52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <v>45316</v>
+        <v>45308</v>
       </c>
       <c r="AR52" s="2">
         <v>1</v>
@@ -9779,22 +9779,22 @@
       </c>
       <c r="AT52" s="2"/>
       <c r="AU52" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV52" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX52" s="2">
         <v>1</v>
       </c>
       <c r="AY52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA52" s="2">
         <v>0</v>
@@ -9806,10 +9806,10 @@
         <v>0</v>
       </c>
       <c r="BD52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF52" s="2">
         <v>0</v>
@@ -9865,19 +9865,19 @@
         <v>69</v>
       </c>
       <c r="E53" s="1">
-        <v>45034</v>
+        <v>45244</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -9886,7 +9886,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="2">
         <v>0</v>
@@ -9924,11 +9924,9 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC53" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
@@ -9939,17 +9937,15 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN53" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2">
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>45054</v>
+        <v>45260</v>
       </c>
       <c r="AR53" s="2">
         <v>1</v>
@@ -9959,25 +9955,25 @@
       </c>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV53" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX53" s="2">
         <v>1</v>
       </c>
       <c r="AY53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ53" s="2">
         <v>1</v>
       </c>
       <c r="BA53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB53" s="2">
         <v>0</v>
@@ -10045,16 +10041,16 @@
         <v>69</v>
       </c>
       <c r="E54" s="1">
-        <v>45354</v>
+        <v>45319</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="s">
         <v>79</v>
@@ -10117,15 +10113,17 @@
       <c r="AK54" s="2"/>
       <c r="AL54" s="2"/>
       <c r="AM54" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN54" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>1</v>
+      </c>
       <c r="AO54" s="2"/>
       <c r="AP54" s="2">
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>45370</v>
+        <v>45336</v>
       </c>
       <c r="AR54" s="2">
         <v>1</v>
@@ -10135,13 +10133,13 @@
       </c>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV54" s="2">
         <v>4</v>
       </c>
-      <c r="AV54" s="2">
-        <v>1</v>
-      </c>
       <c r="AW54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX54" s="2">
         <v>1</v>
@@ -10168,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="BF54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG54" s="2">
         <v>0</v>
@@ -10221,13 +10219,13 @@
         <v>69</v>
       </c>
       <c r="E55" s="1">
-        <v>45340</v>
+        <v>45354</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -10293,11 +10291,9 @@
       <c r="AK55" s="2"/>
       <c r="AL55" s="2"/>
       <c r="AM55" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN55" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
       <c r="AP55" s="2">
         <v>0</v>
@@ -10309,14 +10305,14 @@
         <v>1</v>
       </c>
       <c r="AS55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT55" s="2"/>
       <c r="AU55" s="2">
         <v>3</v>
       </c>
       <c r="AV55" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW55" s="2">
         <v>1</v>
@@ -10399,7 +10395,7 @@
         <v>69</v>
       </c>
       <c r="E56" s="1">
-        <v>45315</v>
+        <v>45069</v>
       </c>
       <c r="F56" t="s">
         <v>74</v>
@@ -10411,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -10420,7 +10416,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="2">
         <v>0</v>
@@ -10471,31 +10467,33 @@
       <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
       <c r="AM56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN56" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AN56" s="2">
+        <v>0</v>
+      </c>
       <c r="AO56" s="2"/>
       <c r="AP56" s="2">
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>45336</v>
+        <v>45089</v>
       </c>
       <c r="AR56" s="2">
         <v>1</v>
       </c>
       <c r="AS56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AV56" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX56" s="2">
         <v>1</v>
@@ -10522,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="2">
         <v>0</v>
@@ -10575,19 +10573,19 @@
         <v>69</v>
       </c>
       <c r="E57" s="1">
-        <v>45026</v>
+        <v>45034</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -10596,7 +10594,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
@@ -10623,18 +10621,22 @@
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
+      <c r="X57" s="2">
+        <v>1</v>
+      </c>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>0</v>
+      </c>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
@@ -10645,7 +10647,7 @@
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
       <c r="AM57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN57" s="2">
         <v>0</v>
@@ -10655,20 +10657,20 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>45032</v>
+        <v>45050</v>
       </c>
       <c r="AR57" s="2">
         <v>1</v>
       </c>
       <c r="AS57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AV57" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW57" s="2">
         <v>1</v>
@@ -10677,10 +10679,10 @@
         <v>1</v>
       </c>
       <c r="AY57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA57" s="2">
         <v>0</v>
@@ -10695,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="BE57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF57" s="2">
         <v>0</v>
@@ -10710,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="BJ57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK57" s="2">
         <v>0</v>
@@ -10751,19 +10753,19 @@
         <v>69</v>
       </c>
       <c r="E58" s="1">
-        <v>45069</v>
+        <v>45354</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -10823,17 +10825,15 @@
       <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
       <c r="AM58" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN58" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
       <c r="AP58" s="2">
         <v>0</v>
       </c>
       <c r="AQ58" s="1">
-        <v>45096</v>
+        <v>45369</v>
       </c>
       <c r="AR58" s="2">
         <v>1</v>
@@ -10843,10 +10843,10 @@
       </c>
       <c r="AT58" s="2"/>
       <c r="AU58" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV58" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW58" s="2">
         <v>1</v>
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="BJ58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK58" s="2">
         <v>0</v>
@@ -10929,7 +10929,7 @@
         <v>69</v>
       </c>
       <c r="E59" s="1">
-        <v>45298</v>
+        <v>45329</v>
       </c>
       <c r="F59" t="s">
         <v>74</v>
@@ -10997,21 +10997,21 @@
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
-      <c r="AJ59" s="2"/>
+      <c r="AJ59" s="2">
+        <v>1</v>
+      </c>
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
       <c r="AM59" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN59" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN59" s="2"/>
       <c r="AO59" s="2"/>
       <c r="AP59" s="2">
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>45316</v>
+        <v>45369</v>
       </c>
       <c r="AR59" s="2">
         <v>1</v>
@@ -11021,10 +11021,10 @@
       </c>
       <c r="AT59" s="2"/>
       <c r="AU59" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV59" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW59" s="2">
         <v>1</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="BJ59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK59" s="2">
         <v>0</v>
@@ -11107,7 +11107,7 @@
         <v>69</v>
       </c>
       <c r="E60" s="1">
-        <v>45354</v>
+        <v>45365</v>
       </c>
       <c r="F60" t="s">
         <v>74</v>
@@ -11179,7 +11179,7 @@
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
       <c r="AM60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
@@ -11187,20 +11187,20 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="1">
-        <v>45369</v>
+        <v>45399</v>
       </c>
       <c r="AR60" s="2">
         <v>1</v>
       </c>
       <c r="AS60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="2"/>
       <c r="AU60" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV60" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW60" s="2">
         <v>1</v>
@@ -11209,10 +11209,10 @@
         <v>1</v>
       </c>
       <c r="AY60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA60" s="2">
         <v>0</v>
@@ -11283,7 +11283,7 @@
         <v>69</v>
       </c>
       <c r="E61" s="1">
-        <v>45390</v>
+        <v>45034</v>
       </c>
       <c r="F61" t="s">
         <v>74</v>
@@ -11295,13 +11295,13 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="2">
         <v>0</v>
@@ -11322,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" t="s">
         <v>75</v>
@@ -11331,18 +11331,18 @@
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
+      <c r="X61" s="2">
+        <v>1</v>
+      </c>
       <c r="Y61" s="2"/>
-      <c r="Z61" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC61" s="2">
         <v>0</v>
@@ -11357,7 +11357,7 @@
       <c r="AK61" s="2"/>
       <c r="AL61" s="2"/>
       <c r="AM61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN61" s="2">
         <v>0</v>
@@ -11367,26 +11367,26 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="1">
-        <v>45401</v>
+        <v>45050</v>
       </c>
       <c r="AR61" s="2">
         <v>1</v>
       </c>
       <c r="AS61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="2"/>
       <c r="AU61" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV61" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY61" s="2">
         <v>0</v>
@@ -11431,10 +11431,10 @@
         <v>0</v>
       </c>
       <c r="BM61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO61" t="s">
         <v>165</v>
@@ -11463,13 +11463,13 @@
         <v>69</v>
       </c>
       <c r="E62" s="1">
-        <v>45252</v>
+        <v>45354</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -11535,7 +11535,7 @@
       <c r="AK62" s="2"/>
       <c r="AL62" s="2"/>
       <c r="AM62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
@@ -11543,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="AQ62" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="AR62" s="2">
         <v>1</v>
@@ -11553,10 +11553,10 @@
       </c>
       <c r="AT62" s="2"/>
       <c r="AU62" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV62" s="2">
         <v>3</v>
-      </c>
-      <c r="AV62" s="2">
-        <v>2</v>
       </c>
       <c r="AW62" s="2">
         <v>1</v>
@@ -11642,10 +11642,10 @@
         <v>45326</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -11711,7 +11711,7 @@
       <c r="AK63" s="2"/>
       <c r="AL63" s="2"/>
       <c r="AM63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN63" s="2"/>
       <c r="AO63" s="2"/>

--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -18,201 +18,201 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
+    <t>600604</t>
+  </si>
+  <si>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>600727</t>
+  </si>
+  <si>
+    <t>600614</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
+    <t>600672</t>
+  </si>
+  <si>
+    <t>600947</t>
+  </si>
+  <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>600346</t>
+  </si>
+  <si>
+    <t>600326</t>
+  </si>
+  <si>
+    <t>600775</t>
+  </si>
+  <si>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>600366</t>
+  </si>
+  <si>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>600360</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>600758</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
+    <t>600978</t>
+  </si>
+  <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>600381</t>
+  </si>
+  <si>
+    <t>600856</t>
+  </si>
+  <si>
+    <t>600919</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
+    <t>400238</t>
+  </si>
+  <si>
+    <t>600398</t>
+  </si>
+  <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>600640</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>600882</t>
+  </si>
+  <si>
+    <t>500684</t>
+  </si>
+  <si>
+    <t>600961</t>
+  </si>
+  <si>
+    <t>600699</t>
+  </si>
+  <si>
+    <t>600687</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>500454</t>
+  </si>
+  <si>
+    <t>600886</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>600996</t>
+  </si>
+  <si>
+    <t>600812</t>
+  </si>
+  <si>
+    <t>500906</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>600310</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
     <t>600383</t>
   </si>
   <si>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>600374</t>
+  </si>
+  <si>
+    <t>600322</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
     <t>400277</t>
   </si>
   <si>
-    <t>600310</t>
-  </si>
-  <si>
-    <t>600856</t>
-  </si>
-  <si>
-    <t>600882</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>600776</t>
+    <t>500025</t>
+  </si>
+  <si>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>600853</t>
   </si>
   <si>
     <t>500005</t>
   </si>
   <si>
-    <t>400224</t>
-  </si>
-  <si>
-    <t>500025</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>600996</t>
-  </si>
-  <si>
-    <t>500355</t>
-  </si>
-  <si>
-    <t>600982</t>
-  </si>
-  <si>
-    <t>600602</t>
-  </si>
-  <si>
-    <t>600682</t>
-  </si>
-  <si>
     <t>600611</t>
   </si>
   <si>
-    <t>600309</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>600775</t>
-  </si>
-  <si>
-    <t>600398</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>500901</t>
-  </si>
-  <si>
-    <t>500454</t>
-  </si>
-  <si>
-    <t>600780</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>400238</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>600687</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>600947</t>
-  </si>
-  <si>
-    <t>600360</t>
-  </si>
-  <si>
-    <t>600610</t>
-  </si>
-  <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>600614</t>
-  </si>
-  <si>
-    <t>600388</t>
-  </si>
-  <si>
-    <t>600366</t>
-  </si>
-  <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>600346</t>
-  </si>
-  <si>
-    <t>600703</t>
-  </si>
-  <si>
-    <t>600961</t>
-  </si>
-  <si>
-    <t>600886</t>
-  </si>
-  <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>600919</t>
-  </si>
-  <si>
-    <t>600786</t>
-  </si>
-  <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>600326</t>
-  </si>
-  <si>
-    <t>600978</t>
-  </si>
-  <si>
-    <t>600640</t>
-  </si>
-  <si>
-    <t>600322</t>
-  </si>
-  <si>
-    <t>600604</t>
-  </si>
-  <si>
-    <t>600812</t>
-  </si>
-  <si>
-    <t>500951</t>
-  </si>
-  <si>
-    <t>500221</t>
-  </si>
-  <si>
-    <t>600853</t>
-  </si>
-  <si>
-    <t>600374</t>
-  </si>
-  <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>600758</t>
-  </si>
-  <si>
-    <t>400230</t>
-  </si>
-  <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>600396</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -246,18 +246,18 @@
     <t>swab</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>pill</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -267,39 +267,39 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
+    <t>fentanyl; crack</t>
+  </si>
+  <si>
+    <t>benzodiazepine</t>
+  </si>
+  <si>
+    <t>cocaine; fentanyl</t>
+  </si>
+  <si>
+    <t>xylazine; fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
-    <t>benzodiazepine</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>xylazine; fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>cocaine; fentanyl</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>fentanyl; crack</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -333,18 +333,18 @@
     <t>white</t>
   </si>
   <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
-    <t>gray</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -354,18 +354,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>rock; crystals</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>powder; chunky; rock</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>rock; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -378,31 +378,31 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>long; unpleasant; hallucinations</t>
+  </si>
+  <si>
+    <t>stronger</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>weird; sedating</t>
+  </si>
+  <si>
     <t>sedating</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>stronger</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>long; unpleasant; hallucinations</t>
-  </si>
-  <si>
     <t>unpleasant; hallucinations</t>
-  </si>
-  <si>
-    <t>weird; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -677,7 +677,7 @@
         <v>117</v>
       </c>
       <c r="W1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X1" t="s">
         <v>112</v>
@@ -686,7 +686,7 @@
         <v>118</v>
       </c>
       <c r="Z1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA1" t="s">
         <v>119</v>
@@ -835,7 +835,7 @@
         <v>73</v>
       </c>
       <c r="E2" s="1">
-        <v>45270</v>
+        <v>45272</v>
       </c>
       <c r="F2" t="s">
         <v>76</v>
@@ -844,7 +844,7 @@
         <v>76</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>84</v>
@@ -853,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
@@ -894,28 +894,32 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN2" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2">
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>45308</v>
+        <v>45294</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
@@ -958,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="BF2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG2" s="2">
         <v>0</v>
@@ -1011,31 +1015,31 @@
         <v>73</v>
       </c>
       <c r="E3" s="1">
-        <v>45029</v>
+        <v>45300</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>85</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1044,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1053,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1070,10 +1074,12 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
+      <c r="AD3" s="2">
+        <v>1</v>
+      </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -1083,42 +1089,40 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2">
         <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>45050</v>
+        <v>45317</v>
       </c>
       <c r="AR3" s="2">
         <v>1</v>
       </c>
       <c r="AS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="2">
         <v>0</v>
@@ -1130,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
         <v>0</v>
@@ -1189,28 +1193,28 @@
         <v>73</v>
       </c>
       <c r="E4" s="1">
-        <v>45252</v>
+        <v>45260</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1228,40 +1232,46 @@
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
+      <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
       <c r="AA4" s="2"/>
       <c r="AB4" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
+      <c r="AI4" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
@@ -1269,17 +1279,17 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>45260</v>
+        <v>45316</v>
       </c>
       <c r="AR4" s="2">
         <v>1</v>
       </c>
       <c r="AS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV4" s="2">
         <v>1</v>
@@ -1288,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1333,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="BM4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO4" t="s">
         <v>171</v>
@@ -1365,34 +1375,34 @@
         <v>73</v>
       </c>
       <c r="E5" s="1">
-        <v>45404</v>
+        <v>45244</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -1407,24 +1417,24 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="V5" s="2"/>
-      <c r="W5" s="2">
-        <v>1</v>
-      </c>
-      <c r="X5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
@@ -1437,42 +1447,40 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2">
         <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>45415</v>
+        <v>45260</v>
       </c>
       <c r="AR5" s="2">
         <v>1</v>
       </c>
       <c r="AS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV5" s="2">
         <v>2</v>
       </c>
       <c r="AW5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1543,13 +1551,13 @@
         <v>73</v>
       </c>
       <c r="E6" s="1">
-        <v>45390</v>
+        <v>45354</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1558,13 +1566,13 @@
         <v>87</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1582,27 +1590,27 @@
         <v>0</v>
       </c>
       <c r="R6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
@@ -1615,42 +1623,40 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2">
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>45413</v>
+        <v>45369</v>
       </c>
       <c r="AR6" s="2">
         <v>1</v>
       </c>
       <c r="AS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1689,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="BM6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="s">
         <v>171</v>
@@ -1724,16 +1730,16 @@
         <v>45354</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1763,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
@@ -1780,7 +1786,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -1793,7 +1799,7 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
@@ -1801,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
@@ -1811,7 +1817,7 @@
       </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV7" s="2">
         <v>3</v>
@@ -1897,19 +1903,19 @@
         <v>73</v>
       </c>
       <c r="E8" s="1">
-        <v>45041</v>
+        <v>45263</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -1918,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1939,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
@@ -1956,7 +1962,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -1965,7 +1971,9 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
+      <c r="AJ8" s="2">
+        <v>1</v>
+      </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" t="s">
@@ -1979,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>45077</v>
+        <v>45294</v>
       </c>
       <c r="AR8" s="2">
         <v>1</v>
@@ -1989,10 +1997,10 @@
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW8" s="2">
         <v>1</v>
@@ -2019,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2034,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK8" s="2">
         <v>0</v>
@@ -2078,16 +2086,16 @@
         <v>45354</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2117,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
@@ -2134,7 +2142,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -2147,7 +2155,7 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
@@ -2155,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="AR9" s="2">
         <v>1</v>
@@ -2251,19 +2259,19 @@
         <v>73</v>
       </c>
       <c r="E10" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2272,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -2293,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T10" s="2">
         <v>0</v>
@@ -2310,7 +2318,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -2323,7 +2331,7 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
@@ -2331,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>45077</v>
+        <v>45394</v>
       </c>
       <c r="AR10" s="2">
         <v>1</v>
@@ -2341,25 +2349,25 @@
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
         <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2371,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2386,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="2">
         <v>0</v>
@@ -2427,64 +2435,66 @@
         <v>73</v>
       </c>
       <c r="E11" s="1">
-        <v>45026</v>
+        <v>45354</v>
       </c>
       <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
         <v>79</v>
       </c>
-      <c r="G11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" t="s">
-        <v>80</v>
-      </c>
       <c r="T11" s="2">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -2497,17 +2507,15 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2">
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>45032</v>
+        <v>45369</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
@@ -2517,7 +2525,7 @@
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AV11" s="2">
         <v>3</v>
@@ -2547,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -2603,7 +2611,7 @@
         <v>73</v>
       </c>
       <c r="E12" s="1">
-        <v>45060</v>
+        <v>45270</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -2615,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2648,7 +2656,7 @@
         <v>106</v>
       </c>
       <c r="T12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="s">
         <v>112</v>
@@ -2662,7 +2670,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -2675,7 +2683,7 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -2683,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>45089</v>
+        <v>45308</v>
       </c>
       <c r="AR12" s="2">
         <v>1</v>
@@ -2693,10 +2701,10 @@
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW12" s="2">
         <v>1</v>
@@ -2705,13 +2713,13 @@
         <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
         <v>1</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
@@ -2779,19 +2787,19 @@
         <v>73</v>
       </c>
       <c r="E13" s="1">
-        <v>45069</v>
+        <v>45286</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -2821,26 +2829,26 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="2">
-        <v>1</v>
-      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC13" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>1</v>
+      </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -2851,30 +2859,30 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AN13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2">
         <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <v>45096</v>
+        <v>45308</v>
       </c>
       <c r="AR13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
         <v>0</v>
@@ -2883,13 +2891,13 @@
         <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
         <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -2957,7 +2965,7 @@
         <v>73</v>
       </c>
       <c r="E14" s="1">
-        <v>45365</v>
+        <v>45270</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -2966,10 +2974,10 @@
         <v>76</v>
       </c>
       <c r="H14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -2999,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
@@ -3016,22 +3024,20 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
@@ -3039,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>45399</v>
+        <v>45308</v>
       </c>
       <c r="AR14" s="2">
         <v>1</v>
@@ -3052,10 +3058,10 @@
         <v>4</v>
       </c>
       <c r="AV14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3135,25 +3141,25 @@
         <v>73</v>
       </c>
       <c r="E15" s="1">
-        <v>45045</v>
+        <v>45298</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -3183,18 +3189,18 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="2">
-        <v>1</v>
-      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
+      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
       <c r="AA15" s="2"/>
       <c r="AB15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
@@ -3207,17 +3213,17 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AN15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2">
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>45062</v>
+        <v>45317</v>
       </c>
       <c r="AR15" s="2">
         <v>1</v>
@@ -3313,7 +3319,7 @@
         <v>73</v>
       </c>
       <c r="E16" s="1">
-        <v>45365</v>
+        <v>45270</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -3325,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -3355,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
@@ -3372,7 +3378,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
@@ -3393,17 +3399,17 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>45394</v>
+        <v>45308</v>
       </c>
       <c r="AR16" s="2">
         <v>1</v>
       </c>
       <c r="AS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV16" s="2">
         <v>3</v>
@@ -3489,19 +3495,19 @@
         <v>73</v>
       </c>
       <c r="E17" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -3510,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -3531,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
@@ -3548,7 +3554,7 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
@@ -3561,15 +3567,17 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN17" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2">
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>45369</v>
+        <v>45261</v>
       </c>
       <c r="AR17" s="2">
         <v>1</v>
@@ -3579,10 +3587,10 @@
       </c>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="2">
         <v>1</v>
@@ -3591,10 +3599,10 @@
         <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -3665,19 +3673,19 @@
         <v>73</v>
       </c>
       <c r="E18" s="1">
-        <v>45312</v>
+        <v>45319</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -3686,10 +3694,10 @@
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -3698,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -3707,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="T18" s="2">
         <v>0</v>
@@ -3724,12 +3732,10 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="AC18" s="2"/>
-      <c r="AD18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -3739,15 +3745,17 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN18" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>1</v>
+      </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2">
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>45316</v>
+        <v>45336</v>
       </c>
       <c r="AR18" s="2">
         <v>1</v>
@@ -3757,22 +3765,22 @@
       </c>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
@@ -3784,13 +3792,13 @@
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -3843,19 +3851,19 @@
         <v>73</v>
       </c>
       <c r="E19" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -3885,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T19" s="2">
         <v>0</v>
@@ -3902,7 +3910,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -3915,7 +3923,7 @@
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
@@ -3923,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>45369</v>
+        <v>45260</v>
       </c>
       <c r="AR19" s="2">
         <v>1</v>
@@ -4019,7 +4027,7 @@
         <v>73</v>
       </c>
       <c r="E20" s="1">
-        <v>45272</v>
+        <v>45041</v>
       </c>
       <c r="F20" t="s">
         <v>76</v>
@@ -4028,16 +4036,16 @@
         <v>76</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -4061,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
@@ -4078,16 +4086,14 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
@@ -4103,20 +4109,20 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>45294</v>
+        <v>45077</v>
       </c>
       <c r="AR20" s="2">
         <v>1</v>
       </c>
       <c r="AS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AV20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" s="2">
         <v>1</v>
@@ -4125,13 +4131,13 @@
         <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
         <v>1</v>
       </c>
       <c r="BA20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="2">
         <v>0</v>
@@ -4143,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="2">
         <v>0</v>
@@ -4158,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK20" s="2">
         <v>0</v>
@@ -4199,19 +4205,19 @@
         <v>73</v>
       </c>
       <c r="E21" s="1">
-        <v>45034</v>
+        <v>45349</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -4241,28 +4247,24 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="2">
-        <v>1</v>
-      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC21" s="2">
-        <v>0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
@@ -4273,30 +4275,28 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN21" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2">
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>45050</v>
+        <v>45369</v>
       </c>
       <c r="AR21" s="2">
         <v>1</v>
       </c>
       <c r="AS21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW21" s="2">
         <v>1</v>
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
         <v>0</v>
@@ -4379,19 +4379,19 @@
         <v>73</v>
       </c>
       <c r="E22" s="1">
-        <v>45354</v>
+        <v>45041</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
@@ -4438,7 +4438,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
@@ -4451,28 +4451,30 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN22" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>0</v>
+      </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2">
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>45369</v>
+        <v>45062</v>
       </c>
       <c r="AR22" s="2">
         <v>1</v>
       </c>
       <c r="AS22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW22" s="2">
         <v>1</v>
@@ -4481,10 +4483,10 @@
         <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
         <v>0</v>
@@ -4555,40 +4557,40 @@
         <v>73</v>
       </c>
       <c r="E23" s="1">
-        <v>45298</v>
+        <v>45403</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -4597,24 +4599,24 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
+      <c r="W23" s="2">
+        <v>1</v>
+      </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
@@ -4627,27 +4629,27 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AN23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2">
         <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>45317</v>
+        <v>45415</v>
       </c>
       <c r="AR23" s="2">
         <v>1</v>
       </c>
       <c r="AS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV23" s="2">
         <v>1</v>
@@ -4674,10 +4676,10 @@
         <v>0</v>
       </c>
       <c r="BD23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="2">
         <v>0</v>
@@ -4733,49 +4735,49 @@
         <v>73</v>
       </c>
       <c r="E24" s="1">
-        <v>45263</v>
+        <v>45034</v>
       </c>
       <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
         <v>79</v>
-      </c>
-      <c r="G24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>88</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>80</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
@@ -4792,9 +4794,11 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
@@ -4805,28 +4809,30 @@
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN24" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>0</v>
+      </c>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2">
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>45294</v>
+        <v>45050</v>
       </c>
       <c r="AR24" s="2">
         <v>1</v>
       </c>
       <c r="AS24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW24" s="2">
         <v>1</v>
@@ -4909,19 +4915,19 @@
         <v>73</v>
       </c>
       <c r="E25" s="1">
-        <v>45354</v>
+        <v>45041</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -4930,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -4951,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T25" s="2">
         <v>0</v>
@@ -4968,7 +4974,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -4981,7 +4987,7 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
@@ -4989,20 +4995,20 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>45370</v>
+        <v>45062</v>
       </c>
       <c r="AR25" s="2">
         <v>1</v>
       </c>
       <c r="AS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2">
         <v>3</v>
       </c>
       <c r="AV25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW25" s="2">
         <v>1</v>
@@ -5029,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="2">
         <v>0</v>
@@ -5085,19 +5091,19 @@
         <v>73</v>
       </c>
       <c r="E26" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -5106,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -5127,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
@@ -5144,7 +5150,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -5157,17 +5163,15 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN26" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2">
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>45062</v>
+        <v>45370</v>
       </c>
       <c r="AR26" s="2">
         <v>1</v>
@@ -5177,22 +5181,22 @@
       </c>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="2">
         <v>1</v>
       </c>
       <c r="AY26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="2">
         <v>0</v>
@@ -5263,7 +5267,7 @@
         <v>73</v>
       </c>
       <c r="E27" s="1">
-        <v>45069</v>
+        <v>45354</v>
       </c>
       <c r="F27" t="s">
         <v>76</v>
@@ -5275,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
@@ -5305,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T27" s="2">
         <v>0</v>
@@ -5322,7 +5326,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
@@ -5335,30 +5339,28 @@
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN27" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2">
         <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>45096</v>
+        <v>45369</v>
       </c>
       <c r="AR27" s="2">
         <v>1</v>
       </c>
       <c r="AS27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV27" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW27" s="2">
         <v>1</v>
@@ -5441,7 +5443,7 @@
         <v>73</v>
       </c>
       <c r="E28" s="1">
-        <v>45333</v>
+        <v>45263</v>
       </c>
       <c r="F28" t="s">
         <v>77</v>
@@ -5450,28 +5452,28 @@
         <v>77</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2">
         <v>0</v>
@@ -5483,49 +5485,45 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC28" s="2">
-        <v>0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
+      <c r="AJ28" s="2">
+        <v>1</v>
+      </c>
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN28" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
       <c r="AP28" s="2">
         <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <v>45364</v>
+        <v>45294</v>
       </c>
       <c r="AR28" s="2">
         <v>1</v>
@@ -5535,31 +5533,31 @@
       </c>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV28" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA28" s="2">
         <v>0</v>
       </c>
       <c r="BB28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD28" s="2">
         <v>0</v>
@@ -5621,34 +5619,34 @@
         <v>73</v>
       </c>
       <c r="E29" s="1">
-        <v>45354</v>
+        <v>45404</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
@@ -5663,24 +5661,24 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
+        <v>105</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" t="s">
         <v>80</v>
       </c>
-      <c r="T29" s="2">
-        <v>0</v>
-      </c>
-      <c r="U29" t="s">
-        <v>112</v>
-      </c>
       <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2">
-        <v>1</v>
-      </c>
+      <c r="W29" s="2">
+        <v>1</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -5693,15 +5691,17 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN29" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>0</v>
+      </c>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2">
         <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>45369</v>
+        <v>45415</v>
       </c>
       <c r="AR29" s="2">
         <v>1</v>
@@ -5711,22 +5711,22 @@
       </c>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="2">
         <v>0</v>
@@ -5797,25 +5797,25 @@
         <v>73</v>
       </c>
       <c r="E30" s="1">
-        <v>45034</v>
+        <v>45384</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -5836,31 +5836,29 @@
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="2">
-        <v>1</v>
-      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
+      <c r="Z30" s="2">
+        <v>1</v>
+      </c>
       <c r="AA30" s="2"/>
       <c r="AB30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC30" s="2">
-        <v>0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
@@ -5881,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>45050</v>
+        <v>45413</v>
       </c>
       <c r="AR30" s="2">
         <v>1</v>
@@ -5891,16 +5889,16 @@
       </c>
       <c r="AT30" s="2"/>
       <c r="AU30" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY30" s="2">
         <v>0</v>
@@ -5945,10 +5943,10 @@
         <v>0</v>
       </c>
       <c r="BM30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO30" t="s">
         <v>171</v>
@@ -5977,19 +5975,19 @@
         <v>73</v>
       </c>
       <c r="E31" s="1">
-        <v>45270</v>
+        <v>45312</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -5998,10 +5996,10 @@
         <v>1</v>
       </c>
       <c r="L31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -6010,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="2">
         <v>0</v>
@@ -6019,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
@@ -6036,10 +6034,12 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
+      <c r="AD31" s="2">
+        <v>1</v>
+      </c>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
@@ -6049,7 +6049,7 @@
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>45308</v>
+        <v>45316</v>
       </c>
       <c r="AR31" s="2">
         <v>1</v>
@@ -6067,22 +6067,22 @@
       </c>
       <c r="AT31" s="2"/>
       <c r="AU31" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV31" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="2">
         <v>1</v>
       </c>
       <c r="AY31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="2">
         <v>0</v>
@@ -6094,10 +6094,10 @@
         <v>0</v>
       </c>
       <c r="BD31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF31" s="2">
         <v>0</v>
@@ -6153,19 +6153,19 @@
         <v>73</v>
       </c>
       <c r="E32" s="1">
-        <v>45312</v>
+        <v>45329</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="2">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
@@ -6212,22 +6212,22 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC32" s="2">
-        <v>0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
+      <c r="AJ32" s="2">
+        <v>1</v>
+      </c>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
@@ -6235,17 +6235,17 @@
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>45348</v>
+        <v>45369</v>
       </c>
       <c r="AR32" s="2">
         <v>1</v>
       </c>
       <c r="AS32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV32" s="2">
         <v>2</v>
@@ -6257,10 +6257,10 @@
         <v>1</v>
       </c>
       <c r="AY32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA32" s="2">
         <v>0</v>
@@ -6331,100 +6331,104 @@
         <v>73</v>
       </c>
       <c r="E33" s="1">
-        <v>45263</v>
+        <v>45034</v>
       </c>
       <c r="F33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
         <v>79</v>
       </c>
-      <c r="G33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>84</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1</v>
-      </c>
-      <c r="L33" s="2">
-        <v>1</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
-      <c r="R33" s="2">
-        <v>0</v>
-      </c>
-      <c r="S33" t="s">
-        <v>80</v>
-      </c>
       <c r="T33" s="2">
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
+      <c r="X33" s="2">
+        <v>1</v>
+      </c>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC33" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>0</v>
+      </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
-      <c r="AJ33" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN33" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>0</v>
+      </c>
       <c r="AO33" s="2"/>
       <c r="AP33" s="2">
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>45294</v>
+        <v>45050</v>
       </c>
       <c r="AR33" s="2">
         <v>1</v>
       </c>
       <c r="AS33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="2"/>
       <c r="AU33" s="2">
         <v>4</v>
       </c>
       <c r="AV33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW33" s="2">
         <v>1</v>
@@ -6433,10 +6437,10 @@
         <v>1</v>
       </c>
       <c r="AY33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="2">
         <v>0</v>
@@ -6507,7 +6511,7 @@
         <v>73</v>
       </c>
       <c r="E34" s="1">
-        <v>45354</v>
+        <v>45263</v>
       </c>
       <c r="F34" t="s">
         <v>77</v>
@@ -6519,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -6528,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2">
         <v>0</v>
@@ -6549,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
@@ -6566,7 +6570,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
@@ -6579,7 +6583,7 @@
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
@@ -6587,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>45394</v>
+        <v>45294</v>
       </c>
       <c r="AR34" s="2">
         <v>1</v>
@@ -6597,22 +6601,22 @@
       </c>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV34" s="2">
         <v>1</v>
       </c>
       <c r="AW34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX34" s="2">
         <v>1</v>
       </c>
       <c r="AY34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="2">
         <v>0</v>
@@ -6683,19 +6687,19 @@
         <v>73</v>
       </c>
       <c r="E35" s="1">
-        <v>45252</v>
+        <v>45026</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -6725,24 +6729,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="2">
-        <v>1</v>
-      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
@@ -6755,15 +6757,17 @@
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN35" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>0</v>
+      </c>
       <c r="AO35" s="2"/>
       <c r="AP35" s="2">
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>45260</v>
+        <v>45032</v>
       </c>
       <c r="AR35" s="2">
         <v>1</v>
@@ -6773,11 +6777,11 @@
       </c>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2">
+        <v>11</v>
+      </c>
+      <c r="AV35" s="2">
         <v>3</v>
       </c>
-      <c r="AV35" s="2">
-        <v>2</v>
-      </c>
       <c r="AW35" s="2">
         <v>1</v>
       </c>
@@ -6803,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF35" s="2">
         <v>0</v>
@@ -6818,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="BJ35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK35" s="2">
         <v>0</v>
@@ -6859,19 +6863,19 @@
         <v>73</v>
       </c>
       <c r="E36" s="1">
-        <v>45315</v>
+        <v>45354</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -6880,7 +6884,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -6901,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T36" s="2">
         <v>0</v>
@@ -6918,7 +6922,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
@@ -6931,7 +6935,7 @@
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
@@ -6939,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>45336</v>
+        <v>45370</v>
       </c>
       <c r="AR36" s="2">
         <v>1</v>
@@ -6949,13 +6953,13 @@
       </c>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV36" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX36" s="2">
         <v>1</v>
@@ -6982,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="BF36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG36" s="2">
         <v>0</v>
@@ -7035,19 +7039,19 @@
         <v>73</v>
       </c>
       <c r="E37" s="1">
-        <v>45319</v>
+        <v>45298</v>
       </c>
       <c r="F37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -7077,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T37" s="2">
         <v>0</v>
@@ -7094,7 +7098,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -7107,17 +7111,17 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AN37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="2"/>
       <c r="AP37" s="2">
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>45336</v>
+        <v>45316</v>
       </c>
       <c r="AR37" s="2">
         <v>1</v>
@@ -7130,7 +7134,7 @@
         <v>5</v>
       </c>
       <c r="AV37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW37" s="2">
         <v>1</v>
@@ -7160,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="BF37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG37" s="2">
         <v>0</v>
@@ -7172,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="BJ37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK37" s="2">
         <v>0</v>
@@ -7213,28 +7217,28 @@
         <v>73</v>
       </c>
       <c r="E38" s="1">
-        <v>45354</v>
+        <v>45390</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
@@ -7252,27 +7256,27 @@
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
-      <c r="X38" s="2">
-        <v>1</v>
-      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
+      <c r="Z38" s="2">
+        <v>1</v>
+      </c>
       <c r="AA38" s="2"/>
       <c r="AB38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
@@ -7285,15 +7289,17 @@
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
       <c r="AM38" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN38" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>0</v>
+      </c>
       <c r="AO38" s="2"/>
       <c r="AP38" s="2">
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>45369</v>
+        <v>45413</v>
       </c>
       <c r="AR38" s="2">
         <v>1</v>
@@ -7303,22 +7309,22 @@
       </c>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV38" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="2">
         <v>0</v>
@@ -7357,10 +7363,10 @@
         <v>0</v>
       </c>
       <c r="BM38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO38" t="s">
         <v>171</v>
@@ -7389,7 +7395,7 @@
         <v>73</v>
       </c>
       <c r="E39" s="1">
-        <v>45244</v>
+        <v>45069</v>
       </c>
       <c r="F39" t="s">
         <v>76</v>
@@ -7398,10 +7404,10 @@
         <v>76</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
@@ -7410,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="2">
         <v>0</v>
@@ -7431,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
@@ -7448,10 +7454,12 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
+      <c r="AD39" s="2">
+        <v>1</v>
+      </c>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
@@ -7461,7 +7469,7 @@
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
@@ -7469,17 +7477,17 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>45260</v>
+        <v>45089</v>
       </c>
       <c r="AR39" s="2">
         <v>1</v>
       </c>
       <c r="AS39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV39" s="2">
         <v>2</v>
@@ -7565,19 +7573,19 @@
         <v>73</v>
       </c>
       <c r="E40" s="1">
-        <v>45252</v>
+        <v>45354</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -7586,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -7607,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T40" s="2">
         <v>0</v>
@@ -7624,7 +7632,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
@@ -7647,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>45261</v>
+        <v>45394</v>
       </c>
       <c r="AR40" s="2">
         <v>1</v>
@@ -7657,10 +7665,10 @@
       </c>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV40" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW40" s="2">
         <v>1</v>
@@ -7669,10 +7677,10 @@
         <v>1</v>
       </c>
       <c r="AY40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA40" s="2">
         <v>0</v>
@@ -7743,49 +7751,49 @@
         <v>73</v>
       </c>
       <c r="E41" s="1">
-        <v>45263</v>
+        <v>45340</v>
       </c>
       <c r="F41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" t="s">
         <v>79</v>
-      </c>
-      <c r="G41" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>84</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2">
-        <v>1</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="2">
-        <v>0</v>
-      </c>
-      <c r="S41" t="s">
-        <v>80</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
@@ -7802,7 +7810,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
@@ -7811,9 +7819,7 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
-      <c r="AJ41" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" t="s">
@@ -7827,20 +7833,20 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="1">
-        <v>45294</v>
+        <v>45369</v>
       </c>
       <c r="AR41" s="2">
         <v>1</v>
       </c>
       <c r="AS41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW41" s="2">
         <v>1</v>
@@ -7849,13 +7855,13 @@
         <v>1</v>
       </c>
       <c r="AY41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ41" s="2">
         <v>1</v>
       </c>
       <c r="BA41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="2">
         <v>0</v>
@@ -7923,19 +7929,19 @@
         <v>73</v>
       </c>
       <c r="E42" s="1">
-        <v>45328</v>
+        <v>45312</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -7965,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
@@ -7982,9 +7988,11 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC42" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>0</v>
+      </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
@@ -7995,7 +8003,7 @@
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
       <c r="AM42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
@@ -8003,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>45336</v>
+        <v>45348</v>
       </c>
       <c r="AR42" s="2">
         <v>1</v>
@@ -8025,10 +8033,10 @@
         <v>1</v>
       </c>
       <c r="AY42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="2">
         <v>0</v>
@@ -8099,19 +8107,19 @@
         <v>73</v>
       </c>
       <c r="E43" s="1">
-        <v>45286</v>
+        <v>45354</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -8141,26 +8149,26 @@
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
+      <c r="X43" s="2">
+        <v>1</v>
+      </c>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC43" s="2">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
@@ -8171,17 +8179,15 @@
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN43" s="2">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2">
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>45308</v>
+        <v>45369</v>
       </c>
       <c r="AR43" s="2">
         <v>1</v>
@@ -8191,13 +8197,13 @@
       </c>
       <c r="AT43" s="2"/>
       <c r="AU43" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV43" s="2">
         <v>3</v>
       </c>
-      <c r="AV43" s="2">
-        <v>1</v>
-      </c>
       <c r="AW43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX43" s="2">
         <v>1</v>
@@ -8277,19 +8283,19 @@
         <v>73</v>
       </c>
       <c r="E44" s="1">
-        <v>45298</v>
+        <v>45069</v>
       </c>
       <c r="F44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -8319,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T44" s="2">
         <v>0</v>
@@ -8336,7 +8342,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
@@ -8359,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>45316</v>
+        <v>45096</v>
       </c>
       <c r="AR44" s="2">
         <v>1</v>
@@ -8372,7 +8378,7 @@
         <v>5</v>
       </c>
       <c r="AV44" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW44" s="2">
         <v>1</v>
@@ -8414,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="BJ44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK44" s="2">
         <v>0</v>
@@ -8455,31 +8461,31 @@
         <v>73</v>
       </c>
       <c r="E45" s="1">
-        <v>45354</v>
+        <v>45390</v>
       </c>
       <c r="F45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -8488,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="2">
         <v>0</v>
@@ -8497,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="T45" s="2">
         <v>0</v>
@@ -8514,9 +8520,11 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>0</v>
+      </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
@@ -8537,32 +8545,32 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>45394</v>
+        <v>45401</v>
       </c>
       <c r="AR45" s="2">
         <v>1</v>
       </c>
       <c r="AS45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV45" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="2">
         <v>0</v>
@@ -8574,10 +8582,10 @@
         <v>0</v>
       </c>
       <c r="BD45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF45" s="2">
         <v>0</v>
@@ -8633,31 +8641,31 @@
         <v>73</v>
       </c>
       <c r="E46" s="1">
-        <v>45390</v>
+        <v>45365</v>
       </c>
       <c r="F46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
@@ -8666,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="2">
         <v>0</v>
@@ -8675,7 +8683,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="T46" s="2">
         <v>0</v>
@@ -8692,11 +8700,9 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC46" s="2">
-        <v>0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
@@ -8707,17 +8713,15 @@
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
       <c r="AM46" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN46" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
       <c r="AP46" s="2">
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>45401</v>
+        <v>45394</v>
       </c>
       <c r="AR46" s="2">
         <v>1</v>
@@ -8727,22 +8731,22 @@
       </c>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV46" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA46" s="2">
         <v>0</v>
@@ -8754,10 +8758,10 @@
         <v>0</v>
       </c>
       <c r="BD46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF46" s="2">
         <v>0</v>
@@ -8813,31 +8817,31 @@
         <v>73</v>
       </c>
       <c r="E47" s="1">
-        <v>45340</v>
+        <v>45045</v>
       </c>
       <c r="F47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
@@ -8846,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="2">
         <v>0</v>
@@ -8855,13 +8859,13 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="T47" s="2">
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
@@ -8872,7 +8876,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
@@ -8895,32 +8899,32 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>45369</v>
+        <v>45062</v>
       </c>
       <c r="AR47" s="2">
         <v>1</v>
       </c>
       <c r="AS47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2">
         <v>3</v>
       </c>
       <c r="AV47" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA47" s="2">
         <v>0</v>
@@ -8932,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="BD47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF47" s="2">
         <v>0</v>
@@ -8991,19 +8995,19 @@
         <v>73</v>
       </c>
       <c r="E48" s="1">
-        <v>45384</v>
+        <v>45333</v>
       </c>
       <c r="F48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -9015,13 +9019,13 @@
         <v>0</v>
       </c>
       <c r="M48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="2">
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="2">
         <v>0</v>
@@ -9030,10 +9034,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="T48" s="2">
         <v>0</v>
@@ -9050,9 +9054,11 @@
       </c>
       <c r="AA48" s="2"/>
       <c r="AB48" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>0</v>
+      </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
@@ -9073,20 +9079,20 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>45413</v>
+        <v>45364</v>
       </c>
       <c r="AR48" s="2">
         <v>1</v>
       </c>
       <c r="AS48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="2"/>
       <c r="AU48" s="2">
         <v>2</v>
       </c>
       <c r="AV48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW48" s="2">
         <v>0</v>
@@ -9104,10 +9110,10 @@
         <v>0</v>
       </c>
       <c r="BB48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD48" s="2">
         <v>0</v>
@@ -9137,10 +9143,10 @@
         <v>0</v>
       </c>
       <c r="BM48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO48" t="s">
         <v>171</v>
@@ -9169,7 +9175,7 @@
         <v>73</v>
       </c>
       <c r="E49" s="1">
-        <v>45300</v>
+        <v>45365</v>
       </c>
       <c r="F49" t="s">
         <v>76</v>
@@ -9181,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -9190,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -9211,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T49" s="2">
         <v>0</v>
@@ -9228,22 +9234,22 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AC49" s="2"/>
-      <c r="AD49" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
+      <c r="AG49" s="2">
+        <v>1</v>
+      </c>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
@@ -9251,23 +9257,23 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>45317</v>
+        <v>45399</v>
       </c>
       <c r="AR49" s="2">
         <v>1</v>
       </c>
       <c r="AS49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="2">
         <v>1</v>
@@ -9347,19 +9353,19 @@
         <v>73</v>
       </c>
       <c r="E50" s="1">
-        <v>45354</v>
+        <v>45365</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -9389,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T50" s="2">
         <v>0</v>
@@ -9406,7 +9412,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
@@ -9419,7 +9425,7 @@
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
       <c r="AM50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
@@ -9427,20 +9433,20 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>45369</v>
+        <v>45399</v>
       </c>
       <c r="AR50" s="2">
         <v>1</v>
       </c>
       <c r="AS50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV50" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW50" s="2">
         <v>1</v>
@@ -9449,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="AY50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="2">
         <v>0</v>
@@ -9482,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="BJ50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK50" s="2">
         <v>0</v>
@@ -9523,7 +9529,7 @@
         <v>73</v>
       </c>
       <c r="E51" s="1">
-        <v>45329</v>
+        <v>45069</v>
       </c>
       <c r="F51" t="s">
         <v>76</v>
@@ -9535,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -9565,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T51" s="2">
         <v>0</v>
@@ -9582,7 +9588,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
@@ -9591,49 +9597,49 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
-      <c r="AJ51" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ51" s="2"/>
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
       <c r="AM51" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN51" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="AN51" s="2">
+        <v>0</v>
+      </c>
       <c r="AO51" s="2"/>
       <c r="AP51" s="2">
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>45369</v>
+        <v>45096</v>
       </c>
       <c r="AR51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS51" s="2">
         <v>1</v>
       </c>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV51" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="2">
         <v>1</v>
       </c>
       <c r="AY51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ51" s="2">
         <v>1</v>
       </c>
       <c r="BA51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB51" s="2">
         <v>0</v>
@@ -9701,19 +9707,19 @@
         <v>73</v>
       </c>
       <c r="E52" s="1">
-        <v>45270</v>
+        <v>45315</v>
       </c>
       <c r="F52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -9722,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
@@ -9743,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
@@ -9760,7 +9766,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
@@ -9773,7 +9779,7 @@
       <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
       <c r="AM52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
@@ -9781,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <v>45308</v>
+        <v>45336</v>
       </c>
       <c r="AR52" s="2">
         <v>1</v>
@@ -9791,13 +9797,13 @@
       </c>
       <c r="AT52" s="2"/>
       <c r="AU52" s="2">
+        <v>10</v>
+      </c>
+      <c r="AV52" s="2">
         <v>4</v>
       </c>
-      <c r="AV52" s="2">
-        <v>3</v>
-      </c>
       <c r="AW52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX52" s="2">
         <v>1</v>
@@ -9824,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="BF52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG52" s="2">
         <v>0</v>
@@ -9877,7 +9883,7 @@
         <v>73</v>
       </c>
       <c r="E53" s="1">
-        <v>45403</v>
+        <v>45354</v>
       </c>
       <c r="F53" t="s">
         <v>78</v>
@@ -9889,22 +9895,22 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="2">
         <v>0</v>
       </c>
       <c r="N53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="2">
         <v>0</v>
@@ -9919,24 +9925,24 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="T53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="V53" s="2"/>
-      <c r="W53" s="2">
-        <v>1</v>
-      </c>
-      <c r="X53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2">
+        <v>1</v>
+      </c>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
@@ -9949,17 +9955,15 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN53" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2">
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>45415</v>
+        <v>45370</v>
       </c>
       <c r="AR53" s="2">
         <v>1</v>
@@ -9969,22 +9973,22 @@
       </c>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV53" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA53" s="2">
         <v>0</v>
@@ -10055,7 +10059,7 @@
         <v>73</v>
       </c>
       <c r="E54" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="F54" t="s">
         <v>76</v>
@@ -10067,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -10097,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
@@ -10114,7 +10118,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
@@ -10127,7 +10131,7 @@
       <c r="AK54" s="2"/>
       <c r="AL54" s="2"/>
       <c r="AM54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
@@ -10135,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>45370</v>
+        <v>45260</v>
       </c>
       <c r="AR54" s="2">
         <v>1</v>
@@ -10145,13 +10149,13 @@
       </c>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX54" s="2">
         <v>1</v>
@@ -10231,7 +10235,7 @@
         <v>73</v>
       </c>
       <c r="E55" s="1">
-        <v>45271</v>
+        <v>45328</v>
       </c>
       <c r="F55" t="s">
         <v>76</v>
@@ -10240,10 +10244,10 @@
         <v>76</v>
       </c>
       <c r="H55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -10273,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T55" s="2">
         <v>0</v>
@@ -10290,12 +10294,10 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="AC55" s="2"/>
-      <c r="AD55" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
@@ -10305,30 +10307,28 @@
       <c r="AK55" s="2"/>
       <c r="AL55" s="2"/>
       <c r="AM55" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN55" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
       <c r="AP55" s="2">
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>45294</v>
+        <v>45336</v>
       </c>
       <c r="AR55" s="2">
         <v>1</v>
       </c>
       <c r="AS55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="2"/>
       <c r="AU55" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV55" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW55" s="2">
         <v>1</v>
@@ -10411,28 +10411,28 @@
         <v>73</v>
       </c>
       <c r="E56" s="1">
-        <v>45260</v>
+        <v>45270</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s">
         <v>87</v>
       </c>
       <c r="J56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="2">
         <v>0</v>
@@ -10450,46 +10450,40 @@
         <v>0</v>
       </c>
       <c r="R56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="T56" s="2">
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
+      <c r="X56" s="2">
+        <v>1</v>
+      </c>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE56" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
-      <c r="AI56" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
       <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
       <c r="AM56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
@@ -10497,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>45316</v>
+        <v>45308</v>
       </c>
       <c r="AR56" s="2">
         <v>1</v>
@@ -10507,22 +10501,22 @@
       </c>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV56" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA56" s="2">
         <v>0</v>
@@ -10561,10 +10555,10 @@
         <v>0</v>
       </c>
       <c r="BM56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO56" t="s">
         <v>171</v>
@@ -10593,19 +10587,19 @@
         <v>73</v>
       </c>
       <c r="E57" s="1">
-        <v>45365</v>
+        <v>45354</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -10635,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
@@ -10652,7 +10646,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
@@ -10665,7 +10659,7 @@
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
       <c r="AM57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
@@ -10673,20 +10667,20 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>45399</v>
+        <v>45369</v>
       </c>
       <c r="AR57" s="2">
         <v>1</v>
       </c>
       <c r="AS57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV57" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW57" s="2">
         <v>1</v>
@@ -10695,10 +10689,10 @@
         <v>1</v>
       </c>
       <c r="AY57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA57" s="2">
         <v>0</v>
@@ -10769,19 +10763,19 @@
         <v>73</v>
       </c>
       <c r="E58" s="1">
-        <v>45069</v>
+        <v>45252</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -10790,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="2">
         <v>0</v>
@@ -10811,47 +10805,51 @@
         <v>0</v>
       </c>
       <c r="S58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T58" s="2">
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
-      <c r="X58" s="2">
-        <v>1</v>
-      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
+      <c r="AD58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="2">
+        <v>1</v>
+      </c>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="2"/>
       <c r="AK58" s="2"/>
-      <c r="AL58" s="2"/>
+      <c r="AL58" s="2">
+        <v>1</v>
+      </c>
       <c r="AM58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AN58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO58" s="2"/>
       <c r="AP58" s="2">
         <v>0</v>
       </c>
       <c r="AQ58" s="1">
-        <v>45089</v>
+        <v>45259</v>
       </c>
       <c r="AR58" s="2">
         <v>1</v>
@@ -10873,10 +10871,10 @@
         <v>1</v>
       </c>
       <c r="AY58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="2">
         <v>0</v>
@@ -10947,7 +10945,7 @@
         <v>73</v>
       </c>
       <c r="E59" s="1">
-        <v>45041</v>
+        <v>45271</v>
       </c>
       <c r="F59" t="s">
         <v>76</v>
@@ -10956,10 +10954,10 @@
         <v>76</v>
       </c>
       <c r="H59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -10989,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T59" s="2">
         <v>0</v>
@@ -11006,10 +11004,12 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="AC59" s="2"/>
-      <c r="AD59" s="2"/>
+      <c r="AD59" s="2">
+        <v>1</v>
+      </c>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
@@ -11019,15 +11019,17 @@
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
       <c r="AM59" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN59" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="AN59" s="2">
+        <v>0</v>
+      </c>
       <c r="AO59" s="2"/>
       <c r="AP59" s="2">
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>45062</v>
+        <v>45294</v>
       </c>
       <c r="AR59" s="2">
         <v>1</v>
@@ -11037,11 +11039,11 @@
       </c>
       <c r="AT59" s="2"/>
       <c r="AU59" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV59" s="2">
         <v>3</v>
       </c>
-      <c r="AV59" s="2">
-        <v>2</v>
-      </c>
       <c r="AW59" s="2">
         <v>1</v>
       </c>
@@ -11067,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="2">
         <v>0</v>
@@ -11123,25 +11125,25 @@
         <v>73</v>
       </c>
       <c r="E60" s="1">
-        <v>45390</v>
+        <v>45034</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H60" s="2">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="2">
         <v>0</v>
@@ -11162,27 +11164,27 @@
         <v>0</v>
       </c>
       <c r="R60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T60" s="2">
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
+      <c r="X60" s="2">
+        <v>1</v>
+      </c>
       <c r="Y60" s="2"/>
-      <c r="Z60" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC60" s="2">
         <v>0</v>
@@ -11207,35 +11209,35 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="1">
-        <v>45401</v>
+        <v>45054</v>
       </c>
       <c r="AR60" s="2">
         <v>1</v>
       </c>
       <c r="AS60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="2"/>
       <c r="AU60" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV60" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW60" s="2">
         <v>0</v>
       </c>
       <c r="AX60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY60" s="2">
         <v>0</v>
       </c>
       <c r="AZ60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB60" s="2">
         <v>0</v>
@@ -11271,10 +11273,10 @@
         <v>0</v>
       </c>
       <c r="BM60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO60" t="s">
         <v>171</v>
@@ -11303,31 +11305,31 @@
         <v>73</v>
       </c>
       <c r="E61" s="1">
-        <v>45252</v>
+        <v>45029</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="2">
         <v>0</v>
       </c>
       <c r="M61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="2">
         <v>0</v>
@@ -11336,7 +11338,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="2">
         <v>0</v>
@@ -11345,70 +11347,66 @@
         <v>0</v>
       </c>
       <c r="S61" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="T61" s="2">
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
+      <c r="X61" s="2">
+        <v>1</v>
+      </c>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="AC61" s="2"/>
-      <c r="AD61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE61" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
       <c r="AK61" s="2"/>
-      <c r="AL61" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL61" s="2"/>
       <c r="AM61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AN61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO61" s="2"/>
       <c r="AP61" s="2">
         <v>0</v>
       </c>
       <c r="AQ61" s="1">
-        <v>45259</v>
+        <v>45050</v>
       </c>
       <c r="AR61" s="2">
         <v>1</v>
       </c>
       <c r="AS61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="2"/>
       <c r="AU61" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV61" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY61" s="2">
         <v>0</v>
@@ -11426,10 +11424,10 @@
         <v>0</v>
       </c>
       <c r="BD61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF61" s="2">
         <v>0</v>
@@ -11485,7 +11483,7 @@
         <v>73</v>
       </c>
       <c r="E62" s="1">
-        <v>45069</v>
+        <v>45060</v>
       </c>
       <c r="F62" t="s">
         <v>76</v>
@@ -11494,10 +11492,10 @@
         <v>76</v>
       </c>
       <c r="H62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -11506,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="2">
         <v>0</v>
@@ -11527,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="T62" s="2">
         <v>0</v>
@@ -11544,12 +11542,10 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AC62" s="2"/>
-      <c r="AD62" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
@@ -11559,7 +11555,7 @@
       <c r="AK62" s="2"/>
       <c r="AL62" s="2"/>
       <c r="AM62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
@@ -11573,11 +11569,11 @@
         <v>1</v>
       </c>
       <c r="AS62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="2"/>
       <c r="AU62" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV62" s="2">
         <v>2</v>
@@ -11589,13 +11585,13 @@
         <v>1</v>
       </c>
       <c r="AY62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ62" s="2">
         <v>1</v>
       </c>
       <c r="BA62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB62" s="2">
         <v>0</v>
@@ -11663,19 +11659,19 @@
         <v>73</v>
       </c>
       <c r="E63" s="1">
-        <v>45349</v>
+        <v>45069</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -11684,7 +11680,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="2">
         <v>0</v>
@@ -11705,22 +11701,24 @@
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T63" s="2">
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
+      <c r="X63" s="2">
+        <v>1</v>
+      </c>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
@@ -11733,25 +11731,27 @@
       <c r="AK63" s="2"/>
       <c r="AL63" s="2"/>
       <c r="AM63" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN63" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="AN63" s="2">
+        <v>0</v>
+      </c>
       <c r="AO63" s="2"/>
       <c r="AP63" s="2">
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>45369</v>
+        <v>45089</v>
       </c>
       <c r="AR63" s="2">
         <v>1</v>
       </c>
       <c r="AS63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT63" s="2"/>
       <c r="AU63" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV63" s="2">
         <v>3</v>
@@ -11781,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="BE63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF63" s="2">
         <v>0</v>
@@ -11837,25 +11837,25 @@
         <v>73</v>
       </c>
       <c r="E64" s="1">
-        <v>45034</v>
+        <v>45390</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H64" s="2">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="2">
         <v>0</v>
@@ -11876,27 +11876,27 @@
         <v>0</v>
       </c>
       <c r="R64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T64" s="2">
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
-      <c r="X64" s="2">
-        <v>1</v>
-      </c>
+      <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
+      <c r="Z64" s="2">
+        <v>1</v>
+      </c>
       <c r="AA64" s="2"/>
       <c r="AB64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC64" s="2">
         <v>0</v>
@@ -11921,35 +11921,35 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="1">
-        <v>45054</v>
+        <v>45401</v>
       </c>
       <c r="AR64" s="2">
         <v>1</v>
       </c>
       <c r="AS64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="2"/>
       <c r="AU64" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV64" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW64" s="2">
         <v>0</v>
       </c>
       <c r="AX64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY64" s="2">
         <v>0</v>
       </c>
       <c r="AZ64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="2">
         <v>0</v>
@@ -11985,10 +11985,10 @@
         <v>0</v>
       </c>
       <c r="BM64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO64" t="s">
         <v>171</v>
@@ -12017,19 +12017,19 @@
         <v>73</v>
       </c>
       <c r="E65" s="1">
-        <v>45354</v>
+        <v>45041</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
@@ -12038,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" s="2">
         <v>0</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T65" s="2">
         <v>0</v>
@@ -12076,7 +12076,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
@@ -12089,7 +12089,7 @@
       <c r="AK65" s="2"/>
       <c r="AL65" s="2"/>
       <c r="AM65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN65" s="2"/>
       <c r="AO65" s="2"/>
@@ -12097,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="1">
-        <v>45370</v>
+        <v>45077</v>
       </c>
       <c r="AR65" s="2">
         <v>1</v>
@@ -12107,25 +12107,25 @@
       </c>
       <c r="AT65" s="2"/>
       <c r="AU65" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX65" s="2">
         <v>1</v>
       </c>
       <c r="AY65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="2">
         <v>1</v>
       </c>
       <c r="BA65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB65" s="2">
         <v>0</v>
@@ -12137,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="BE65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF65" s="2">
         <v>0</v>
@@ -12152,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="BJ65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK65" s="2">
         <v>0</v>
@@ -12193,19 +12193,19 @@
         <v>73</v>
       </c>
       <c r="E66" s="1">
-        <v>45270</v>
+        <v>45354</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
@@ -12235,10 +12235,10 @@
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="T66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66" t="s">
         <v>112</v>
@@ -12252,7 +12252,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
       <c r="AB66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
@@ -12265,7 +12265,7 @@
       <c r="AK66" s="2"/>
       <c r="AL66" s="2"/>
       <c r="AM66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN66" s="2"/>
       <c r="AO66" s="2"/>
@@ -12273,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="1">
-        <v>45308</v>
+        <v>45369</v>
       </c>
       <c r="AR66" s="2">
         <v>1</v>
@@ -12283,10 +12283,10 @@
       </c>
       <c r="AT66" s="2"/>
       <c r="AU66" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV66" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW66" s="2">
         <v>1</v>
@@ -12372,16 +12372,16 @@
         <v>45326</v>
       </c>
       <c r="F67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J67" s="2">
         <v>1</v>
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="S67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T67" s="2">
         <v>0</v>
@@ -12428,7 +12428,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
       <c r="AB67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
@@ -12441,7 +12441,7 @@
       <c r="AK67" s="2"/>
       <c r="AL67" s="2"/>
       <c r="AM67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN67" s="2"/>
       <c r="AO67" s="2"/>

--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -18,213 +18,213 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600865</t>
+  </si>
+  <si>
+    <t>600346</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>600381</t>
+  </si>
+  <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>600947</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>600699</t>
+  </si>
+  <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>600672</t>
+  </si>
+  <si>
+    <t>600687</t>
+  </si>
+  <si>
+    <t>600886</t>
+  </si>
+  <si>
+    <t>600758</t>
+  </si>
+  <si>
     <t>600696</t>
   </si>
   <si>
+    <t>600640</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>600856</t>
+  </si>
+  <si>
+    <t>600322</t>
+  </si>
+  <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>600374</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
+    <t>600360</t>
+  </si>
+  <si>
+    <t>600898</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>600853</t>
+  </si>
+  <si>
+    <t>600919</t>
+  </si>
+  <si>
+    <t>600996</t>
+  </si>
+  <si>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>500906</t>
+  </si>
+  <si>
+    <t>600604</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
+    <t>600961</t>
+  </si>
+  <si>
+    <t>600326</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
+    <t>600822</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>600398</t>
+  </si>
+  <si>
+    <t>600383</t>
+  </si>
+  <si>
+    <t>600611</t>
+  </si>
+  <si>
+    <t>600978</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
+    <t>400238</t>
+  </si>
+  <si>
+    <t>600896</t>
+  </si>
+  <si>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>600727</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
+    <t>500025</t>
+  </si>
+  <si>
+    <t>600882</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>500684</t>
+  </si>
+  <si>
     <t>600310</t>
   </si>
   <si>
-    <t>600682</t>
-  </si>
-  <si>
-    <t>600865</t>
-  </si>
-  <si>
-    <t>600611</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>500355</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>600822</t>
-  </si>
-  <si>
-    <t>600982</t>
-  </si>
-  <si>
-    <t>600853</t>
-  </si>
-  <si>
-    <t>600758</t>
-  </si>
-  <si>
-    <t>600961</t>
-  </si>
-  <si>
-    <t>600398</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>600326</t>
-  </si>
-  <si>
-    <t>600396</t>
-  </si>
-  <si>
-    <t>500025</t>
-  </si>
-  <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>400224</t>
+    <t>600366</t>
   </si>
   <si>
     <t>600786</t>
   </si>
   <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>600309</t>
-  </si>
-  <si>
-    <t>600947</t>
-  </si>
-  <si>
-    <t>400230</t>
-  </si>
-  <si>
-    <t>600687</t>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
+    <t>600614</t>
+  </si>
+  <si>
+    <t>500454</t>
+  </si>
+  <si>
+    <t>500005</t>
+  </si>
+  <si>
+    <t>600812</t>
   </si>
   <si>
     <t>600775</t>
   </si>
   <si>
-    <t>600703</t>
-  </si>
-  <si>
-    <t>600919</t>
-  </si>
-  <si>
-    <t>600856</t>
-  </si>
-  <si>
-    <t>600812</t>
-  </si>
-  <si>
-    <t>600996</t>
-  </si>
-  <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>600898</t>
-  </si>
-  <si>
-    <t>500901</t>
-  </si>
-  <si>
-    <t>600604</t>
-  </si>
-  <si>
-    <t>600614</t>
-  </si>
-  <si>
-    <t>500951</t>
-  </si>
-  <si>
-    <t>600610</t>
-  </si>
-  <si>
-    <t>600366</t>
-  </si>
-  <si>
-    <t>600360</t>
-  </si>
-  <si>
-    <t>500221</t>
-  </si>
-  <si>
-    <t>600374</t>
-  </si>
-  <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>600322</t>
-  </si>
-  <si>
-    <t>600896</t>
-  </si>
-  <si>
-    <t>500005</t>
-  </si>
-  <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>600602</t>
-  </si>
-  <si>
-    <t>500454</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>600383</t>
-  </si>
-  <si>
-    <t>600882</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>600346</t>
-  </si>
-  <si>
-    <t>600780</t>
-  </si>
-  <si>
-    <t>400238</t>
-  </si>
-  <si>
-    <t>600978</t>
-  </si>
-  <si>
-    <t>600886</t>
-  </si>
-  <si>
-    <t>600388</t>
-  </si>
-  <si>
-    <t>600640</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -246,24 +246,24 @@
     <t>full_state</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Pennsylvania</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>date_collect</t>
   </si>
   <si>
     <t>sampletype</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -279,39 +279,39 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>xylazine; fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>benzodiazepine</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>cocaine; fentanyl</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>xylazine; fentanyl</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>fentanyl; crack</t>
   </si>
   <si>
-    <t>benzodiazepine</t>
-  </si>
-  <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -348,15 +348,15 @@
     <t>pink</t>
   </si>
   <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
-    <t>gray</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -366,18 +366,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>rock; crystals</t>
+  </si>
+  <si>
+    <t>powder; chunky; rock</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>rock; crystals</t>
-  </si>
-  <si>
-    <t>powder; chunky; rock</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -390,31 +390,31 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>stronger</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>unpleasant; hallucinations</t>
+  </si>
+  <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>long; unpleasant; hallucinations</t>
+  </si>
+  <si>
+    <t>weird; sedating</t>
   </si>
   <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>sedating</t>
-  </si>
-  <si>
-    <t>long; unpleasant; hallucinations</t>
-  </si>
-  <si>
-    <t>unpleasant; hallucinations</t>
-  </si>
-  <si>
-    <t>weird; sedating</t>
-  </si>
-  <si>
-    <t>stronger</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -698,7 +698,7 @@
         <v>122</v>
       </c>
       <c r="Z1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA1" t="s">
         <v>123</v>
@@ -847,7 +847,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="1">
-        <v>45354</v>
+        <v>45403</v>
       </c>
       <c r="F2" t="s">
         <v>81</v>
@@ -868,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
@@ -906,7 +906,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -919,15 +919,17 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN2" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2">
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>45369</v>
+        <v>45419</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
@@ -937,13 +939,13 @@
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -982,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK2" s="2">
         <v>0</v>
@@ -1020,22 +1022,22 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45286</v>
+      </c>
+      <c r="F3" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="1">
-        <v>45252</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1065,26 +1067,26 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="2">
-        <v>1</v>
-      </c>
+      <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC3" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1</v>
+      </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
@@ -1095,15 +1097,17 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN3" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>1</v>
+      </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2">
         <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>45260</v>
+        <v>45308</v>
       </c>
       <c r="AR3" s="2">
         <v>1</v>
@@ -1196,28 +1200,28 @@
         <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1">
-        <v>45312</v>
+        <v>45333</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1229,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1247,23 +1251,23 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
+      <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
       <c r="AA4" s="2"/>
       <c r="AB4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2">
-        <v>1</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1273,34 +1277,36 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN4" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0</v>
+      </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2">
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>45316</v>
+        <v>45364</v>
       </c>
       <c r="AR4" s="2">
         <v>1</v>
       </c>
       <c r="AS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
         <v>2</v>
       </c>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW4" s="2">
         <v>0</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
         <v>0</v>
@@ -1312,16 +1318,16 @@
         <v>0</v>
       </c>
       <c r="BB4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1377,19 +1383,19 @@
         <v>78</v>
       </c>
       <c r="E5" s="1">
-        <v>45403</v>
+        <v>45263</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -1398,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1419,24 +1425,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
+      <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
@@ -1445,37 +1449,37 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
+      <c r="AJ5" s="2">
+        <v>1</v>
+      </c>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2">
         <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>45419</v>
+        <v>45294</v>
       </c>
       <c r="AR5" s="2">
         <v>1</v>
       </c>
       <c r="AS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1552,10 +1556,10 @@
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1">
-        <v>45354</v>
+        <v>45272</v>
       </c>
       <c r="F6" t="s">
         <v>81</v>
@@ -1564,19 +1568,19 @@
         <v>81</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1597,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
@@ -1614,41 +1618,45 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN6" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0</v>
+      </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2">
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AR6" s="2">
         <v>1</v>
       </c>
       <c r="AS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW6" s="2">
         <v>1</v>
@@ -1678,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1728,19 +1736,19 @@
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1">
-        <v>45270</v>
+        <v>45034</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>88</v>
@@ -1752,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1773,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
@@ -1790,9 +1798,11 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC7" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -1803,28 +1813,30 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN7" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0</v>
+      </c>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2">
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>45308</v>
+        <v>45050</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
       </c>
       <c r="AS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW7" s="2">
         <v>1</v>
@@ -1833,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -1904,16 +1916,16 @@
         <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1">
-        <v>45354</v>
+        <v>45315</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1928,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1949,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
@@ -1966,7 +1978,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -1987,23 +1999,23 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>45370</v>
+        <v>45336</v>
       </c>
       <c r="AR8" s="2">
         <v>1</v>
       </c>
       <c r="AS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AV8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -2030,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2080,10 +2092,10 @@
         <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1">
-        <v>45045</v>
+        <v>45069</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2095,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2116,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2125,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -2142,7 +2154,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -2165,32 +2177,32 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>45062</v>
+        <v>45089</v>
       </c>
       <c r="AR9" s="2">
         <v>1</v>
       </c>
       <c r="AS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2">
         <v>3</v>
       </c>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2202,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
         <v>0</v>
@@ -2258,22 +2270,22 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1">
         <v>45354</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2303,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T10" s="2">
         <v>0</v>
@@ -2320,7 +2332,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -2341,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>45370</v>
+        <v>45394</v>
       </c>
       <c r="AR10" s="2">
         <v>1</v>
@@ -2351,13 +2363,13 @@
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2437,19 +2449,19 @@
         <v>78</v>
       </c>
       <c r="E11" s="1">
-        <v>45366</v>
+        <v>45354</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2479,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
@@ -2496,7 +2508,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -2517,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>45421</v>
+        <v>45369</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
@@ -2527,10 +2539,10 @@
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="2">
         <v>1</v>
@@ -2539,10 +2551,10 @@
         <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -2610,10 +2622,10 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1">
-        <v>45365</v>
+        <v>45354</v>
       </c>
       <c r="F12" t="s">
         <v>82</v>
@@ -2625,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2655,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
@@ -2672,7 +2684,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -2693,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>45394</v>
+        <v>45370</v>
       </c>
       <c r="AR12" s="2">
         <v>1</v>
@@ -2786,73 +2798,71 @@
         <v>75</v>
       </c>
       <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45340</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="1">
-        <v>45390</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>1</v>
-      </c>
-      <c r="S13" t="s">
-        <v>78</v>
-      </c>
       <c r="T13" s="2">
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
+      <c r="X13" s="2">
+        <v>1</v>
+      </c>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -2873,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <v>45401</v>
+        <v>45369</v>
       </c>
       <c r="AR13" s="2">
         <v>1</v>
@@ -2883,22 +2893,22 @@
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -2937,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="BM13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="s">
         <v>175</v>
@@ -2966,34 +2976,34 @@
         <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1">
-        <v>45349</v>
+        <v>45029</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -3002,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3011,22 +3021,24 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -3039,15 +3051,17 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN14" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>0</v>
+      </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2">
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>45369</v>
+        <v>45050</v>
       </c>
       <c r="AR14" s="2">
         <v>1</v>
@@ -3057,22 +3071,22 @@
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
@@ -3084,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
         <v>1</v>
@@ -3140,22 +3154,22 @@
         <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1">
         <v>45354</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -3185,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T15" s="2">
         <v>0</v>
@@ -3202,7 +3216,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
@@ -3215,17 +3229,15 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2">
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>45394</v>
+        <v>45370</v>
       </c>
       <c r="AR15" s="2">
         <v>1</v>
@@ -3318,52 +3330,52 @@
         <v>75</v>
       </c>
       <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45312</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
         <v>77</v>
-      </c>
-      <c r="E16" s="1">
-        <v>45263</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
-        <v>78</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
@@ -3380,9 +3392,11 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -3401,20 +3415,20 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>45294</v>
+        <v>45348</v>
       </c>
       <c r="AR16" s="2">
         <v>1</v>
       </c>
       <c r="AS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW16" s="2">
         <v>1</v>
@@ -3494,34 +3508,34 @@
         <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="1">
-        <v>45354</v>
+        <v>45390</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -3530,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -3539,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
@@ -3556,9 +3570,11 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC17" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -3569,15 +3585,17 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN17" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2">
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>45369</v>
+        <v>45401</v>
       </c>
       <c r="AR17" s="2">
         <v>1</v>
@@ -3587,22 +3605,22 @@
       </c>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -3614,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -3670,10 +3688,10 @@
         <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18" s="1">
-        <v>45328</v>
+        <v>45349</v>
       </c>
       <c r="F18" t="s">
         <v>82</v>
@@ -3685,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -3715,24 +3733,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T18" s="2">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="2">
-        <v>1</v>
-      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -3753,20 +3769,20 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>45336</v>
+        <v>45369</v>
       </c>
       <c r="AR18" s="2">
         <v>1</v>
       </c>
       <c r="AS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW18" s="2">
         <v>1</v>
@@ -3793,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18" s="2">
         <v>0</v>
@@ -3846,10 +3862,10 @@
         <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1">
-        <v>45270</v>
+        <v>45354</v>
       </c>
       <c r="F19" t="s">
         <v>82</v>
@@ -3861,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -3891,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T19" s="2">
         <v>0</v>
@@ -3908,7 +3924,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -3929,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>45308</v>
+        <v>45369</v>
       </c>
       <c r="AR19" s="2">
         <v>1</v>
@@ -3984,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="BJ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK19" s="2">
         <v>0</v>
@@ -4022,55 +4038,55 @@
         <v>75</v>
       </c>
       <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45354</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="1">
-        <v>45270</v>
-      </c>
-      <c r="F20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>110</v>
-      </c>
       <c r="T20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="s">
         <v>116</v>
@@ -4084,7 +4100,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
@@ -4105,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>45308</v>
+        <v>45370</v>
       </c>
       <c r="AR20" s="2">
         <v>1</v>
@@ -4115,10 +4131,10 @@
       </c>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV20" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW20" s="2">
         <v>1</v>
@@ -4198,22 +4214,22 @@
         <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" s="1">
-        <v>45060</v>
+        <v>45270</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -4243,10 +4259,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="s">
         <v>116</v>
@@ -4260,7 +4276,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -4281,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>45089</v>
+        <v>45308</v>
       </c>
       <c r="AR21" s="2">
         <v>1</v>
@@ -4291,10 +4307,10 @@
       </c>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW21" s="2">
         <v>1</v>
@@ -4303,13 +4319,13 @@
         <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
         <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
@@ -4374,10 +4390,10 @@
         <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1">
-        <v>45340</v>
+        <v>45041</v>
       </c>
       <c r="F22" t="s">
         <v>81</v>
@@ -4398,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -4419,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
@@ -4436,7 +4452,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
@@ -4459,17 +4475,17 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>45369</v>
+        <v>45077</v>
       </c>
       <c r="AR22" s="2">
         <v>1</v>
       </c>
       <c r="AS22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AV22" s="2">
         <v>3</v>
@@ -4481,13 +4497,13 @@
         <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="2">
         <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
@@ -4499,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="BE22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22" s="2">
         <v>0</v>
@@ -4514,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="BJ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK22" s="2">
         <v>0</v>
@@ -4552,10 +4568,10 @@
         <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1">
-        <v>45329</v>
+        <v>45354</v>
       </c>
       <c r="F23" t="s">
         <v>82</v>
@@ -4567,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -4597,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="T23" s="2">
         <v>0</v>
@@ -4614,7 +4630,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
@@ -4623,9 +4639,7 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
-      <c r="AJ23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
@@ -4647,10 +4661,10 @@
       </c>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV23" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW23" s="2">
         <v>1</v>
@@ -4730,67 +4744,69 @@
         <v>75</v>
       </c>
       <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45365</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="1">
-        <v>45026</v>
-      </c>
-      <c r="F24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>88</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>78</v>
-      </c>
       <c r="T24" s="2">
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
+      <c r="X24" s="2">
+        <v>1</v>
+      </c>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
@@ -4803,27 +4819,25 @@
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN24" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2">
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>45032</v>
+        <v>45394</v>
       </c>
       <c r="AR24" s="2">
         <v>1</v>
       </c>
       <c r="AS24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AV24" s="2">
         <v>3</v>
@@ -4853,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="BE24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="2">
         <v>0</v>
@@ -4868,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="BJ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK24" s="2">
         <v>0</v>
@@ -4906,28 +4920,28 @@
         <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1">
-        <v>45300</v>
+        <v>45404</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -4936,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -4951,29 +4965,27 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="T25" s="2">
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2">
-        <v>1</v>
-      </c>
+      <c r="W25" s="2">
+        <v>1</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -4983,15 +4995,17 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN25" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>0</v>
+      </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2">
         <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>45317</v>
+        <v>45415</v>
       </c>
       <c r="AR25" s="2">
         <v>1</v>
@@ -5007,16 +5021,16 @@
         <v>2</v>
       </c>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="2">
         <v>0</v>
@@ -5084,19 +5098,19 @@
         <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="1">
-        <v>45354</v>
+        <v>45271</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
         <v>88</v>
@@ -5108,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -5129,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
@@ -5146,10 +5160,12 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
+      <c r="AD26" s="2">
+        <v>1</v>
+      </c>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
@@ -5159,28 +5175,30 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN26" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>0</v>
+      </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2">
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AR26" s="2">
         <v>1</v>
       </c>
       <c r="AS26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2">
         <v>4</v>
       </c>
       <c r="AV26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW26" s="2">
         <v>1</v>
@@ -5260,73 +5278,69 @@
         <v>75</v>
       </c>
       <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45026</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="1">
-        <v>45034</v>
-      </c>
-      <c r="F27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>90</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0</v>
-      </c>
-      <c r="S27" t="s">
-        <v>78</v>
-      </c>
       <c r="T27" s="2">
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="2">
-        <v>1</v>
-      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC27" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
@@ -5347,20 +5361,20 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>45050</v>
+        <v>45032</v>
       </c>
       <c r="AR27" s="2">
         <v>1</v>
       </c>
       <c r="AS27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AV27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW27" s="2">
         <v>1</v>
@@ -5369,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="AY27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27" s="2">
         <v>0</v>
@@ -5387,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27" s="2">
         <v>0</v>
@@ -5402,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK27" s="2">
         <v>0</v>
@@ -5440,10 +5454,10 @@
         <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E28" s="1">
-        <v>45041</v>
+        <v>45252</v>
       </c>
       <c r="F28" t="s">
         <v>82</v>
@@ -5452,10 +5466,10 @@
         <v>82</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -5485,57 +5499,61 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="2">
-        <v>1</v>
-      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
+      <c r="AD28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>1</v>
+      </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
+      <c r="AL28" s="2">
+        <v>1</v>
+      </c>
       <c r="AM28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO28" s="2"/>
       <c r="AP28" s="2">
         <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <v>45077</v>
+        <v>45259</v>
       </c>
       <c r="AR28" s="2">
         <v>1</v>
       </c>
       <c r="AS28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AV28" s="2">
         <v>3</v>
@@ -5550,10 +5568,10 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="2">
         <v>0</v>
@@ -5565,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="BE28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF28" s="2">
         <v>0</v>
@@ -5580,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK28" s="2">
         <v>0</v>
@@ -5618,52 +5636,52 @@
         <v>75</v>
       </c>
       <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45041</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
         <v>77</v>
-      </c>
-      <c r="E29" s="1">
-        <v>45069</v>
-      </c>
-      <c r="F29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>93</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2">
-        <v>0</v>
-      </c>
-      <c r="S29" t="s">
-        <v>78</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
@@ -5680,7 +5698,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -5693,45 +5711,43 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN29" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2">
         <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>45096</v>
+        <v>45062</v>
       </c>
       <c r="AR29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
       </c>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2">
+        <v>3</v>
+      </c>
+      <c r="AV29" s="2">
         <v>2</v>
       </c>
-      <c r="AV29" s="2">
-        <v>0</v>
-      </c>
       <c r="AW29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX29" s="2">
         <v>1</v>
       </c>
       <c r="AY29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ29" s="2">
         <v>1</v>
       </c>
       <c r="BA29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="2">
         <v>0</v>
@@ -5743,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF29" s="2">
         <v>0</v>
@@ -5796,52 +5812,52 @@
         <v>75</v>
       </c>
       <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45252</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
         <v>77</v>
-      </c>
-      <c r="E30" s="1">
-        <v>45272</v>
-      </c>
-      <c r="F30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>94</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0</v>
-      </c>
-      <c r="S30" t="s">
-        <v>78</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
@@ -5858,45 +5874,41 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
-      <c r="AH30" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN30" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="2">
         <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>45294</v>
+        <v>45260</v>
       </c>
       <c r="AR30" s="2">
         <v>1</v>
       </c>
       <c r="AS30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="2"/>
       <c r="AU30" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV30" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW30" s="2">
         <v>1</v>
@@ -5926,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="BF30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG30" s="2">
         <v>0</v>
@@ -5979,19 +5991,19 @@
         <v>77</v>
       </c>
       <c r="E31" s="1">
-        <v>45354</v>
+        <v>45403</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -6021,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
@@ -6038,7 +6050,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -6059,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>45394</v>
+        <v>45420</v>
       </c>
       <c r="AR31" s="2">
         <v>1</v>
@@ -6069,13 +6081,13 @@
       </c>
       <c r="AT31" s="2"/>
       <c r="AU31" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV31" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX31" s="2">
         <v>1</v>
@@ -6093,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="BC31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD31" s="2">
         <v>0</v>
@@ -6152,52 +6164,52 @@
         <v>75</v>
       </c>
       <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45328</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
         <v>77</v>
-      </c>
-      <c r="E32" s="1">
-        <v>45034</v>
-      </c>
-      <c r="F32" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>90</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0</v>
-      </c>
-      <c r="S32" t="s">
-        <v>78</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
@@ -6214,11 +6226,9 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC32" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
@@ -6229,45 +6239,43 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2">
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>45054</v>
+        <v>45336</v>
       </c>
       <c r="AR32" s="2">
         <v>1</v>
       </c>
       <c r="AS32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX32" s="2">
         <v>1</v>
       </c>
       <c r="AY32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ32" s="2">
         <v>1</v>
       </c>
       <c r="BA32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="2">
         <v>0</v>
@@ -6332,10 +6340,10 @@
         <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="1">
-        <v>45312</v>
+        <v>45354</v>
       </c>
       <c r="F33" t="s">
         <v>81</v>
@@ -6344,10 +6352,10 @@
         <v>81</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -6356,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
@@ -6377,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
@@ -6394,11 +6402,9 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
@@ -6417,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>45348</v>
+        <v>45369</v>
       </c>
       <c r="AR33" s="2">
         <v>1</v>
@@ -6427,10 +6433,10 @@
       </c>
       <c r="AT33" s="2"/>
       <c r="AU33" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV33" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW33" s="2">
         <v>1</v>
@@ -6439,10 +6445,10 @@
         <v>1</v>
       </c>
       <c r="AY33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA33" s="2">
         <v>0</v>
@@ -6510,52 +6516,52 @@
         <v>75</v>
       </c>
       <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45390</v>
+      </c>
+      <c r="F34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>96</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1</v>
+      </c>
+      <c r="S34" t="s">
         <v>77</v>
-      </c>
-      <c r="E34" s="1">
-        <v>45298</v>
-      </c>
-      <c r="F34" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>95</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0</v>
-      </c>
-      <c r="R34" s="2">
-        <v>0</v>
-      </c>
-      <c r="S34" t="s">
-        <v>109</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
@@ -6572,9 +6578,11 @@
       </c>
       <c r="AA34" s="2"/>
       <c r="AB34" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
@@ -6585,27 +6593,27 @@
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO34" s="2"/>
       <c r="AP34" s="2">
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>45317</v>
+        <v>45401</v>
       </c>
       <c r="AR34" s="2">
         <v>1</v>
       </c>
       <c r="AS34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV34" s="2">
         <v>1</v>
@@ -6632,10 +6640,10 @@
         <v>0</v>
       </c>
       <c r="BD34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF34" s="2">
         <v>0</v>
@@ -6659,10 +6667,10 @@
         <v>0</v>
       </c>
       <c r="BM34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO34" t="s">
         <v>175</v>
@@ -6688,69 +6696,69 @@
         <v>75</v>
       </c>
       <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45384</v>
+      </c>
+      <c r="F35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>96</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>1</v>
+      </c>
+      <c r="S35" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="1">
-        <v>45298</v>
-      </c>
-      <c r="F35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>88</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2">
-        <v>1</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0</v>
-      </c>
-      <c r="S35" t="s">
-        <v>78</v>
-      </c>
       <c r="T35" s="2">
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="2">
-        <v>1</v>
-      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
+      <c r="Z35" s="2">
+        <v>1</v>
+      </c>
       <c r="AA35" s="2"/>
       <c r="AB35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
@@ -6773,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>45316</v>
+        <v>45413</v>
       </c>
       <c r="AR35" s="2">
         <v>1</v>
@@ -6783,22 +6791,22 @@
       </c>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV35" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="2">
         <v>0</v>
@@ -6828,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="BJ35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK35" s="2">
         <v>0</v>
@@ -6837,10 +6845,10 @@
         <v>0</v>
       </c>
       <c r="BM35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO35" t="s">
         <v>175</v>
@@ -6866,92 +6874,92 @@
         <v>75</v>
       </c>
       <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45365</v>
+      </c>
+      <c r="F36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="1">
-        <v>45384</v>
-      </c>
-      <c r="F36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>0</v>
-      </c>
-      <c r="R36" s="2">
-        <v>1</v>
-      </c>
-      <c r="S36" t="s">
-        <v>78</v>
-      </c>
       <c r="T36" s="2">
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
+      <c r="X36" s="2">
+        <v>1</v>
+      </c>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
+      <c r="AG36" s="2">
+        <v>1</v>
+      </c>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN36" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
       <c r="AP36" s="2">
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>45413</v>
+        <v>45399</v>
       </c>
       <c r="AR36" s="2">
         <v>1</v>
@@ -6961,7 +6969,7 @@
       </c>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV36" s="2">
         <v>1</v>
@@ -6970,13 +6978,13 @@
         <v>0</v>
       </c>
       <c r="AX36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA36" s="2">
         <v>0</v>
@@ -7015,10 +7023,10 @@
         <v>0</v>
       </c>
       <c r="BM36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO36" t="s">
         <v>175</v>
@@ -7044,69 +7052,69 @@
         <v>75</v>
       </c>
       <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45270</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="1">
-        <v>45404</v>
-      </c>
-      <c r="F37" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>96</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2">
-        <v>1</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-      <c r="R37" s="2">
-        <v>0</v>
-      </c>
-      <c r="S37" t="s">
-        <v>109</v>
-      </c>
       <c r="T37" s="2">
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="V37" s="2"/>
-      <c r="W37" s="2">
-        <v>1</v>
-      </c>
-      <c r="X37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2">
+        <v>1</v>
+      </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -7119,42 +7127,40 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN37" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
       <c r="AP37" s="2">
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>45415</v>
+        <v>45308</v>
       </c>
       <c r="AR37" s="2">
         <v>1</v>
       </c>
       <c r="AS37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA37" s="2">
         <v>0</v>
@@ -7222,52 +7228,52 @@
         <v>75</v>
       </c>
       <c r="D38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45069</v>
+      </c>
+      <c r="F38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
         <v>77</v>
-      </c>
-      <c r="E38" s="1">
-        <v>45365</v>
-      </c>
-      <c r="F38" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>88</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1</v>
-      </c>
-      <c r="L38" s="2">
-        <v>1</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2">
-        <v>0</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-      <c r="P38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2">
-        <v>0</v>
-      </c>
-      <c r="S38" t="s">
-        <v>78</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
@@ -7284,7 +7290,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
@@ -7297,31 +7303,33 @@
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
       <c r="AM38" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN38" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>0</v>
+      </c>
       <c r="AO38" s="2"/>
       <c r="AP38" s="2">
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>45399</v>
+        <v>45096</v>
       </c>
       <c r="AR38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2">
         <v>2</v>
       </c>
       <c r="AV38" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="2">
         <v>1</v>
@@ -7330,10 +7338,10 @@
         <v>0</v>
       </c>
       <c r="AZ38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB38" s="2">
         <v>0</v>
@@ -7398,31 +7406,31 @@
         <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="1">
-        <v>45365</v>
+        <v>45260</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="2">
         <v>0</v>
@@ -7440,37 +7448,41 @@
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="2">
-        <v>1</v>
-      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
+      <c r="Z39" s="2">
+        <v>1</v>
+      </c>
       <c r="AA39" s="2"/>
       <c r="AB39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
+      <c r="AD39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>1</v>
+      </c>
       <c r="AF39" s="2"/>
-      <c r="AG39" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
+      <c r="AI39" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
@@ -7483,17 +7495,17 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>45399</v>
+        <v>45316</v>
       </c>
       <c r="AR39" s="2">
         <v>1</v>
       </c>
       <c r="AS39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV39" s="2">
         <v>1</v>
@@ -7502,13 +7514,13 @@
         <v>0</v>
       </c>
       <c r="AX39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="2">
         <v>0</v>
@@ -7547,10 +7559,10 @@
         <v>0</v>
       </c>
       <c r="BM39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO39" t="s">
         <v>175</v>
@@ -7576,10 +7588,10 @@
         <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="1">
-        <v>45354</v>
+        <v>45034</v>
       </c>
       <c r="F40" t="s">
         <v>81</v>
@@ -7588,7 +7600,7 @@
         <v>81</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
         <v>88</v>
@@ -7600,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -7621,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T40" s="2">
         <v>0</v>
@@ -7638,9 +7650,11 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
@@ -7651,15 +7665,17 @@
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN40" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>0</v>
+      </c>
       <c r="AO40" s="2"/>
       <c r="AP40" s="2">
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>45370</v>
+        <v>45054</v>
       </c>
       <c r="AR40" s="2">
         <v>1</v>
@@ -7669,10 +7685,10 @@
       </c>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV40" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW40" s="2">
         <v>0</v>
@@ -7681,13 +7697,13 @@
         <v>1</v>
       </c>
       <c r="AY40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="2">
         <v>1</v>
       </c>
       <c r="BA40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB40" s="2">
         <v>0</v>
@@ -7755,19 +7771,19 @@
         <v>78</v>
       </c>
       <c r="E41" s="1">
-        <v>45403</v>
+        <v>45354</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -7797,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
@@ -7814,7 +7830,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
@@ -7827,15 +7843,17 @@
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN41" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>0</v>
+      </c>
       <c r="AO41" s="2"/>
       <c r="AP41" s="2">
         <v>0</v>
       </c>
       <c r="AQ41" s="1">
-        <v>45420</v>
+        <v>45394</v>
       </c>
       <c r="AR41" s="2">
         <v>1</v>
@@ -7845,10 +7863,10 @@
       </c>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV41" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW41" s="2">
         <v>1</v>
@@ -7869,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="BC41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD41" s="2">
         <v>0</v>
@@ -7928,10 +7946,10 @@
         <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" s="1">
-        <v>45041</v>
+        <v>45270</v>
       </c>
       <c r="F42" t="s">
         <v>81</v>
@@ -7943,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -7952,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="2">
         <v>0</v>
@@ -7973,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
@@ -7990,7 +8008,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
@@ -8003,17 +8021,15 @@
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
       <c r="AM42" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN42" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
       <c r="AP42" s="2">
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>45062</v>
+        <v>45308</v>
       </c>
       <c r="AR42" s="2">
         <v>1</v>
@@ -8023,11 +8039,11 @@
       </c>
       <c r="AT42" s="2"/>
       <c r="AU42" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV42" s="2">
         <v>3</v>
       </c>
-      <c r="AV42" s="2">
-        <v>2</v>
-      </c>
       <c r="AW42" s="2">
         <v>1</v>
       </c>
@@ -8035,10 +8051,10 @@
         <v>1</v>
       </c>
       <c r="AY42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA42" s="2">
         <v>0</v>
@@ -8106,84 +8122,80 @@
         <v>75</v>
       </c>
       <c r="D43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45329</v>
+      </c>
+      <c r="F43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="1">
-        <v>45260</v>
-      </c>
-      <c r="F43" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" s="2">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>92</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0</v>
-      </c>
-      <c r="P43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0</v>
-      </c>
-      <c r="R43" s="2">
-        <v>1</v>
-      </c>
-      <c r="S43" t="s">
-        <v>109</v>
-      </c>
       <c r="T43" s="2">
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
+      <c r="X43" s="2">
+        <v>1</v>
+      </c>
       <c r="Y43" s="2"/>
-      <c r="Z43" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AC43" s="2"/>
-      <c r="AD43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
-      <c r="AI43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2">
+        <v>1</v>
+      </c>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" t="s">
@@ -8195,32 +8207,32 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>45316</v>
+        <v>45369</v>
       </c>
       <c r="AR43" s="2">
         <v>1</v>
       </c>
       <c r="AS43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43" s="2"/>
       <c r="AU43" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA43" s="2">
         <v>0</v>
@@ -8259,10 +8271,10 @@
         <v>0</v>
       </c>
       <c r="BM43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO43" t="s">
         <v>175</v>
@@ -8291,7 +8303,7 @@
         <v>77</v>
       </c>
       <c r="E44" s="1">
-        <v>45354</v>
+        <v>45366</v>
       </c>
       <c r="F44" t="s">
         <v>81</v>
@@ -8303,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -8333,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T44" s="2">
         <v>0</v>
@@ -8350,7 +8362,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
@@ -8371,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>45369</v>
+        <v>45421</v>
       </c>
       <c r="AR44" s="2">
         <v>1</v>
@@ -8381,10 +8393,10 @@
       </c>
       <c r="AT44" s="2"/>
       <c r="AU44" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV44" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW44" s="2">
         <v>1</v>
@@ -8393,10 +8405,10 @@
         <v>1</v>
       </c>
       <c r="AY44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="2">
         <v>0</v>
@@ -8464,10 +8476,10 @@
         <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E45" s="1">
-        <v>45069</v>
+        <v>45354</v>
       </c>
       <c r="F45" t="s">
         <v>82</v>
@@ -8479,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -8509,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T45" s="2">
         <v>0</v>
@@ -8526,7 +8538,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
@@ -8539,33 +8551,31 @@
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN45" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
       <c r="AP45" s="2">
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>45089</v>
+        <v>45370</v>
       </c>
       <c r="AR45" s="2">
         <v>1</v>
       </c>
       <c r="AS45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV45" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX45" s="2">
         <v>1</v>
@@ -8642,22 +8652,22 @@
         <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" s="1">
-        <v>45315</v>
+        <v>45312</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -8669,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
@@ -8678,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="2">
         <v>0</v>
@@ -8687,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="T46" s="2">
         <v>0</v>
@@ -8704,10 +8714,12 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
+      <c r="AD46" s="2">
+        <v>1</v>
+      </c>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
@@ -8725,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>45336</v>
+        <v>45316</v>
       </c>
       <c r="AR46" s="2">
         <v>1</v>
@@ -8735,10 +8747,10 @@
       </c>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AV46" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW46" s="2">
         <v>0</v>
@@ -8747,10 +8759,10 @@
         <v>1</v>
       </c>
       <c r="AY46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="2">
         <v>0</v>
@@ -8762,13 +8774,13 @@
         <v>0</v>
       </c>
       <c r="BD46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG46" s="2">
         <v>0</v>
@@ -8818,52 +8830,52 @@
         <v>75</v>
       </c>
       <c r="D47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45263</v>
+      </c>
+      <c r="F47" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>88</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
+      <c r="S47" t="s">
         <v>77</v>
-      </c>
-      <c r="E47" s="1">
-        <v>45252</v>
-      </c>
-      <c r="F47" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" t="s">
-        <v>82</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>90</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2">
-        <v>1</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0</v>
-      </c>
-      <c r="S47" t="s">
-        <v>78</v>
       </c>
       <c r="T47" s="2">
         <v>0</v>
@@ -8880,7 +8892,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
@@ -8893,17 +8905,15 @@
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
       <c r="AM47" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN47" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2">
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>45261</v>
+        <v>45294</v>
       </c>
       <c r="AR47" s="2">
         <v>1</v>
@@ -8913,7 +8923,7 @@
       </c>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV47" s="2">
         <v>1</v>
@@ -8996,52 +9006,52 @@
         <v>75</v>
       </c>
       <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45270</v>
+      </c>
+      <c r="F48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>89</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2">
+        <v>0</v>
+      </c>
+      <c r="S48" t="s">
         <v>77</v>
-      </c>
-      <c r="E48" s="1">
-        <v>45252</v>
-      </c>
-      <c r="F48" t="s">
-        <v>82</v>
-      </c>
-      <c r="G48" t="s">
-        <v>82</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-      <c r="I48" t="s">
-        <v>88</v>
-      </c>
-      <c r="J48" s="2">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2">
-        <v>1</v>
-      </c>
-      <c r="L48" s="2">
-        <v>1</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0</v>
-      </c>
-      <c r="P48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0</v>
-      </c>
-      <c r="R48" s="2">
-        <v>0</v>
-      </c>
-      <c r="S48" t="s">
-        <v>78</v>
       </c>
       <c r="T48" s="2">
         <v>0</v>
@@ -9058,7 +9068,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
@@ -9079,20 +9089,20 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>45260</v>
+        <v>45308</v>
       </c>
       <c r="AR48" s="2">
         <v>1</v>
       </c>
       <c r="AS48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="2"/>
       <c r="AU48" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV48" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW48" s="2">
         <v>1</v>
@@ -9172,10 +9182,10 @@
         <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F49" t="s">
         <v>82</v>
@@ -9187,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -9196,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -9217,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T49" s="2">
         <v>0</v>
@@ -9234,7 +9244,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
@@ -9255,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>45062</v>
+        <v>45369</v>
       </c>
       <c r="AR49" s="2">
         <v>1</v>
@@ -9295,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="BE49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF49" s="2">
         <v>0</v>
@@ -9348,28 +9358,28 @@
         <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E50" s="1">
-        <v>45252</v>
+        <v>45403</v>
       </c>
       <c r="F50" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2">
         <v>0</v>
@@ -9378,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="2">
         <v>0</v>
@@ -9393,51 +9403,47 @@
         <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="T50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
+      <c r="W50" s="2">
+        <v>1</v>
+      </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AC50" s="2"/>
-      <c r="AD50" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE50" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
       <c r="AK50" s="2"/>
-      <c r="AL50" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL50" s="2"/>
       <c r="AM50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2">
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>45259</v>
+        <v>45415</v>
       </c>
       <c r="AR50" s="2">
         <v>1</v>
@@ -9447,16 +9453,16 @@
       </c>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY50" s="2">
         <v>0</v>
@@ -9530,19 +9536,19 @@
         <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51" s="1">
-        <v>45319</v>
+        <v>45041</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
         <v>88</v>
@@ -9554,7 +9560,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="2">
         <v>0</v>
@@ -9575,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T51" s="2">
         <v>0</v>
@@ -9592,7 +9598,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
@@ -9605,17 +9611,17 @@
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
       <c r="AM51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO51" s="2"/>
       <c r="AP51" s="2">
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>45336</v>
+        <v>45062</v>
       </c>
       <c r="AR51" s="2">
         <v>1</v>
@@ -9625,10 +9631,10 @@
       </c>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV51" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW51" s="2">
         <v>1</v>
@@ -9637,10 +9643,10 @@
         <v>1</v>
       </c>
       <c r="AY51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="2">
         <v>0</v>
@@ -9658,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG51" s="2">
         <v>0</v>
@@ -9708,19 +9714,19 @@
         <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" s="1">
-        <v>45354</v>
+        <v>45034</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="s">
         <v>88</v>
@@ -9732,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
@@ -9753,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
@@ -9770,9 +9776,11 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>0</v>
+      </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
@@ -9783,15 +9791,17 @@
       <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
       <c r="AM52" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN52" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN52" s="2">
+        <v>0</v>
+      </c>
       <c r="AO52" s="2"/>
       <c r="AP52" s="2">
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <v>45369</v>
+        <v>45050</v>
       </c>
       <c r="AR52" s="2">
         <v>1</v>
@@ -9813,10 +9823,10 @@
         <v>1</v>
       </c>
       <c r="AY52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA52" s="2">
         <v>0</v>
@@ -9887,7 +9897,7 @@
         <v>77</v>
       </c>
       <c r="E53" s="1">
-        <v>45271</v>
+        <v>45404</v>
       </c>
       <c r="F53" t="s">
         <v>82</v>
@@ -9896,10 +9906,10 @@
         <v>82</v>
       </c>
       <c r="H53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -9929,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T53" s="2">
         <v>0</v>
@@ -9946,12 +9956,10 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="AC53" s="2"/>
-      <c r="AD53" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
@@ -9961,30 +9969,28 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN53" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2">
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>45294</v>
+        <v>45420</v>
       </c>
       <c r="AR53" s="2">
         <v>1</v>
       </c>
       <c r="AS53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV53" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW53" s="2">
         <v>1</v>
@@ -9993,10 +9999,10 @@
         <v>1</v>
       </c>
       <c r="AY53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="2">
         <v>0</v>
@@ -10067,7 +10073,7 @@
         <v>78</v>
       </c>
       <c r="E54" s="1">
-        <v>45404</v>
+        <v>45244</v>
       </c>
       <c r="F54" t="s">
         <v>81</v>
@@ -10079,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -10088,7 +10094,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="2">
         <v>0</v>
@@ -10109,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
@@ -10126,7 +10132,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
@@ -10147,17 +10153,17 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>45420</v>
+        <v>45260</v>
       </c>
       <c r="AR54" s="2">
         <v>1</v>
       </c>
       <c r="AS54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV54" s="2">
         <v>2</v>
@@ -10169,10 +10175,10 @@
         <v>1</v>
       </c>
       <c r="AY54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA54" s="2">
         <v>0</v>
@@ -10240,10 +10246,10 @@
         <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E55" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F55" t="s">
         <v>82</v>
@@ -10255,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -10264,7 +10270,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="2">
         <v>0</v>
@@ -10285,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T55" s="2">
         <v>0</v>
@@ -10302,7 +10308,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
@@ -10323,20 +10329,20 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>45077</v>
+        <v>45369</v>
       </c>
       <c r="AR55" s="2">
         <v>1</v>
       </c>
       <c r="AS55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="2"/>
       <c r="AU55" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AV55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW55" s="2">
         <v>1</v>
@@ -10345,13 +10351,13 @@
         <v>1</v>
       </c>
       <c r="AY55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ55" s="2">
         <v>1</v>
       </c>
       <c r="BA55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="2">
         <v>0</v>
@@ -10363,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="2">
         <v>0</v>
@@ -10378,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="BJ55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK55" s="2">
         <v>0</v>
@@ -10416,34 +10422,34 @@
         <v>75</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E56" s="1">
-        <v>45263</v>
+        <v>45045</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="2">
         <v>0</v>
@@ -10452,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="2">
         <v>0</v>
@@ -10461,13 +10467,13 @@
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="T56" s="2">
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
@@ -10478,7 +10484,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
@@ -10487,9 +10493,7 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
-      <c r="AJ56" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ56" s="2"/>
       <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
       <c r="AM56" t="s">
@@ -10503,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>45294</v>
+        <v>45062</v>
       </c>
       <c r="AR56" s="2">
         <v>1</v>
@@ -10513,25 +10517,25 @@
       </c>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY56" s="2">
         <v>0</v>
       </c>
       <c r="AZ56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="2">
         <v>0</v>
@@ -10540,10 +10544,10 @@
         <v>0</v>
       </c>
       <c r="BD56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF56" s="2">
         <v>0</v>
@@ -10596,22 +10600,22 @@
         <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E57" s="1">
-        <v>45069</v>
+        <v>45060</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -10620,7 +10624,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
@@ -10641,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
@@ -10658,12 +10662,10 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AC57" s="2"/>
-      <c r="AD57" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
@@ -10687,11 +10689,11 @@
         <v>1</v>
       </c>
       <c r="AS57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV57" s="2">
         <v>2</v>
@@ -10703,13 +10705,13 @@
         <v>1</v>
       </c>
       <c r="AY57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ57" s="2">
         <v>1</v>
       </c>
       <c r="BA57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB57" s="2">
         <v>0</v>
@@ -10774,69 +10776,69 @@
         <v>75</v>
       </c>
       <c r="D58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45390</v>
+      </c>
+      <c r="F58" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" t="s">
+        <v>82</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>96</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2">
+        <v>1</v>
+      </c>
+      <c r="S58" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="1">
-        <v>45354</v>
-      </c>
-      <c r="F58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s">
-        <v>81</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" t="s">
-        <v>88</v>
-      </c>
-      <c r="J58" s="2">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2">
-        <v>1</v>
-      </c>
-      <c r="L58" s="2">
-        <v>1</v>
-      </c>
-      <c r="M58" s="2">
-        <v>0</v>
-      </c>
-      <c r="N58" s="2">
-        <v>0</v>
-      </c>
-      <c r="O58" s="2">
-        <v>0</v>
-      </c>
-      <c r="P58" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2">
-        <v>0</v>
-      </c>
-      <c r="S58" t="s">
-        <v>112</v>
-      </c>
       <c r="T58" s="2">
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
-      <c r="X58" s="2">
-        <v>1</v>
-      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
+      <c r="Z58" s="2">
+        <v>1</v>
+      </c>
       <c r="AA58" s="2"/>
       <c r="AB58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
@@ -10849,15 +10851,17 @@
       <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
       <c r="AM58" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN58" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN58" s="2">
+        <v>0</v>
+      </c>
       <c r="AO58" s="2"/>
       <c r="AP58" s="2">
         <v>0</v>
       </c>
       <c r="AQ58" s="1">
-        <v>45369</v>
+        <v>45413</v>
       </c>
       <c r="AR58" s="2">
         <v>1</v>
@@ -10867,22 +10871,22 @@
       </c>
       <c r="AT58" s="2"/>
       <c r="AU58" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV58" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="2">
         <v>0</v>
@@ -10921,10 +10925,10 @@
         <v>0</v>
       </c>
       <c r="BM58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO58" t="s">
         <v>175</v>
@@ -10950,10 +10954,10 @@
         <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59" s="1">
-        <v>45069</v>
+        <v>45298</v>
       </c>
       <c r="F59" t="s">
         <v>82</v>
@@ -10965,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -10995,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T59" s="2">
         <v>0</v>
@@ -11012,7 +11016,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
@@ -11035,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>45096</v>
+        <v>45316</v>
       </c>
       <c r="AR59" s="2">
         <v>1</v>
@@ -11048,7 +11052,7 @@
         <v>5</v>
       </c>
       <c r="AV59" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW59" s="2">
         <v>1</v>
@@ -11090,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="BJ59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK59" s="2">
         <v>0</v>
@@ -11128,10 +11132,10 @@
         <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E60" s="1">
-        <v>45029</v>
+        <v>45069</v>
       </c>
       <c r="F60" t="s">
         <v>81</v>
@@ -11140,22 +11144,22 @@
         <v>81</v>
       </c>
       <c r="H60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="2">
         <v>0</v>
       </c>
       <c r="M60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" s="2">
         <v>0</v>
@@ -11164,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="2">
         <v>0</v>
@@ -11173,13 +11177,13 @@
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="T60" s="2">
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
@@ -11190,10 +11194,12 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
+      <c r="AD60" s="2">
+        <v>1</v>
+      </c>
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
@@ -11203,42 +11209,40 @@
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
       <c r="AM60" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN60" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
       <c r="AP60" s="2">
         <v>0</v>
       </c>
       <c r="AQ60" s="1">
-        <v>45050</v>
+        <v>45089</v>
       </c>
       <c r="AR60" s="2">
         <v>1</v>
       </c>
       <c r="AS60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="2"/>
       <c r="AU60" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA60" s="2">
         <v>0</v>
@@ -11250,10 +11254,10 @@
         <v>0</v>
       </c>
       <c r="BD60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF60" s="2">
         <v>0</v>
@@ -11306,52 +11310,52 @@
         <v>75</v>
       </c>
       <c r="D61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45252</v>
+      </c>
+      <c r="F61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>0</v>
+      </c>
+      <c r="R61" s="2">
+        <v>0</v>
+      </c>
+      <c r="S61" t="s">
         <v>77</v>
-      </c>
-      <c r="E61" s="1">
-        <v>45270</v>
-      </c>
-      <c r="F61" t="s">
-        <v>82</v>
-      </c>
-      <c r="G61" t="s">
-        <v>82</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" t="s">
-        <v>88</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2">
-        <v>1</v>
-      </c>
-      <c r="L61" s="2">
-        <v>1</v>
-      </c>
-      <c r="M61" s="2">
-        <v>0</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0</v>
-      </c>
-      <c r="O61" s="2">
-        <v>0</v>
-      </c>
-      <c r="P61" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>0</v>
-      </c>
-      <c r="R61" s="2">
-        <v>0</v>
-      </c>
-      <c r="S61" t="s">
-        <v>78</v>
       </c>
       <c r="T61" s="2">
         <v>0</v>
@@ -11368,7 +11372,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
@@ -11389,23 +11393,23 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="1">
-        <v>45308</v>
+        <v>45260</v>
       </c>
       <c r="AR61" s="2">
         <v>1</v>
       </c>
       <c r="AS61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="2"/>
       <c r="AU61" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV61" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX61" s="2">
         <v>1</v>
@@ -11482,10 +11486,10 @@
         <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E62" s="1">
-        <v>45390</v>
+        <v>45252</v>
       </c>
       <c r="F62" t="s">
         <v>81</v>
@@ -11497,13 +11501,13 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="2">
         <v>0</v>
@@ -11524,27 +11528,27 @@
         <v>0</v>
       </c>
       <c r="R62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T62" s="2">
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
+      <c r="X62" s="2">
+        <v>1</v>
+      </c>
       <c r="Y62" s="2"/>
-      <c r="Z62" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
@@ -11567,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="AQ62" s="1">
-        <v>45413</v>
+        <v>45261</v>
       </c>
       <c r="AR62" s="2">
         <v>1</v>
@@ -11583,10 +11587,10 @@
         <v>1</v>
       </c>
       <c r="AW62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY62" s="2">
         <v>0</v>
@@ -11631,10 +11635,10 @@
         <v>0</v>
       </c>
       <c r="BM62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO62" t="s">
         <v>175</v>
@@ -11660,19 +11664,19 @@
         <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E63" s="1">
-        <v>45263</v>
+        <v>45300</v>
       </c>
       <c r="F63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
         <v>88</v>
@@ -11684,7 +11688,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" s="2">
         <v>0</v>
@@ -11705,33 +11709,35 @@
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T63" s="2">
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
+      <c r="X63" s="2">
+        <v>1</v>
+      </c>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AC63" s="2"/>
-      <c r="AD63" s="2"/>
+      <c r="AD63" s="2">
+        <v>1</v>
+      </c>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
-      <c r="AJ63" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ63" s="2"/>
       <c r="AK63" s="2"/>
       <c r="AL63" s="2"/>
       <c r="AM63" t="s">
@@ -11743,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>45294</v>
+        <v>45317</v>
       </c>
       <c r="AR63" s="2">
         <v>1</v>
@@ -11753,10 +11759,10 @@
       </c>
       <c r="AT63" s="2"/>
       <c r="AU63" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV63" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW63" s="2">
         <v>1</v>
@@ -11836,71 +11842,71 @@
         <v>75</v>
       </c>
       <c r="D64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45319</v>
+      </c>
+      <c r="F64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G64" t="s">
+        <v>82</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0</v>
+      </c>
+      <c r="R64" s="2">
+        <v>0</v>
+      </c>
+      <c r="S64" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="1">
-        <v>45286</v>
-      </c>
-      <c r="F64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s">
-        <v>78</v>
-      </c>
-      <c r="H64" s="2">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>88</v>
-      </c>
-      <c r="J64" s="2">
-        <v>1</v>
-      </c>
-      <c r="K64" s="2">
-        <v>1</v>
-      </c>
-      <c r="L64" s="2">
-        <v>1</v>
-      </c>
-      <c r="M64" s="2">
-        <v>0</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0</v>
-      </c>
-      <c r="O64" s="2">
-        <v>0</v>
-      </c>
-      <c r="P64" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>0</v>
-      </c>
-      <c r="R64" s="2">
-        <v>0</v>
-      </c>
-      <c r="S64" t="s">
-        <v>78</v>
-      </c>
       <c r="T64" s="2">
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
+      <c r="X64" s="2">
+        <v>1</v>
+      </c>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
       <c r="AB64" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC64" s="2">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
@@ -11921,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="1">
-        <v>45308</v>
+        <v>45336</v>
       </c>
       <c r="AR64" s="2">
         <v>1</v>
@@ -11931,13 +11937,13 @@
       </c>
       <c r="AT64" s="2"/>
       <c r="AU64" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV64" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX64" s="2">
         <v>1</v>
@@ -11964,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="BF64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG64" s="2">
         <v>0</v>
@@ -12014,80 +12020,80 @@
         <v>75</v>
       </c>
       <c r="D65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45263</v>
+      </c>
+      <c r="F65" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>0</v>
+      </c>
+      <c r="R65" s="2">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="1">
-        <v>45333</v>
-      </c>
-      <c r="F65" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
-      <c r="H65" s="2">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
-        <v>98</v>
-      </c>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2">
-        <v>0</v>
-      </c>
-      <c r="M65" s="2">
-        <v>1</v>
-      </c>
-      <c r="N65" s="2">
-        <v>0</v>
-      </c>
-      <c r="O65" s="2">
-        <v>1</v>
-      </c>
-      <c r="P65" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>0</v>
-      </c>
-      <c r="R65" s="2">
-        <v>0</v>
-      </c>
-      <c r="S65" t="s">
-        <v>109</v>
-      </c>
       <c r="T65" s="2">
         <v>0</v>
       </c>
       <c r="U65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
+      <c r="X65" s="2">
+        <v>1</v>
+      </c>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC65" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
-      <c r="AJ65" s="2"/>
+      <c r="AJ65" s="2">
+        <v>1</v>
+      </c>
       <c r="AK65" s="2"/>
       <c r="AL65" s="2"/>
       <c r="AM65" t="s">
@@ -12101,41 +12107,41 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="1">
-        <v>45364</v>
+        <v>45294</v>
       </c>
       <c r="AR65" s="2">
         <v>1</v>
       </c>
       <c r="AS65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT65" s="2"/>
       <c r="AU65" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV65" s="2">
         <v>2</v>
       </c>
       <c r="AW65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY65" s="2">
         <v>0</v>
       </c>
       <c r="AZ65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD65" s="2">
         <v>0</v>
@@ -12194,10 +12200,10 @@
         <v>75</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E66" s="1">
-        <v>45034</v>
+        <v>45354</v>
       </c>
       <c r="F66" t="s">
         <v>82</v>
@@ -12206,10 +12212,10 @@
         <v>82</v>
       </c>
       <c r="H66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
@@ -12218,7 +12224,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="2">
         <v>0</v>
@@ -12239,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T66" s="2">
         <v>0</v>
@@ -12256,11 +12262,9 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
       <c r="AB66" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC66" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
@@ -12271,17 +12275,15 @@
       <c r="AK66" s="2"/>
       <c r="AL66" s="2"/>
       <c r="AM66" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN66" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN66" s="2"/>
       <c r="AO66" s="2"/>
       <c r="AP66" s="2">
         <v>0</v>
       </c>
       <c r="AQ66" s="1">
-        <v>45050</v>
+        <v>45369</v>
       </c>
       <c r="AR66" s="2">
         <v>1</v>
@@ -12291,7 +12293,7 @@
       </c>
       <c r="AT66" s="2"/>
       <c r="AU66" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV66" s="2">
         <v>3</v>
@@ -12303,10 +12305,10 @@
         <v>1</v>
       </c>
       <c r="AY66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA66" s="2">
         <v>0</v>
@@ -12374,69 +12376,69 @@
         <v>75</v>
       </c>
       <c r="D67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="1">
+        <v>45069</v>
+      </c>
+      <c r="F67" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0</v>
+      </c>
+      <c r="R67" s="2">
+        <v>0</v>
+      </c>
+      <c r="S67" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="1">
-        <v>45403</v>
-      </c>
-      <c r="F67" t="s">
-        <v>84</v>
-      </c>
-      <c r="G67" t="s">
-        <v>84</v>
-      </c>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
-      <c r="I67" t="s">
-        <v>96</v>
-      </c>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2">
-        <v>0</v>
-      </c>
-      <c r="M67" s="2">
-        <v>0</v>
-      </c>
-      <c r="N67" s="2">
-        <v>1</v>
-      </c>
-      <c r="O67" s="2">
-        <v>0</v>
-      </c>
-      <c r="P67" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>0</v>
-      </c>
-      <c r="R67" s="2">
-        <v>0</v>
-      </c>
-      <c r="S67" t="s">
-        <v>113</v>
-      </c>
       <c r="T67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="V67" s="2"/>
-      <c r="W67" s="2">
-        <v>1</v>
-      </c>
-      <c r="X67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2">
+        <v>1</v>
+      </c>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
       <c r="AB67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
@@ -12459,32 +12461,32 @@
         <v>0</v>
       </c>
       <c r="AQ67" s="1">
-        <v>45415</v>
+        <v>45096</v>
       </c>
       <c r="AR67" s="2">
         <v>1</v>
       </c>
       <c r="AS67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT67" s="2"/>
       <c r="AU67" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV67" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA67" s="2">
         <v>0</v>
@@ -12552,10 +12554,10 @@
         <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E68" s="1">
-        <v>45390</v>
+        <v>45041</v>
       </c>
       <c r="F68" t="s">
         <v>81</v>
@@ -12564,22 +12566,22 @@
         <v>81</v>
       </c>
       <c r="H68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="2">
         <v>0</v>
       </c>
       <c r="M68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" s="2">
         <v>0</v>
@@ -12588,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="2">
         <v>0</v>
@@ -12597,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="S68" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="T68" s="2">
         <v>0</v>
@@ -12614,11 +12616,9 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
       <c r="AB68" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC68" s="2">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
@@ -12629,45 +12629,43 @@
       <c r="AK68" s="2"/>
       <c r="AL68" s="2"/>
       <c r="AM68" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN68" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN68" s="2"/>
       <c r="AO68" s="2"/>
       <c r="AP68" s="2">
         <v>0</v>
       </c>
       <c r="AQ68" s="1">
-        <v>45401</v>
+        <v>45077</v>
       </c>
       <c r="AR68" s="2">
         <v>1</v>
       </c>
       <c r="AS68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="2"/>
       <c r="AU68" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AV68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY68" s="2">
         <v>0</v>
       </c>
       <c r="AZ68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB68" s="2">
         <v>0</v>
@@ -12676,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BD68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE68" s="2">
         <v>1</v>
@@ -12694,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="BJ68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK68" s="2">
         <v>0</v>
@@ -12732,52 +12730,52 @@
         <v>75</v>
       </c>
       <c r="D69" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45365</v>
+      </c>
+      <c r="F69" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>89</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>0</v>
+      </c>
+      <c r="R69" s="2">
+        <v>0</v>
+      </c>
+      <c r="S69" t="s">
         <v>77</v>
-      </c>
-      <c r="E69" s="1">
-        <v>45244</v>
-      </c>
-      <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s">
-        <v>82</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0</v>
-      </c>
-      <c r="I69" t="s">
-        <v>88</v>
-      </c>
-      <c r="J69" s="2">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2">
-        <v>1</v>
-      </c>
-      <c r="L69" s="2">
-        <v>1</v>
-      </c>
-      <c r="M69" s="2">
-        <v>0</v>
-      </c>
-      <c r="N69" s="2">
-        <v>0</v>
-      </c>
-      <c r="O69" s="2">
-        <v>0</v>
-      </c>
-      <c r="P69" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>0</v>
-      </c>
-      <c r="R69" s="2">
-        <v>0</v>
-      </c>
-      <c r="S69" t="s">
-        <v>78</v>
       </c>
       <c r="T69" s="2">
         <v>0</v>
@@ -12794,7 +12792,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
       <c r="AB69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
@@ -12815,17 +12813,17 @@
         <v>0</v>
       </c>
       <c r="AQ69" s="1">
-        <v>45260</v>
+        <v>45399</v>
       </c>
       <c r="AR69" s="2">
         <v>1</v>
       </c>
       <c r="AS69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="2"/>
       <c r="AU69" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV69" s="2">
         <v>2</v>
@@ -12837,10 +12835,10 @@
         <v>1</v>
       </c>
       <c r="AY69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA69" s="2">
         <v>0</v>
@@ -12908,10 +12906,10 @@
         <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E70" s="1">
-        <v>45354</v>
+        <v>45298</v>
       </c>
       <c r="F70" t="s">
         <v>82</v>
@@ -12920,10 +12918,10 @@
         <v>82</v>
       </c>
       <c r="H70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -12932,10 +12930,10 @@
         <v>1</v>
       </c>
       <c r="L70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="2">
         <v>0</v>
@@ -12944,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="2">
         <v>0</v>
@@ -12953,24 +12951,24 @@
         <v>0</v>
       </c>
       <c r="S70" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="T70" s="2">
         <v>0</v>
       </c>
       <c r="U70" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
-      <c r="X70" s="2">
-        <v>1</v>
-      </c>
+      <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
+      <c r="Z70" s="2">
+        <v>1</v>
+      </c>
       <c r="AA70" s="2"/>
       <c r="AB70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
@@ -12983,15 +12981,17 @@
       <c r="AK70" s="2"/>
       <c r="AL70" s="2"/>
       <c r="AM70" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN70" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="AN70" s="2">
+        <v>1</v>
+      </c>
       <c r="AO70" s="2"/>
       <c r="AP70" s="2">
         <v>0</v>
       </c>
       <c r="AQ70" s="1">
-        <v>45370</v>
+        <v>45317</v>
       </c>
       <c r="AR70" s="2">
         <v>1</v>
@@ -13001,22 +13001,22 @@
       </c>
       <c r="AT70" s="2"/>
       <c r="AU70" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA70" s="2">
         <v>0</v>
@@ -13028,10 +13028,10 @@
         <v>0</v>
       </c>
       <c r="BD70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF70" s="2">
         <v>0</v>
@@ -13084,22 +13084,22 @@
         <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E71" s="1">
         <v>45326</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
@@ -13129,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T71" s="2">
         <v>0</v>
@@ -13146,7 +13146,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
       <c r="AB71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>

--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -18,213 +18,213 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600687</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>600822</t>
+  </si>
+  <si>
+    <t>600947</t>
+  </si>
+  <si>
+    <t>600310</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>600758</t>
+  </si>
+  <si>
+    <t>600812</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>600882</t>
+  </si>
+  <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
+    <t>600898</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>600326</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
     <t>600865</t>
   </si>
   <si>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>600398</t>
+  </si>
+  <si>
+    <t>600366</t>
+  </si>
+  <si>
+    <t>600775</t>
+  </si>
+  <si>
+    <t>600919</t>
+  </si>
+  <si>
+    <t>600614</t>
+  </si>
+  <si>
+    <t>600856</t>
+  </si>
+  <si>
+    <t>600727</t>
+  </si>
+  <si>
+    <t>600360</t>
+  </si>
+  <si>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>600699</t>
+  </si>
+  <si>
+    <t>600381</t>
+  </si>
+  <si>
+    <t>600374</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
+    <t>500025</t>
+  </si>
+  <si>
+    <t>600611</t>
+  </si>
+  <si>
+    <t>600978</t>
+  </si>
+  <si>
+    <t>500005</t>
+  </si>
+  <si>
+    <t>600380</t>
+  </si>
+  <si>
     <t>600346</t>
   </si>
   <si>
-    <t>600780</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>600309</t>
+    <t>500906</t>
+  </si>
+  <si>
+    <t>600886</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
+    <t>600640</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
+    <t>600896</t>
+  </si>
+  <si>
+    <t>600853</t>
+  </si>
+  <si>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>400238</t>
+  </si>
+  <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
+    <t>600996</t>
+  </si>
+  <si>
+    <t>600604</t>
+  </si>
+  <si>
+    <t>600672</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>500454</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>600961</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>600383</t>
   </si>
   <si>
     <t>400233</t>
   </si>
   <si>
-    <t>600610</t>
-  </si>
-  <si>
-    <t>500951</t>
-  </si>
-  <si>
-    <t>600947</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>600687</t>
-  </si>
-  <si>
-    <t>600886</t>
-  </si>
-  <si>
-    <t>600758</t>
-  </si>
-  <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>600640</t>
-  </si>
-  <si>
-    <t>600396</t>
-  </si>
-  <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>600602</t>
-  </si>
-  <si>
-    <t>600982</t>
-  </si>
-  <si>
-    <t>600856</t>
+    <t>500684</t>
   </si>
   <si>
     <t>600322</t>
   </si>
   <si>
-    <t>400224</t>
-  </si>
-  <si>
-    <t>600374</t>
-  </si>
-  <si>
-    <t>500221</t>
-  </si>
-  <si>
-    <t>600360</t>
-  </si>
-  <si>
-    <t>600898</t>
-  </si>
-  <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>600853</t>
-  </si>
-  <si>
-    <t>600919</t>
-  </si>
-  <si>
-    <t>600996</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>600604</t>
-  </si>
-  <si>
-    <t>400230</t>
-  </si>
-  <si>
-    <t>600961</t>
-  </si>
-  <si>
-    <t>600326</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>600822</t>
-  </si>
-  <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>600682</t>
-  </si>
-  <si>
-    <t>600398</t>
-  </si>
-  <si>
-    <t>600383</t>
-  </si>
-  <si>
-    <t>600611</t>
-  </si>
-  <si>
-    <t>600978</t>
-  </si>
-  <si>
-    <t>500901</t>
-  </si>
-  <si>
-    <t>400238</t>
-  </si>
-  <si>
-    <t>600896</t>
-  </si>
-  <si>
-    <t>600388</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>500355</t>
-  </si>
-  <si>
-    <t>500025</t>
-  </si>
-  <si>
-    <t>600882</t>
-  </si>
-  <si>
-    <t>600703</t>
-  </si>
-  <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>600310</t>
-  </si>
-  <si>
-    <t>600366</t>
-  </si>
-  <si>
-    <t>600786</t>
-  </si>
-  <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>600614</t>
-  </si>
-  <si>
-    <t>500454</t>
-  </si>
-  <si>
-    <t>500005</t>
-  </si>
-  <si>
-    <t>600812</t>
-  </si>
-  <si>
-    <t>600775</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -246,30 +246,30 @@
     <t>full_state</t>
   </si>
   <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>date_collect</t>
+  </si>
+  <si>
+    <t>sampletype</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>pill</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>date_collect</t>
-  </si>
-  <si>
-    <t>sampletype</t>
-  </si>
-  <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>pill</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -285,33 +285,33 @@
     <t>fentanyl; xylazine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>heroin</t>
+    <t>cocaine; fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; crack</t>
+  </si>
+  <si>
+    <t>benzodiazepine</t>
   </si>
   <si>
     <t>xylazine; fentanyl</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>benzodiazepine</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>cocaine; fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; crack</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -345,18 +345,18 @@
     <t>white</t>
   </si>
   <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
     <t>pink</t>
   </si>
   <si>
-    <t>gray</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -366,18 +366,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>rock; crystals</t>
   </si>
   <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>powder; chunky; rock</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -390,19 +390,22 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>unpleasant; hallucinations</t>
+  </si>
+  <si>
     <t>stronger</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>unpleasant; hallucinations</t>
+    <t>unpleasant</t>
   </si>
   <si>
     <t>sedating</t>
@@ -412,9 +415,6 @@
   </si>
   <si>
     <t>weird; sedating</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -635,10 +635,10 @@
         <v>76</v>
       </c>
       <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
       </c>
       <c r="G1" t="s">
         <v>85</v>
@@ -689,7 +689,7 @@
         <v>121</v>
       </c>
       <c r="W1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X1" t="s">
         <v>116</v>
@@ -698,7 +698,7 @@
         <v>122</v>
       </c>
       <c r="Z1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AA1" t="s">
         <v>123</v>
@@ -847,16 +847,16 @@
         <v>77</v>
       </c>
       <c r="E2" s="1">
-        <v>45403</v>
+        <v>45312</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>88</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
@@ -906,9 +906,11 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC2" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
@@ -919,42 +921,40 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2">
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>45419</v>
+        <v>45348</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
       </c>
       <c r="AS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1">
-        <v>45286</v>
+        <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1067,26 +1067,26 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
@@ -1097,33 +1097,31 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2">
         <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>45308</v>
+        <v>45336</v>
       </c>
       <c r="AR3" s="2">
         <v>1</v>
       </c>
       <c r="AS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -1200,40 +1198,40 @@
         <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1">
-        <v>45333</v>
+        <v>45366</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2">
         <v>0</v>
@@ -1245,28 +1243,26 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1277,36 +1273,34 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2">
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>45364</v>
+        <v>45421</v>
       </c>
       <c r="AR4" s="2">
         <v>1</v>
       </c>
       <c r="AS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
         <v>2</v>
       </c>
       <c r="AV4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
         <v>0</v>
@@ -1318,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="BB4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="2">
         <v>0</v>
@@ -1380,16 +1374,16 @@
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1">
-        <v>45263</v>
+        <v>45354</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1425,22 +1419,24 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
@@ -1449,13 +1445,11 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
@@ -1463,23 +1457,23 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>45294</v>
+        <v>45394</v>
       </c>
       <c r="AR5" s="2">
         <v>1</v>
       </c>
       <c r="AS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1556,10 +1550,10 @@
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1">
-        <v>45272</v>
+        <v>45252</v>
       </c>
       <c r="F6" t="s">
         <v>81</v>
@@ -1568,19 +1562,19 @@
         <v>81</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1601,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
@@ -1618,48 +1612,44 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
-      <c r="AH6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2">
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>45294</v>
+        <v>45260</v>
       </c>
       <c r="AR6" s="2">
         <v>1</v>
       </c>
       <c r="AS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1686,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1736,10 +1726,10 @@
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1">
-        <v>45034</v>
+        <v>45365</v>
       </c>
       <c r="F7" t="s">
         <v>81</v>
@@ -1748,10 +1738,10 @@
         <v>81</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1760,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1781,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
@@ -1798,11 +1788,9 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -1813,17 +1801,15 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2">
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>45050</v>
+        <v>45394</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
@@ -1833,10 +1819,10 @@
       </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="2">
         <v>1</v>
@@ -1845,10 +1831,10 @@
         <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -1916,28 +1902,28 @@
         <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1">
-        <v>45315</v>
+        <v>45272</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1961,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
@@ -1978,44 +1964,48 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
+      <c r="AH8" s="2">
+        <v>1</v>
+      </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN8" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>0</v>
+      </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2">
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>45336</v>
+        <v>45294</v>
       </c>
       <c r="AR8" s="2">
         <v>1</v>
       </c>
       <c r="AS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV8" s="2">
         <v>4</v>
       </c>
       <c r="AW8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -2092,22 +2082,22 @@
         <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1">
-        <v>45069</v>
+        <v>45349</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2116,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -2137,24 +2127,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="2">
-        <v>1</v>
-      </c>
+      <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -2167,27 +2155,25 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2">
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>45089</v>
+        <v>45369</v>
       </c>
       <c r="AR9" s="2">
         <v>1</v>
       </c>
       <c r="AS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV9" s="2">
         <v>3</v>
@@ -2217,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
         <v>0</v>
@@ -2270,16 +2256,16 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1">
-        <v>45354</v>
+        <v>45365</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -2315,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T10" s="2">
         <v>0</v>
@@ -2332,7 +2318,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -2345,7 +2331,7 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
@@ -2353,32 +2339,32 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>45394</v>
+        <v>45399</v>
       </c>
       <c r="AR10" s="2">
         <v>1</v>
       </c>
       <c r="AS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
         <v>2</v>
       </c>
       <c r="AV10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2446,16 +2432,16 @@
         <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1">
-        <v>45354</v>
+        <v>45298</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -2491,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
@@ -2508,7 +2494,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -2521,15 +2507,17 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN11" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>0</v>
+      </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2">
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>45369</v>
+        <v>45316</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
@@ -2539,7 +2527,7 @@
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV11" s="2">
         <v>3</v>
@@ -2584,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="BJ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK11" s="2">
         <v>0</v>
@@ -2622,31 +2610,31 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1">
-        <v>45354</v>
+        <v>45390</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -2664,27 +2652,27 @@
         <v>0</v>
       </c>
       <c r="R12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="2">
-        <v>1</v>
-      </c>
+      <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
+      <c r="Z12" s="2">
+        <v>1</v>
+      </c>
       <c r="AA12" s="2"/>
       <c r="AB12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -2697,40 +2685,42 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN12" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>0</v>
+      </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2">
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>45370</v>
+        <v>45413</v>
       </c>
       <c r="AR12" s="2">
         <v>1</v>
       </c>
       <c r="AS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -2769,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="BM12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO12" t="s">
         <v>175</v>
@@ -2798,16 +2788,16 @@
         <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="1">
-        <v>45340</v>
+        <v>45354</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -2843,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
@@ -2860,7 +2850,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
@@ -2873,11 +2863,9 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN13" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2">
         <v>0</v>
@@ -2889,11 +2877,11 @@
         <v>1</v>
       </c>
       <c r="AS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV13" s="2">
         <v>3</v>
@@ -2938,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="BJ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK13" s="2">
         <v>0</v>
@@ -2976,34 +2964,34 @@
         <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="1">
-        <v>45029</v>
+        <v>45354</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -3012,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3021,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -3038,7 +3026,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -3051,42 +3039,40 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN14" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2">
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>45050</v>
+        <v>45369</v>
       </c>
       <c r="AR14" s="2">
         <v>1</v>
       </c>
       <c r="AS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2">
         <v>4</v>
       </c>
       <c r="AV14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
@@ -3098,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
         <v>0</v>
@@ -3154,22 +3140,22 @@
         <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1">
-        <v>45354</v>
+        <v>45041</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -3178,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3199,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T15" s="2">
         <v>0</v>
@@ -3216,7 +3202,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
@@ -3229,15 +3215,17 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN15" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>0</v>
+      </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2">
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>45370</v>
+        <v>45062</v>
       </c>
       <c r="AR15" s="2">
         <v>1</v>
@@ -3247,10 +3235,10 @@
       </c>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW15" s="2">
         <v>1</v>
@@ -3259,10 +3247,10 @@
         <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
@@ -3330,22 +3318,22 @@
         <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1">
-        <v>45312</v>
+        <v>45403</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -3354,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3375,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
@@ -3392,11 +3380,9 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -3407,7 +3393,7 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
@@ -3415,20 +3401,20 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>45348</v>
+        <v>45420</v>
       </c>
       <c r="AR16" s="2">
         <v>1</v>
       </c>
       <c r="AS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW16" s="2">
         <v>1</v>
@@ -3437,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -3449,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
         <v>0</v>
@@ -3508,22 +3494,22 @@
         <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1">
-        <v>45390</v>
+        <v>45333</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -3541,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -3559,18 +3545,18 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="2">
-        <v>1</v>
-      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
       <c r="AA17" s="2"/>
       <c r="AB17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC17" s="2">
         <v>0</v>
@@ -3595,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>45401</v>
+        <v>45364</v>
       </c>
       <c r="AR17" s="2">
         <v>1</v>
@@ -3605,10 +3591,10 @@
       </c>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW17" s="2">
         <v>0</v>
@@ -3626,16 +3612,16 @@
         <v>0</v>
       </c>
       <c r="BB17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -3688,22 +3674,22 @@
         <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="1">
-        <v>45349</v>
+        <v>45270</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -3712,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -3733,22 +3719,24 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T18" s="2">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
+      <c r="X18" s="2">
+        <v>1</v>
+      </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -3761,7 +3749,7 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
@@ -3769,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>45369</v>
+        <v>45308</v>
       </c>
       <c r="AR18" s="2">
         <v>1</v>
@@ -3779,7 +3767,7 @@
       </c>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV18" s="2">
         <v>3</v>
@@ -3809,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="2">
         <v>0</v>
@@ -3862,22 +3850,22 @@
         <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="1">
-        <v>45354</v>
+        <v>45312</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -3886,10 +3874,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -3898,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -3907,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="T19" s="2">
         <v>0</v>
@@ -3924,10 +3912,12 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
+      <c r="AD19" s="2">
+        <v>1</v>
+      </c>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -3937,7 +3927,7 @@
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
@@ -3945,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>45369</v>
+        <v>45316</v>
       </c>
       <c r="AR19" s="2">
         <v>1</v>
@@ -3955,22 +3945,22 @@
       </c>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -3982,10 +3972,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
         <v>0</v>
@@ -4000,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="BJ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK19" s="2">
         <v>0</v>
@@ -4038,16 +4028,16 @@
         <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="1">
         <v>45354</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -4083,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
@@ -4100,7 +4090,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
@@ -4113,7 +4103,7 @@
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
@@ -4127,14 +4117,14 @@
         <v>1</v>
       </c>
       <c r="AS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW20" s="2">
         <v>1</v>
@@ -4214,10 +4204,10 @@
         <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1">
-        <v>45270</v>
+        <v>45403</v>
       </c>
       <c r="F21" t="s">
         <v>81</v>
@@ -4229,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -4238,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -4259,10 +4249,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="T21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="s">
         <v>116</v>
@@ -4276,7 +4266,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -4289,15 +4279,17 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN21" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>0</v>
+      </c>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2">
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>45308</v>
+        <v>45419</v>
       </c>
       <c r="AR21" s="2">
         <v>1</v>
@@ -4307,13 +4299,13 @@
       </c>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="2">
         <v>1</v>
@@ -4390,22 +4382,22 @@
         <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -4414,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -4435,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
@@ -4452,7 +4444,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
@@ -4465,17 +4457,15 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN22" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2">
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>45077</v>
+        <v>45369</v>
       </c>
       <c r="AR22" s="2">
         <v>1</v>
@@ -4485,10 +4475,10 @@
       </c>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW22" s="2">
         <v>1</v>
@@ -4497,13 +4487,13 @@
         <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="2">
         <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
@@ -4515,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="BE22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="2">
         <v>0</v>
@@ -4530,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="BJ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK22" s="2">
         <v>0</v>
@@ -4568,10 +4558,10 @@
         <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="1">
-        <v>45354</v>
+        <v>45263</v>
       </c>
       <c r="F23" t="s">
         <v>82</v>
@@ -4583,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -4592,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -4613,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="T23" s="2">
         <v>0</v>
@@ -4630,7 +4620,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
@@ -4643,7 +4633,7 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
@@ -4651,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AR23" s="2">
         <v>1</v>
@@ -4661,10 +4651,10 @@
       </c>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV23" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="2">
         <v>1</v>
@@ -4673,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
         <v>0</v>
@@ -4744,10 +4734,10 @@
         <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="1">
-        <v>45365</v>
+        <v>45252</v>
       </c>
       <c r="F24" t="s">
         <v>81</v>
@@ -4759,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -4768,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -4789,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
@@ -4806,7 +4796,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
@@ -4819,28 +4809,30 @@
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN24" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>0</v>
+      </c>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2">
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>45394</v>
+        <v>45261</v>
       </c>
       <c r="AR24" s="2">
         <v>1</v>
       </c>
       <c r="AS24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW24" s="2">
         <v>1</v>
@@ -4849,10 +4841,10 @@
         <v>1</v>
       </c>
       <c r="AY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="2">
         <v>0</v>
@@ -4920,43 +4912,43 @@
         <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="1">
-        <v>45404</v>
+        <v>45298</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -4971,18 +4963,18 @@
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="V25" s="2"/>
-      <c r="W25" s="2">
-        <v>1</v>
-      </c>
+      <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
+      <c r="Z25" s="2">
+        <v>1</v>
+      </c>
       <c r="AA25" s="2"/>
       <c r="AB25" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -4995,30 +4987,30 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2">
         <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>45415</v>
+        <v>45317</v>
       </c>
       <c r="AR25" s="2">
         <v>1</v>
       </c>
       <c r="AS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW25" s="2">
         <v>0</v>
@@ -5042,10 +5034,10 @@
         <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="2">
         <v>0</v>
@@ -5098,28 +5090,28 @@
         <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="1">
-        <v>45271</v>
+        <v>45384</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
@@ -5140,32 +5132,30 @@
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="2">
-        <v>1</v>
-      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
+      <c r="Z26" s="2">
+        <v>1</v>
+      </c>
       <c r="AA26" s="2"/>
       <c r="AB26" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
@@ -5185,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>45294</v>
+        <v>45413</v>
       </c>
       <c r="AR26" s="2">
         <v>1</v>
@@ -5195,22 +5185,22 @@
       </c>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA26" s="2">
         <v>0</v>
@@ -5249,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="BM26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO26" t="s">
         <v>175</v>
@@ -5278,16 +5268,16 @@
         <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1">
-        <v>45026</v>
+        <v>45354</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -5323,22 +5313,24 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T27" s="2">
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
+      <c r="X27" s="2">
+        <v>1</v>
+      </c>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
@@ -5351,17 +5343,15 @@
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN27" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2">
         <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>45032</v>
+        <v>45369</v>
       </c>
       <c r="AR27" s="2">
         <v>1</v>
@@ -5371,7 +5361,7 @@
       </c>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AV27" s="2">
         <v>3</v>
@@ -5401,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF27" s="2">
         <v>0</v>
@@ -5416,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK27" s="2">
         <v>0</v>
@@ -5454,28 +5444,28 @@
         <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1">
-        <v>45252</v>
+        <v>45404</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -5484,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -5499,51 +5489,47 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
+      <c r="W28" s="2">
+        <v>1</v>
+      </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AC28" s="2"/>
-      <c r="AD28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
-      <c r="AL28" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL28" s="2"/>
       <c r="AM28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="2"/>
       <c r="AP28" s="2">
         <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <v>45259</v>
+        <v>45415</v>
       </c>
       <c r="AR28" s="2">
         <v>1</v>
@@ -5553,16 +5539,16 @@
       </c>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY28" s="2">
         <v>0</v>
@@ -5636,22 +5622,22 @@
         <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -5660,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -5681,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
@@ -5698,7 +5684,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -5711,7 +5697,7 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
@@ -5719,20 +5705,20 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>45062</v>
+        <v>45369</v>
       </c>
       <c r="AR29" s="2">
         <v>1</v>
       </c>
       <c r="AS29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2">
         <v>3</v>
       </c>
       <c r="AV29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW29" s="2">
         <v>1</v>
@@ -5759,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF29" s="2">
         <v>0</v>
@@ -5812,7 +5798,7 @@
         <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="1">
         <v>45252</v>
@@ -5857,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
@@ -5874,7 +5860,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
@@ -5887,7 +5873,7 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
@@ -5991,16 +5977,16 @@
         <v>77</v>
       </c>
       <c r="E31" s="1">
-        <v>45403</v>
+        <v>45319</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
         <v>89</v>
@@ -6033,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
@@ -6050,7 +6036,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -6063,15 +6049,17 @@
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN31" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>1</v>
+      </c>
       <c r="AO31" s="2"/>
       <c r="AP31" s="2">
         <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>45420</v>
+        <v>45336</v>
       </c>
       <c r="AR31" s="2">
         <v>1</v>
@@ -6081,7 +6069,7 @@
       </c>
       <c r="AT31" s="2"/>
       <c r="AU31" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV31" s="2">
         <v>4</v>
@@ -6105,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="BC31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD31" s="2">
         <v>0</v>
@@ -6114,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="BF31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG31" s="2">
         <v>0</v>
@@ -6164,22 +6152,22 @@
         <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" s="1">
-        <v>45328</v>
+        <v>45340</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -6188,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="2">
         <v>0</v>
@@ -6209,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
@@ -6226,7 +6214,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
@@ -6239,15 +6227,17 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN32" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>0</v>
+      </c>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2">
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>45336</v>
+        <v>45369</v>
       </c>
       <c r="AR32" s="2">
         <v>1</v>
@@ -6257,10 +6247,10 @@
       </c>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW32" s="2">
         <v>1</v>
@@ -6340,16 +6330,16 @@
         <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="1">
-        <v>45354</v>
+        <v>45263</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -6385,24 +6375,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
-      <c r="X33" s="2">
-        <v>1</v>
-      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
@@ -6411,11 +6399,13 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
+      <c r="AJ33" s="2">
+        <v>1</v>
+      </c>
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
@@ -6423,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AR33" s="2">
         <v>1</v>
@@ -6516,28 +6506,28 @@
         <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" s="1">
-        <v>45390</v>
+        <v>45252</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
@@ -6558,52 +6548,54 @@
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>1</v>
+      </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
+      <c r="AL34" s="2">
+        <v>1</v>
+      </c>
       <c r="AM34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO34" s="2"/>
       <c r="AP34" s="2">
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>45401</v>
+        <v>45259</v>
       </c>
       <c r="AR34" s="2">
         <v>1</v>
@@ -6613,16 +6605,16 @@
       </c>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY34" s="2">
         <v>0</v>
@@ -6667,10 +6659,10 @@
         <v>0</v>
       </c>
       <c r="BM34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO34" t="s">
         <v>175</v>
@@ -6696,31 +6688,31 @@
         <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E35" s="1">
-        <v>45384</v>
+        <v>45329</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
@@ -6738,27 +6730,27 @@
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
+      <c r="X35" s="2">
+        <v>1</v>
+      </c>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
@@ -6767,21 +6759,21 @@
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
+      <c r="AJ35" s="2">
+        <v>1</v>
+      </c>
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN35" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN35" s="2"/>
       <c r="AO35" s="2"/>
       <c r="AP35" s="2">
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>45413</v>
+        <v>45369</v>
       </c>
       <c r="AR35" s="2">
         <v>1</v>
@@ -6791,22 +6783,22 @@
       </c>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2">
+        <v>3</v>
+      </c>
+      <c r="AV35" s="2">
         <v>2</v>
       </c>
-      <c r="AV35" s="2">
-        <v>1</v>
-      </c>
       <c r="AW35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA35" s="2">
         <v>0</v>
@@ -6845,10 +6837,10 @@
         <v>0</v>
       </c>
       <c r="BM35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO35" t="s">
         <v>175</v>
@@ -6874,10 +6866,10 @@
         <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" s="1">
-        <v>45365</v>
+        <v>45060</v>
       </c>
       <c r="F36" t="s">
         <v>81</v>
@@ -6886,10 +6878,10 @@
         <v>81</v>
       </c>
       <c r="H36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -6919,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="T36" s="2">
         <v>0</v>
@@ -6936,22 +6928,20 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
@@ -6959,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>45399</v>
+        <v>45089</v>
       </c>
       <c r="AR36" s="2">
         <v>1</v>
@@ -6969,25 +6959,25 @@
       </c>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV36" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX36" s="2">
         <v>1</v>
       </c>
       <c r="AY36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="2">
         <v>1</v>
       </c>
       <c r="BA36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB36" s="2">
         <v>0</v>
@@ -7052,16 +7042,16 @@
         <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E37" s="1">
-        <v>45270</v>
+        <v>45354</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -7097,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T37" s="2">
         <v>0</v>
@@ -7114,7 +7104,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -7127,7 +7117,7 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
@@ -7135,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>45308</v>
+        <v>45369</v>
       </c>
       <c r="AR37" s="2">
         <v>1</v>
@@ -7145,10 +7135,10 @@
       </c>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV37" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW37" s="2">
         <v>1</v>
@@ -7228,37 +7218,37 @@
         <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E38" s="1">
-        <v>45069</v>
+        <v>45403</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
@@ -7273,24 +7263,24 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="T38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2">
-        <v>1</v>
-      </c>
+      <c r="W38" s="2">
+        <v>1</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
@@ -7313,35 +7303,35 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>45096</v>
+        <v>45415</v>
       </c>
       <c r="AR38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW38" s="2">
         <v>0</v>
       </c>
       <c r="AX38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="2">
         <v>0</v>
       </c>
       <c r="AZ38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="2">
         <v>0</v>
@@ -7406,28 +7396,28 @@
         <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" s="1">
-        <v>45260</v>
+        <v>45041</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
@@ -7448,46 +7438,40 @@
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
+      <c r="X39" s="2">
+        <v>1</v>
+      </c>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="AC39" s="2"/>
-      <c r="AD39" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
-      <c r="AI39" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI39" s="2"/>
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
@@ -7495,35 +7479,35 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>45316</v>
+        <v>45077</v>
       </c>
       <c r="AR39" s="2">
         <v>1</v>
       </c>
       <c r="AS39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AV39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY39" s="2">
         <v>0</v>
       </c>
       <c r="AZ39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB39" s="2">
         <v>0</v>
@@ -7535,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="BE39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF39" s="2">
         <v>0</v>
@@ -7550,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="BJ39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK39" s="2">
         <v>0</v>
@@ -7559,10 +7543,10 @@
         <v>0</v>
       </c>
       <c r="BM39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO39" t="s">
         <v>175</v>
@@ -7588,10 +7572,10 @@
         <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="1">
-        <v>45034</v>
+        <v>45270</v>
       </c>
       <c r="F40" t="s">
         <v>81</v>
@@ -7600,10 +7584,10 @@
         <v>81</v>
       </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -7612,7 +7596,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -7633,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T40" s="2">
         <v>0</v>
@@ -7650,11 +7634,9 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC40" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
@@ -7665,17 +7647,15 @@
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN40" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
       <c r="AP40" s="2">
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>45054</v>
+        <v>45308</v>
       </c>
       <c r="AR40" s="2">
         <v>1</v>
@@ -7685,25 +7665,25 @@
       </c>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV40" s="2">
         <v>3</v>
       </c>
       <c r="AW40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX40" s="2">
         <v>1</v>
       </c>
       <c r="AY40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ40" s="2">
         <v>1</v>
       </c>
       <c r="BA40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="2">
         <v>0</v>
@@ -7768,19 +7748,19 @@
         <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E41" s="1">
-        <v>45354</v>
+        <v>45286</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
         <v>89</v>
@@ -7813,26 +7793,26 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="2">
-        <v>1</v>
-      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>1</v>
+      </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
@@ -7843,17 +7823,17 @@
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO41" s="2"/>
       <c r="AP41" s="2">
         <v>0</v>
       </c>
       <c r="AQ41" s="1">
-        <v>45394</v>
+        <v>45308</v>
       </c>
       <c r="AR41" s="2">
         <v>1</v>
@@ -7863,13 +7843,13 @@
       </c>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV41" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="2">
         <v>1</v>
@@ -7946,10 +7926,10 @@
         <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" s="1">
-        <v>45270</v>
+        <v>45069</v>
       </c>
       <c r="F42" t="s">
         <v>81</v>
@@ -7961,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -7991,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
@@ -8008,7 +7988,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
@@ -8021,43 +8001,45 @@
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
       <c r="AM42" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN42" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>0</v>
+      </c>
       <c r="AO42" s="2"/>
       <c r="AP42" s="2">
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>45308</v>
+        <v>45096</v>
       </c>
       <c r="AR42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="2">
         <v>1</v>
       </c>
       <c r="AT42" s="2"/>
       <c r="AU42" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV42" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="2">
         <v>1</v>
       </c>
       <c r="AY42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="2">
         <v>1</v>
       </c>
       <c r="BA42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB42" s="2">
         <v>0</v>
@@ -8122,34 +8104,34 @@
         <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" s="1">
-        <v>45329</v>
+        <v>45390</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
@@ -8158,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="2">
         <v>0</v>
@@ -8167,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
@@ -8184,55 +8166,57 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
-      <c r="AJ43" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN43" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>0</v>
+      </c>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2">
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>45369</v>
+        <v>45401</v>
       </c>
       <c r="AR43" s="2">
         <v>1</v>
       </c>
       <c r="AS43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="2"/>
       <c r="AU43" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="2">
         <v>0</v>
@@ -8244,10 +8228,10 @@
         <v>0</v>
       </c>
       <c r="BD43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF43" s="2">
         <v>0</v>
@@ -8303,7 +8287,7 @@
         <v>77</v>
       </c>
       <c r="E44" s="1">
-        <v>45366</v>
+        <v>45354</v>
       </c>
       <c r="F44" t="s">
         <v>81</v>
@@ -8345,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T44" s="2">
         <v>0</v>
@@ -8362,7 +8346,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
@@ -8375,7 +8359,7 @@
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
@@ -8383,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>45421</v>
+        <v>45369</v>
       </c>
       <c r="AR44" s="2">
         <v>1</v>
@@ -8393,10 +8377,10 @@
       </c>
       <c r="AT44" s="2"/>
       <c r="AU44" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV44" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW44" s="2">
         <v>1</v>
@@ -8405,10 +8389,10 @@
         <v>1</v>
       </c>
       <c r="AY44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA44" s="2">
         <v>0</v>
@@ -8476,22 +8460,22 @@
         <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E45" s="1">
-        <v>45354</v>
+        <v>45034</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -8500,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="2">
         <v>0</v>
@@ -8521,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T45" s="2">
         <v>0</v>
@@ -8538,9 +8522,11 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>0</v>
+      </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
@@ -8551,15 +8537,17 @@
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN45" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN45" s="2">
+        <v>0</v>
+      </c>
       <c r="AO45" s="2"/>
       <c r="AP45" s="2">
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>45370</v>
+        <v>45054</v>
       </c>
       <c r="AR45" s="2">
         <v>1</v>
@@ -8569,10 +8557,10 @@
       </c>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV45" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW45" s="2">
         <v>0</v>
@@ -8581,13 +8569,13 @@
         <v>1</v>
       </c>
       <c r="AY45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="2">
         <v>1</v>
       </c>
       <c r="BA45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB45" s="2">
         <v>0</v>
@@ -8652,22 +8640,22 @@
         <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" s="1">
-        <v>45312</v>
+        <v>45354</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -8676,10 +8664,10 @@
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
@@ -8688,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="2">
         <v>0</v>
@@ -8697,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T46" s="2">
         <v>0</v>
@@ -8714,12 +8702,10 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
@@ -8729,7 +8715,7 @@
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
       <c r="AM46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
@@ -8737,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>45316</v>
+        <v>45370</v>
       </c>
       <c r="AR46" s="2">
         <v>1</v>
@@ -8747,22 +8733,22 @@
       </c>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV46" s="2">
         <v>2</v>
       </c>
-      <c r="AV46" s="2">
-        <v>1</v>
-      </c>
       <c r="AW46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX46" s="2">
         <v>1</v>
       </c>
       <c r="AY46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA46" s="2">
         <v>0</v>
@@ -8774,10 +8760,10 @@
         <v>0</v>
       </c>
       <c r="BD46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF46" s="2">
         <v>0</v>
@@ -8830,22 +8816,22 @@
         <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E47" s="1">
-        <v>45263</v>
+        <v>45354</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -8854,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="2">
         <v>0</v>
@@ -8875,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T47" s="2">
         <v>0</v>
@@ -8892,7 +8878,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
@@ -8905,7 +8891,7 @@
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
       <c r="AM47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
@@ -8913,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>45294</v>
+        <v>45370</v>
       </c>
       <c r="AR47" s="2">
         <v>1</v>
@@ -8923,22 +8909,22 @@
       </c>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV47" s="2">
         <v>1</v>
       </c>
       <c r="AW47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="2">
         <v>1</v>
       </c>
       <c r="AY47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA47" s="2">
         <v>0</v>
@@ -9006,7 +8992,7 @@
         <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E48" s="1">
         <v>45270</v>
@@ -9051,10 +9037,10 @@
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="T48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" t="s">
         <v>116</v>
@@ -9068,7 +9054,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
@@ -9081,7 +9067,7 @@
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
       <c r="AM48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
@@ -9095,11 +9081,11 @@
         <v>1</v>
       </c>
       <c r="AS48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT48" s="2"/>
       <c r="AU48" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV48" s="2">
         <v>4</v>
@@ -9182,10 +9168,10 @@
         <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E49" s="1">
-        <v>45354</v>
+        <v>45263</v>
       </c>
       <c r="F49" t="s">
         <v>82</v>
@@ -9227,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T49" s="2">
         <v>0</v>
@@ -9244,7 +9230,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
@@ -9253,19 +9239,23 @@
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
-      <c r="AJ49" s="2"/>
+      <c r="AJ49" s="2">
+        <v>1</v>
+      </c>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN49" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>0</v>
+      </c>
       <c r="AO49" s="2"/>
       <c r="AP49" s="2">
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AR49" s="2">
         <v>1</v>
@@ -9275,7 +9265,7 @@
       </c>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV49" s="2">
         <v>2</v>
@@ -9287,13 +9277,13 @@
         <v>1</v>
       </c>
       <c r="AY49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="2">
         <v>1</v>
       </c>
       <c r="BA49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB49" s="2">
         <v>0</v>
@@ -9358,69 +9348,69 @@
         <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E50" s="1">
-        <v>45403</v>
+        <v>45404</v>
       </c>
       <c r="F50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <v>0</v>
+      </c>
+      <c r="S50" t="s">
         <v>84</v>
       </c>
-      <c r="G50" t="s">
-        <v>84</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
-        <v>95</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
-        <v>0</v>
-      </c>
-      <c r="N50" s="2">
-        <v>1</v>
-      </c>
-      <c r="O50" s="2">
-        <v>0</v>
-      </c>
-      <c r="P50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0</v>
-      </c>
-      <c r="R50" s="2">
-        <v>0</v>
-      </c>
-      <c r="S50" t="s">
-        <v>112</v>
-      </c>
       <c r="T50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="V50" s="2"/>
-      <c r="W50" s="2">
-        <v>1</v>
-      </c>
-      <c r="X50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2">
+        <v>1</v>
+      </c>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
@@ -9433,17 +9423,15 @@
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
       <c r="AM50" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN50" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2">
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="AR50" s="2">
         <v>1</v>
@@ -9453,16 +9441,16 @@
       </c>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY50" s="2">
         <v>0</v>
@@ -9536,28 +9524,28 @@
         <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E51" s="1">
-        <v>45041</v>
+        <v>45390</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="2">
         <v>0</v>
@@ -9578,29 +9566,31 @@
         <v>0</v>
       </c>
       <c r="R51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T51" s="2">
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
-      <c r="X51" s="2">
-        <v>1</v>
-      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
+      <c r="Z51" s="2">
+        <v>1</v>
+      </c>
       <c r="AA51" s="2"/>
       <c r="AB51" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>0</v>
+      </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
@@ -9621,26 +9611,26 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>45062</v>
+        <v>45401</v>
       </c>
       <c r="AR51" s="2">
         <v>1</v>
       </c>
       <c r="AS51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="2">
         <v>0</v>
@@ -9685,10 +9675,10 @@
         <v>0</v>
       </c>
       <c r="BM51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO51" t="s">
         <v>175</v>
@@ -9714,10 +9704,10 @@
         <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E52" s="1">
-        <v>45034</v>
+        <v>45244</v>
       </c>
       <c r="F52" t="s">
         <v>81</v>
@@ -9726,10 +9716,10 @@
         <v>81</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -9738,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
@@ -9759,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
@@ -9776,11 +9766,9 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC52" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
@@ -9791,17 +9779,15 @@
       <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
       <c r="AM52" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN52" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
       <c r="AP52" s="2">
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <v>45050</v>
+        <v>45260</v>
       </c>
       <c r="AR52" s="2">
         <v>1</v>
@@ -9811,10 +9797,10 @@
       </c>
       <c r="AT52" s="2"/>
       <c r="AU52" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW52" s="2">
         <v>1</v>
@@ -9823,10 +9809,10 @@
         <v>1</v>
       </c>
       <c r="AY52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA52" s="2">
         <v>0</v>
@@ -9897,16 +9883,16 @@
         <v>77</v>
       </c>
       <c r="E53" s="1">
-        <v>45404</v>
+        <v>45034</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="s">
         <v>88</v>
@@ -9939,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T53" s="2">
         <v>0</v>
@@ -9956,9 +9942,11 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>0</v>
+      </c>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
@@ -9969,28 +9957,30 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN53" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN53" s="2">
+        <v>0</v>
+      </c>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2">
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>45420</v>
+        <v>45050</v>
       </c>
       <c r="AR53" s="2">
         <v>1</v>
       </c>
       <c r="AS53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV53" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW53" s="2">
         <v>1</v>
@@ -10070,16 +10060,16 @@
         <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E54" s="1">
-        <v>45244</v>
+        <v>45026</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -10115,24 +10105,22 @@
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
-      <c r="X54" s="2">
-        <v>1</v>
-      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
@@ -10145,15 +10133,17 @@
       <c r="AK54" s="2"/>
       <c r="AL54" s="2"/>
       <c r="AM54" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN54" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>0</v>
+      </c>
       <c r="AO54" s="2"/>
       <c r="AP54" s="2">
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>45260</v>
+        <v>45032</v>
       </c>
       <c r="AR54" s="2">
         <v>1</v>
@@ -10163,11 +10153,11 @@
       </c>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2">
+        <v>11</v>
+      </c>
+      <c r="AV54" s="2">
         <v>3</v>
       </c>
-      <c r="AV54" s="2">
-        <v>2</v>
-      </c>
       <c r="AW54" s="2">
         <v>1</v>
       </c>
@@ -10193,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="BE54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF54" s="2">
         <v>0</v>
@@ -10208,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK54" s="2">
         <v>0</v>
@@ -10246,22 +10236,22 @@
         <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E55" s="1">
-        <v>45354</v>
+        <v>45300</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -10270,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="2">
         <v>0</v>
@@ -10291,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T55" s="2">
         <v>0</v>
@@ -10308,10 +10298,12 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
+      <c r="AD55" s="2">
+        <v>1</v>
+      </c>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
@@ -10321,7 +10313,7 @@
       <c r="AK55" s="2"/>
       <c r="AL55" s="2"/>
       <c r="AM55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
@@ -10329,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>45369</v>
+        <v>45317</v>
       </c>
       <c r="AR55" s="2">
         <v>1</v>
@@ -10339,10 +10331,10 @@
       </c>
       <c r="AT55" s="2"/>
       <c r="AU55" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV55" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW55" s="2">
         <v>1</v>
@@ -10422,34 +10414,34 @@
         <v>75</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" s="1">
-        <v>45045</v>
+        <v>45365</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" s="2">
         <v>0</v>
@@ -10458,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="2">
         <v>0</v>
@@ -10467,13 +10459,13 @@
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T56" s="2">
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
@@ -10484,30 +10476,30 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
-      <c r="AG56" s="2"/>
+      <c r="AG56" s="2">
+        <v>1</v>
+      </c>
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
       <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
       <c r="AM56" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN56" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
       <c r="AP56" s="2">
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>45062</v>
+        <v>45399</v>
       </c>
       <c r="AR56" s="2">
         <v>1</v>
@@ -10517,7 +10509,7 @@
       </c>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV56" s="2">
         <v>1</v>
@@ -10526,13 +10518,13 @@
         <v>0</v>
       </c>
       <c r="AX56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA56" s="2">
         <v>0</v>
@@ -10544,10 +10536,10 @@
         <v>0</v>
       </c>
       <c r="BD56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="2">
         <v>0</v>
@@ -10600,31 +10592,31 @@
         <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E57" s="1">
-        <v>45060</v>
+        <v>45260</v>
       </c>
       <c r="F57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
@@ -10642,40 +10634,46 @@
         <v>0</v>
       </c>
       <c r="R57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
-      <c r="X57" s="2">
-        <v>1</v>
-      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
+      <c r="Z57" s="2">
+        <v>1</v>
+      </c>
       <c r="AA57" s="2"/>
       <c r="AB57" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
+      <c r="AD57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="2">
+        <v>1</v>
+      </c>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
-      <c r="AI57" s="2"/>
+      <c r="AI57" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ57" s="2"/>
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
       <c r="AM57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
@@ -10683,35 +10681,35 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>45089</v>
+        <v>45316</v>
       </c>
       <c r="AR57" s="2">
         <v>1</v>
       </c>
       <c r="AS57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AV57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY57" s="2">
         <v>0</v>
       </c>
       <c r="AZ57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="2">
         <v>0</v>
@@ -10747,10 +10745,10 @@
         <v>0</v>
       </c>
       <c r="BM57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO57" t="s">
         <v>175</v>
@@ -10776,31 +10774,31 @@
         <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E58" s="1">
-        <v>45390</v>
+        <v>45354</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="2">
         <v>0</v>
@@ -10818,27 +10816,27 @@
         <v>0</v>
       </c>
       <c r="R58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T58" s="2">
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
+      <c r="X58" s="2">
+        <v>1</v>
+      </c>
       <c r="Y58" s="2"/>
-      <c r="Z58" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
@@ -10851,17 +10849,15 @@
       <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
       <c r="AM58" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN58" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
       <c r="AP58" s="2">
         <v>0</v>
       </c>
       <c r="AQ58" s="1">
-        <v>45413</v>
+        <v>45370</v>
       </c>
       <c r="AR58" s="2">
         <v>1</v>
@@ -10871,22 +10867,22 @@
       </c>
       <c r="AT58" s="2"/>
       <c r="AU58" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV58" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA58" s="2">
         <v>0</v>
@@ -10925,10 +10921,10 @@
         <v>0</v>
       </c>
       <c r="BM58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO58" t="s">
         <v>175</v>
@@ -10954,34 +10950,34 @@
         <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E59" s="1">
-        <v>45298</v>
+        <v>45045</v>
       </c>
       <c r="F59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="2">
         <v>0</v>
@@ -10990,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="2">
         <v>0</v>
@@ -10999,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="T59" s="2">
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
@@ -11016,7 +11012,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
@@ -11039,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>45316</v>
+        <v>45062</v>
       </c>
       <c r="AR59" s="2">
         <v>1</v>
@@ -11049,22 +11045,22 @@
       </c>
       <c r="AT59" s="2"/>
       <c r="AU59" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV59" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="2">
         <v>0</v>
@@ -11076,10 +11072,10 @@
         <v>0</v>
       </c>
       <c r="BD59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF59" s="2">
         <v>0</v>
@@ -11094,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="BJ59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK59" s="2">
         <v>0</v>
@@ -11132,10 +11128,10 @@
         <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" s="1">
-        <v>45069</v>
+        <v>45041</v>
       </c>
       <c r="F60" t="s">
         <v>81</v>
@@ -11144,7 +11140,7 @@
         <v>81</v>
       </c>
       <c r="H60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="s">
         <v>88</v>
@@ -11177,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T60" s="2">
         <v>0</v>
@@ -11194,12 +11190,10 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="AC60" s="2"/>
-      <c r="AD60" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
@@ -11209,28 +11203,30 @@
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
       <c r="AM60" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN60" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN60" s="2">
+        <v>0</v>
+      </c>
       <c r="AO60" s="2"/>
       <c r="AP60" s="2">
         <v>0</v>
       </c>
       <c r="AQ60" s="1">
-        <v>45089</v>
+        <v>45077</v>
       </c>
       <c r="AR60" s="2">
         <v>1</v>
       </c>
       <c r="AS60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="2"/>
       <c r="AU60" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AV60" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW60" s="2">
         <v>1</v>
@@ -11239,13 +11235,13 @@
         <v>1</v>
       </c>
       <c r="AY60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ60" s="2">
         <v>1</v>
       </c>
       <c r="BA60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB60" s="2">
         <v>0</v>
@@ -11257,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="BE60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF60" s="2">
         <v>0</v>
@@ -11272,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK60" s="2">
         <v>0</v>
@@ -11310,10 +11306,10 @@
         <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E61" s="1">
-        <v>45252</v>
+        <v>45069</v>
       </c>
       <c r="F61" t="s">
         <v>81</v>
@@ -11325,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
@@ -11355,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T61" s="2">
         <v>0</v>
@@ -11372,7 +11368,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
@@ -11385,15 +11381,17 @@
       <c r="AK61" s="2"/>
       <c r="AL61" s="2"/>
       <c r="AM61" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN61" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN61" s="2">
+        <v>0</v>
+      </c>
       <c r="AO61" s="2"/>
       <c r="AP61" s="2">
         <v>0</v>
       </c>
       <c r="AQ61" s="1">
-        <v>45260</v>
+        <v>45096</v>
       </c>
       <c r="AR61" s="2">
         <v>1</v>
@@ -11403,13 +11401,13 @@
       </c>
       <c r="AT61" s="2"/>
       <c r="AU61" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV61" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX61" s="2">
         <v>1</v>
@@ -11486,16 +11484,16 @@
         <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E62" s="1">
-        <v>45252</v>
+        <v>45315</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -11531,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T62" s="2">
         <v>0</v>
@@ -11548,7 +11546,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
@@ -11561,17 +11559,15 @@
       <c r="AK62" s="2"/>
       <c r="AL62" s="2"/>
       <c r="AM62" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN62" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
       <c r="AP62" s="2">
         <v>0</v>
       </c>
       <c r="AQ62" s="1">
-        <v>45261</v>
+        <v>45336</v>
       </c>
       <c r="AR62" s="2">
         <v>1</v>
@@ -11581,22 +11577,22 @@
       </c>
       <c r="AT62" s="2"/>
       <c r="AU62" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AV62" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX62" s="2">
         <v>1</v>
       </c>
       <c r="AY62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA62" s="2">
         <v>0</v>
@@ -11614,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="BF62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG62" s="2">
         <v>0</v>
@@ -11664,22 +11660,22 @@
         <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E63" s="1">
-        <v>45300</v>
+        <v>45354</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -11688,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="2">
         <v>0</v>
@@ -11709,7 +11705,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T63" s="2">
         <v>0</v>
@@ -11726,12 +11722,10 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="AC63" s="2"/>
-      <c r="AD63" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
       <c r="AG63" s="2"/>
@@ -11741,28 +11735,30 @@
       <c r="AK63" s="2"/>
       <c r="AL63" s="2"/>
       <c r="AM63" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN63" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN63" s="2">
+        <v>0</v>
+      </c>
       <c r="AO63" s="2"/>
       <c r="AP63" s="2">
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>45317</v>
+        <v>45394</v>
       </c>
       <c r="AR63" s="2">
         <v>1</v>
       </c>
       <c r="AS63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT63" s="2"/>
       <c r="AU63" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV63" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW63" s="2">
         <v>1</v>
@@ -11842,22 +11838,22 @@
         <v>75</v>
       </c>
       <c r="D64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E64" s="1">
-        <v>45319</v>
+        <v>45041</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
@@ -11866,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" s="2">
         <v>0</v>
@@ -11887,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T64" s="2">
         <v>0</v>
@@ -11904,7 +11900,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
       <c r="AB64" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
@@ -11917,17 +11913,15 @@
       <c r="AK64" s="2"/>
       <c r="AL64" s="2"/>
       <c r="AM64" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN64" s="2">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN64" s="2"/>
       <c r="AO64" s="2"/>
       <c r="AP64" s="2">
         <v>0</v>
       </c>
       <c r="AQ64" s="1">
-        <v>45336</v>
+        <v>45062</v>
       </c>
       <c r="AR64" s="2">
         <v>1</v>
@@ -11937,10 +11931,10 @@
       </c>
       <c r="AT64" s="2"/>
       <c r="AU64" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV64" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW64" s="2">
         <v>1</v>
@@ -11967,10 +11961,10 @@
         <v>0</v>
       </c>
       <c r="BE64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG64" s="2">
         <v>0</v>
@@ -12020,34 +12014,34 @@
         <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E65" s="1">
-        <v>45263</v>
+        <v>45029</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" s="2">
         <v>0</v>
@@ -12056,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="2">
         <v>0</v>
@@ -12065,13 +12059,13 @@
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="T65" s="2">
         <v>0</v>
       </c>
       <c r="U65" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
@@ -12082,7 +12076,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
@@ -12091,9 +12085,7 @@
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
-      <c r="AJ65" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ65" s="2"/>
       <c r="AK65" s="2"/>
       <c r="AL65" s="2"/>
       <c r="AM65" t="s">
@@ -12107,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="1">
-        <v>45294</v>
+        <v>45050</v>
       </c>
       <c r="AR65" s="2">
         <v>1</v>
@@ -12117,25 +12109,25 @@
       </c>
       <c r="AT65" s="2"/>
       <c r="AU65" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV65" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="2">
         <v>0</v>
       </c>
       <c r="AZ65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="2">
         <v>0</v>
@@ -12144,10 +12136,10 @@
         <v>0</v>
       </c>
       <c r="BD65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF65" s="2">
         <v>0</v>
@@ -12200,22 +12192,22 @@
         <v>75</v>
       </c>
       <c r="D66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E66" s="1">
-        <v>45354</v>
+        <v>45069</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
@@ -12245,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T66" s="2">
         <v>0</v>
@@ -12262,7 +12254,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
       <c r="AB66" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
@@ -12275,25 +12267,27 @@
       <c r="AK66" s="2"/>
       <c r="AL66" s="2"/>
       <c r="AM66" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN66" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN66" s="2">
+        <v>0</v>
+      </c>
       <c r="AO66" s="2"/>
       <c r="AP66" s="2">
         <v>0</v>
       </c>
       <c r="AQ66" s="1">
-        <v>45369</v>
+        <v>45089</v>
       </c>
       <c r="AR66" s="2">
         <v>1</v>
       </c>
       <c r="AS66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="2"/>
       <c r="AU66" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV66" s="2">
         <v>3</v>
@@ -12376,10 +12370,10 @@
         <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E67" s="1">
-        <v>45069</v>
+        <v>45270</v>
       </c>
       <c r="F67" t="s">
         <v>81</v>
@@ -12391,7 +12385,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J67" s="2">
         <v>1</v>
@@ -12421,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="S67" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T67" s="2">
         <v>0</v>
@@ -12438,7 +12432,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
       <c r="AB67" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
@@ -12451,30 +12445,28 @@
       <c r="AK67" s="2"/>
       <c r="AL67" s="2"/>
       <c r="AM67" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN67" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN67" s="2"/>
       <c r="AO67" s="2"/>
       <c r="AP67" s="2">
         <v>0</v>
       </c>
       <c r="AQ67" s="1">
-        <v>45096</v>
+        <v>45308</v>
       </c>
       <c r="AR67" s="2">
         <v>1</v>
       </c>
       <c r="AS67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="2"/>
       <c r="AU67" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV67" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW67" s="2">
         <v>1</v>
@@ -12554,10 +12546,10 @@
         <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E68" s="1">
-        <v>45041</v>
+        <v>45034</v>
       </c>
       <c r="F68" t="s">
         <v>81</v>
@@ -12566,7 +12558,7 @@
         <v>81</v>
       </c>
       <c r="H68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
         <v>88</v>
@@ -12599,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="S68" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T68" s="2">
         <v>0</v>
@@ -12616,9 +12608,11 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
       <c r="AB68" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC68" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>0</v>
+      </c>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
@@ -12629,25 +12623,27 @@
       <c r="AK68" s="2"/>
       <c r="AL68" s="2"/>
       <c r="AM68" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN68" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN68" s="2">
+        <v>0</v>
+      </c>
       <c r="AO68" s="2"/>
       <c r="AP68" s="2">
         <v>0</v>
       </c>
       <c r="AQ68" s="1">
-        <v>45077</v>
+        <v>45050</v>
       </c>
       <c r="AR68" s="2">
         <v>1</v>
       </c>
       <c r="AS68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="2"/>
       <c r="AU68" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV68" s="2">
         <v>2</v>
@@ -12662,10 +12658,10 @@
         <v>0</v>
       </c>
       <c r="AZ68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="2">
         <v>0</v>
@@ -12677,7 +12673,7 @@
         <v>0</v>
       </c>
       <c r="BE68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF68" s="2">
         <v>0</v>
@@ -12692,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="BJ68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK68" s="2">
         <v>0</v>
@@ -12730,10 +12726,10 @@
         <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E69" s="1">
-        <v>45365</v>
+        <v>45069</v>
       </c>
       <c r="F69" t="s">
         <v>81</v>
@@ -12742,10 +12738,10 @@
         <v>81</v>
       </c>
       <c r="H69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
@@ -12754,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" s="2">
         <v>0</v>
@@ -12775,7 +12771,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T69" s="2">
         <v>0</v>
@@ -12792,10 +12788,12 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
       <c r="AB69" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
+      <c r="AD69" s="2">
+        <v>1</v>
+      </c>
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
@@ -12805,7 +12803,7 @@
       <c r="AK69" s="2"/>
       <c r="AL69" s="2"/>
       <c r="AM69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
@@ -12813,7 +12811,7 @@
         <v>0</v>
       </c>
       <c r="AQ69" s="1">
-        <v>45399</v>
+        <v>45089</v>
       </c>
       <c r="AR69" s="2">
         <v>1</v>
@@ -12835,10 +12833,10 @@
         <v>1</v>
       </c>
       <c r="AY69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA69" s="2">
         <v>0</v>
@@ -12906,22 +12904,22 @@
         <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E70" s="1">
-        <v>45298</v>
+        <v>45271</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H70" s="2">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -12933,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" s="2">
         <v>0</v>
@@ -12942,7 +12940,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="2">
         <v>0</v>
@@ -12951,27 +12949,29 @@
         <v>0</v>
       </c>
       <c r="S70" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T70" s="2">
         <v>0</v>
       </c>
       <c r="U70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
+      <c r="X70" s="2">
+        <v>1</v>
+      </c>
       <c r="Y70" s="2"/>
-      <c r="Z70" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AC70" s="2"/>
-      <c r="AD70" s="2"/>
+      <c r="AD70" s="2">
+        <v>1</v>
+      </c>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
@@ -12981,17 +12981,17 @@
       <c r="AK70" s="2"/>
       <c r="AL70" s="2"/>
       <c r="AM70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO70" s="2"/>
       <c r="AP70" s="2">
         <v>0</v>
       </c>
       <c r="AQ70" s="1">
-        <v>45317</v>
+        <v>45294</v>
       </c>
       <c r="AR70" s="2">
         <v>1</v>
@@ -13001,22 +13001,22 @@
       </c>
       <c r="AT70" s="2"/>
       <c r="AU70" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV70" s="2">
         <v>3</v>
       </c>
-      <c r="AV70" s="2">
-        <v>1</v>
-      </c>
       <c r="AW70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA70" s="2">
         <v>0</v>
@@ -13028,10 +13028,10 @@
         <v>0</v>
       </c>
       <c r="BD70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF70" s="2">
         <v>0</v>
@@ -13084,16 +13084,16 @@
         <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E71" s="1">
         <v>45326</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -13129,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T71" s="2">
         <v>0</v>
@@ -13146,7 +13146,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
       <c r="AB71" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
@@ -13159,7 +13159,7 @@
       <c r="AK71" s="2"/>
       <c r="AL71" s="2"/>
       <c r="AM71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN71" s="2"/>
       <c r="AO71" s="2"/>

--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -18,213 +18,213 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>600727</t>
+  </si>
+  <si>
+    <t>600699</t>
+  </si>
+  <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>600919</t>
+  </si>
+  <si>
+    <t>600886</t>
+  </si>
+  <si>
+    <t>500454</t>
+  </si>
+  <si>
+    <t>600882</t>
+  </si>
+  <si>
+    <t>600812</t>
+  </si>
+  <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>600640</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>600856</t>
+  </si>
+  <si>
+    <t>600374</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>500025</t>
+  </si>
+  <si>
+    <t>500005</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>600366</t>
+  </si>
+  <si>
+    <t>600322</t>
+  </si>
+  <si>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>600898</t>
+  </si>
+  <si>
+    <t>600672</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
+    <t>600978</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>600896</t>
+  </si>
+  <si>
+    <t>500684</t>
+  </si>
+  <si>
+    <t>600346</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
+    <t>600614</t>
+  </si>
+  <si>
+    <t>600996</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
+    <t>600383</t>
+  </si>
+  <si>
+    <t>600853</t>
+  </si>
+  <si>
+    <t>600865</t>
+  </si>
+  <si>
+    <t>400238</t>
+  </si>
+  <si>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>600604</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
+    <t>600822</t>
+  </si>
+  <si>
+    <t>600775</t>
+  </si>
+  <si>
+    <t>600310</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>600611</t>
+  </si>
+  <si>
     <t>600687</t>
   </si>
   <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>600822</t>
+    <t>600381</t>
   </si>
   <si>
     <t>600947</t>
   </si>
   <si>
-    <t>600310</t>
-  </si>
-  <si>
-    <t>600982</t>
-  </si>
-  <si>
-    <t>600309</t>
+    <t>600360</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>500906</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>600961</t>
   </si>
   <si>
     <t>600758</t>
   </si>
   <si>
-    <t>600812</t>
-  </si>
-  <si>
-    <t>600703</t>
-  </si>
-  <si>
-    <t>600882</t>
-  </si>
-  <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>500901</t>
-  </si>
-  <si>
-    <t>600898</t>
-  </si>
-  <si>
-    <t>600780</t>
-  </si>
-  <si>
     <t>600326</t>
   </si>
   <si>
-    <t>600682</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>600865</t>
-  </si>
-  <si>
-    <t>600602</t>
-  </si>
-  <si>
     <t>600398</t>
   </si>
   <si>
-    <t>600366</t>
-  </si>
-  <si>
-    <t>600775</t>
-  </si>
-  <si>
-    <t>600919</t>
-  </si>
-  <si>
-    <t>600614</t>
-  </si>
-  <si>
-    <t>600856</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>600360</t>
-  </si>
-  <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>600374</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>500025</t>
-  </si>
-  <si>
-    <t>600611</t>
-  </si>
-  <si>
-    <t>600978</t>
-  </si>
-  <si>
-    <t>500005</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>600346</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>600886</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>400230</t>
-  </si>
-  <si>
-    <t>600640</t>
-  </si>
-  <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>600396</t>
-  </si>
-  <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>600896</t>
-  </si>
-  <si>
-    <t>600853</t>
-  </si>
-  <si>
     <t>600388</t>
   </si>
   <si>
-    <t>400238</t>
-  </si>
-  <si>
-    <t>400224</t>
-  </si>
-  <si>
-    <t>600786</t>
-  </si>
-  <si>
-    <t>600996</t>
-  </si>
-  <si>
-    <t>600604</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>500355</t>
-  </si>
-  <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>500454</t>
-  </si>
-  <si>
-    <t>600610</t>
-  </si>
-  <si>
-    <t>600961</t>
-  </si>
-  <si>
-    <t>500221</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>500951</t>
-  </si>
-  <si>
-    <t>600383</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>600322</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -255,12 +255,12 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -279,39 +279,39 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>xylazine; fentanyl</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>methamphetamine</t>
   </si>
   <si>
     <t>cocaine; fentanyl</t>
   </si>
   <si>
+    <t>benzodiazepine</t>
+  </si>
+  <si>
     <t>fentanyl; crack</t>
   </si>
   <si>
-    <t>benzodiazepine</t>
-  </si>
-  <si>
-    <t>xylazine; fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -345,18 +345,18 @@
     <t>white</t>
   </si>
   <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
     <t>gray</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -366,6 +366,9 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; chunky; rock</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
@@ -375,9 +378,6 @@
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>powder; chunky; rock</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -390,31 +390,31 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>weird</t>
   </si>
   <si>
     <t>unpleasant; hallucinations</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>weird; sedating</t>
+  </si>
+  <si>
     <t>stronger</t>
   </si>
   <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
     <t>sedating</t>
   </si>
   <si>
     <t>long; unpleasant; hallucinations</t>
-  </si>
-  <si>
-    <t>weird; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -698,7 +698,7 @@
         <v>122</v>
       </c>
       <c r="Z1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA1" t="s">
         <v>123</v>
@@ -847,7 +847,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="1">
-        <v>45312</v>
+        <v>45272</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -908,28 +908,30 @@
       <c r="AB2" t="s">
         <v>125</v>
       </c>
-      <c r="AC2" s="2">
-        <v>0</v>
-      </c>
+      <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN2" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2">
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>45348</v>
+        <v>45294</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
@@ -939,10 +941,10 @@
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW2" s="2">
         <v>1</v>
@@ -951,10 +953,10 @@
         <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
         <v>0</v>
@@ -972,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="BF2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG2" s="2">
         <v>0</v>
@@ -1025,7 +1027,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="1">
-        <v>45328</v>
+        <v>45354</v>
       </c>
       <c r="F3" t="s">
         <v>81</v>
@@ -1037,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1046,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>45336</v>
+        <v>45369</v>
       </c>
       <c r="AR3" s="2">
         <v>1</v>
@@ -1115,10 +1117,10 @@
       </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
         <v>1</v>
@@ -1201,7 +1203,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="1">
-        <v>45366</v>
+        <v>45340</v>
       </c>
       <c r="F4" t="s">
         <v>81</v>
@@ -1273,28 +1275,30 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN4" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0</v>
+      </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2">
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>45421</v>
+        <v>45369</v>
       </c>
       <c r="AR4" s="2">
         <v>1</v>
       </c>
       <c r="AS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
         <v>1</v>
@@ -1303,10 +1307,10 @@
         <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1377,31 +1381,31 @@
         <v>77</v>
       </c>
       <c r="E5" s="1">
-        <v>45354</v>
+        <v>45029</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1410,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1419,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -1449,15 +1453,17 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN5" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0</v>
+      </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2">
         <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>45394</v>
+        <v>45050</v>
       </c>
       <c r="AR5" s="2">
         <v>1</v>
@@ -1467,7 +1473,7 @@
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV5" s="2">
         <v>1</v>
@@ -1476,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1494,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1553,28 +1559,28 @@
         <v>77</v>
       </c>
       <c r="E6" s="1">
-        <v>45252</v>
+        <v>45384</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1592,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="s">
         <v>84</v>
@@ -1601,15 +1607,15 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="2">
-        <v>1</v>
-      </c>
+      <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
       <c r="AA6" s="2"/>
       <c r="AB6" t="s">
         <v>84</v>
@@ -1625,15 +1631,17 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN6" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0</v>
+      </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2">
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>45260</v>
+        <v>45413</v>
       </c>
       <c r="AR6" s="2">
         <v>1</v>
@@ -1643,7 +1651,7 @@
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV6" s="2">
         <v>1</v>
@@ -1652,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1697,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="BM6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6" t="s">
         <v>175</v>
@@ -1729,7 +1737,7 @@
         <v>77</v>
       </c>
       <c r="E7" s="1">
-        <v>45365</v>
+        <v>45390</v>
       </c>
       <c r="F7" t="s">
         <v>81</v>
@@ -1738,22 +1746,22 @@
         <v>81</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1762,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1771,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
@@ -1788,9 +1796,11 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC7" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -1801,15 +1811,17 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN7" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0</v>
+      </c>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2">
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>45394</v>
+        <v>45401</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
@@ -1819,22 +1831,22 @@
       </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -1846,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
         <v>0</v>
@@ -1905,28 +1917,28 @@
         <v>77</v>
       </c>
       <c r="E8" s="1">
-        <v>45272</v>
+        <v>45069</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1964,16 +1976,14 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
@@ -1989,20 +1999,20 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>45294</v>
+        <v>45096</v>
       </c>
       <c r="AR8" s="2">
         <v>1</v>
       </c>
       <c r="AS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW8" s="2">
         <v>1</v>
@@ -2032,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2085,25 +2095,25 @@
         <v>77</v>
       </c>
       <c r="E9" s="1">
-        <v>45349</v>
+        <v>45390</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2124,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="s">
         <v>84</v>
@@ -2133,13 +2143,15 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
+      <c r="Z9" s="2">
+        <v>1</v>
+      </c>
       <c r="AA9" s="2"/>
       <c r="AB9" t="s">
         <v>84</v>
@@ -2155,15 +2167,17 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN9" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>0</v>
+      </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2">
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>45369</v>
+        <v>45413</v>
       </c>
       <c r="AR9" s="2">
         <v>1</v>
@@ -2173,22 +2187,22 @@
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2203,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
         <v>0</v>
@@ -2227,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="BM9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO9" t="s">
         <v>175</v>
@@ -2262,10 +2276,10 @@
         <v>45365</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -2435,13 +2449,13 @@
         <v>77</v>
       </c>
       <c r="E11" s="1">
-        <v>45298</v>
+        <v>45026</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -2483,13 +2497,11 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="2">
-        <v>1</v>
-      </c>
+      <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -2517,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>45316</v>
+        <v>45032</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
@@ -2527,7 +2539,7 @@
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV11" s="2">
         <v>3</v>
@@ -2557,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -2613,7 +2625,7 @@
         <v>77</v>
       </c>
       <c r="E12" s="1">
-        <v>45390</v>
+        <v>45270</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -2625,16 +2637,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -2652,24 +2664,24 @@
         <v>0</v>
       </c>
       <c r="R12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="T12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" t="s">
         <v>84</v>
@@ -2685,17 +2697,15 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2">
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>45413</v>
+        <v>45308</v>
       </c>
       <c r="AR12" s="2">
         <v>1</v>
@@ -2705,22 +2715,22 @@
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -2759,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="BM12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="s">
         <v>175</v>
@@ -2791,7 +2801,7 @@
         <v>77</v>
       </c>
       <c r="E13" s="1">
-        <v>45354</v>
+        <v>45328</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -2803,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -2812,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -2871,20 +2881,20 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <v>45369</v>
+        <v>45336</v>
       </c>
       <c r="AR13" s="2">
         <v>1</v>
       </c>
       <c r="AS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW13" s="2">
         <v>1</v>
@@ -2926,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="BJ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK13" s="2">
         <v>0</v>
@@ -2967,7 +2977,7 @@
         <v>77</v>
       </c>
       <c r="E14" s="1">
-        <v>45354</v>
+        <v>45319</v>
       </c>
       <c r="F14" t="s">
         <v>81</v>
@@ -2976,7 +2986,7 @@
         <v>81</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
         <v>89</v>
@@ -3039,25 +3049,27 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN14" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>1</v>
+      </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2">
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>45369</v>
+        <v>45336</v>
       </c>
       <c r="AR14" s="2">
         <v>1</v>
       </c>
       <c r="AS14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV14" s="2">
         <v>4</v>
@@ -3090,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3143,19 +3155,19 @@
         <v>77</v>
       </c>
       <c r="E15" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -3164,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3215,17 +3227,15 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2">
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>45062</v>
+        <v>45369</v>
       </c>
       <c r="AR15" s="2">
         <v>1</v>
@@ -3235,11 +3245,11 @@
       </c>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV15" s="2">
         <v>3</v>
       </c>
-      <c r="AV15" s="2">
-        <v>2</v>
-      </c>
       <c r="AW15" s="2">
         <v>1</v>
       </c>
@@ -3247,10 +3257,10 @@
         <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
@@ -3280,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK15" s="2">
         <v>0</v>
@@ -3321,7 +3331,7 @@
         <v>77</v>
       </c>
       <c r="E16" s="1">
-        <v>45403</v>
+        <v>45354</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -3401,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>45420</v>
+        <v>45369</v>
       </c>
       <c r="AR16" s="2">
         <v>1</v>
@@ -3411,10 +3421,10 @@
       </c>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" s="2">
         <v>1</v>
@@ -3435,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="2">
         <v>0</v>
@@ -3500,16 +3510,16 @@
         <v>45333</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -3545,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -3556,7 +3566,7 @@
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC17" s="2">
         <v>0</v>
@@ -3677,13 +3687,13 @@
         <v>77</v>
       </c>
       <c r="E18" s="1">
-        <v>45270</v>
+        <v>45354</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -3757,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>45308</v>
+        <v>45370</v>
       </c>
       <c r="AR18" s="2">
         <v>1</v>
@@ -3770,7 +3780,7 @@
         <v>4</v>
       </c>
       <c r="AV18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW18" s="2">
         <v>1</v>
@@ -3853,7 +3863,7 @@
         <v>77</v>
       </c>
       <c r="E19" s="1">
-        <v>45312</v>
+        <v>45365</v>
       </c>
       <c r="F19" t="s">
         <v>80</v>
@@ -3862,10 +3872,10 @@
         <v>80</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -3874,10 +3884,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -3886,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -3895,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T19" s="2">
         <v>0</v>
@@ -3912,12 +3922,10 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -3935,32 +3943,32 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>45316</v>
+        <v>45394</v>
       </c>
       <c r="AR19" s="2">
         <v>1</v>
       </c>
       <c r="AS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -3972,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
         <v>0</v>
@@ -4031,19 +4039,19 @@
         <v>77</v>
       </c>
       <c r="E20" s="1">
-        <v>45354</v>
+        <v>45312</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -4052,10 +4060,10 @@
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -4064,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4073,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
@@ -4090,10 +4098,12 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
@@ -4111,32 +4121,32 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>45370</v>
+        <v>45316</v>
       </c>
       <c r="AR20" s="2">
         <v>1</v>
       </c>
       <c r="AS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -4148,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="2">
         <v>0</v>
@@ -4207,25 +4217,25 @@
         <v>77</v>
       </c>
       <c r="E21" s="1">
-        <v>45403</v>
+        <v>45404</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -4234,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4249,19 +4259,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2">
-        <v>1</v>
-      </c>
+      <c r="W21" s="2">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -4289,32 +4299,32 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>45419</v>
+        <v>45415</v>
       </c>
       <c r="AR21" s="2">
         <v>1</v>
       </c>
       <c r="AS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW21" s="2">
         <v>0</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
         <v>0</v>
@@ -4385,19 +4395,19 @@
         <v>77</v>
       </c>
       <c r="E22" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -4406,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -4427,58 +4437,64 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="2">
-        <v>1</v>
-      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
+      <c r="AL22" s="2">
+        <v>1</v>
+      </c>
       <c r="AM22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN22" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>1</v>
+      </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2">
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>45369</v>
+        <v>45259</v>
       </c>
       <c r="AR22" s="2">
         <v>1</v>
       </c>
       <c r="AS22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW22" s="2">
         <v>1</v>
@@ -4487,10 +4503,10 @@
         <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
         <v>0</v>
@@ -4561,19 +4577,19 @@
         <v>77</v>
       </c>
       <c r="E23" s="1">
-        <v>45263</v>
+        <v>45300</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -4620,10 +4636,12 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
+      <c r="AD23" s="2">
+        <v>1</v>
+      </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
@@ -4641,20 +4659,20 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>45294</v>
+        <v>45317</v>
       </c>
       <c r="AR23" s="2">
         <v>1</v>
       </c>
       <c r="AS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW23" s="2">
         <v>1</v>
@@ -4663,10 +4681,10 @@
         <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="2">
         <v>0</v>
@@ -4737,7 +4755,7 @@
         <v>77</v>
       </c>
       <c r="E24" s="1">
-        <v>45252</v>
+        <v>45315</v>
       </c>
       <c r="F24" t="s">
         <v>81</v>
@@ -4749,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -4809,17 +4827,15 @@
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN24" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2">
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>45261</v>
+        <v>45336</v>
       </c>
       <c r="AR24" s="2">
         <v>1</v>
@@ -4829,22 +4845,22 @@
       </c>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AV24" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
       </c>
       <c r="AY24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="2">
         <v>0</v>
@@ -4862,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -4915,7 +4931,7 @@
         <v>77</v>
       </c>
       <c r="E25" s="1">
-        <v>45298</v>
+        <v>45060</v>
       </c>
       <c r="F25" t="s">
         <v>80</v>
@@ -4924,10 +4940,10 @@
         <v>80</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -4936,10 +4952,10 @@
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
@@ -4948,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -4957,21 +4973,21 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="T25" s="2">
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
+      <c r="X25" s="2">
+        <v>1</v>
+      </c>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" t="s">
         <v>84</v>
@@ -4987,17 +5003,15 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN25" s="2">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2">
         <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>45317</v>
+        <v>45089</v>
       </c>
       <c r="AR25" s="2">
         <v>1</v>
@@ -5007,25 +5021,25 @@
       </c>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
         <v>0</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
@@ -5034,10 +5048,10 @@
         <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="2">
         <v>0</v>
@@ -5093,25 +5107,25 @@
         <v>77</v>
       </c>
       <c r="E26" s="1">
-        <v>45384</v>
+        <v>45041</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
@@ -5132,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" t="s">
         <v>84</v>
@@ -5141,15 +5155,15 @@
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
+      <c r="X26" s="2">
+        <v>1</v>
+      </c>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" t="s">
         <v>84</v>
@@ -5165,17 +5179,15 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN26" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2">
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>45413</v>
+        <v>45077</v>
       </c>
       <c r="AR26" s="2">
         <v>1</v>
@@ -5185,25 +5197,25 @@
       </c>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2">
+        <v>9</v>
+      </c>
+      <c r="AV26" s="2">
         <v>2</v>
       </c>
-      <c r="AV26" s="2">
-        <v>1</v>
-      </c>
       <c r="AW26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="2">
         <v>0</v>
       </c>
       <c r="AZ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="2">
         <v>0</v>
@@ -5215,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF26" s="2">
         <v>0</v>
@@ -5230,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK26" s="2">
         <v>0</v>
@@ -5239,10 +5251,10 @@
         <v>0</v>
       </c>
       <c r="BM26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO26" t="s">
         <v>175</v>
@@ -5271,7 +5283,7 @@
         <v>77</v>
       </c>
       <c r="E27" s="1">
-        <v>45354</v>
+        <v>45041</v>
       </c>
       <c r="F27" t="s">
         <v>80</v>
@@ -5283,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
@@ -5292,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -5343,15 +5355,17 @@
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN27" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>0</v>
+      </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2">
         <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>45369</v>
+        <v>45077</v>
       </c>
       <c r="AR27" s="2">
         <v>1</v>
@@ -5361,7 +5375,7 @@
       </c>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV27" s="2">
         <v>3</v>
@@ -5373,13 +5387,13 @@
         <v>1</v>
       </c>
       <c r="AY27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="2">
         <v>1</v>
       </c>
       <c r="BA27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="2">
         <v>0</v>
@@ -5391,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27" s="2">
         <v>0</v>
@@ -5406,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK27" s="2">
         <v>0</v>
@@ -5447,25 +5461,25 @@
         <v>77</v>
       </c>
       <c r="E28" s="1">
-        <v>45404</v>
+        <v>45252</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -5474,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -5489,19 +5503,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="V28" s="2"/>
-      <c r="W28" s="2">
-        <v>1</v>
-      </c>
-      <c r="X28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2">
+        <v>1</v>
+      </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
@@ -5529,26 +5543,26 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <v>45415</v>
+        <v>45261</v>
       </c>
       <c r="AR28" s="2">
         <v>1</v>
       </c>
       <c r="AS28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2">
         <v>2</v>
       </c>
       <c r="AV28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY28" s="2">
         <v>0</v>
@@ -5625,7 +5639,7 @@
         <v>77</v>
       </c>
       <c r="E29" s="1">
-        <v>45354</v>
+        <v>45271</v>
       </c>
       <c r="F29" t="s">
         <v>80</v>
@@ -5634,10 +5648,10 @@
         <v>80</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -5646,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -5684,10 +5698,12 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
+      <c r="AD29" s="2">
+        <v>1</v>
+      </c>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
@@ -5697,25 +5713,27 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN29" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>0</v>
+      </c>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2">
         <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AR29" s="2">
         <v>1</v>
       </c>
       <c r="AS29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV29" s="2">
         <v>3</v>
@@ -5801,13 +5819,13 @@
         <v>77</v>
       </c>
       <c r="E30" s="1">
-        <v>45252</v>
+        <v>45270</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -5873,7 +5891,7 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
@@ -5881,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>45260</v>
+        <v>45308</v>
       </c>
       <c r="AR30" s="2">
         <v>1</v>
@@ -5891,10 +5909,10 @@
       </c>
       <c r="AT30" s="2"/>
       <c r="AU30" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV30" s="2">
         <v>3</v>
-      </c>
-      <c r="AV30" s="2">
-        <v>2</v>
       </c>
       <c r="AW30" s="2">
         <v>1</v>
@@ -5977,16 +5995,16 @@
         <v>77</v>
       </c>
       <c r="E31" s="1">
-        <v>45319</v>
+        <v>45403</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
         <v>89</v>
@@ -6049,17 +6067,15 @@
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN31" s="2">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
       <c r="AP31" s="2">
         <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>45336</v>
+        <v>45420</v>
       </c>
       <c r="AR31" s="2">
         <v>1</v>
@@ -6069,7 +6085,7 @@
       </c>
       <c r="AT31" s="2"/>
       <c r="AU31" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV31" s="2">
         <v>4</v>
@@ -6093,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="BC31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD31" s="2">
         <v>0</v>
@@ -6102,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="BF31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG31" s="2">
         <v>0</v>
@@ -6155,13 +6171,13 @@
         <v>77</v>
       </c>
       <c r="E32" s="1">
-        <v>45340</v>
+        <v>45354</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -6227,27 +6243,25 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2">
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="AR32" s="2">
         <v>1</v>
       </c>
       <c r="AS32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV32" s="2">
         <v>3</v>
@@ -6333,13 +6347,13 @@
         <v>77</v>
       </c>
       <c r="E33" s="1">
-        <v>45263</v>
+        <v>45329</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -6381,11 +6395,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
+      <c r="X33" s="2">
+        <v>1</v>
+      </c>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
@@ -6413,20 +6429,20 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>45294</v>
+        <v>45369</v>
       </c>
       <c r="AR33" s="2">
         <v>1</v>
       </c>
       <c r="AS33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="2"/>
       <c r="AU33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV33" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW33" s="2">
         <v>1</v>
@@ -6509,25 +6525,25 @@
         <v>77</v>
       </c>
       <c r="E34" s="1">
-        <v>45252</v>
+        <v>45403</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
@@ -6536,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
@@ -6551,51 +6567,47 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="T34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
+      <c r="W34" s="2">
+        <v>1</v>
+      </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="AC34" s="2"/>
-      <c r="AD34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
-      <c r="AL34" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL34" s="2"/>
       <c r="AM34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO34" s="2"/>
       <c r="AP34" s="2">
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>45259</v>
+        <v>45415</v>
       </c>
       <c r="AR34" s="2">
         <v>1</v>
@@ -6605,16 +6617,16 @@
       </c>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV34" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="2">
         <v>0</v>
@@ -6691,13 +6703,13 @@
         <v>77</v>
       </c>
       <c r="E35" s="1">
-        <v>45329</v>
+        <v>45354</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -6759,9 +6771,7 @@
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
-      <c r="AJ35" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" t="s">
@@ -6779,14 +6789,14 @@
         <v>1</v>
       </c>
       <c r="AS35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV35" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW35" s="2">
         <v>1</v>
@@ -6869,7 +6879,7 @@
         <v>77</v>
       </c>
       <c r="E36" s="1">
-        <v>45060</v>
+        <v>45404</v>
       </c>
       <c r="F36" t="s">
         <v>81</v>
@@ -6881,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -6890,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -6911,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="T36" s="2">
         <v>0</v>
@@ -6949,17 +6959,17 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>45089</v>
+        <v>45420</v>
       </c>
       <c r="AR36" s="2">
         <v>1</v>
       </c>
       <c r="AS36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV36" s="2">
         <v>2</v>
@@ -6974,10 +6984,10 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="2">
         <v>0</v>
@@ -7045,7 +7055,7 @@
         <v>77</v>
       </c>
       <c r="E37" s="1">
-        <v>45354</v>
+        <v>45069</v>
       </c>
       <c r="F37" t="s">
         <v>80</v>
@@ -7054,10 +7064,10 @@
         <v>80</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -7066,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
@@ -7104,10 +7114,12 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
+      <c r="AD37" s="2">
+        <v>1</v>
+      </c>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
@@ -7125,17 +7137,17 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>45369</v>
+        <v>45089</v>
       </c>
       <c r="AR37" s="2">
         <v>1</v>
       </c>
       <c r="AS37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV37" s="2">
         <v>2</v>
@@ -7221,34 +7233,34 @@
         <v>77</v>
       </c>
       <c r="E38" s="1">
-        <v>45403</v>
+        <v>45286</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
@@ -7263,26 +7275,26 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="T38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V38" s="2"/>
-      <c r="W38" s="2">
-        <v>1</v>
-      </c>
+      <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>1</v>
+      </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
@@ -7293,27 +7305,27 @@
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
       <c r="AM38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38" s="2"/>
       <c r="AP38" s="2">
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>45415</v>
+        <v>45308</v>
       </c>
       <c r="AR38" s="2">
         <v>1</v>
       </c>
       <c r="AS38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV38" s="2">
         <v>1</v>
@@ -7322,13 +7334,13 @@
         <v>0</v>
       </c>
       <c r="AX38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA38" s="2">
         <v>0</v>
@@ -7399,19 +7411,19 @@
         <v>77</v>
       </c>
       <c r="E39" s="1">
-        <v>45041</v>
+        <v>45034</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
@@ -7458,9 +7470,11 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
@@ -7471,15 +7485,17 @@
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN39" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>0</v>
+      </c>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2">
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>45077</v>
+        <v>45054</v>
       </c>
       <c r="AR39" s="2">
         <v>1</v>
@@ -7489,13 +7505,13 @@
       </c>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="2">
         <v>1</v>
@@ -7519,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="BE39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF39" s="2">
         <v>0</v>
@@ -7534,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="BJ39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK39" s="2">
         <v>0</v>
@@ -7575,7 +7591,7 @@
         <v>77</v>
       </c>
       <c r="E40" s="1">
-        <v>45270</v>
+        <v>45354</v>
       </c>
       <c r="F40" t="s">
         <v>81</v>
@@ -7647,7 +7663,7 @@
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
@@ -7655,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>45308</v>
+        <v>45369</v>
       </c>
       <c r="AR40" s="2">
         <v>1</v>
@@ -7665,7 +7681,7 @@
       </c>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV40" s="2">
         <v>3</v>
@@ -7751,13 +7767,13 @@
         <v>77</v>
       </c>
       <c r="E41" s="1">
-        <v>45286</v>
+        <v>45365</v>
       </c>
       <c r="F41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
@@ -7799,41 +7815,41 @@
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
+      <c r="X41" s="2">
+        <v>1</v>
+      </c>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC41" s="2">
-        <v>1</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
-      <c r="AG41" s="2"/>
+      <c r="AG41" s="2">
+        <v>1</v>
+      </c>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN41" s="2">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="2">
         <v>0</v>
       </c>
       <c r="AQ41" s="1">
-        <v>45308</v>
+        <v>45399</v>
       </c>
       <c r="AR41" s="2">
         <v>1</v>
@@ -7843,7 +7859,7 @@
       </c>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV41" s="2">
         <v>1</v>
@@ -7929,7 +7945,7 @@
         <v>77</v>
       </c>
       <c r="E42" s="1">
-        <v>45069</v>
+        <v>45354</v>
       </c>
       <c r="F42" t="s">
         <v>81</v>
@@ -7941,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -8001,45 +8017,43 @@
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
       <c r="AM42" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN42" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
       <c r="AP42" s="2">
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>45096</v>
+        <v>45370</v>
       </c>
       <c r="AR42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="2"/>
       <c r="AU42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV42" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX42" s="2">
         <v>1</v>
       </c>
       <c r="AY42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ42" s="2">
         <v>1</v>
       </c>
       <c r="BA42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="2">
         <v>0</v>
@@ -8107,31 +8121,31 @@
         <v>77</v>
       </c>
       <c r="E43" s="1">
-        <v>45390</v>
+        <v>45041</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
@@ -8140,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="2">
         <v>0</v>
@@ -8149,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
@@ -8166,11 +8180,9 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC43" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
@@ -8191,26 +8203,26 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>45401</v>
+        <v>45062</v>
       </c>
       <c r="AR43" s="2">
         <v>1</v>
       </c>
       <c r="AS43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43" s="2"/>
       <c r="AU43" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY43" s="2">
         <v>0</v>
@@ -8228,10 +8240,10 @@
         <v>0</v>
       </c>
       <c r="BD43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF43" s="2">
         <v>0</v>
@@ -8287,13 +8299,13 @@
         <v>77</v>
       </c>
       <c r="E44" s="1">
-        <v>45354</v>
+        <v>45270</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -8367,20 +8379,20 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>45369</v>
+        <v>45308</v>
       </c>
       <c r="AR44" s="2">
         <v>1</v>
       </c>
       <c r="AS44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="2"/>
       <c r="AU44" s="2">
         <v>4</v>
       </c>
       <c r="AV44" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW44" s="2">
         <v>1</v>
@@ -8463,7 +8475,7 @@
         <v>77</v>
       </c>
       <c r="E45" s="1">
-        <v>45034</v>
+        <v>45390</v>
       </c>
       <c r="F45" t="s">
         <v>81</v>
@@ -8475,13 +8487,13 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="2">
         <v>0</v>
@@ -8502,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" t="s">
         <v>84</v>
@@ -8511,18 +8523,18 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
-      <c r="X45" s="2">
-        <v>1</v>
-      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
+      <c r="Z45" s="2">
+        <v>1</v>
+      </c>
       <c r="AA45" s="2"/>
       <c r="AB45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC45" s="2">
         <v>0</v>
@@ -8547,35 +8559,35 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>45054</v>
+        <v>45401</v>
       </c>
       <c r="AR45" s="2">
         <v>1</v>
       </c>
       <c r="AS45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV45" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW45" s="2">
         <v>0</v>
       </c>
       <c r="AX45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY45" s="2">
         <v>0</v>
       </c>
       <c r="AZ45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="2">
         <v>0</v>
@@ -8611,10 +8623,10 @@
         <v>0</v>
       </c>
       <c r="BM45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO45" t="s">
         <v>175</v>
@@ -8643,19 +8655,19 @@
         <v>77</v>
       </c>
       <c r="E46" s="1">
-        <v>45354</v>
+        <v>45403</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -8664,7 +8676,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="2">
         <v>0</v>
@@ -8715,15 +8727,17 @@
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
       <c r="AM46" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN46" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN46" s="2">
+        <v>0</v>
+      </c>
       <c r="AO46" s="2"/>
       <c r="AP46" s="2">
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>45370</v>
+        <v>45419</v>
       </c>
       <c r="AR46" s="2">
         <v>1</v>
@@ -8733,13 +8747,13 @@
       </c>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX46" s="2">
         <v>1</v>
@@ -8819,7 +8833,7 @@
         <v>77</v>
       </c>
       <c r="E47" s="1">
-        <v>45354</v>
+        <v>45034</v>
       </c>
       <c r="F47" t="s">
         <v>80</v>
@@ -8828,10 +8842,10 @@
         <v>80</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -8840,7 +8854,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="2">
         <v>0</v>
@@ -8878,9 +8892,11 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>0</v>
+      </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
@@ -8891,15 +8907,17 @@
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
       <c r="AM47" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN47" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>0</v>
+      </c>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2">
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>45370</v>
+        <v>45050</v>
       </c>
       <c r="AR47" s="2">
         <v>1</v>
@@ -8912,19 +8930,19 @@
         <v>4</v>
       </c>
       <c r="AV47" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX47" s="2">
         <v>1</v>
       </c>
       <c r="AY47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA47" s="2">
         <v>0</v>
@@ -8995,19 +9013,19 @@
         <v>77</v>
       </c>
       <c r="E48" s="1">
-        <v>45270</v>
+        <v>45069</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -9037,10 +9055,10 @@
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="T48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" t="s">
         <v>116</v>
@@ -9067,28 +9085,30 @@
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
       <c r="AM48" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN48" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN48" s="2">
+        <v>0</v>
+      </c>
       <c r="AO48" s="2"/>
       <c r="AP48" s="2">
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>45308</v>
+        <v>45089</v>
       </c>
       <c r="AR48" s="2">
         <v>1</v>
       </c>
       <c r="AS48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="2"/>
       <c r="AU48" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV48" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW48" s="2">
         <v>1</v>
@@ -9171,19 +9191,19 @@
         <v>77</v>
       </c>
       <c r="E49" s="1">
-        <v>45263</v>
+        <v>45034</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -9192,7 +9212,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -9230,18 +9250,18 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>0</v>
+      </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
-      <c r="AJ49" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" t="s">
@@ -9255,17 +9275,17 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>45294</v>
+        <v>45050</v>
       </c>
       <c r="AR49" s="2">
         <v>1</v>
       </c>
       <c r="AS49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV49" s="2">
         <v>2</v>
@@ -9280,10 +9300,10 @@
         <v>0</v>
       </c>
       <c r="AZ49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="2">
         <v>0</v>
@@ -9351,25 +9371,25 @@
         <v>77</v>
       </c>
       <c r="E50" s="1">
-        <v>45404</v>
+        <v>45260</v>
       </c>
       <c r="F50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2">
         <v>0</v>
@@ -9390,35 +9410,41 @@
         <v>0</v>
       </c>
       <c r="R50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="T50" s="2">
         <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-      <c r="X50" s="2">
-        <v>1</v>
-      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
+      <c r="Z50" s="2">
+        <v>1</v>
+      </c>
       <c r="AA50" s="2"/>
       <c r="AB50" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
+      <c r="AD50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>1</v>
+      </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
-      <c r="AI50" s="2"/>
+      <c r="AI50" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ50" s="2"/>
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
@@ -9431,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>45420</v>
+        <v>45316</v>
       </c>
       <c r="AR50" s="2">
         <v>1</v>
@@ -9441,16 +9467,16 @@
       </c>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY50" s="2">
         <v>0</v>
@@ -9495,10 +9521,10 @@
         <v>0</v>
       </c>
       <c r="BM50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO50" t="s">
         <v>175</v>
@@ -9527,28 +9553,28 @@
         <v>77</v>
       </c>
       <c r="E51" s="1">
-        <v>45390</v>
+        <v>45263</v>
       </c>
       <c r="F51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="2">
         <v>0</v>
@@ -9566,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" t="s">
         <v>84</v>
@@ -9575,29 +9601,29 @@
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
+      <c r="X51" s="2">
+        <v>1</v>
+      </c>
       <c r="Y51" s="2"/>
-      <c r="Z51" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC51" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
-      <c r="AJ51" s="2"/>
+      <c r="AJ51" s="2">
+        <v>1</v>
+      </c>
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
       <c r="AM51" t="s">
@@ -9611,35 +9637,35 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>45401</v>
+        <v>45294</v>
       </c>
       <c r="AR51" s="2">
         <v>1</v>
       </c>
       <c r="AS51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV51" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY51" s="2">
         <v>0</v>
       </c>
       <c r="AZ51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB51" s="2">
         <v>0</v>
@@ -9675,10 +9701,10 @@
         <v>0</v>
       </c>
       <c r="BM51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO51" t="s">
         <v>175</v>
@@ -9707,7 +9733,7 @@
         <v>77</v>
       </c>
       <c r="E52" s="1">
-        <v>45244</v>
+        <v>45045</v>
       </c>
       <c r="F52" t="s">
         <v>81</v>
@@ -9719,19 +9745,19 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="2">
         <v>0</v>
@@ -9740,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="2">
         <v>0</v>
@@ -9749,13 +9775,13 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
@@ -9779,15 +9805,17 @@
       <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
       <c r="AM52" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN52" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN52" s="2">
+        <v>0</v>
+      </c>
       <c r="AO52" s="2"/>
       <c r="AP52" s="2">
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <v>45260</v>
+        <v>45062</v>
       </c>
       <c r="AR52" s="2">
         <v>1</v>
@@ -9800,19 +9828,19 @@
         <v>3</v>
       </c>
       <c r="AV52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA52" s="2">
         <v>0</v>
@@ -9824,10 +9852,10 @@
         <v>0</v>
       </c>
       <c r="BD52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF52" s="2">
         <v>0</v>
@@ -9883,19 +9911,19 @@
         <v>77</v>
       </c>
       <c r="E53" s="1">
-        <v>45034</v>
+        <v>45366</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -9904,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="2">
         <v>0</v>
@@ -9942,11 +9970,9 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC53" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
@@ -9957,17 +9983,15 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN53" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2">
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>45050</v>
+        <v>45421</v>
       </c>
       <c r="AR53" s="2">
         <v>1</v>
@@ -9977,10 +10001,10 @@
       </c>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV53" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW53" s="2">
         <v>1</v>
@@ -10063,19 +10087,19 @@
         <v>77</v>
       </c>
       <c r="E54" s="1">
-        <v>45026</v>
+        <v>45298</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -10084,10 +10108,10 @@
         <v>1</v>
       </c>
       <c r="L54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" s="2">
         <v>0</v>
@@ -10096,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="2">
         <v>0</v>
@@ -10105,19 +10129,21 @@
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
+      <c r="Z54" s="2">
+        <v>1</v>
+      </c>
       <c r="AA54" s="2"/>
       <c r="AB54" t="s">
         <v>84</v>
@@ -10133,17 +10159,17 @@
       <c r="AK54" s="2"/>
       <c r="AL54" s="2"/>
       <c r="AM54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO54" s="2"/>
       <c r="AP54" s="2">
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>45032</v>
+        <v>45317</v>
       </c>
       <c r="AR54" s="2">
         <v>1</v>
@@ -10153,22 +10179,22 @@
       </c>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AV54" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="2">
         <v>0</v>
@@ -10180,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE54" s="2">
         <v>1</v>
@@ -10198,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK54" s="2">
         <v>0</v>
@@ -10239,19 +10265,19 @@
         <v>77</v>
       </c>
       <c r="E55" s="1">
-        <v>45300</v>
+        <v>45252</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -10260,7 +10286,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="2">
         <v>0</v>
@@ -10298,12 +10324,10 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="AC55" s="2"/>
-      <c r="AD55" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
@@ -10321,23 +10345,23 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>45317</v>
+        <v>45260</v>
       </c>
       <c r="AR55" s="2">
         <v>1</v>
       </c>
       <c r="AS55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT55" s="2"/>
       <c r="AU55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV55" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX55" s="2">
         <v>1</v>
@@ -10417,19 +10441,19 @@
         <v>77</v>
       </c>
       <c r="E56" s="1">
-        <v>45365</v>
+        <v>45041</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -10438,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="2">
         <v>0</v>
@@ -10476,15 +10500,13 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
-      <c r="AG56" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
@@ -10499,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>45399</v>
+        <v>45062</v>
       </c>
       <c r="AR56" s="2">
         <v>1</v>
@@ -10509,13 +10531,13 @@
       </c>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX56" s="2">
         <v>1</v>
@@ -10539,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF56" s="2">
         <v>0</v>
@@ -10595,28 +10617,28 @@
         <v>77</v>
       </c>
       <c r="E57" s="1">
-        <v>45260</v>
+        <v>45354</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
@@ -10634,41 +10656,35 @@
         <v>0</v>
       </c>
       <c r="R57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
+      <c r="X57" s="2">
+        <v>1</v>
+      </c>
       <c r="Y57" s="2"/>
-      <c r="Z57" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="AC57" s="2"/>
-      <c r="AD57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE57" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
-      <c r="AI57" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
@@ -10681,32 +10697,32 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>45316</v>
+        <v>45369</v>
       </c>
       <c r="AR57" s="2">
         <v>1</v>
       </c>
       <c r="AS57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV57" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA57" s="2">
         <v>0</v>
@@ -10745,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="BM57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO57" t="s">
         <v>175</v>
@@ -10780,10 +10796,10 @@
         <v>45354</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -10857,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="1">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="AR58" s="2">
         <v>1</v>
@@ -10867,10 +10883,10 @@
       </c>
       <c r="AT58" s="2"/>
       <c r="AU58" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV58" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW58" s="2">
         <v>1</v>
@@ -10953,31 +10969,31 @@
         <v>77</v>
       </c>
       <c r="E59" s="1">
-        <v>45045</v>
+        <v>45312</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="2">
         <v>0</v>
       </c>
       <c r="M59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="2">
         <v>0</v>
@@ -10986,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="2">
         <v>0</v>
@@ -10995,13 +11011,13 @@
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T59" s="2">
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
@@ -11012,9 +11028,11 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>0</v>
+      </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
@@ -11025,36 +11043,34 @@
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
       <c r="AM59" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN59" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN59" s="2"/>
       <c r="AO59" s="2"/>
       <c r="AP59" s="2">
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>45062</v>
+        <v>45348</v>
       </c>
       <c r="AR59" s="2">
         <v>1</v>
       </c>
       <c r="AS59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="2"/>
       <c r="AU59" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY59" s="2">
         <v>0</v>
@@ -11072,10 +11088,10 @@
         <v>0</v>
       </c>
       <c r="BD59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="2">
         <v>0</v>
@@ -11131,19 +11147,19 @@
         <v>77</v>
       </c>
       <c r="E60" s="1">
-        <v>45041</v>
+        <v>45263</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -11152,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="2">
         <v>0</v>
@@ -11179,13 +11195,11 @@
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
-      <c r="X60" s="2">
-        <v>1</v>
-      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
@@ -11199,34 +11213,34 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
-      <c r="AJ60" s="2"/>
+      <c r="AJ60" s="2">
+        <v>1</v>
+      </c>
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
       <c r="AM60" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN60" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
       <c r="AP60" s="2">
         <v>0</v>
       </c>
       <c r="AQ60" s="1">
-        <v>45077</v>
+        <v>45294</v>
       </c>
       <c r="AR60" s="2">
         <v>1</v>
       </c>
       <c r="AS60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="2"/>
       <c r="AU60" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AV60" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW60" s="2">
         <v>1</v>
@@ -11235,13 +11249,13 @@
         <v>1</v>
       </c>
       <c r="AY60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ60" s="2">
         <v>1</v>
       </c>
       <c r="BA60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="2">
         <v>0</v>
@@ -11253,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="BE60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF60" s="2">
         <v>0</v>
@@ -11268,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="2">
         <v>0</v>
@@ -11309,7 +11323,7 @@
         <v>77</v>
       </c>
       <c r="E61" s="1">
-        <v>45069</v>
+        <v>45354</v>
       </c>
       <c r="F61" t="s">
         <v>81</v>
@@ -11321,7 +11335,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
@@ -11381,17 +11395,15 @@
       <c r="AK61" s="2"/>
       <c r="AL61" s="2"/>
       <c r="AM61" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN61" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
       <c r="AP61" s="2">
         <v>0</v>
       </c>
       <c r="AQ61" s="1">
-        <v>45096</v>
+        <v>45394</v>
       </c>
       <c r="AR61" s="2">
         <v>1</v>
@@ -11401,13 +11413,13 @@
       </c>
       <c r="AT61" s="2"/>
       <c r="AU61" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX61" s="2">
         <v>1</v>
@@ -11487,7 +11499,7 @@
         <v>77</v>
       </c>
       <c r="E62" s="1">
-        <v>45315</v>
+        <v>45252</v>
       </c>
       <c r="F62" t="s">
         <v>80</v>
@@ -11499,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -11508,7 +11520,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="2">
         <v>0</v>
@@ -11567,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="AQ62" s="1">
-        <v>45336</v>
+        <v>45260</v>
       </c>
       <c r="AR62" s="2">
         <v>1</v>
@@ -11577,13 +11589,13 @@
       </c>
       <c r="AT62" s="2"/>
       <c r="AU62" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AV62" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX62" s="2">
         <v>1</v>
@@ -11610,7 +11622,7 @@
         <v>0</v>
       </c>
       <c r="BF62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG62" s="2">
         <v>0</v>
@@ -11663,13 +11675,13 @@
         <v>77</v>
       </c>
       <c r="E63" s="1">
-        <v>45354</v>
+        <v>45298</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -11745,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>45394</v>
+        <v>45316</v>
       </c>
       <c r="AR63" s="2">
         <v>1</v>
@@ -11755,7 +11767,7 @@
       </c>
       <c r="AT63" s="2"/>
       <c r="AU63" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV63" s="2">
         <v>3</v>
@@ -11800,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK63" s="2">
         <v>0</v>
@@ -11841,19 +11853,19 @@
         <v>77</v>
       </c>
       <c r="E64" s="1">
-        <v>45041</v>
+        <v>45069</v>
       </c>
       <c r="F64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
@@ -11862,7 +11874,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="2">
         <v>0</v>
@@ -11913,43 +11925,45 @@
       <c r="AK64" s="2"/>
       <c r="AL64" s="2"/>
       <c r="AM64" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN64" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN64" s="2">
+        <v>0</v>
+      </c>
       <c r="AO64" s="2"/>
       <c r="AP64" s="2">
         <v>0</v>
       </c>
       <c r="AQ64" s="1">
-        <v>45062</v>
+        <v>45096</v>
       </c>
       <c r="AR64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS64" s="2">
         <v>1</v>
       </c>
       <c r="AT64" s="2"/>
       <c r="AU64" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV64" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX64" s="2">
         <v>1</v>
       </c>
       <c r="AY64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ64" s="2">
         <v>1</v>
       </c>
       <c r="BA64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB64" s="2">
         <v>0</v>
@@ -11961,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="BE64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF64" s="2">
         <v>0</v>
@@ -12017,31 +12031,31 @@
         <v>77</v>
       </c>
       <c r="E65" s="1">
-        <v>45029</v>
+        <v>45354</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" s="2">
         <v>0</v>
@@ -12050,7 +12064,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="2">
         <v>0</v>
@@ -12059,13 +12073,13 @@
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T65" s="2">
         <v>0</v>
       </c>
       <c r="U65" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
@@ -12089,17 +12103,15 @@
       <c r="AK65" s="2"/>
       <c r="AL65" s="2"/>
       <c r="AM65" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN65" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN65" s="2"/>
       <c r="AO65" s="2"/>
       <c r="AP65" s="2">
         <v>0</v>
       </c>
       <c r="AQ65" s="1">
-        <v>45050</v>
+        <v>45370</v>
       </c>
       <c r="AR65" s="2">
         <v>1</v>
@@ -12118,13 +12130,13 @@
         <v>0</v>
       </c>
       <c r="AX65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA65" s="2">
         <v>0</v>
@@ -12136,10 +12148,10 @@
         <v>0</v>
       </c>
       <c r="BD65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF65" s="2">
         <v>0</v>
@@ -12195,7 +12207,7 @@
         <v>77</v>
       </c>
       <c r="E66" s="1">
-        <v>45069</v>
+        <v>45354</v>
       </c>
       <c r="F66" t="s">
         <v>81</v>
@@ -12207,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
@@ -12277,17 +12289,17 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="1">
-        <v>45089</v>
+        <v>45394</v>
       </c>
       <c r="AR66" s="2">
         <v>1</v>
       </c>
       <c r="AS66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT66" s="2"/>
       <c r="AU66" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV66" s="2">
         <v>3</v>
@@ -12373,7 +12385,7 @@
         <v>77</v>
       </c>
       <c r="E67" s="1">
-        <v>45270</v>
+        <v>45349</v>
       </c>
       <c r="F67" t="s">
         <v>81</v>
@@ -12385,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J67" s="2">
         <v>1</v>
@@ -12394,7 +12406,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" s="2">
         <v>0</v>
@@ -12421,13 +12433,11 @@
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
-      <c r="X67" s="2">
-        <v>1</v>
-      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
@@ -12453,20 +12463,20 @@
         <v>0</v>
       </c>
       <c r="AQ67" s="1">
-        <v>45308</v>
+        <v>45369</v>
       </c>
       <c r="AR67" s="2">
         <v>1</v>
       </c>
       <c r="AS67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT67" s="2"/>
       <c r="AU67" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV67" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW67" s="2">
         <v>1</v>
@@ -12493,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="BE67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF67" s="2">
         <v>0</v>
@@ -12549,19 +12559,19 @@
         <v>77</v>
       </c>
       <c r="E68" s="1">
-        <v>45034</v>
+        <v>45270</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J68" s="2">
         <v>1</v>
@@ -12570,7 +12580,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" s="2">
         <v>0</v>
@@ -12608,11 +12618,9 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
       <c r="AB68" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC68" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
@@ -12623,30 +12631,28 @@
       <c r="AK68" s="2"/>
       <c r="AL68" s="2"/>
       <c r="AM68" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN68" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN68" s="2"/>
       <c r="AO68" s="2"/>
       <c r="AP68" s="2">
         <v>0</v>
       </c>
       <c r="AQ68" s="1">
-        <v>45050</v>
+        <v>45308</v>
       </c>
       <c r="AR68" s="2">
         <v>1</v>
       </c>
       <c r="AS68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="2"/>
       <c r="AU68" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV68" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW68" s="2">
         <v>1</v>
@@ -12655,10 +12661,10 @@
         <v>1</v>
       </c>
       <c r="AY68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA68" s="2">
         <v>0</v>
@@ -12729,19 +12735,19 @@
         <v>77</v>
       </c>
       <c r="E69" s="1">
-        <v>45069</v>
+        <v>45263</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
@@ -12788,12 +12794,10 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
       <c r="AB69" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="AC69" s="2"/>
-      <c r="AD69" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
@@ -12811,20 +12815,20 @@
         <v>0</v>
       </c>
       <c r="AQ69" s="1">
-        <v>45089</v>
+        <v>45294</v>
       </c>
       <c r="AR69" s="2">
         <v>1</v>
       </c>
       <c r="AS69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT69" s="2"/>
       <c r="AU69" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV69" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW69" s="2">
         <v>1</v>
@@ -12833,10 +12837,10 @@
         <v>1</v>
       </c>
       <c r="AY69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA69" s="2">
         <v>0</v>
@@ -12907,19 +12911,19 @@
         <v>77</v>
       </c>
       <c r="E70" s="1">
-        <v>45271</v>
+        <v>45244</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -12928,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="2">
         <v>0</v>
@@ -12966,12 +12970,10 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="AC70" s="2"/>
-      <c r="AD70" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
@@ -12981,17 +12983,15 @@
       <c r="AK70" s="2"/>
       <c r="AL70" s="2"/>
       <c r="AM70" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN70" s="2">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AN70" s="2"/>
       <c r="AO70" s="2"/>
       <c r="AP70" s="2">
         <v>0</v>
       </c>
       <c r="AQ70" s="1">
-        <v>45294</v>
+        <v>45260</v>
       </c>
       <c r="AR70" s="2">
         <v>1</v>
@@ -13001,10 +13001,10 @@
       </c>
       <c r="AT70" s="2"/>
       <c r="AU70" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV70" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW70" s="2">
         <v>1</v>
@@ -13090,10 +13090,10 @@
         <v>45326</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>

--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -18,213 +18,213 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600898</t>
+  </si>
+  <si>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>600374</t>
+  </si>
+  <si>
+    <t>600758</t>
+  </si>
+  <si>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>600978</t>
+  </si>
+  <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>600812</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>500906</t>
+  </si>
+  <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>500684</t>
+  </si>
+  <si>
+    <t>400238</t>
+  </si>
+  <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>600896</t>
+  </si>
+  <si>
+    <t>600360</t>
+  </si>
+  <si>
+    <t>600886</t>
+  </si>
+  <si>
+    <t>600398</t>
+  </si>
+  <si>
+    <t>600383</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>600882</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
+    <t>600614</t>
+  </si>
+  <si>
+    <t>500005</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
+    <t>600996</t>
+  </si>
+  <si>
+    <t>600856</t>
+  </si>
+  <si>
+    <t>600699</t>
+  </si>
+  <si>
+    <t>600947</t>
+  </si>
+  <si>
+    <t>600322</t>
+  </si>
+  <si>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>600919</t>
+  </si>
+  <si>
+    <t>600853</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>600366</t>
+  </si>
+  <si>
+    <t>600381</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
+    <t>600604</t>
+  </si>
+  <si>
+    <t>600961</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
     <t>600309</t>
   </si>
   <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>600640</t>
+  </si>
+  <si>
     <t>600727</t>
   </si>
   <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>600919</t>
-  </si>
-  <si>
-    <t>600886</t>
+    <t>600865</t>
+  </si>
+  <si>
+    <t>600326</t>
+  </si>
+  <si>
+    <t>600687</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>600310</t>
+  </si>
+  <si>
+    <t>600775</t>
+  </si>
+  <si>
+    <t>600346</t>
+  </si>
+  <si>
+    <t>600822</t>
+  </si>
+  <si>
+    <t>600672</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
+    <t>600611</t>
   </si>
   <si>
     <t>500454</t>
   </si>
   <si>
-    <t>600882</t>
-  </si>
-  <si>
-    <t>600812</t>
-  </si>
-  <si>
-    <t>400224</t>
-  </si>
-  <si>
-    <t>600396</t>
-  </si>
-  <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>600780</t>
-  </si>
-  <si>
-    <t>600640</t>
-  </si>
-  <si>
-    <t>600982</t>
-  </si>
-  <si>
-    <t>600682</t>
-  </si>
-  <si>
-    <t>600856</t>
-  </si>
-  <si>
-    <t>600374</t>
-  </si>
-  <si>
-    <t>600786</t>
-  </si>
-  <si>
-    <t>600610</t>
-  </si>
-  <si>
     <t>500025</t>
   </si>
   <si>
-    <t>500005</t>
-  </si>
-  <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>600366</t>
-  </si>
-  <si>
-    <t>600322</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>600898</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>600978</t>
-  </si>
-  <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>600896</t>
-  </si>
-  <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>600346</t>
-  </si>
-  <si>
-    <t>400230</t>
-  </si>
-  <si>
-    <t>600614</t>
-  </si>
-  <si>
-    <t>600996</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>500901</t>
-  </si>
-  <si>
-    <t>600383</t>
-  </si>
-  <si>
-    <t>600853</t>
-  </si>
-  <si>
-    <t>600865</t>
-  </si>
-  <si>
-    <t>400238</t>
-  </si>
-  <si>
-    <t>500951</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>600604</t>
-  </si>
-  <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>500355</t>
-  </si>
-  <si>
-    <t>600822</t>
-  </si>
-  <si>
-    <t>600775</t>
-  </si>
-  <si>
-    <t>600310</t>
-  </si>
-  <si>
     <t>500221</t>
   </si>
   <si>
-    <t>600602</t>
-  </si>
-  <si>
-    <t>600611</t>
-  </si>
-  <si>
-    <t>600687</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>600947</t>
-  </si>
-  <si>
-    <t>600360</t>
-  </si>
-  <si>
-    <t>600703</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>600961</t>
-  </si>
-  <si>
-    <t>600758</t>
-  </si>
-  <si>
-    <t>600326</t>
-  </si>
-  <si>
-    <t>600398</t>
-  </si>
-  <si>
-    <t>600388</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -255,18 +255,18 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>spatula</t>
+    <t>pill</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>pill</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -279,36 +279,36 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>benzodiazepine</t>
+  </si>
+  <si>
+    <t>xylazine; fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>cocaine; fentanyl</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>xylazine; fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>cocaine; fentanyl</t>
-  </si>
-  <si>
-    <t>benzodiazepine</t>
-  </si>
-  <si>
     <t>fentanyl; crack</t>
   </si>
   <si>
@@ -342,21 +342,21 @@
     <t>color</t>
   </si>
   <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>brown</t>
   </si>
   <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>gray</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -366,15 +366,15 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>rock; crystals</t>
+  </si>
+  <si>
     <t>powder; chunky; rock</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>rock; crystals</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
@@ -390,33 +390,33 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>unpleasant; hallucinations</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>weird; sedating</t>
+  </si>
+  <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>long; unpleasant; hallucinations</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>unpleasant; hallucinations</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>weird; sedating</t>
-  </si>
-  <si>
     <t>stronger</t>
   </si>
   <si>
-    <t>sedating</t>
-  </si>
-  <si>
-    <t>long; unpleasant; hallucinations</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -450,10 +450,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>involved in OD</t>
+  </si>
+  <si>
     <t>not overdose related</t>
-  </si>
-  <si>
-    <t>involved in OD</t>
   </si>
   <si>
     <t>od</t>
@@ -689,7 +689,7 @@
         <v>121</v>
       </c>
       <c r="W1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X1" t="s">
         <v>116</v>
@@ -698,7 +698,7 @@
         <v>122</v>
       </c>
       <c r="Z1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA1" t="s">
         <v>123</v>
@@ -847,7 +847,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="1">
-        <v>45272</v>
+        <v>45403</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -856,7 +856,7 @@
         <v>80</v>
       </c>
       <c r="H2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>88</v>
@@ -865,10 +865,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -906,42 +906,38 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2">
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>45294</v>
+        <v>45420</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
       </c>
       <c r="AS2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV2" s="2">
         <v>4</v>
@@ -965,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
         <v>0</v>
@@ -974,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="BF2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="2">
         <v>0</v>
@@ -1027,7 +1023,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="1">
-        <v>45354</v>
+        <v>45270</v>
       </c>
       <c r="F3" t="s">
         <v>81</v>
@@ -1039,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1099,7 +1095,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
@@ -1107,17 +1103,17 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>45369</v>
+        <v>45308</v>
       </c>
       <c r="AR3" s="2">
         <v>1</v>
       </c>
       <c r="AS3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV3" s="2">
         <v>3</v>
@@ -1203,16 +1199,16 @@
         <v>77</v>
       </c>
       <c r="E4" s="1">
-        <v>45340</v>
+        <v>45252</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>89</v>
@@ -1224,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1251,41 +1247,45 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
+      <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="AL4" s="2">
+        <v>1</v>
+      </c>
       <c r="AM4" t="s">
         <v>145</v>
       </c>
       <c r="AN4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2">
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>45369</v>
+        <v>45259</v>
       </c>
       <c r="AR4" s="2">
         <v>1</v>
@@ -1307,10 +1307,10 @@
         <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1381,31 +1381,31 @@
         <v>77</v>
       </c>
       <c r="E5" s="1">
-        <v>45029</v>
+        <v>45349</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1423,19 +1423,17 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
+      <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -1453,17 +1451,15 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2">
         <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>45050</v>
+        <v>45369</v>
       </c>
       <c r="AR5" s="2">
         <v>1</v>
@@ -1473,22 +1469,22 @@
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1500,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
         <v>1</v>
@@ -1559,28 +1555,28 @@
         <v>77</v>
       </c>
       <c r="E6" s="1">
-        <v>45384</v>
+        <v>45354</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1598,24 +1594,24 @@
         <v>0</v>
       </c>
       <c r="R6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" t="s">
         <v>84</v>
@@ -1631,17 +1627,15 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2">
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>45413</v>
+        <v>45369</v>
       </c>
       <c r="AR6" s="2">
         <v>1</v>
@@ -1651,22 +1645,22 @@
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1705,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="BM6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="s">
         <v>175</v>
@@ -1737,31 +1731,31 @@
         <v>77</v>
       </c>
       <c r="E7" s="1">
-        <v>45390</v>
+        <v>45298</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1770,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1779,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
@@ -1796,11 +1790,9 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -1811,7 +1803,7 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN7" s="2">
         <v>0</v>
@@ -1821,32 +1813,32 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>45401</v>
+        <v>45316</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
       </c>
       <c r="AS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -1858,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
         <v>0</v>
@@ -1876,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK7" s="2">
         <v>0</v>
@@ -1917,34 +1909,34 @@
         <v>77</v>
       </c>
       <c r="E8" s="1">
-        <v>45069</v>
+        <v>45403</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -1959,19 +1951,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="T8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2">
-        <v>1</v>
-      </c>
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -1989,7 +1981,7 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN8" s="2">
         <v>0</v>
@@ -1999,32 +1991,32 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>45096</v>
+        <v>45415</v>
       </c>
       <c r="AR8" s="2">
         <v>1</v>
       </c>
       <c r="AS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2095,7 +2087,7 @@
         <v>77</v>
       </c>
       <c r="E9" s="1">
-        <v>45390</v>
+        <v>45034</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2104,16 +2096,16 @@
         <v>81</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2134,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="s">
         <v>84</v>
@@ -2143,20 +2135,22 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -2167,7 +2161,7 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN9" s="2">
         <v>0</v>
@@ -2177,26 +2171,26 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>45413</v>
+        <v>45050</v>
       </c>
       <c r="AR9" s="2">
         <v>1</v>
       </c>
       <c r="AS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2">
         <v>2</v>
       </c>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
         <v>0</v>
@@ -2241,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="BM9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="s">
         <v>175</v>
@@ -2273,19 +2267,19 @@
         <v>77</v>
       </c>
       <c r="E10" s="1">
-        <v>45365</v>
+        <v>45270</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2315,10 +2309,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="T10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="s">
         <v>116</v>
@@ -2345,7 +2339,7 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
@@ -2353,20 +2347,20 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>45399</v>
+        <v>45308</v>
       </c>
       <c r="AR10" s="2">
         <v>1</v>
       </c>
       <c r="AS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW10" s="2">
         <v>1</v>
@@ -2375,10 +2369,10 @@
         <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2449,19 +2443,19 @@
         <v>77</v>
       </c>
       <c r="E11" s="1">
-        <v>45026</v>
+        <v>45354</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2497,11 +2491,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -2519,30 +2515,28 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2">
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>45032</v>
+        <v>45369</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
       </c>
       <c r="AS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW11" s="2">
         <v>1</v>
@@ -2569,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -2584,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="BJ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK11" s="2">
         <v>0</v>
@@ -2625,19 +2619,19 @@
         <v>77</v>
       </c>
       <c r="E12" s="1">
-        <v>45270</v>
+        <v>45365</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2667,10 +2661,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="T12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="s">
         <v>116</v>
@@ -2697,7 +2691,7 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -2705,20 +2699,20 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>45308</v>
+        <v>45399</v>
       </c>
       <c r="AR12" s="2">
         <v>1</v>
       </c>
       <c r="AS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV12" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW12" s="2">
         <v>1</v>
@@ -2727,10 +2721,10 @@
         <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -2801,19 +2795,19 @@
         <v>77</v>
       </c>
       <c r="E13" s="1">
-        <v>45328</v>
+        <v>45365</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -2822,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -2873,7 +2867,7 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
@@ -2881,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <v>45336</v>
+        <v>45394</v>
       </c>
       <c r="AR13" s="2">
         <v>1</v>
@@ -2891,10 +2885,10 @@
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="2">
         <v>1</v>
@@ -2977,7 +2971,7 @@
         <v>77</v>
       </c>
       <c r="E14" s="1">
-        <v>45319</v>
+        <v>45069</v>
       </c>
       <c r="F14" t="s">
         <v>81</v>
@@ -2986,10 +2980,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -3052,42 +3046,42 @@
         <v>146</v>
       </c>
       <c r="AN14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2">
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>45336</v>
+        <v>45096</v>
       </c>
       <c r="AR14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV14" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
         <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3102,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3155,19 +3149,19 @@
         <v>77</v>
       </c>
       <c r="E15" s="1">
-        <v>45354</v>
+        <v>45026</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -3203,13 +3197,11 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="2">
-        <v>1</v>
-      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
@@ -3227,15 +3219,17 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN15" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>0</v>
+      </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2">
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>45369</v>
+        <v>45032</v>
       </c>
       <c r="AR15" s="2">
         <v>1</v>
@@ -3245,7 +3239,7 @@
       </c>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AV15" s="2">
         <v>3</v>
@@ -3275,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
         <v>0</v>
@@ -3331,16 +3325,16 @@
         <v>77</v>
       </c>
       <c r="E16" s="1">
-        <v>45354</v>
+        <v>45069</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
         <v>89</v>
@@ -3352,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3390,10 +3384,12 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3403,7 +3399,7 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
@@ -3411,20 +3407,20 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>45369</v>
+        <v>45089</v>
       </c>
       <c r="AR16" s="2">
         <v>1</v>
       </c>
       <c r="AS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW16" s="2">
         <v>1</v>
@@ -3507,7 +3503,7 @@
         <v>77</v>
       </c>
       <c r="E17" s="1">
-        <v>45333</v>
+        <v>45034</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -3519,25 +3515,25 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
@@ -3549,21 +3545,21 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
+      <c r="X17" s="2">
+        <v>1</v>
+      </c>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" t="s">
         <v>126</v>
@@ -3581,7 +3577,7 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN17" s="2">
         <v>0</v>
@@ -3591,26 +3587,26 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>45364</v>
+        <v>45050</v>
       </c>
       <c r="AR17" s="2">
         <v>1</v>
       </c>
       <c r="AS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
         <v>0</v>
@@ -3622,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="BB17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="2">
         <v>0</v>
@@ -3699,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -3759,7 +3755,7 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
@@ -3767,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="AR18" s="2">
         <v>1</v>
@@ -3780,7 +3776,7 @@
         <v>4</v>
       </c>
       <c r="AV18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW18" s="2">
         <v>1</v>
@@ -3822,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="BJ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK18" s="2">
         <v>0</v>
@@ -3863,19 +3859,19 @@
         <v>77</v>
       </c>
       <c r="E19" s="1">
-        <v>45365</v>
+        <v>45244</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -3935,7 +3931,7 @@
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
@@ -3943,20 +3939,20 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>45394</v>
+        <v>45260</v>
       </c>
       <c r="AR19" s="2">
         <v>1</v>
       </c>
       <c r="AS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2">
         <v>3</v>
       </c>
       <c r="AV19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW19" s="2">
         <v>1</v>
@@ -4039,19 +4035,19 @@
         <v>77</v>
       </c>
       <c r="E20" s="1">
-        <v>45312</v>
+        <v>45404</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -4063,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -4072,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4081,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
@@ -4098,12 +4094,10 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
@@ -4113,7 +4107,7 @@
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
@@ -4121,23 +4115,23 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>45316</v>
+        <v>45420</v>
       </c>
       <c r="AR20" s="2">
         <v>1</v>
       </c>
       <c r="AS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2">
         <v>2</v>
       </c>
       <c r="AV20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4158,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="2">
         <v>0</v>
@@ -4217,34 +4211,34 @@
         <v>77</v>
       </c>
       <c r="E21" s="1">
-        <v>45404</v>
+        <v>45252</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4259,19 +4253,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="V21" s="2"/>
-      <c r="W21" s="2">
-        <v>1</v>
-      </c>
-      <c r="X21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2">
+        <v>1</v>
+      </c>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -4289,42 +4283,40 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN21" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2">
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>45415</v>
+        <v>45260</v>
       </c>
       <c r="AR21" s="2">
         <v>1</v>
       </c>
       <c r="AS21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV21" s="2">
         <v>2</v>
       </c>
       <c r="AW21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
         <v>0</v>
@@ -4395,31 +4387,31 @@
         <v>77</v>
       </c>
       <c r="E22" s="1">
-        <v>45252</v>
+        <v>45390</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -4428,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -4437,51 +4429,49 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>1</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
-      <c r="AL22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL22" s="2"/>
       <c r="AM22" t="s">
         <v>146</v>
       </c>
       <c r="AN22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2">
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>45259</v>
+        <v>45401</v>
       </c>
       <c r="AR22" s="2">
         <v>1</v>
@@ -4491,16 +4481,16 @@
       </c>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="2">
         <v>0</v>
@@ -4518,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22" s="2">
         <v>0</v>
@@ -4577,19 +4567,19 @@
         <v>77</v>
       </c>
       <c r="E23" s="1">
-        <v>45300</v>
+        <v>45263</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -4636,12 +4626,10 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
@@ -4651,7 +4639,7 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
@@ -4659,20 +4647,20 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>45317</v>
+        <v>45294</v>
       </c>
       <c r="AR23" s="2">
         <v>1</v>
       </c>
       <c r="AS23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="2">
         <v>1</v>
@@ -4681,10 +4669,10 @@
         <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
         <v>0</v>
@@ -4755,7 +4743,7 @@
         <v>77</v>
       </c>
       <c r="E24" s="1">
-        <v>45315</v>
+        <v>45270</v>
       </c>
       <c r="F24" t="s">
         <v>81</v>
@@ -4767,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -4776,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -4827,7 +4815,7 @@
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
@@ -4835,23 +4823,23 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>45336</v>
+        <v>45308</v>
       </c>
       <c r="AR24" s="2">
         <v>1</v>
       </c>
       <c r="AS24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV24" s="2">
         <v>4</v>
       </c>
       <c r="AW24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
@@ -4878,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -4931,7 +4919,7 @@
         <v>77</v>
       </c>
       <c r="E25" s="1">
-        <v>45060</v>
+        <v>45315</v>
       </c>
       <c r="F25" t="s">
         <v>80</v>
@@ -4943,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -4952,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -4973,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="T25" s="2">
         <v>0</v>
@@ -5003,7 +4991,7 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
@@ -5011,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>45089</v>
+        <v>45336</v>
       </c>
       <c r="AR25" s="2">
         <v>1</v>
@@ -5021,25 +5009,25 @@
       </c>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV25" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="2">
         <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
         <v>1</v>
       </c>
       <c r="BA25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
@@ -5054,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="BF25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25" s="2">
         <v>0</v>
@@ -5107,7 +5095,7 @@
         <v>77</v>
       </c>
       <c r="E26" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F26" t="s">
         <v>80</v>
@@ -5119,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -5128,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -5179,7 +5167,7 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
@@ -5187,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>45077</v>
+        <v>45370</v>
       </c>
       <c r="AR26" s="2">
         <v>1</v>
@@ -5197,25 +5185,25 @@
       </c>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="2">
         <v>1</v>
       </c>
       <c r="AY26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="2">
         <v>1</v>
       </c>
       <c r="BA26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="2">
         <v>0</v>
@@ -5227,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="2">
         <v>0</v>
@@ -5242,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK26" s="2">
         <v>0</v>
@@ -5283,7 +5271,7 @@
         <v>77</v>
       </c>
       <c r="E27" s="1">
-        <v>45041</v>
+        <v>45390</v>
       </c>
       <c r="F27" t="s">
         <v>80</v>
@@ -5295,13 +5283,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -5322,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" t="s">
         <v>84</v>
@@ -5331,15 +5319,15 @@
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="2">
-        <v>1</v>
-      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
+      <c r="Z27" s="2">
+        <v>1</v>
+      </c>
       <c r="AA27" s="2"/>
       <c r="AB27" t="s">
         <v>84</v>
@@ -5355,7 +5343,7 @@
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN27" s="2">
         <v>0</v>
@@ -5365,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>45077</v>
+        <v>45413</v>
       </c>
       <c r="AR27" s="2">
         <v>1</v>
@@ -5375,25 +5363,25 @@
       </c>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AV27" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="2">
         <v>0</v>
       </c>
       <c r="AZ27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="2">
         <v>0</v>
@@ -5405,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF27" s="2">
         <v>0</v>
@@ -5420,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK27" s="2">
         <v>0</v>
@@ -5429,10 +5417,10 @@
         <v>0</v>
       </c>
       <c r="BM27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO27" t="s">
         <v>175</v>
@@ -5461,7 +5449,7 @@
         <v>77</v>
       </c>
       <c r="E28" s="1">
-        <v>45252</v>
+        <v>45041</v>
       </c>
       <c r="F28" t="s">
         <v>80</v>
@@ -5473,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -5533,7 +5521,7 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN28" s="2">
         <v>0</v>
@@ -5543,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <v>45261</v>
+        <v>45062</v>
       </c>
       <c r="AR28" s="2">
         <v>1</v>
@@ -5553,10 +5541,10 @@
       </c>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2">
+        <v>3</v>
+      </c>
+      <c r="AV28" s="2">
         <v>2</v>
-      </c>
-      <c r="AV28" s="2">
-        <v>1</v>
       </c>
       <c r="AW28" s="2">
         <v>1</v>
@@ -5639,7 +5627,7 @@
         <v>77</v>
       </c>
       <c r="E29" s="1">
-        <v>45271</v>
+        <v>45354</v>
       </c>
       <c r="F29" t="s">
         <v>80</v>
@@ -5648,10 +5636,10 @@
         <v>80</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -5660,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -5698,12 +5686,10 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
@@ -5713,17 +5699,15 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN29" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2">
         <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>45294</v>
+        <v>45369</v>
       </c>
       <c r="AR29" s="2">
         <v>1</v>
@@ -5733,7 +5717,7 @@
       </c>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV29" s="2">
         <v>3</v>
@@ -5819,13 +5803,13 @@
         <v>77</v>
       </c>
       <c r="E30" s="1">
-        <v>45270</v>
+        <v>45041</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -5840,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -5891,7 +5875,7 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
@@ -5899,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>45308</v>
+        <v>45077</v>
       </c>
       <c r="AR30" s="2">
         <v>1</v>
@@ -5909,10 +5893,10 @@
       </c>
       <c r="AT30" s="2"/>
       <c r="AU30" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW30" s="2">
         <v>1</v>
@@ -5921,13 +5905,13 @@
         <v>1</v>
       </c>
       <c r="AY30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="2">
         <v>1</v>
       </c>
       <c r="BA30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB30" s="2">
         <v>0</v>
@@ -5939,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30" s="2">
         <v>0</v>
@@ -5954,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="BJ30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK30" s="2">
         <v>0</v>
@@ -5995,7 +5979,7 @@
         <v>77</v>
       </c>
       <c r="E31" s="1">
-        <v>45403</v>
+        <v>45328</v>
       </c>
       <c r="F31" t="s">
         <v>81</v>
@@ -6016,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
@@ -6067,7 +6051,7 @@
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
@@ -6075,20 +6059,20 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>45420</v>
+        <v>45336</v>
       </c>
       <c r="AR31" s="2">
         <v>1</v>
       </c>
       <c r="AS31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="2"/>
       <c r="AU31" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV31" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW31" s="2">
         <v>1</v>
@@ -6109,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="BC31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD31" s="2">
         <v>0</v>
@@ -6171,7 +6155,7 @@
         <v>77</v>
       </c>
       <c r="E32" s="1">
-        <v>45354</v>
+        <v>45329</v>
       </c>
       <c r="F32" t="s">
         <v>81</v>
@@ -6183,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -6239,11 +6223,13 @@
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
+      <c r="AJ32" s="2">
+        <v>1</v>
+      </c>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
@@ -6251,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="AR32" s="2">
         <v>1</v>
@@ -6261,10 +6247,10 @@
       </c>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW32" s="2">
         <v>1</v>
@@ -6347,19 +6333,19 @@
         <v>77</v>
       </c>
       <c r="E33" s="1">
-        <v>45329</v>
+        <v>45365</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -6406,22 +6392,22 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
+      <c r="AG33" s="2">
+        <v>1</v>
+      </c>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
-      <c r="AJ33" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
@@ -6429,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>45369</v>
+        <v>45399</v>
       </c>
       <c r="AR33" s="2">
         <v>1</v>
@@ -6439,13 +6425,13 @@
       </c>
       <c r="AT33" s="2"/>
       <c r="AU33" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="2">
         <v>1</v>
@@ -6525,19 +6511,19 @@
         <v>77</v>
       </c>
       <c r="E34" s="1">
-        <v>45403</v>
+        <v>45404</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -6570,10 +6556,10 @@
         <v>112</v>
       </c>
       <c r="T34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2">
@@ -6597,7 +6583,7 @@
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN34" s="2">
         <v>0</v>
@@ -6617,10 +6603,10 @@
       </c>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW34" s="2">
         <v>0</v>
@@ -6703,7 +6689,7 @@
         <v>77</v>
       </c>
       <c r="E35" s="1">
-        <v>45354</v>
+        <v>45340</v>
       </c>
       <c r="F35" t="s">
         <v>80</v>
@@ -6715,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -6775,9 +6761,11 @@
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN35" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>0</v>
+      </c>
       <c r="AO35" s="2"/>
       <c r="AP35" s="2">
         <v>0</v>
@@ -6793,10 +6781,10 @@
       </c>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV35" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW35" s="2">
         <v>1</v>
@@ -6879,19 +6867,19 @@
         <v>77</v>
       </c>
       <c r="E36" s="1">
-        <v>45404</v>
+        <v>45354</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -6900,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -6951,7 +6939,7 @@
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
@@ -6959,32 +6947,32 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>45420</v>
+        <v>45394</v>
       </c>
       <c r="AR36" s="2">
         <v>1</v>
       </c>
       <c r="AS36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2">
         <v>2</v>
       </c>
       <c r="AV36" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX36" s="2">
         <v>1</v>
       </c>
       <c r="AY36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA36" s="2">
         <v>0</v>
@@ -7055,19 +7043,19 @@
         <v>77</v>
       </c>
       <c r="E37" s="1">
-        <v>45069</v>
+        <v>45271</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -7114,7 +7102,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2">
@@ -7129,28 +7117,30 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN37" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>0</v>
+      </c>
       <c r="AO37" s="2"/>
       <c r="AP37" s="2">
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>45089</v>
+        <v>45294</v>
       </c>
       <c r="AR37" s="2">
         <v>1</v>
       </c>
       <c r="AS37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW37" s="2">
         <v>1</v>
@@ -7233,19 +7223,19 @@
         <v>77</v>
       </c>
       <c r="E38" s="1">
-        <v>45286</v>
+        <v>45319</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -7281,20 +7271,20 @@
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
+      <c r="X38" s="2">
+        <v>1</v>
+      </c>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC38" s="2">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
@@ -7305,7 +7295,7 @@
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
       <c r="AM38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN38" s="2">
         <v>1</v>
@@ -7315,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>45308</v>
+        <v>45336</v>
       </c>
       <c r="AR38" s="2">
         <v>1</v>
@@ -7325,13 +7315,13 @@
       </c>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV38" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX38" s="2">
         <v>1</v>
@@ -7358,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="BF38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG38" s="2">
         <v>0</v>
@@ -7411,25 +7401,25 @@
         <v>77</v>
       </c>
       <c r="E39" s="1">
-        <v>45034</v>
+        <v>45384</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
@@ -7450,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" t="s">
         <v>84</v>
@@ -7459,22 +7449,20 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="2">
-        <v>1</v>
-      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
+      <c r="Z39" s="2">
+        <v>1</v>
+      </c>
       <c r="AA39" s="2"/>
       <c r="AB39" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC39" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
@@ -7485,7 +7473,7 @@
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN39" s="2">
         <v>0</v>
@@ -7495,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>45054</v>
+        <v>45413</v>
       </c>
       <c r="AR39" s="2">
         <v>1</v>
@@ -7505,25 +7493,25 @@
       </c>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV39" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW39" s="2">
         <v>0</v>
       </c>
       <c r="AX39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="2">
         <v>0</v>
       </c>
       <c r="AZ39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="2">
         <v>0</v>
@@ -7559,10 +7547,10 @@
         <v>0</v>
       </c>
       <c r="BM39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO39" t="s">
         <v>175</v>
@@ -7591,28 +7579,28 @@
         <v>77</v>
       </c>
       <c r="E40" s="1">
-        <v>45354</v>
+        <v>45390</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -7630,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" t="s">
         <v>84</v>
@@ -7639,20 +7627,22 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="2">
-        <v>1</v>
-      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
+      <c r="Z40" s="2">
+        <v>1</v>
+      </c>
       <c r="AA40" s="2"/>
       <c r="AB40" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
@@ -7663,40 +7653,42 @@
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN40" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>0</v>
+      </c>
       <c r="AO40" s="2"/>
       <c r="AP40" s="2">
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>45369</v>
+        <v>45401</v>
       </c>
       <c r="AR40" s="2">
         <v>1</v>
       </c>
       <c r="AS40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV40" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="2">
         <v>0</v>
@@ -7735,10 +7727,10 @@
         <v>0</v>
       </c>
       <c r="BM40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO40" t="s">
         <v>175</v>
@@ -7767,7 +7759,7 @@
         <v>77</v>
       </c>
       <c r="E41" s="1">
-        <v>45365</v>
+        <v>45333</v>
       </c>
       <c r="F41" t="s">
         <v>80</v>
@@ -7779,25 +7771,25 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2">
         <v>0</v>
@@ -7809,81 +7801,83 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="2">
-        <v>1</v>
-      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
+      <c r="Z41" s="2">
+        <v>1</v>
+      </c>
       <c r="AA41" s="2"/>
       <c r="AB41" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0</v>
+      </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
-      <c r="AG41" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN41" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>0</v>
+      </c>
       <c r="AO41" s="2"/>
       <c r="AP41" s="2">
         <v>0</v>
       </c>
       <c r="AQ41" s="1">
-        <v>45399</v>
+        <v>45364</v>
       </c>
       <c r="AR41" s="2">
         <v>1</v>
       </c>
       <c r="AS41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW41" s="2">
         <v>0</v>
       </c>
       <c r="AX41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="2">
         <v>0</v>
       </c>
       <c r="BB41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD41" s="2">
         <v>0</v>
@@ -7945,7 +7939,7 @@
         <v>77</v>
       </c>
       <c r="E42" s="1">
-        <v>45354</v>
+        <v>45069</v>
       </c>
       <c r="F42" t="s">
         <v>81</v>
@@ -7957,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -8017,15 +8011,17 @@
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
       <c r="AM42" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN42" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>0</v>
+      </c>
       <c r="AO42" s="2"/>
       <c r="AP42" s="2">
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>45370</v>
+        <v>45089</v>
       </c>
       <c r="AR42" s="2">
         <v>1</v>
@@ -8121,7 +8117,7 @@
         <v>77</v>
       </c>
       <c r="E43" s="1">
-        <v>45041</v>
+        <v>45034</v>
       </c>
       <c r="F43" t="s">
         <v>81</v>
@@ -8130,10 +8126,10 @@
         <v>81</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -8180,9 +8176,11 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
@@ -8193,7 +8191,7 @@
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN43" s="2">
         <v>0</v>
@@ -8203,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>45062</v>
+        <v>45054</v>
       </c>
       <c r="AR43" s="2">
         <v>1</v>
@@ -8213,13 +8211,13 @@
       </c>
       <c r="AT43" s="2"/>
       <c r="AU43" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV43" s="2">
         <v>3</v>
       </c>
-      <c r="AV43" s="2">
-        <v>2</v>
-      </c>
       <c r="AW43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="2">
         <v>1</v>
@@ -8228,10 +8226,10 @@
         <v>0</v>
       </c>
       <c r="AZ43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB43" s="2">
         <v>0</v>
@@ -8299,7 +8297,7 @@
         <v>77</v>
       </c>
       <c r="E44" s="1">
-        <v>45270</v>
+        <v>45312</v>
       </c>
       <c r="F44" t="s">
         <v>80</v>
@@ -8308,10 +8306,10 @@
         <v>80</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -8320,10 +8318,10 @@
         <v>1</v>
       </c>
       <c r="L44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -8332,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="2">
         <v>0</v>
@@ -8341,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="T44" s="2">
         <v>0</v>
@@ -8358,10 +8356,12 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
+      <c r="AD44" s="2">
+        <v>1</v>
+      </c>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
@@ -8371,7 +8371,7 @@
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
@@ -8379,32 +8379,32 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>45308</v>
+        <v>45316</v>
       </c>
       <c r="AR44" s="2">
         <v>1</v>
       </c>
       <c r="AS44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44" s="2"/>
       <c r="AU44" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV44" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX44" s="2">
         <v>1</v>
       </c>
       <c r="AY44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="2">
         <v>0</v>
@@ -8416,10 +8416,10 @@
         <v>0</v>
       </c>
       <c r="BD44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF44" s="2">
         <v>0</v>
@@ -8475,7 +8475,7 @@
         <v>77</v>
       </c>
       <c r="E45" s="1">
-        <v>45390</v>
+        <v>45252</v>
       </c>
       <c r="F45" t="s">
         <v>81</v>
@@ -8484,16 +8484,16 @@
         <v>81</v>
       </c>
       <c r="H45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="2">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="s">
         <v>84</v>
@@ -8523,22 +8523,20 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
+      <c r="X45" s="2">
+        <v>1</v>
+      </c>
       <c r="Y45" s="2"/>
-      <c r="Z45" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC45" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
@@ -8549,7 +8547,7 @@
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN45" s="2">
         <v>0</v>
@@ -8559,26 +8557,26 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>45401</v>
+        <v>45261</v>
       </c>
       <c r="AR45" s="2">
         <v>1</v>
       </c>
       <c r="AS45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV45" s="2">
         <v>1</v>
       </c>
       <c r="AW45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY45" s="2">
         <v>0</v>
@@ -8623,10 +8621,10 @@
         <v>0</v>
       </c>
       <c r="BM45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO45" t="s">
         <v>175</v>
@@ -8655,19 +8653,19 @@
         <v>77</v>
       </c>
       <c r="E46" s="1">
-        <v>45403</v>
+        <v>45263</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -8676,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2">
         <v>0</v>
@@ -8703,13 +8701,11 @@
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
-      <c r="X46" s="2">
-        <v>1</v>
-      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
@@ -8723,37 +8719,37 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
-      <c r="AJ46" s="2"/>
+      <c r="AJ46" s="2">
+        <v>1</v>
+      </c>
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
       <c r="AM46" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN46" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
       <c r="AP46" s="2">
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>45419</v>
+        <v>45294</v>
       </c>
       <c r="AR46" s="2">
         <v>1</v>
       </c>
       <c r="AS46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV46" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX46" s="2">
         <v>1</v>
@@ -8833,19 +8829,19 @@
         <v>77</v>
       </c>
       <c r="E47" s="1">
-        <v>45034</v>
+        <v>45300</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -8892,12 +8888,12 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2">
+        <v>1</v>
+      </c>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
@@ -8907,30 +8903,28 @@
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
       <c r="AM47" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN47" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2">
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>45050</v>
+        <v>45317</v>
       </c>
       <c r="AR47" s="2">
         <v>1</v>
       </c>
       <c r="AS47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV47" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW47" s="2">
         <v>1</v>
@@ -8939,10 +8933,10 @@
         <v>1</v>
       </c>
       <c r="AY47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA47" s="2">
         <v>0</v>
@@ -9013,28 +9007,28 @@
         <v>77</v>
       </c>
       <c r="E48" s="1">
-        <v>45069</v>
+        <v>45260</v>
       </c>
       <c r="F48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="s">
         <v>93</v>
       </c>
       <c r="J48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2">
         <v>0</v>
@@ -9052,50 +9046,54 @@
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="T48" s="2">
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
-      <c r="X48" s="2">
-        <v>1</v>
-      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
+      <c r="Z48" s="2">
+        <v>1</v>
+      </c>
       <c r="AA48" s="2"/>
       <c r="AB48" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
+      <c r="AD48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>1</v>
+      </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
+      <c r="AI48" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
       <c r="AM48" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN48" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
       <c r="AP48" s="2">
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>45089</v>
+        <v>45316</v>
       </c>
       <c r="AR48" s="2">
         <v>1</v>
@@ -9105,22 +9103,22 @@
       </c>
       <c r="AT48" s="2"/>
       <c r="AU48" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV48" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA48" s="2">
         <v>0</v>
@@ -9159,10 +9157,10 @@
         <v>0</v>
       </c>
       <c r="BM48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO48" t="s">
         <v>175</v>
@@ -9191,7 +9189,7 @@
         <v>77</v>
       </c>
       <c r="E49" s="1">
-        <v>45034</v>
+        <v>45354</v>
       </c>
       <c r="F49" t="s">
         <v>80</v>
@@ -9200,10 +9198,10 @@
         <v>80</v>
       </c>
       <c r="H49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -9212,7 +9210,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -9250,11 +9248,9 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC49" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
@@ -9265,7 +9261,7 @@
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN49" s="2">
         <v>0</v>
@@ -9275,20 +9271,20 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>45050</v>
+        <v>45394</v>
       </c>
       <c r="AR49" s="2">
         <v>1</v>
       </c>
       <c r="AS49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV49" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW49" s="2">
         <v>1</v>
@@ -9297,10 +9293,10 @@
         <v>1</v>
       </c>
       <c r="AY49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA49" s="2">
         <v>0</v>
@@ -9371,28 +9367,28 @@
         <v>77</v>
       </c>
       <c r="E50" s="1">
-        <v>45260</v>
+        <v>45263</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
@@ -9410,82 +9406,80 @@
         <v>0</v>
       </c>
       <c r="R50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T50" s="2">
         <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
+      <c r="X50" s="2">
+        <v>1</v>
+      </c>
       <c r="Y50" s="2"/>
-      <c r="Z50" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="AC50" s="2"/>
-      <c r="AD50" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE50" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
-      <c r="AI50" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2">
+        <v>1</v>
+      </c>
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
       <c r="AM50" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN50" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>0</v>
+      </c>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2">
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>45316</v>
+        <v>45294</v>
       </c>
       <c r="AR50" s="2">
         <v>1</v>
       </c>
       <c r="AS50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY50" s="2">
         <v>0</v>
       </c>
       <c r="AZ50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB50" s="2">
         <v>0</v>
@@ -9521,10 +9515,10 @@
         <v>0</v>
       </c>
       <c r="BM50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO50" t="s">
         <v>175</v>
@@ -9553,28 +9547,28 @@
         <v>77</v>
       </c>
       <c r="E51" s="1">
-        <v>45263</v>
+        <v>45272</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
       </c>
       <c r="K51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="2">
         <v>0</v>
@@ -9612,22 +9606,22 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="2"/>
+      <c r="AH51" s="2">
+        <v>1</v>
+      </c>
       <c r="AI51" s="2"/>
-      <c r="AJ51" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ51" s="2"/>
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
       <c r="AM51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN51" s="2">
         <v>0</v>
@@ -9643,14 +9637,14 @@
         <v>1</v>
       </c>
       <c r="AS51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV51" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW51" s="2">
         <v>1</v>
@@ -9659,13 +9653,13 @@
         <v>1</v>
       </c>
       <c r="AY51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ51" s="2">
         <v>1</v>
       </c>
       <c r="BA51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="2">
         <v>0</v>
@@ -9680,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG51" s="2">
         <v>0</v>
@@ -9733,7 +9727,7 @@
         <v>77</v>
       </c>
       <c r="E52" s="1">
-        <v>45045</v>
+        <v>45041</v>
       </c>
       <c r="F52" t="s">
         <v>81</v>
@@ -9745,19 +9739,19 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="2">
         <v>0</v>
       </c>
       <c r="M52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2">
         <v>0</v>
@@ -9766,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="2">
         <v>0</v>
@@ -9775,13 +9769,13 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
@@ -9805,7 +9799,7 @@
       <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
       <c r="AM52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN52" s="2">
         <v>0</v>
@@ -9815,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <v>45062</v>
+        <v>45077</v>
       </c>
       <c r="AR52" s="2">
         <v>1</v>
@@ -9825,25 +9819,25 @@
       </c>
       <c r="AT52" s="2"/>
       <c r="AU52" s="2">
+        <v>12</v>
+      </c>
+      <c r="AV52" s="2">
         <v>3</v>
       </c>
-      <c r="AV52" s="2">
-        <v>1</v>
-      </c>
       <c r="AW52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY52" s="2">
         <v>0</v>
       </c>
       <c r="AZ52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB52" s="2">
         <v>0</v>
@@ -9852,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="BD52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE52" s="2">
         <v>1</v>
@@ -9870,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="BJ52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK52" s="2">
         <v>0</v>
@@ -9911,7 +9905,7 @@
         <v>77</v>
       </c>
       <c r="E53" s="1">
-        <v>45366</v>
+        <v>45354</v>
       </c>
       <c r="F53" t="s">
         <v>80</v>
@@ -9923,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -9983,7 +9977,7 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
@@ -9991,20 +9985,20 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>45421</v>
+        <v>45370</v>
       </c>
       <c r="AR53" s="2">
         <v>1</v>
       </c>
       <c r="AS53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV53" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW53" s="2">
         <v>1</v>
@@ -10013,10 +10007,10 @@
         <v>1</v>
       </c>
       <c r="AY53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA53" s="2">
         <v>0</v>
@@ -10087,25 +10081,25 @@
         <v>77</v>
       </c>
       <c r="E54" s="1">
-        <v>45298</v>
+        <v>45029</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="2">
         <v>0</v>
@@ -10129,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
@@ -10139,11 +10133,11 @@
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
+      <c r="X54" s="2">
+        <v>1</v>
+      </c>
       <c r="Y54" s="2"/>
-      <c r="Z54" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" t="s">
         <v>84</v>
@@ -10162,14 +10156,14 @@
         <v>146</v>
       </c>
       <c r="AN54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="2"/>
       <c r="AP54" s="2">
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>45317</v>
+        <v>45050</v>
       </c>
       <c r="AR54" s="2">
         <v>1</v>
@@ -10179,7 +10173,7 @@
       </c>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV54" s="2">
         <v>1</v>
@@ -10265,19 +10259,19 @@
         <v>77</v>
       </c>
       <c r="E55" s="1">
-        <v>45252</v>
+        <v>45354</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -10337,7 +10331,7 @@
       <c r="AK55" s="2"/>
       <c r="AL55" s="2"/>
       <c r="AM55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
@@ -10345,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>45260</v>
+        <v>45370</v>
       </c>
       <c r="AR55" s="2">
         <v>1</v>
@@ -10355,13 +10349,13 @@
       </c>
       <c r="AT55" s="2"/>
       <c r="AU55" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX55" s="2">
         <v>1</v>
@@ -10441,7 +10435,7 @@
         <v>77</v>
       </c>
       <c r="E56" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="F56" t="s">
         <v>80</v>
@@ -10453,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -10462,7 +10456,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="2">
         <v>0</v>
@@ -10513,7 +10507,7 @@
       <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
       <c r="AM56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
@@ -10521,20 +10515,20 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>45062</v>
+        <v>45369</v>
       </c>
       <c r="AR56" s="2">
         <v>1</v>
       </c>
       <c r="AS56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2">
         <v>3</v>
       </c>
       <c r="AV56" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW56" s="2">
         <v>1</v>
@@ -10561,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="2">
         <v>0</v>
@@ -10617,7 +10611,7 @@
         <v>77</v>
       </c>
       <c r="E57" s="1">
-        <v>45354</v>
+        <v>45403</v>
       </c>
       <c r="F57" t="s">
         <v>81</v>
@@ -10638,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
@@ -10659,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
@@ -10689,15 +10683,17 @@
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
       <c r="AM57" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN57" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="AN57" s="2">
+        <v>0</v>
+      </c>
       <c r="AO57" s="2"/>
       <c r="AP57" s="2">
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>45369</v>
+        <v>45419</v>
       </c>
       <c r="AR57" s="2">
         <v>1</v>
@@ -10707,13 +10703,13 @@
       </c>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV57" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="2">
         <v>1</v>
@@ -10793,7 +10789,7 @@
         <v>77</v>
       </c>
       <c r="E58" s="1">
-        <v>45354</v>
+        <v>45270</v>
       </c>
       <c r="F58" t="s">
         <v>81</v>
@@ -10805,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -10865,7 +10861,7 @@
       <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
       <c r="AM58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
@@ -10873,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="1">
-        <v>45369</v>
+        <v>45308</v>
       </c>
       <c r="AR58" s="2">
         <v>1</v>
@@ -10883,10 +10879,10 @@
       </c>
       <c r="AT58" s="2"/>
       <c r="AU58" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV58" s="2">
         <v>3</v>
-      </c>
-      <c r="AV58" s="2">
-        <v>2</v>
       </c>
       <c r="AW58" s="2">
         <v>1</v>
@@ -10972,16 +10968,16 @@
         <v>45312</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="2">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -11043,7 +11039,7 @@
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
       <c r="AM59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN59" s="2"/>
       <c r="AO59" s="2"/>
@@ -11147,19 +11143,19 @@
         <v>77</v>
       </c>
       <c r="E60" s="1">
-        <v>45263</v>
+        <v>45354</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -11195,11 +11191,13 @@
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
+      <c r="X60" s="2">
+        <v>1</v>
+      </c>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
@@ -11213,13 +11211,11 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
-      <c r="AJ60" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ60" s="2"/>
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
       <c r="AM60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
@@ -11227,20 +11223,20 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="1">
-        <v>45294</v>
+        <v>45369</v>
       </c>
       <c r="AR60" s="2">
         <v>1</v>
       </c>
       <c r="AS60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="2"/>
       <c r="AU60" s="2">
         <v>4</v>
       </c>
       <c r="AV60" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW60" s="2">
         <v>1</v>
@@ -11323,7 +11319,7 @@
         <v>77</v>
       </c>
       <c r="E61" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="F61" t="s">
         <v>81</v>
@@ -11335,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
@@ -11395,7 +11391,7 @@
       <c r="AK61" s="2"/>
       <c r="AL61" s="2"/>
       <c r="AM61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
@@ -11403,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="1">
-        <v>45394</v>
+        <v>45260</v>
       </c>
       <c r="AR61" s="2">
         <v>1</v>
@@ -11413,7 +11409,7 @@
       </c>
       <c r="AT61" s="2"/>
       <c r="AU61" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV61" s="2">
         <v>1</v>
@@ -11499,7 +11495,7 @@
         <v>77</v>
       </c>
       <c r="E62" s="1">
-        <v>45252</v>
+        <v>45298</v>
       </c>
       <c r="F62" t="s">
         <v>80</v>
@@ -11508,10 +11504,10 @@
         <v>80</v>
       </c>
       <c r="H62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -11520,10 +11516,10 @@
         <v>1</v>
       </c>
       <c r="L62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" s="2">
         <v>0</v>
@@ -11532,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="2">
         <v>0</v>
@@ -11541,21 +11537,21 @@
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="T62" s="2">
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
-      <c r="X62" s="2">
-        <v>1</v>
-      </c>
+      <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
+      <c r="Z62" s="2">
+        <v>1</v>
+      </c>
       <c r="AA62" s="2"/>
       <c r="AB62" t="s">
         <v>84</v>
@@ -11571,15 +11567,17 @@
       <c r="AK62" s="2"/>
       <c r="AL62" s="2"/>
       <c r="AM62" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN62" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AN62" s="2">
+        <v>1</v>
+      </c>
       <c r="AO62" s="2"/>
       <c r="AP62" s="2">
         <v>0</v>
       </c>
       <c r="AQ62" s="1">
-        <v>45260</v>
+        <v>45317</v>
       </c>
       <c r="AR62" s="2">
         <v>1</v>
@@ -11592,19 +11590,19 @@
         <v>3</v>
       </c>
       <c r="AV62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA62" s="2">
         <v>0</v>
@@ -11616,10 +11614,10 @@
         <v>0</v>
       </c>
       <c r="BD62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF62" s="2">
         <v>0</v>
@@ -11675,19 +11673,19 @@
         <v>77</v>
       </c>
       <c r="E63" s="1">
-        <v>45298</v>
+        <v>45286</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -11723,20 +11721,20 @@
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
-      <c r="X63" s="2">
-        <v>1</v>
-      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>1</v>
+      </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
@@ -11750,14 +11748,14 @@
         <v>145</v>
       </c>
       <c r="AN63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO63" s="2"/>
       <c r="AP63" s="2">
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>45316</v>
+        <v>45308</v>
       </c>
       <c r="AR63" s="2">
         <v>1</v>
@@ -11767,13 +11765,13 @@
       </c>
       <c r="AT63" s="2"/>
       <c r="AU63" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV63" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX63" s="2">
         <v>1</v>
@@ -11812,7 +11810,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="2">
         <v>0</v>
@@ -11853,19 +11851,19 @@
         <v>77</v>
       </c>
       <c r="E64" s="1">
-        <v>45069</v>
+        <v>45366</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
@@ -11925,20 +11923,18 @@
       <c r="AK64" s="2"/>
       <c r="AL64" s="2"/>
       <c r="AM64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN64" s="2">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AN64" s="2"/>
       <c r="AO64" s="2"/>
       <c r="AP64" s="2">
         <v>0</v>
       </c>
       <c r="AQ64" s="1">
-        <v>45096</v>
+        <v>45421</v>
       </c>
       <c r="AR64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS64" s="2">
         <v>1</v>
@@ -11948,10 +11944,10 @@
         <v>2</v>
       </c>
       <c r="AV64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX64" s="2">
         <v>1</v>
@@ -11960,10 +11956,10 @@
         <v>0</v>
       </c>
       <c r="AZ64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="2">
         <v>0</v>
@@ -12034,16 +12030,16 @@
         <v>45354</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
@@ -12103,7 +12099,7 @@
       <c r="AK65" s="2"/>
       <c r="AL65" s="2"/>
       <c r="AM65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN65" s="2"/>
       <c r="AO65" s="2"/>
@@ -12124,10 +12120,10 @@
         <v>4</v>
       </c>
       <c r="AV65" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX65" s="2">
         <v>1</v>
@@ -12207,31 +12203,31 @@
         <v>77</v>
       </c>
       <c r="E66" s="1">
-        <v>45354</v>
+        <v>45045</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" s="2">
         <v>0</v>
@@ -12240,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="2">
         <v>0</v>
@@ -12249,13 +12245,13 @@
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="T66" s="2">
         <v>0</v>
       </c>
       <c r="U66" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
@@ -12279,7 +12275,7 @@
       <c r="AK66" s="2"/>
       <c r="AL66" s="2"/>
       <c r="AM66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN66" s="2">
         <v>0</v>
@@ -12289,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="1">
-        <v>45394</v>
+        <v>45062</v>
       </c>
       <c r="AR66" s="2">
         <v>1</v>
@@ -12299,22 +12295,22 @@
       </c>
       <c r="AT66" s="2"/>
       <c r="AU66" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV66" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="2">
         <v>0</v>
@@ -12326,10 +12322,10 @@
         <v>0</v>
       </c>
       <c r="BD66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF66" s="2">
         <v>0</v>
@@ -12385,19 +12381,19 @@
         <v>77</v>
       </c>
       <c r="E67" s="1">
-        <v>45349</v>
+        <v>45354</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J67" s="2">
         <v>1</v>
@@ -12406,7 +12402,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="2">
         <v>0</v>
@@ -12433,11 +12429,13 @@
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
+      <c r="X67" s="2">
+        <v>1</v>
+      </c>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
@@ -12455,7 +12453,7 @@
       <c r="AK67" s="2"/>
       <c r="AL67" s="2"/>
       <c r="AM67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN67" s="2"/>
       <c r="AO67" s="2"/>
@@ -12473,10 +12471,10 @@
       </c>
       <c r="AT67" s="2"/>
       <c r="AU67" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV67" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW67" s="2">
         <v>1</v>
@@ -12503,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="BE67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF67" s="2">
         <v>0</v>
@@ -12559,19 +12557,19 @@
         <v>77</v>
       </c>
       <c r="E68" s="1">
-        <v>45270</v>
+        <v>45069</v>
       </c>
       <c r="F68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J68" s="2">
         <v>1</v>
@@ -12631,15 +12629,17 @@
       <c r="AK68" s="2"/>
       <c r="AL68" s="2"/>
       <c r="AM68" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN68" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="AN68" s="2">
+        <v>0</v>
+      </c>
       <c r="AO68" s="2"/>
       <c r="AP68" s="2">
         <v>0</v>
       </c>
       <c r="AQ68" s="1">
-        <v>45308</v>
+        <v>45096</v>
       </c>
       <c r="AR68" s="2">
         <v>1</v>
@@ -12649,10 +12649,10 @@
       </c>
       <c r="AT68" s="2"/>
       <c r="AU68" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV68" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW68" s="2">
         <v>1</v>
@@ -12735,19 +12735,19 @@
         <v>77</v>
       </c>
       <c r="E69" s="1">
-        <v>45263</v>
+        <v>45060</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
@@ -12756,7 +12756,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" s="2">
         <v>0</v>
@@ -12777,7 +12777,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="T69" s="2">
         <v>0</v>
@@ -12807,7 +12807,7 @@
       <c r="AK69" s="2"/>
       <c r="AL69" s="2"/>
       <c r="AM69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="AQ69" s="1">
-        <v>45294</v>
+        <v>45089</v>
       </c>
       <c r="AR69" s="2">
         <v>1</v>
@@ -12825,10 +12825,10 @@
       </c>
       <c r="AT69" s="2"/>
       <c r="AU69" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV69" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW69" s="2">
         <v>1</v>
@@ -12840,10 +12840,10 @@
         <v>0</v>
       </c>
       <c r="AZ69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB69" s="2">
         <v>0</v>
@@ -12911,13 +12911,13 @@
         <v>77</v>
       </c>
       <c r="E70" s="1">
-        <v>45244</v>
+        <v>45041</v>
       </c>
       <c r="F70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -12932,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" s="2">
         <v>0</v>
@@ -12983,7 +12983,7 @@
       <c r="AK70" s="2"/>
       <c r="AL70" s="2"/>
       <c r="AM70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN70" s="2"/>
       <c r="AO70" s="2"/>
@@ -12991,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="AQ70" s="1">
-        <v>45260</v>
+        <v>45062</v>
       </c>
       <c r="AR70" s="2">
         <v>1</v>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="BE70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF70" s="2">
         <v>0</v>
@@ -13090,16 +13090,16 @@
         <v>45326</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
@@ -13159,7 +13159,7 @@
       <c r="AK71" s="2"/>
       <c r="AL71" s="2"/>
       <c r="AM71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN71" s="2"/>
       <c r="AO71" s="2"/>

--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1271" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1195" uniqueCount="191">
   <si>
     <t>sampleid</t>
   </si>
@@ -21,225 +21,225 @@
     <t>600812</t>
   </si>
   <si>
+    <t>600856</t>
+  </si>
+  <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>600961</t>
+  </si>
+  <si>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
+    <t>600699</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>600366</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
+    <t>600383</t>
+  </si>
+  <si>
+    <t>600322</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>600614</t>
+  </si>
+  <si>
     <t>600640</t>
   </si>
   <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>500951</t>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>600853</t>
+  </si>
+  <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>600604</t>
+  </si>
+  <si>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>600996</t>
+  </si>
+  <si>
+    <t>600898</t>
+  </si>
+  <si>
+    <t>600919</t>
+  </si>
+  <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>600978</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
+    <t>600672</t>
+  </si>
+  <si>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>600859</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>600381</t>
+  </si>
+  <si>
+    <t>500025</t>
   </si>
   <si>
     <t>600758</t>
   </si>
   <si>
+    <t>600886</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
     <t>600920</t>
   </si>
   <si>
-    <t>600919</t>
-  </si>
-  <si>
-    <t>600961</t>
-  </si>
-  <si>
-    <t>600786</t>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>600860</t>
+  </si>
+  <si>
+    <t>500906</t>
   </si>
   <si>
     <t>600374</t>
   </si>
   <si>
+    <t>600775</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
     <t>600881</t>
   </si>
   <si>
-    <t>600703</t>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>600326</t>
+  </si>
+  <si>
+    <t>600398</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>600360</t>
+  </si>
+  <si>
+    <t>500454</t>
   </si>
   <si>
     <t>400230</t>
   </si>
   <si>
-    <t>500025</t>
-  </si>
-  <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>600996</t>
+    <t>600865</t>
+  </si>
+  <si>
+    <t>600947</t>
+  </si>
+  <si>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>600727</t>
+  </si>
+  <si>
+    <t>600822</t>
+  </si>
+  <si>
+    <t>600923</t>
+  </si>
+  <si>
+    <t>600687</t>
   </si>
   <si>
     <t>600346</t>
   </si>
   <si>
-    <t>600682</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>600360</t>
-  </si>
-  <si>
-    <t>600923</t>
-  </si>
-  <si>
-    <t>600614</t>
-  </si>
-  <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>600366</t>
-  </si>
-  <si>
-    <t>600865</t>
-  </si>
-  <si>
-    <t>600853</t>
-  </si>
-  <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>600982</t>
+    <t>600310</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>600896</t>
   </si>
   <si>
     <t>400238</t>
   </si>
   <si>
-    <t>500221</t>
-  </si>
-  <si>
-    <t>600326</t>
-  </si>
-  <si>
-    <t>600886</t>
-  </si>
-  <si>
-    <t>600396</t>
-  </si>
-  <si>
-    <t>600383</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>600388</t>
-  </si>
-  <si>
-    <t>600610</t>
-  </si>
-  <si>
     <t>500005</t>
   </si>
   <si>
     <t>600882</t>
   </si>
   <si>
-    <t>600322</t>
-  </si>
-  <si>
-    <t>600309</t>
-  </si>
-  <si>
-    <t>600860</t>
-  </si>
-  <si>
-    <t>600398</t>
+    <t>500684</t>
   </si>
   <si>
     <t>600611</t>
   </si>
   <si>
-    <t>600780</t>
-  </si>
-  <si>
-    <t>600602</t>
-  </si>
-  <si>
-    <t>600775</t>
-  </si>
-  <si>
-    <t>600822</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>400224</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>600856</t>
-  </si>
-  <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>600604</t>
-  </si>
-  <si>
-    <t>500901</t>
-  </si>
-  <si>
-    <t>600896</t>
-  </si>
-  <si>
-    <t>600310</t>
-  </si>
-  <si>
-    <t>600859</t>
-  </si>
-  <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>500355</t>
-  </si>
-  <si>
-    <t>600978</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>600687</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>600947</t>
-  </si>
-  <si>
-    <t>600898</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>500454</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -273,6 +273,9 @@
     <t>swab</t>
   </si>
   <si>
+    <t>pill</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -282,9 +285,6 @@
     <t/>
   </si>
   <si>
-    <t>pill</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -297,39 +297,39 @@
     <t>fentanyl; xylazine</t>
   </si>
   <si>
+    <t>benzodiazepine</t>
+  </si>
+  <si>
     <t>xylazine; fentanyl</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>cocaine; fentanyl</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>cocaine; fentanyl</t>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl; crack</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>heroin</t>
   </si>
   <si>
     <t>heroin; fentanyl; xylazine</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl; crack</t>
-  </si>
-  <si>
-    <t>benzodiazepine</t>
-  </si>
-  <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -360,21 +360,21 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>gray</t>
   </si>
   <si>
-    <t>yellow</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -387,15 +387,15 @@
     <t>crystals</t>
   </si>
   <si>
+    <t>powder; chunky; rock</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>rock; crystals</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>powder; chunky; rock</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -408,33 +408,33 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
+    <t>long; unpleasant; hallucinations</t>
+  </si>
+  <si>
+    <t>sedating</t>
+  </si>
+  <si>
     <t>unpleasant; hallucinations</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>sedating</t>
+    <t>nice</t>
   </si>
   <si>
     <t>stronger</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>weird; sedating</t>
   </si>
   <si>
-    <t>long; unpleasant; hallucinations</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -553,12 +553,6 @@
   </si>
   <si>
     <t>lab_ketamine</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>USA</t>
   </si>
   <si>
     <t>state_county</t>
@@ -639,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS76"/>
+  <dimension ref="A1:BR76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -713,7 +707,7 @@
         <v>127</v>
       </c>
       <c r="W1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="X1" t="s">
         <v>122</v>
@@ -848,16 +842,13 @@
         <v>180</v>
       </c>
       <c r="BP1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BQ1" t="s">
         <v>185</v>
       </c>
       <c r="BR1" t="s">
-        <v>187</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -916,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
@@ -933,7 +924,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -946,7 +937,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
@@ -1027,16 +1018,13 @@
         <v>181</v>
       </c>
       <c r="BP2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ2" t="s">
         <v>186</v>
       </c>
       <c r="BR2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3">
@@ -1053,34 +1041,34 @@
         <v>82</v>
       </c>
       <c r="E3" s="1">
-        <v>45354</v>
+        <v>45404</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -1095,24 +1083,24 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2">
-        <v>1</v>
-      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
@@ -1125,40 +1113,42 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN3" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>0</v>
+      </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2">
         <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>45370</v>
+        <v>45415</v>
       </c>
       <c r="AR3" s="2">
         <v>1</v>
       </c>
       <c r="AS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV3" s="2">
         <v>2</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="2">
         <v>0</v>
@@ -1206,16 +1196,13 @@
         <v>181</v>
       </c>
       <c r="BP3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ3" t="s">
         <v>186</v>
       </c>
       <c r="BR3" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
@@ -1232,13 +1219,13 @@
         <v>82</v>
       </c>
       <c r="E4" s="1">
-        <v>45263</v>
+        <v>45026</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1274,24 +1261,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
+      <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
@@ -1300,9 +1285,7 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" t="s">
@@ -1316,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>45294</v>
+        <v>45032</v>
       </c>
       <c r="AR4" s="2">
         <v>1</v>
@@ -1326,10 +1309,10 @@
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
         <v>1</v>
@@ -1338,13 +1321,13 @@
         <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
         <v>1</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
@@ -1356,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1371,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK4" s="2">
         <v>0</v>
@@ -1389,16 +1372,13 @@
         <v>181</v>
       </c>
       <c r="BP4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ4" t="s">
         <v>186</v>
       </c>
       <c r="BR4" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5">
@@ -1415,19 +1395,19 @@
         <v>82</v>
       </c>
       <c r="E5" s="1">
-        <v>45069</v>
+        <v>45354</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -1457,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
@@ -1474,7 +1454,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
@@ -1497,17 +1477,17 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>45089</v>
+        <v>45394</v>
       </c>
       <c r="AR5" s="2">
         <v>1</v>
       </c>
       <c r="AS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV5" s="2">
         <v>3</v>
@@ -1570,16 +1550,13 @@
         <v>181</v>
       </c>
       <c r="BP5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ5" t="s">
         <v>186</v>
       </c>
       <c r="BR5" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -1596,13 +1573,13 @@
         <v>82</v>
       </c>
       <c r="E6" s="1">
-        <v>45349</v>
+        <v>45069</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1617,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1638,22 +1615,24 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
@@ -1666,25 +1645,27 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN6" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0</v>
+      </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2">
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>45369</v>
+        <v>45089</v>
       </c>
       <c r="AR6" s="2">
         <v>1</v>
       </c>
       <c r="AS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV6" s="2">
         <v>3</v>
@@ -1714,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1747,16 +1728,13 @@
         <v>181</v>
       </c>
       <c r="BP6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ6" t="s">
         <v>186</v>
       </c>
       <c r="BR6" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7">
@@ -1773,16 +1751,16 @@
         <v>82</v>
       </c>
       <c r="E7" s="1">
-        <v>45418</v>
+        <v>45263</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>93</v>
@@ -1815,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
@@ -1832,45 +1810,45 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+      <c r="AJ7" s="2">
+        <v>1</v>
+      </c>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AN7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2">
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>45432</v>
+        <v>45294</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
       </c>
       <c r="AS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW7" s="2">
         <v>1</v>
@@ -1879,13 +1857,13 @@
         <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -1930,16 +1908,13 @@
         <v>181</v>
       </c>
       <c r="BP7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ7" t="s">
         <v>186</v>
       </c>
       <c r="BR7" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
@@ -1956,13 +1931,13 @@
         <v>82</v>
       </c>
       <c r="E8" s="1">
-        <v>45384</v>
+        <v>45041</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1971,10 +1946,10 @@
         <v>96</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1995,27 +1970,27 @@
         <v>0</v>
       </c>
       <c r="R8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -2038,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>45413</v>
+        <v>45062</v>
       </c>
       <c r="AR8" s="2">
         <v>1</v>
@@ -2048,16 +2023,16 @@
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AV8" s="2">
         <v>2</v>
       </c>
-      <c r="AV8" s="2">
-        <v>1</v>
-      </c>
       <c r="AW8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
         <v>0</v>
@@ -2102,25 +2077,22 @@
         <v>0</v>
       </c>
       <c r="BM8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="s">
         <v>181</v>
       </c>
       <c r="BP8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ8" t="s">
         <v>186</v>
       </c>
       <c r="BR8" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9">
@@ -2137,13 +2109,13 @@
         <v>82</v>
       </c>
       <c r="E9" s="1">
-        <v>45354</v>
+        <v>45340</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -2179,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
@@ -2196,7 +2168,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -2219,17 +2191,17 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>45394</v>
+        <v>45369</v>
       </c>
       <c r="AR9" s="2">
         <v>1</v>
       </c>
       <c r="AS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV9" s="2">
         <v>3</v>
@@ -2292,16 +2264,13 @@
         <v>181</v>
       </c>
       <c r="BP9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ9" t="s">
         <v>186</v>
       </c>
       <c r="BR9" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10">
@@ -2318,7 +2287,7 @@
         <v>82</v>
       </c>
       <c r="E10" s="1">
-        <v>45300</v>
+        <v>45041</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -2327,10 +2296,10 @@
         <v>85</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2360,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T10" s="2">
         <v>0</v>
@@ -2377,12 +2346,10 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2392,7 +2359,7 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
@@ -2400,17 +2367,17 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>45317</v>
+        <v>45062</v>
       </c>
       <c r="AR10" s="2">
         <v>1</v>
       </c>
       <c r="AS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV10" s="2">
         <v>2</v>
@@ -2440,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2473,16 +2440,13 @@
         <v>181</v>
       </c>
       <c r="BP10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ10" t="s">
         <v>186</v>
       </c>
       <c r="BR10" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11">
@@ -2499,19 +2463,19 @@
         <v>82</v>
       </c>
       <c r="E11" s="1">
-        <v>45252</v>
+        <v>45034</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2541,51 +2505,49 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
-      <c r="AL11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL11" s="2"/>
       <c r="AM11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AN11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2">
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>45259</v>
+        <v>45050</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
@@ -2595,10 +2557,10 @@
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW11" s="2">
         <v>1</v>
@@ -2658,16 +2620,13 @@
         <v>181</v>
       </c>
       <c r="BP11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ11" t="s">
         <v>186</v>
       </c>
       <c r="BR11" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12">
@@ -2684,7 +2643,7 @@
         <v>82</v>
       </c>
       <c r="E12" s="1">
-        <v>45418</v>
+        <v>45252</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2696,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2726,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
@@ -2743,7 +2702,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -2756,15 +2715,17 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN12" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>0</v>
+      </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2">
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>45432</v>
+        <v>45261</v>
       </c>
       <c r="AR12" s="2">
         <v>1</v>
@@ -2774,10 +2735,10 @@
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV12" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
         <v>1</v>
@@ -2786,19 +2747,19 @@
         <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
       </c>
       <c r="BB12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
         <v>0</v>
@@ -2837,16 +2798,13 @@
         <v>181</v>
       </c>
       <c r="BP12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ12" t="s">
         <v>186</v>
       </c>
       <c r="BR12" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13">
@@ -2863,19 +2821,19 @@
         <v>82</v>
       </c>
       <c r="E13" s="1">
-        <v>45298</v>
+        <v>45312</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -2884,10 +2842,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -2896,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2905,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
@@ -2922,10 +2880,12 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
+      <c r="AD13" s="2">
+        <v>1</v>
+      </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -2935,11 +2895,9 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN13" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2">
         <v>0</v>
@@ -2955,22 +2913,22 @@
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -2982,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -3000,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="BJ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK13" s="2">
         <v>0</v>
@@ -3018,16 +2976,13 @@
         <v>181</v>
       </c>
       <c r="BP13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ13" t="s">
         <v>186</v>
       </c>
       <c r="BR13" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
@@ -3044,7 +2999,7 @@
         <v>82</v>
       </c>
       <c r="E14" s="1">
-        <v>45034</v>
+        <v>45300</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -3056,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -3086,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
@@ -3105,10 +3060,10 @@
       <c r="AB14" t="s">
         <v>133</v>
       </c>
-      <c r="AC14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2">
+        <v>1</v>
+      </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
@@ -3118,45 +3073,43 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN14" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2">
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>45054</v>
+        <v>45317</v>
       </c>
       <c r="AR14" s="2">
         <v>1</v>
       </c>
       <c r="AS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
         <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3201,16 +3154,13 @@
         <v>181</v>
       </c>
       <c r="BP14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ14" t="s">
         <v>186</v>
       </c>
       <c r="BR14" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
@@ -3227,7 +3177,7 @@
         <v>82</v>
       </c>
       <c r="E15" s="1">
-        <v>45060</v>
+        <v>45270</v>
       </c>
       <c r="F15" t="s">
         <v>85</v>
@@ -3239,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -3269,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="T15" s="2">
         <v>0</v>
@@ -3286,7 +3236,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
@@ -3299,7 +3249,7 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
@@ -3307,20 +3257,20 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>45089</v>
+        <v>45308</v>
       </c>
       <c r="AR15" s="2">
         <v>1</v>
       </c>
       <c r="AS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW15" s="2">
         <v>1</v>
@@ -3329,13 +3279,13 @@
         <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
         <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3380,16 +3330,13 @@
         <v>181</v>
       </c>
       <c r="BP15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ15" t="s">
         <v>186</v>
       </c>
       <c r="BR15" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
@@ -3406,7 +3353,7 @@
         <v>82</v>
       </c>
       <c r="E16" s="1">
-        <v>45041</v>
+        <v>45271</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -3415,10 +3362,10 @@
         <v>85</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -3448,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
@@ -3465,10 +3412,12 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3488,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>45077</v>
+        <v>45294</v>
       </c>
       <c r="AR16" s="2">
         <v>1</v>
@@ -3498,7 +3447,7 @@
       </c>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AV16" s="2">
         <v>3</v>
@@ -3510,13 +3459,13 @@
         <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
         <v>1</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3528,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
         <v>0</v>
@@ -3543,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK16" s="2">
         <v>0</v>
@@ -3561,16 +3510,13 @@
         <v>181</v>
       </c>
       <c r="BP16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ16" t="s">
         <v>186</v>
       </c>
       <c r="BR16" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
@@ -3587,7 +3533,7 @@
         <v>82</v>
       </c>
       <c r="E17" s="1">
-        <v>45365</v>
+        <v>45041</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -3596,10 +3542,10 @@
         <v>85</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -3608,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -3629,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
@@ -3646,30 +3592,30 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN17" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2">
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>45399</v>
+        <v>45077</v>
       </c>
       <c r="AR17" s="2">
         <v>1</v>
@@ -3679,25 +3625,25 @@
       </c>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AV17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
         <v>1</v>
       </c>
       <c r="BA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -3709,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -3724,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="BJ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK17" s="2">
         <v>0</v>
@@ -3742,16 +3688,13 @@
         <v>181</v>
       </c>
       <c r="BP17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ17" t="s">
         <v>186</v>
       </c>
       <c r="BR17" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
@@ -3768,7 +3711,7 @@
         <v>82</v>
       </c>
       <c r="E18" s="1">
-        <v>45286</v>
+        <v>45354</v>
       </c>
       <c r="F18" t="s">
         <v>88</v>
@@ -3777,7 +3720,7 @@
         <v>88</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>93</v>
@@ -3810,26 +3753,26 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T18" s="2">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
+      <c r="X18" s="2">
+        <v>1</v>
+      </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -3840,17 +3783,15 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN18" s="2">
-        <v>1</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2">
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>45308</v>
+        <v>45369</v>
       </c>
       <c r="AR18" s="2">
         <v>1</v>
@@ -3860,13 +3801,13 @@
       </c>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV18" s="2">
         <v>3</v>
       </c>
-      <c r="AV18" s="2">
-        <v>1</v>
-      </c>
       <c r="AW18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -3923,16 +3864,13 @@
         <v>181</v>
       </c>
       <c r="BP18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ18" t="s">
         <v>186</v>
       </c>
       <c r="BR18" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
@@ -3949,19 +3887,19 @@
         <v>82</v>
       </c>
       <c r="E19" s="1">
-        <v>45312</v>
+        <v>45354</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -3970,10 +3908,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -3982,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -3991,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="T19" s="2">
         <v>0</v>
@@ -4008,12 +3946,10 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -4023,7 +3959,7 @@
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
@@ -4031,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>45316</v>
+        <v>45370</v>
       </c>
       <c r="AR19" s="2">
         <v>1</v>
@@ -4041,22 +3977,22 @@
       </c>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV19" s="2">
         <v>2</v>
       </c>
-      <c r="AV19" s="2">
-        <v>1</v>
-      </c>
       <c r="AW19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4068,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
         <v>0</v>
@@ -4104,16 +4040,13 @@
         <v>181</v>
       </c>
       <c r="BP19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ19" t="s">
         <v>186</v>
       </c>
       <c r="BR19" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
@@ -4130,7 +4063,7 @@
         <v>82</v>
       </c>
       <c r="E20" s="1">
-        <v>45354</v>
+        <v>45244</v>
       </c>
       <c r="F20" t="s">
         <v>85</v>
@@ -4172,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
@@ -4189,7 +4122,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
@@ -4202,7 +4135,7 @@
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
@@ -4210,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>45369</v>
+        <v>45260</v>
       </c>
       <c r="AR20" s="2">
         <v>1</v>
@@ -4220,10 +4153,10 @@
       </c>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW20" s="2">
         <v>1</v>
@@ -4283,16 +4216,13 @@
         <v>181</v>
       </c>
       <c r="BP20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ20" t="s">
         <v>186</v>
       </c>
       <c r="BR20" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
@@ -4309,28 +4239,28 @@
         <v>82</v>
       </c>
       <c r="E21" s="1">
-        <v>45252</v>
+        <v>45390</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -4348,29 +4278,31 @@
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="2">
-        <v>1</v>
-      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="Z21" s="2">
+        <v>1</v>
+      </c>
       <c r="AA21" s="2"/>
       <c r="AB21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
@@ -4381,40 +4313,42 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN21" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>0</v>
+      </c>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2">
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>45260</v>
+        <v>45401</v>
       </c>
       <c r="AR21" s="2">
         <v>1</v>
       </c>
       <c r="AS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
         <v>0</v>
@@ -4453,25 +4387,22 @@
         <v>0</v>
       </c>
       <c r="BM21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO21" t="s">
         <v>181</v>
       </c>
       <c r="BP21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ21" t="s">
         <v>186</v>
       </c>
       <c r="BR21" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
@@ -4488,31 +4419,31 @@
         <v>82</v>
       </c>
       <c r="E22" s="1">
-        <v>45424</v>
+        <v>45029</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -4521,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -4530,13 +4461,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -4547,7 +4478,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
@@ -4560,15 +4491,17 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN22" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>0</v>
+      </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2">
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>45432</v>
+        <v>45050</v>
       </c>
       <c r="AR22" s="2">
         <v>1</v>
@@ -4578,22 +4511,22 @@
       </c>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV22" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
         <v>0</v>
@@ -4605,13 +4538,13 @@
         <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG22" s="2">
         <v>0</v>
@@ -4641,16 +4574,13 @@
         <v>181</v>
       </c>
       <c r="BP22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ22" t="s">
         <v>186</v>
       </c>
       <c r="BR22" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
@@ -4667,7 +4597,7 @@
         <v>82</v>
       </c>
       <c r="E23" s="1">
-        <v>45354</v>
+        <v>45260</v>
       </c>
       <c r="F23" t="s">
         <v>87</v>
@@ -4676,19 +4606,19 @@
         <v>87</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -4706,40 +4636,46 @@
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="T23" s="2">
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="2">
-        <v>1</v>
-      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="Z23" s="2">
+        <v>1</v>
+      </c>
       <c r="AA23" s="2"/>
       <c r="AB23" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
+      <c r="AD23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
+      <c r="AI23" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
@@ -4747,32 +4683,32 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>45369</v>
+        <v>45316</v>
       </c>
       <c r="AR23" s="2">
         <v>1</v>
       </c>
       <c r="AS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
         <v>0</v>
@@ -4811,25 +4747,22 @@
         <v>0</v>
       </c>
       <c r="BM23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO23" t="s">
         <v>181</v>
       </c>
       <c r="BP23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ23" t="s">
         <v>186</v>
       </c>
       <c r="BR23" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
@@ -4846,13 +4779,13 @@
         <v>82</v>
       </c>
       <c r="E24" s="1">
-        <v>45340</v>
+        <v>45270</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -4888,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
@@ -4905,7 +4838,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
@@ -4918,27 +4851,25 @@
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN24" s="2">
-        <v>0</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2">
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>45369</v>
+        <v>45308</v>
       </c>
       <c r="AR24" s="2">
         <v>1</v>
       </c>
       <c r="AS24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV24" s="2">
         <v>3</v>
@@ -5001,16 +4932,13 @@
         <v>181</v>
       </c>
       <c r="BP24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ24" t="s">
         <v>186</v>
       </c>
       <c r="BR24" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
@@ -5027,7 +4955,7 @@
         <v>82</v>
       </c>
       <c r="E25" s="1">
-        <v>45252</v>
+        <v>45354</v>
       </c>
       <c r="F25" t="s">
         <v>85</v>
@@ -5039,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -5048,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -5069,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T25" s="2">
         <v>0</v>
@@ -5086,7 +5014,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -5099,17 +5027,15 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN25" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2">
         <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>45261</v>
+        <v>45369</v>
       </c>
       <c r="AR25" s="2">
         <v>1</v>
@@ -5119,10 +5045,10 @@
       </c>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW25" s="2">
         <v>1</v>
@@ -5131,10 +5057,10 @@
         <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
         <v>0</v>
@@ -5182,16 +5108,13 @@
         <v>181</v>
       </c>
       <c r="BP25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ25" t="s">
         <v>186</v>
       </c>
       <c r="BR25" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26">
@@ -5208,7 +5131,7 @@
         <v>82</v>
       </c>
       <c r="E26" s="1">
-        <v>45403</v>
+        <v>45270</v>
       </c>
       <c r="F26" t="s">
         <v>85</v>
@@ -5220,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -5229,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -5250,10 +5173,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="T26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="s">
         <v>122</v>
@@ -5267,7 +5190,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -5280,17 +5203,15 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN26" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2">
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>45419</v>
+        <v>45308</v>
       </c>
       <c r="AR26" s="2">
         <v>1</v>
@@ -5300,13 +5221,13 @@
       </c>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV26" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="2">
         <v>1</v>
@@ -5363,16 +5284,13 @@
         <v>181</v>
       </c>
       <c r="BP26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ26" t="s">
         <v>186</v>
       </c>
       <c r="BR26" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
@@ -5389,28 +5307,28 @@
         <v>82</v>
       </c>
       <c r="E27" s="1">
-        <v>45390</v>
+        <v>45365</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -5428,62 +5346,60 @@
         <v>0</v>
       </c>
       <c r="R27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T27" s="2">
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
+      <c r="X27" s="2">
+        <v>1</v>
+      </c>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC27" s="2">
-        <v>0</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
+      <c r="AG27" s="2">
+        <v>1</v>
+      </c>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN27" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2">
         <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>45401</v>
+        <v>45399</v>
       </c>
       <c r="AR27" s="2">
         <v>1</v>
       </c>
       <c r="AS27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV27" s="2">
         <v>1</v>
@@ -5492,13 +5408,13 @@
         <v>0</v>
       </c>
       <c r="AX27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27" s="2">
         <v>0</v>
@@ -5537,25 +5453,22 @@
         <v>0</v>
       </c>
       <c r="BM27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO27" t="s">
         <v>181</v>
       </c>
       <c r="BP27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ27" t="s">
         <v>186</v>
       </c>
       <c r="BR27" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28">
@@ -5572,13 +5485,13 @@
         <v>82</v>
       </c>
       <c r="E28" s="1">
-        <v>45354</v>
+        <v>45403</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -5614,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
@@ -5631,7 +5544,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
@@ -5644,7 +5557,7 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
@@ -5652,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <v>45369</v>
+        <v>45420</v>
       </c>
       <c r="AR28" s="2">
         <v>1</v>
@@ -5662,11 +5575,11 @@
       </c>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2">
+        <v>6</v>
+      </c>
+      <c r="AV28" s="2">
         <v>4</v>
       </c>
-      <c r="AV28" s="2">
-        <v>3</v>
-      </c>
       <c r="AW28" s="2">
         <v>1</v>
       </c>
@@ -5686,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="BC28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD28" s="2">
         <v>0</v>
@@ -5707,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK28" s="2">
         <v>0</v>
@@ -5725,16 +5638,13 @@
         <v>181</v>
       </c>
       <c r="BP28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ28" t="s">
         <v>186</v>
       </c>
       <c r="BR28" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29">
@@ -5751,28 +5661,28 @@
         <v>82</v>
       </c>
       <c r="E29" s="1">
-        <v>45365</v>
+        <v>45384</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -5790,27 +5700,27 @@
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="2">
-        <v>1</v>
-      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
+      <c r="Z29" s="2">
+        <v>1</v>
+      </c>
       <c r="AA29" s="2"/>
       <c r="AB29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -5823,40 +5733,42 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN29" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>0</v>
+      </c>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2">
         <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>45394</v>
+        <v>45413</v>
       </c>
       <c r="AR29" s="2">
         <v>1</v>
       </c>
       <c r="AS29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="2">
         <v>0</v>
@@ -5895,25 +5807,22 @@
         <v>0</v>
       </c>
       <c r="BM29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO29" t="s">
         <v>181</v>
       </c>
       <c r="BP29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ29" t="s">
         <v>186</v>
       </c>
       <c r="BR29" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
@@ -5930,19 +5839,19 @@
         <v>82</v>
       </c>
       <c r="E30" s="1">
-        <v>45034</v>
+        <v>45354</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -5951,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -5972,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
@@ -5989,11 +5898,9 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC30" s="2">
-        <v>0</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
@@ -6004,17 +5911,15 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN30" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="2">
         <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>45050</v>
+        <v>45369</v>
       </c>
       <c r="AR30" s="2">
         <v>1</v>
@@ -6036,10 +5941,10 @@
         <v>1</v>
       </c>
       <c r="AY30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30" s="2">
         <v>0</v>
@@ -6069,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="BJ30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK30" s="2">
         <v>0</v>
@@ -6087,16 +5992,13 @@
         <v>181</v>
       </c>
       <c r="BP30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ30" t="s">
         <v>186</v>
       </c>
       <c r="BR30" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
@@ -6113,25 +6015,25 @@
         <v>82</v>
       </c>
       <c r="E31" s="1">
-        <v>45041</v>
+        <v>45403</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -6140,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="2">
         <v>0</v>
@@ -6155,24 +6057,24 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="T31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2">
-        <v>1</v>
-      </c>
+      <c r="W31" s="2">
+        <v>1</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -6185,40 +6087,42 @@
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN31" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>0</v>
+      </c>
       <c r="AO31" s="2"/>
       <c r="AP31" s="2">
         <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>45062</v>
+        <v>45415</v>
       </c>
       <c r="AR31" s="2">
         <v>1</v>
       </c>
       <c r="AS31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="2"/>
       <c r="AU31" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="2">
         <v>0</v>
@@ -6233,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="BE31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF31" s="2">
         <v>0</v>
@@ -6266,16 +6170,13 @@
         <v>181</v>
       </c>
       <c r="BP31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ31" t="s">
         <v>186</v>
       </c>
       <c r="BR31" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32">
@@ -6292,7 +6193,7 @@
         <v>82</v>
       </c>
       <c r="E32" s="1">
-        <v>45270</v>
+        <v>45329</v>
       </c>
       <c r="F32" t="s">
         <v>85</v>
@@ -6334,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
@@ -6351,7 +6252,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
@@ -6360,11 +6261,13 @@
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
+      <c r="AJ32" s="2">
+        <v>1</v>
+      </c>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
@@ -6372,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>45308</v>
+        <v>45369</v>
       </c>
       <c r="AR32" s="2">
         <v>1</v>
@@ -6382,10 +6285,10 @@
       </c>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW32" s="2">
         <v>1</v>
@@ -6445,16 +6348,13 @@
         <v>181</v>
       </c>
       <c r="BP32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ32" t="s">
         <v>186</v>
       </c>
       <c r="BR32" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
@@ -6471,31 +6371,31 @@
         <v>82</v>
       </c>
       <c r="E33" s="1">
-        <v>45390</v>
+        <v>45354</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
@@ -6504,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="2">
         <v>0</v>
@@ -6513,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
@@ -6530,11 +6430,9 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>0</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
@@ -6545,42 +6443,40 @@
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN33" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
       <c r="AP33" s="2">
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>45401</v>
+        <v>45370</v>
       </c>
       <c r="AR33" s="2">
         <v>1</v>
       </c>
       <c r="AS33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="2"/>
       <c r="AU33" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV33" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA33" s="2">
         <v>0</v>
@@ -6592,10 +6488,10 @@
         <v>0</v>
       </c>
       <c r="BD33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF33" s="2">
         <v>0</v>
@@ -6628,16 +6524,13 @@
         <v>181</v>
       </c>
       <c r="BP33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ33" t="s">
         <v>186</v>
       </c>
       <c r="BR33" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34">
@@ -6654,16 +6547,16 @@
         <v>82</v>
       </c>
       <c r="E34" s="1">
-        <v>45270</v>
+        <v>45319</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
         <v>93</v>
@@ -6696,10 +6589,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="T34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="s">
         <v>122</v>
@@ -6713,7 +6606,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
@@ -6726,15 +6619,17 @@
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN34" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>1</v>
+      </c>
       <c r="AO34" s="2"/>
       <c r="AP34" s="2">
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>45308</v>
+        <v>45336</v>
       </c>
       <c r="AR34" s="2">
         <v>1</v>
@@ -6777,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="BF34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG34" s="2">
         <v>0</v>
@@ -6807,16 +6702,13 @@
         <v>181</v>
       </c>
       <c r="BP34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ34" t="s">
         <v>186</v>
       </c>
       <c r="BR34" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35">
@@ -6833,7 +6725,7 @@
         <v>82</v>
       </c>
       <c r="E35" s="1">
-        <v>45270</v>
+        <v>45418</v>
       </c>
       <c r="F35" t="s">
         <v>85</v>
@@ -6845,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -6854,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
@@ -6875,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
@@ -6892,7 +6784,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
@@ -6905,7 +6797,7 @@
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN35" s="2"/>
       <c r="AO35" s="2"/>
@@ -6913,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>45308</v>
+        <v>45432</v>
       </c>
       <c r="AR35" s="2">
         <v>1</v>
@@ -6923,10 +6815,10 @@
       </c>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV35" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW35" s="2">
         <v>1</v>
@@ -6935,10 +6827,10 @@
         <v>1</v>
       </c>
       <c r="AY35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="2">
         <v>0</v>
@@ -6986,16 +6878,13 @@
         <v>181</v>
       </c>
       <c r="BP35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ35" t="s">
         <v>186</v>
       </c>
       <c r="BR35" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36">
@@ -7012,19 +6901,19 @@
         <v>82</v>
       </c>
       <c r="E36" s="1">
-        <v>45354</v>
+        <v>45328</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -7033,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -7054,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T36" s="2">
         <v>0</v>
@@ -7071,7 +6960,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
@@ -7084,7 +6973,7 @@
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
@@ -7092,20 +6981,20 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>45370</v>
+        <v>45336</v>
       </c>
       <c r="AR36" s="2">
         <v>1</v>
       </c>
       <c r="AS36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW36" s="2">
         <v>1</v>
@@ -7165,16 +7054,13 @@
         <v>181</v>
       </c>
       <c r="BP36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ36" t="s">
         <v>186</v>
       </c>
       <c r="BR36" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37">
@@ -7191,13 +7077,13 @@
         <v>82</v>
       </c>
       <c r="E37" s="1">
-        <v>45244</v>
+        <v>45354</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -7233,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T37" s="2">
         <v>0</v>
@@ -7250,7 +7136,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -7263,7 +7149,7 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
@@ -7271,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>45260</v>
+        <v>45370</v>
       </c>
       <c r="AR37" s="2">
         <v>1</v>
@@ -7281,13 +7167,13 @@
       </c>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX37" s="2">
         <v>1</v>
@@ -7344,16 +7230,13 @@
         <v>181</v>
       </c>
       <c r="BP37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ37" t="s">
         <v>186</v>
       </c>
       <c r="BR37" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38">
@@ -7370,7 +7253,7 @@
         <v>82</v>
       </c>
       <c r="E38" s="1">
-        <v>45315</v>
+        <v>45263</v>
       </c>
       <c r="F38" t="s">
         <v>87</v>
@@ -7382,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -7391,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
@@ -7412,24 +7295,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
-      <c r="X38" s="2">
-        <v>1</v>
-      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
@@ -7438,11 +7319,13 @@
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
-      <c r="AJ38" s="2"/>
+      <c r="AJ38" s="2">
+        <v>1</v>
+      </c>
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
       <c r="AM38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
@@ -7450,23 +7333,23 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>45336</v>
+        <v>45294</v>
       </c>
       <c r="AR38" s="2">
         <v>1</v>
       </c>
       <c r="AS38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV38" s="2">
         <v>4</v>
       </c>
       <c r="AW38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX38" s="2">
         <v>1</v>
@@ -7493,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="BF38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG38" s="2">
         <v>0</v>
@@ -7523,16 +7406,13 @@
         <v>181</v>
       </c>
       <c r="BP38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ38" t="s">
         <v>186</v>
       </c>
       <c r="BR38" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39">
@@ -7549,7 +7429,7 @@
         <v>82</v>
       </c>
       <c r="E39" s="1">
-        <v>45041</v>
+        <v>45060</v>
       </c>
       <c r="F39" t="s">
         <v>85</v>
@@ -7570,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="2">
         <v>0</v>
@@ -7591,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
@@ -7608,7 +7488,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
@@ -7621,7 +7501,7 @@
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
@@ -7629,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>45077</v>
+        <v>45089</v>
       </c>
       <c r="AR39" s="2">
         <v>1</v>
@@ -7639,7 +7519,7 @@
       </c>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV39" s="2">
         <v>2</v>
@@ -7669,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="BE39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF39" s="2">
         <v>0</v>
@@ -7684,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="BJ39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK39" s="2">
         <v>0</v>
@@ -7702,16 +7582,13 @@
         <v>181</v>
       </c>
       <c r="BP39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ39" t="s">
         <v>186</v>
       </c>
       <c r="BR39" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40">
@@ -7728,13 +7605,13 @@
         <v>82</v>
       </c>
       <c r="E40" s="1">
-        <v>45390</v>
+        <v>45349</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -7743,10 +7620,10 @@
         <v>96</v>
       </c>
       <c r="J40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
@@ -7767,27 +7644,25 @@
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T40" s="2">
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
@@ -7800,17 +7675,15 @@
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN40" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
       <c r="AP40" s="2">
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>45413</v>
+        <v>45369</v>
       </c>
       <c r="AR40" s="2">
         <v>1</v>
@@ -7820,22 +7693,22 @@
       </c>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV40" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA40" s="2">
         <v>0</v>
@@ -7850,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="BE40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF40" s="2">
         <v>0</v>
@@ -7874,25 +7747,22 @@
         <v>0</v>
       </c>
       <c r="BM40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO40" t="s">
         <v>181</v>
       </c>
       <c r="BP40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ40" t="s">
         <v>186</v>
       </c>
       <c r="BR40" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41">
@@ -7909,31 +7779,31 @@
         <v>82</v>
       </c>
       <c r="E41" s="1">
-        <v>45271</v>
+        <v>45390</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
@@ -7942,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="2">
         <v>0</v>
@@ -7951,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
@@ -7968,12 +7838,12 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2">
-        <v>1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
@@ -7993,32 +7863,32 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="1">
-        <v>45294</v>
+        <v>45401</v>
       </c>
       <c r="AR41" s="2">
         <v>1</v>
       </c>
       <c r="AS41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV41" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="2">
         <v>0</v>
@@ -8030,10 +7900,10 @@
         <v>0</v>
       </c>
       <c r="BD41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF41" s="2">
         <v>0</v>
@@ -8066,16 +7936,13 @@
         <v>181</v>
       </c>
       <c r="BP41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ41" t="s">
         <v>186</v>
       </c>
       <c r="BR41" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42">
@@ -8092,22 +7959,22 @@
         <v>82</v>
       </c>
       <c r="E42" s="1">
-        <v>45272</v>
+        <v>45045</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
         <v>100</v>
       </c>
       <c r="J42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -8116,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -8125,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="2">
         <v>0</v>
@@ -8134,13 +8001,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
@@ -8151,16 +8018,14 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
       <c r="AK42" s="2"/>
@@ -8176,32 +8041,32 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>45294</v>
+        <v>45062</v>
       </c>
       <c r="AR42" s="2">
         <v>1</v>
       </c>
       <c r="AS42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42" s="2"/>
       <c r="AU42" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV42" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="2">
         <v>0</v>
@@ -8213,13 +8078,13 @@
         <v>0</v>
       </c>
       <c r="BD42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG42" s="2">
         <v>0</v>
@@ -8249,16 +8114,13 @@
         <v>181</v>
       </c>
       <c r="BP42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ42" t="s">
         <v>186</v>
       </c>
       <c r="BR42" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43">
@@ -8284,10 +8146,10 @@
         <v>85</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -8296,7 +8158,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="2">
         <v>0</v>
@@ -8317,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
@@ -8334,22 +8196,26 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
+      <c r="AG43" s="2">
+        <v>1</v>
+      </c>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN43" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>1</v>
+      </c>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2">
         <v>0</v>
@@ -8428,16 +8294,13 @@
         <v>181</v>
       </c>
       <c r="BP43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ43" t="s">
         <v>186</v>
       </c>
       <c r="BR43" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44">
@@ -8454,19 +8317,19 @@
         <v>82</v>
       </c>
       <c r="E44" s="1">
-        <v>45263</v>
+        <v>45298</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -8475,7 +8338,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="2">
         <v>0</v>
@@ -8496,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T44" s="2">
         <v>0</v>
@@ -8513,7 +8376,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
@@ -8526,15 +8389,17 @@
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN44" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN44" s="2">
+        <v>0</v>
+      </c>
       <c r="AO44" s="2"/>
       <c r="AP44" s="2">
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>45294</v>
+        <v>45316</v>
       </c>
       <c r="AR44" s="2">
         <v>1</v>
@@ -8544,11 +8409,11 @@
       </c>
       <c r="AT44" s="2"/>
       <c r="AU44" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV44" s="2">
         <v>3</v>
       </c>
-      <c r="AV44" s="2">
-        <v>1</v>
-      </c>
       <c r="AW44" s="2">
         <v>1</v>
       </c>
@@ -8556,10 +8421,10 @@
         <v>1</v>
       </c>
       <c r="AY44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA44" s="2">
         <v>0</v>
@@ -8589,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="BJ44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK44" s="2">
         <v>0</v>
@@ -8607,16 +8472,13 @@
         <v>181</v>
       </c>
       <c r="BP44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ44" t="s">
         <v>186</v>
       </c>
       <c r="BR44" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45">
@@ -8633,19 +8495,19 @@
         <v>82</v>
       </c>
       <c r="E45" s="1">
-        <v>45354</v>
+        <v>45418</v>
       </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -8654,7 +8516,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="2">
         <v>0</v>
@@ -8675,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T45" s="2">
         <v>0</v>
@@ -8692,7 +8554,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
@@ -8705,7 +8567,7 @@
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
@@ -8713,20 +8575,20 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>45369</v>
+        <v>45432</v>
       </c>
       <c r="AR45" s="2">
         <v>1</v>
       </c>
       <c r="AS45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2">
         <v>3</v>
       </c>
       <c r="AV45" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW45" s="2">
         <v>1</v>
@@ -8786,16 +8648,13 @@
         <v>181</v>
       </c>
       <c r="BP45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ45" t="s">
         <v>186</v>
       </c>
       <c r="BR45" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46">
@@ -8812,37 +8671,37 @@
         <v>82</v>
       </c>
       <c r="E46" s="1">
-        <v>45333</v>
+        <v>45069</v>
       </c>
       <c r="F46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="2">
         <v>0</v>
@@ -8854,28 +8713,26 @@
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="T46" s="2">
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
+      <c r="X46" s="2">
+        <v>1</v>
+      </c>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC46" s="2">
-        <v>0</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
@@ -8896,41 +8753,41 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>45364</v>
+        <v>45096</v>
       </c>
       <c r="AR46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2">
         <v>2</v>
       </c>
       <c r="AV46" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="2">
         <v>0</v>
       </c>
       <c r="AX46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY46" s="2">
         <v>0</v>
       </c>
       <c r="AZ46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD46" s="2">
         <v>0</v>
@@ -8969,16 +8826,13 @@
         <v>181</v>
       </c>
       <c r="BP46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ46" t="s">
         <v>186</v>
       </c>
       <c r="BR46" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47">
@@ -8995,19 +8849,19 @@
         <v>82</v>
       </c>
       <c r="E47" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -9016,7 +8870,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="2">
         <v>0</v>
@@ -9037,58 +8891,64 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="T47" s="2">
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
-      <c r="X47" s="2">
-        <v>1</v>
-      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
+      <c r="AD47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>1</v>
+      </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
-      <c r="AL47" s="2"/>
+      <c r="AL47" s="2">
+        <v>1</v>
+      </c>
       <c r="AM47" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN47" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>1</v>
+      </c>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2">
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>45369</v>
+        <v>45259</v>
       </c>
       <c r="AR47" s="2">
         <v>1</v>
       </c>
       <c r="AS47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV47" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW47" s="2">
         <v>1</v>
@@ -9097,10 +8957,10 @@
         <v>1</v>
       </c>
       <c r="AY47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA47" s="2">
         <v>0</v>
@@ -9148,16 +9008,13 @@
         <v>181</v>
       </c>
       <c r="BP47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ47" t="s">
         <v>186</v>
       </c>
       <c r="BR47" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48">
@@ -9177,16 +9034,16 @@
         <v>45298</v>
       </c>
       <c r="F48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H48" s="2">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -9216,13 +9073,13 @@
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T48" s="2">
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
@@ -9233,7 +9090,7 @@
       </c>
       <c r="AA48" s="2"/>
       <c r="AB48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
@@ -9329,16 +9186,13 @@
         <v>181</v>
       </c>
       <c r="BP48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ48" t="s">
         <v>186</v>
       </c>
       <c r="BR48" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS48" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49">
@@ -9355,19 +9209,19 @@
         <v>82</v>
       </c>
       <c r="E49" s="1">
-        <v>45366</v>
+        <v>45315</v>
       </c>
       <c r="F49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -9376,7 +9230,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -9397,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T49" s="2">
         <v>0</v>
@@ -9414,7 +9268,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
@@ -9427,7 +9281,7 @@
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
@@ -9435,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>45421</v>
+        <v>45336</v>
       </c>
       <c r="AR49" s="2">
         <v>1</v>
@@ -9445,22 +9299,22 @@
       </c>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AV49" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="2">
         <v>1</v>
       </c>
       <c r="AY49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA49" s="2">
         <v>0</v>
@@ -9478,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="BF49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG49" s="2">
         <v>0</v>
@@ -9508,16 +9362,13 @@
         <v>181</v>
       </c>
       <c r="BP49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ49" t="s">
         <v>186</v>
       </c>
       <c r="BR49" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50">
@@ -9534,7 +9385,7 @@
         <v>82</v>
       </c>
       <c r="E50" s="1">
-        <v>45329</v>
+        <v>45418</v>
       </c>
       <c r="F50" t="s">
         <v>85</v>
@@ -9546,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -9555,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
@@ -9576,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T50" s="2">
         <v>0</v>
@@ -9593,7 +9444,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
@@ -9602,13 +9453,11 @@
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
-      <c r="AJ50" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ50" s="2"/>
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
       <c r="AM50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
@@ -9616,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>45369</v>
+        <v>45432</v>
       </c>
       <c r="AR50" s="2">
         <v>1</v>
@@ -9626,10 +9475,10 @@
       </c>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV50" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW50" s="2">
         <v>1</v>
@@ -9647,10 +9496,10 @@
         <v>0</v>
       </c>
       <c r="BB50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD50" s="2">
         <v>0</v>
@@ -9689,16 +9538,13 @@
         <v>181</v>
       </c>
       <c r="BP50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ50" t="s">
         <v>186</v>
       </c>
       <c r="BR50" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51">
@@ -9715,13 +9561,13 @@
         <v>82</v>
       </c>
       <c r="E51" s="1">
-        <v>45270</v>
+        <v>45354</v>
       </c>
       <c r="F51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -9757,7 +9603,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T51" s="2">
         <v>0</v>
@@ -9774,7 +9620,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
@@ -9787,7 +9633,7 @@
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
       <c r="AM51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
@@ -9795,17 +9641,17 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>45308</v>
+        <v>45370</v>
       </c>
       <c r="AR51" s="2">
         <v>1</v>
       </c>
       <c r="AS51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV51" s="2">
         <v>3</v>
@@ -9868,16 +9714,13 @@
         <v>181</v>
       </c>
       <c r="BP51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ51" t="s">
         <v>186</v>
       </c>
       <c r="BR51" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS51" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52">
@@ -9894,7 +9737,7 @@
         <v>82</v>
       </c>
       <c r="E52" s="1">
-        <v>45069</v>
+        <v>45270</v>
       </c>
       <c r="F52" t="s">
         <v>85</v>
@@ -9903,10 +9746,10 @@
         <v>85</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -9915,7 +9758,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
@@ -9936,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
@@ -9953,12 +9796,10 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="AC52" s="2"/>
-      <c r="AD52" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
@@ -9968,7 +9809,7 @@
       <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
       <c r="AM52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
@@ -9976,20 +9817,20 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <v>45089</v>
+        <v>45308</v>
       </c>
       <c r="AR52" s="2">
         <v>1</v>
       </c>
       <c r="AS52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT52" s="2"/>
       <c r="AU52" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW52" s="2">
         <v>1</v>
@@ -10049,16 +9890,13 @@
         <v>181</v>
       </c>
       <c r="BP52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ52" t="s">
         <v>186</v>
       </c>
       <c r="BR52" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS52" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53">
@@ -10075,19 +9913,19 @@
         <v>82</v>
       </c>
       <c r="E53" s="1">
-        <v>45026</v>
+        <v>45263</v>
       </c>
       <c r="F53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -10096,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" s="2">
         <v>0</v>
@@ -10117,22 +9955,24 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T53" s="2">
         <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
+      <c r="X53" s="2">
+        <v>1</v>
+      </c>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
@@ -10145,17 +9985,15 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN53" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2">
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>45032</v>
+        <v>45294</v>
       </c>
       <c r="AR53" s="2">
         <v>1</v>
@@ -10165,10 +10003,10 @@
       </c>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AV53" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW53" s="2">
         <v>1</v>
@@ -10177,10 +10015,10 @@
         <v>1</v>
       </c>
       <c r="AY53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="2">
         <v>0</v>
@@ -10195,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="BE53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF53" s="2">
         <v>0</v>
@@ -10210,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK53" s="2">
         <v>0</v>
@@ -10228,16 +10066,13 @@
         <v>181</v>
       </c>
       <c r="BP53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ53" t="s">
         <v>186</v>
       </c>
       <c r="BR53" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54">
@@ -10254,37 +10089,37 @@
         <v>82</v>
       </c>
       <c r="E54" s="1">
-        <v>45263</v>
+        <v>45333</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" s="2">
         <v>0</v>
       </c>
       <c r="O54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="2">
         <v>0</v>
@@ -10296,45 +10131,49 @@
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
+      <c r="Z54" s="2">
+        <v>1</v>
+      </c>
       <c r="AA54" s="2"/>
       <c r="AB54" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC54" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>0</v>
+      </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
-      <c r="AJ54" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ54" s="2"/>
       <c r="AK54" s="2"/>
       <c r="AL54" s="2"/>
       <c r="AM54" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN54" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>0</v>
+      </c>
       <c r="AO54" s="2"/>
       <c r="AP54" s="2">
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>45294</v>
+        <v>45364</v>
       </c>
       <c r="AR54" s="2">
         <v>1</v>
@@ -10344,31 +10183,31 @@
       </c>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV54" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="2">
         <v>0</v>
       </c>
       <c r="BB54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD54" s="2">
         <v>0</v>
@@ -10407,16 +10246,13 @@
         <v>181</v>
       </c>
       <c r="BP54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ54" t="s">
         <v>186</v>
       </c>
       <c r="BR54" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55">
@@ -10433,66 +10269,66 @@
         <v>82</v>
       </c>
       <c r="E55" s="1">
-        <v>45404</v>
+        <v>45252</v>
       </c>
       <c r="F55" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>93</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2">
+        <v>0</v>
+      </c>
+      <c r="S55" t="s">
         <v>89</v>
       </c>
-      <c r="G55" t="s">
-        <v>89</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
-        <v>103</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2">
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2">
-        <v>1</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2">
-        <v>0</v>
-      </c>
-      <c r="S55" t="s">
-        <v>116</v>
-      </c>
       <c r="T55" s="2">
         <v>0</v>
       </c>
       <c r="U55" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="V55" s="2"/>
-      <c r="W55" s="2">
-        <v>1</v>
-      </c>
-      <c r="X55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2">
+        <v>1</v>
+      </c>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
@@ -10505,42 +10341,40 @@
       <c r="AK55" s="2"/>
       <c r="AL55" s="2"/>
       <c r="AM55" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN55" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
       <c r="AP55" s="2">
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>45415</v>
+        <v>45260</v>
       </c>
       <c r="AR55" s="2">
         <v>1</v>
       </c>
       <c r="AS55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT55" s="2"/>
       <c r="AU55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV55" s="2">
         <v>2</v>
       </c>
       <c r="AW55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA55" s="2">
         <v>0</v>
@@ -10588,16 +10422,13 @@
         <v>181</v>
       </c>
       <c r="BP55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ55" t="s">
         <v>186</v>
       </c>
       <c r="BR55" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56">
@@ -10614,7 +10445,7 @@
         <v>82</v>
       </c>
       <c r="E56" s="1">
-        <v>45328</v>
+        <v>45069</v>
       </c>
       <c r="F56" t="s">
         <v>85</v>
@@ -10635,7 +10466,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="2">
         <v>0</v>
@@ -10656,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T56" s="2">
         <v>0</v>
@@ -10673,7 +10504,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
@@ -10686,25 +10517,27 @@
       <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
       <c r="AM56" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN56" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN56" s="2">
+        <v>0</v>
+      </c>
       <c r="AO56" s="2"/>
       <c r="AP56" s="2">
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>45336</v>
+        <v>45096</v>
       </c>
       <c r="AR56" s="2">
         <v>1</v>
       </c>
       <c r="AS56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV56" s="2">
         <v>2</v>
@@ -10767,16 +10600,13 @@
         <v>181</v>
       </c>
       <c r="BP56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ56" t="s">
         <v>186</v>
       </c>
       <c r="BR56" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57">
@@ -10793,13 +10623,13 @@
         <v>82</v>
       </c>
       <c r="E57" s="1">
-        <v>45260</v>
+        <v>45034</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
@@ -10808,10 +10638,10 @@
         <v>96</v>
       </c>
       <c r="J57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="2">
         <v>0</v>
@@ -10832,82 +10662,80 @@
         <v>0</v>
       </c>
       <c r="R57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
+      <c r="X57" s="2">
+        <v>1</v>
+      </c>
       <c r="Y57" s="2"/>
-      <c r="Z57" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE57" s="2">
-        <v>1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
-      <c r="AI57" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
       <c r="AM57" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN57" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN57" s="2">
+        <v>0</v>
+      </c>
       <c r="AO57" s="2"/>
       <c r="AP57" s="2">
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>45316</v>
+        <v>45054</v>
       </c>
       <c r="AR57" s="2">
         <v>1</v>
       </c>
       <c r="AS57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV57" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW57" s="2">
         <v>0</v>
       </c>
       <c r="AX57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY57" s="2">
         <v>0</v>
       </c>
       <c r="AZ57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB57" s="2">
         <v>0</v>
@@ -10943,25 +10771,22 @@
         <v>0</v>
       </c>
       <c r="BM57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO57" t="s">
         <v>181</v>
       </c>
       <c r="BP57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ57" t="s">
         <v>186</v>
       </c>
       <c r="BR57" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS57" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58">
@@ -10978,19 +10803,19 @@
         <v>82</v>
       </c>
       <c r="E58" s="1">
-        <v>45041</v>
+        <v>45403</v>
       </c>
       <c r="F58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -11020,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T58" s="2">
         <v>0</v>
@@ -11037,7 +10862,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
@@ -11060,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="1">
-        <v>45062</v>
+        <v>45419</v>
       </c>
       <c r="AR58" s="2">
         <v>1</v>
@@ -11073,19 +10898,19 @@
         <v>3</v>
       </c>
       <c r="AV58" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX58" s="2">
         <v>1</v>
       </c>
       <c r="AY58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA58" s="2">
         <v>0</v>
@@ -11133,16 +10958,13 @@
         <v>181</v>
       </c>
       <c r="BP58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ58" t="s">
         <v>186</v>
       </c>
       <c r="BR58" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59">
@@ -11159,19 +10981,19 @@
         <v>82</v>
       </c>
       <c r="E59" s="1">
-        <v>45404</v>
+        <v>45354</v>
       </c>
       <c r="F59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -11180,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="2">
         <v>0</v>
@@ -11201,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T59" s="2">
         <v>0</v>
@@ -11218,7 +11040,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
@@ -11231,7 +11053,7 @@
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
       <c r="AM59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN59" s="2"/>
       <c r="AO59" s="2"/>
@@ -11239,32 +11061,32 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>45420</v>
+        <v>45394</v>
       </c>
       <c r="AR59" s="2">
         <v>1</v>
       </c>
       <c r="AS59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59" s="2"/>
       <c r="AU59" s="2">
         <v>2</v>
       </c>
       <c r="AV59" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX59" s="2">
         <v>1</v>
       </c>
       <c r="AY59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA59" s="2">
         <v>0</v>
@@ -11312,16 +11134,13 @@
         <v>181</v>
       </c>
       <c r="BP59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ59" t="s">
         <v>186</v>
       </c>
       <c r="BR59" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60">
@@ -11338,13 +11157,13 @@
         <v>82</v>
       </c>
       <c r="E60" s="1">
-        <v>45252</v>
+        <v>45354</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -11380,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="T60" s="2">
         <v>0</v>
@@ -11397,7 +11216,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
@@ -11410,7 +11229,7 @@
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
       <c r="AM60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
@@ -11418,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="AR60" s="2">
         <v>1</v>
@@ -11428,13 +11247,13 @@
       </c>
       <c r="AT60" s="2"/>
       <c r="AU60" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV60" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX60" s="2">
         <v>1</v>
@@ -11491,16 +11310,13 @@
         <v>181</v>
       </c>
       <c r="BP60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ60" t="s">
         <v>186</v>
       </c>
       <c r="BR60" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS60" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61">
@@ -11517,7 +11333,7 @@
         <v>82</v>
       </c>
       <c r="E61" s="1">
-        <v>45418</v>
+        <v>45272</v>
       </c>
       <c r="F61" t="s">
         <v>85</v>
@@ -11526,16 +11342,16 @@
         <v>85</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
       <c r="K61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="2">
         <v>0</v>
@@ -11559,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T61" s="2">
         <v>0</v>
@@ -11576,28 +11392,32 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
-      <c r="AH61" s="2"/>
+      <c r="AH61" s="2">
+        <v>1</v>
+      </c>
       <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
       <c r="AK61" s="2"/>
       <c r="AL61" s="2"/>
       <c r="AM61" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN61" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN61" s="2">
+        <v>0</v>
+      </c>
       <c r="AO61" s="2"/>
       <c r="AP61" s="2">
         <v>0</v>
       </c>
       <c r="AQ61" s="1">
-        <v>45432</v>
+        <v>45294</v>
       </c>
       <c r="AR61" s="2">
         <v>1</v>
@@ -11607,10 +11427,10 @@
       </c>
       <c r="AT61" s="2"/>
       <c r="AU61" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV61" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW61" s="2">
         <v>1</v>
@@ -11619,10 +11439,10 @@
         <v>1</v>
       </c>
       <c r="AY61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA61" s="2">
         <v>0</v>
@@ -11640,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="BF61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG61" s="2">
         <v>0</v>
@@ -11670,16 +11490,13 @@
         <v>181</v>
       </c>
       <c r="BP61" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ61" t="s">
         <v>186</v>
       </c>
       <c r="BR61" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS61" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62">
@@ -11696,13 +11513,13 @@
         <v>82</v>
       </c>
       <c r="E62" s="1">
-        <v>45354</v>
+        <v>45365</v>
       </c>
       <c r="F62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -11738,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T62" s="2">
         <v>0</v>
@@ -11755,7 +11572,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
@@ -11768,7 +11585,7 @@
       <c r="AK62" s="2"/>
       <c r="AL62" s="2"/>
       <c r="AM62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
@@ -11776,23 +11593,23 @@
         <v>0</v>
       </c>
       <c r="AQ62" s="1">
-        <v>45370</v>
+        <v>45394</v>
       </c>
       <c r="AR62" s="2">
         <v>1</v>
       </c>
       <c r="AS62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="2"/>
       <c r="AU62" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV62" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX62" s="2">
         <v>1</v>
@@ -11849,16 +11666,13 @@
         <v>181</v>
       </c>
       <c r="BP62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ62" t="s">
         <v>186</v>
       </c>
       <c r="BR62" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS62" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63">
@@ -11878,10 +11692,10 @@
         <v>45354</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -11917,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T63" s="2">
         <v>0</v>
@@ -11934,7 +11748,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
@@ -11947,7 +11761,7 @@
       <c r="AK63" s="2"/>
       <c r="AL63" s="2"/>
       <c r="AM63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN63" s="2"/>
       <c r="AO63" s="2"/>
@@ -11955,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="AR63" s="2">
         <v>1</v>
@@ -12028,16 +11842,13 @@
         <v>181</v>
       </c>
       <c r="BP63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ63" t="s">
         <v>186</v>
       </c>
       <c r="BR63" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS63" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64">
@@ -12054,7 +11865,7 @@
         <v>82</v>
       </c>
       <c r="E64" s="1">
-        <v>45069</v>
+        <v>45366</v>
       </c>
       <c r="F64" t="s">
         <v>85</v>
@@ -12066,7 +11877,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
@@ -12096,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T64" s="2">
         <v>0</v>
@@ -12113,7 +11924,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
       <c r="AB64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
@@ -12126,20 +11937,18 @@
       <c r="AK64" s="2"/>
       <c r="AL64" s="2"/>
       <c r="AM64" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN64" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN64" s="2"/>
       <c r="AO64" s="2"/>
       <c r="AP64" s="2">
         <v>0</v>
       </c>
       <c r="AQ64" s="1">
-        <v>45096</v>
+        <v>45421</v>
       </c>
       <c r="AR64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS64" s="2">
         <v>1</v>
@@ -12149,10 +11958,10 @@
         <v>2</v>
       </c>
       <c r="AV64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX64" s="2">
         <v>1</v>
@@ -12161,10 +11970,10 @@
         <v>0</v>
       </c>
       <c r="AZ64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="2">
         <v>0</v>
@@ -12209,16 +12018,13 @@
         <v>181</v>
       </c>
       <c r="BP64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ64" t="s">
         <v>186</v>
       </c>
       <c r="BR64" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS64" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65">
@@ -12235,19 +12041,19 @@
         <v>82</v>
       </c>
       <c r="E65" s="1">
-        <v>45319</v>
+        <v>45424</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
@@ -12277,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="T65" s="2">
         <v>0</v>
@@ -12294,7 +12100,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
@@ -12307,17 +12113,15 @@
       <c r="AK65" s="2"/>
       <c r="AL65" s="2"/>
       <c r="AM65" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN65" s="2">
-        <v>1</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN65" s="2"/>
       <c r="AO65" s="2"/>
       <c r="AP65" s="2">
         <v>0</v>
       </c>
       <c r="AQ65" s="1">
-        <v>45336</v>
+        <v>45432</v>
       </c>
       <c r="AR65" s="2">
         <v>1</v>
@@ -12327,10 +12131,10 @@
       </c>
       <c r="AT65" s="2"/>
       <c r="AU65" s="2">
+        <v>6</v>
+      </c>
+      <c r="AV65" s="2">
         <v>5</v>
-      </c>
-      <c r="AV65" s="2">
-        <v>4</v>
       </c>
       <c r="AW65" s="2">
         <v>1</v>
@@ -12390,16 +12194,13 @@
         <v>181</v>
       </c>
       <c r="BP65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ65" t="s">
         <v>186</v>
       </c>
       <c r="BR65" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS65" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66">
@@ -12416,31 +12217,31 @@
         <v>82</v>
       </c>
       <c r="E66" s="1">
-        <v>45045</v>
+        <v>45312</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="2">
         <v>0</v>
       </c>
       <c r="M66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" s="2">
         <v>0</v>
@@ -12449,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="2">
         <v>0</v>
@@ -12458,13 +12259,13 @@
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="T66" s="2">
         <v>0</v>
       </c>
       <c r="U66" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
@@ -12475,9 +12276,11 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
       <c r="AB66" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC66" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>0</v>
+      </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
@@ -12488,36 +12291,34 @@
       <c r="AK66" s="2"/>
       <c r="AL66" s="2"/>
       <c r="AM66" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN66" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN66" s="2"/>
       <c r="AO66" s="2"/>
       <c r="AP66" s="2">
         <v>0</v>
       </c>
       <c r="AQ66" s="1">
-        <v>45062</v>
+        <v>45348</v>
       </c>
       <c r="AR66" s="2">
         <v>1</v>
       </c>
       <c r="AS66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="2"/>
       <c r="AU66" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY66" s="2">
         <v>0</v>
@@ -12535,10 +12336,10 @@
         <v>0</v>
       </c>
       <c r="BD66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF66" s="2">
         <v>0</v>
@@ -12571,16 +12372,13 @@
         <v>181</v>
       </c>
       <c r="BP66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ66" t="s">
         <v>186</v>
       </c>
       <c r="BR66" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS66" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67">
@@ -12597,7 +12395,7 @@
         <v>82</v>
       </c>
       <c r="E67" s="1">
-        <v>45403</v>
+        <v>45286</v>
       </c>
       <c r="F67" t="s">
         <v>89</v>
@@ -12606,25 +12404,25 @@
         <v>89</v>
       </c>
       <c r="H67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="2">
         <v>0</v>
       </c>
       <c r="N67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="2">
         <v>0</v>
@@ -12639,26 +12437,26 @@
         <v>0</v>
       </c>
       <c r="S67" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="T67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" t="s">
         <v>89</v>
       </c>
       <c r="V67" s="2"/>
-      <c r="W67" s="2">
-        <v>1</v>
-      </c>
+      <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
       <c r="AB67" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC67" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>1</v>
+      </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
@@ -12669,27 +12467,27 @@
       <c r="AK67" s="2"/>
       <c r="AL67" s="2"/>
       <c r="AM67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO67" s="2"/>
       <c r="AP67" s="2">
         <v>0</v>
       </c>
       <c r="AQ67" s="1">
-        <v>45415</v>
+        <v>45308</v>
       </c>
       <c r="AR67" s="2">
         <v>1</v>
       </c>
       <c r="AS67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT67" s="2"/>
       <c r="AU67" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV67" s="2">
         <v>1</v>
@@ -12698,13 +12496,13 @@
         <v>0</v>
       </c>
       <c r="AX67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA67" s="2">
         <v>0</v>
@@ -12752,16 +12550,13 @@
         <v>181</v>
       </c>
       <c r="BP67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ67" t="s">
         <v>186</v>
       </c>
       <c r="BR67" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS67" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68">
@@ -12778,13 +12573,13 @@
         <v>82</v>
       </c>
       <c r="E68" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -12820,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="S68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T68" s="2">
         <v>0</v>
@@ -12837,7 +12632,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
       <c r="AB68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
@@ -12850,7 +12645,7 @@
       <c r="AK68" s="2"/>
       <c r="AL68" s="2"/>
       <c r="AM68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN68" s="2"/>
       <c r="AO68" s="2"/>
@@ -12858,23 +12653,23 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="1">
-        <v>45369</v>
+        <v>45260</v>
       </c>
       <c r="AR68" s="2">
         <v>1</v>
       </c>
       <c r="AS68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="2"/>
       <c r="AU68" s="2">
         <v>3</v>
       </c>
       <c r="AV68" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX68" s="2">
         <v>1</v>
@@ -12931,16 +12726,13 @@
         <v>181</v>
       </c>
       <c r="BP68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ68" t="s">
         <v>186</v>
       </c>
       <c r="BR68" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS68" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69">
@@ -12999,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T69" s="2">
         <v>0</v>
@@ -13016,7 +12808,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
       <c r="AB69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
@@ -13029,7 +12821,7 @@
       <c r="AK69" s="2"/>
       <c r="AL69" s="2"/>
       <c r="AM69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
@@ -13110,16 +12902,13 @@
         <v>181</v>
       </c>
       <c r="BP69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ69" t="s">
         <v>186</v>
       </c>
       <c r="BR69" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70">
@@ -13136,19 +12925,19 @@
         <v>82</v>
       </c>
       <c r="E70" s="1">
-        <v>45312</v>
+        <v>45404</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -13178,7 +12967,7 @@
         <v>0</v>
       </c>
       <c r="S70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T70" s="2">
         <v>0</v>
@@ -13195,11 +12984,9 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC70" s="2">
-        <v>0</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
@@ -13210,7 +12997,7 @@
       <c r="AK70" s="2"/>
       <c r="AL70" s="2"/>
       <c r="AM70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN70" s="2"/>
       <c r="AO70" s="2"/>
@@ -13218,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="AQ70" s="1">
-        <v>45348</v>
+        <v>45420</v>
       </c>
       <c r="AR70" s="2">
         <v>1</v>
@@ -13291,16 +13078,13 @@
         <v>181</v>
       </c>
       <c r="BP70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ70" t="s">
         <v>186</v>
       </c>
       <c r="BR70" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS70" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71">
@@ -13329,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
@@ -13359,7 +13143,7 @@
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T71" s="2">
         <v>0</v>
@@ -13376,7 +13160,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
       <c r="AB71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AC71" s="2">
         <v>0</v>
@@ -13407,14 +13191,14 @@
         <v>1</v>
       </c>
       <c r="AS71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="2"/>
       <c r="AU71" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV71" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW71" s="2">
         <v>1</v>
@@ -13474,16 +13258,13 @@
         <v>181</v>
       </c>
       <c r="BP71" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ71" t="s">
         <v>186</v>
       </c>
       <c r="BR71" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS71" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72">
@@ -13500,19 +13281,19 @@
         <v>82</v>
       </c>
       <c r="E72" s="1">
-        <v>45354</v>
+        <v>45041</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
@@ -13521,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" s="2">
         <v>0</v>
@@ -13542,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="S72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T72" s="2">
         <v>0</v>
@@ -13559,7 +13340,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
       <c r="AB72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
@@ -13572,7 +13353,7 @@
       <c r="AK72" s="2"/>
       <c r="AL72" s="2"/>
       <c r="AM72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN72" s="2"/>
       <c r="AO72" s="2"/>
@@ -13580,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="AQ72" s="1">
-        <v>45394</v>
+        <v>45077</v>
       </c>
       <c r="AR72" s="2">
         <v>1</v>
@@ -13590,25 +13371,25 @@
       </c>
       <c r="AT72" s="2"/>
       <c r="AU72" s="2">
+        <v>9</v>
+      </c>
+      <c r="AV72" s="2">
         <v>2</v>
       </c>
-      <c r="AV72" s="2">
-        <v>1</v>
-      </c>
       <c r="AW72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX72" s="2">
         <v>1</v>
       </c>
       <c r="AY72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ72" s="2">
         <v>1</v>
       </c>
       <c r="BA72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB72" s="2">
         <v>0</v>
@@ -13620,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="BE72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF72" s="2">
         <v>0</v>
@@ -13635,7 +13416,7 @@
         <v>0</v>
       </c>
       <c r="BJ72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK72" s="2">
         <v>0</v>
@@ -13653,16 +13434,13 @@
         <v>181</v>
       </c>
       <c r="BP72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ72" t="s">
         <v>186</v>
       </c>
       <c r="BR72" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73">
@@ -13679,28 +13457,28 @@
         <v>82</v>
       </c>
       <c r="E73" s="1">
-        <v>45403</v>
+        <v>45390</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" s="2">
         <v>0</v>
@@ -13718,27 +13496,27 @@
         <v>0</v>
       </c>
       <c r="R73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T73" s="2">
         <v>0</v>
       </c>
       <c r="U73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
-      <c r="X73" s="2">
-        <v>1</v>
-      </c>
+      <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
+      <c r="Z73" s="2">
+        <v>1</v>
+      </c>
       <c r="AA73" s="2"/>
       <c r="AB73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
@@ -13751,15 +13529,17 @@
       <c r="AK73" s="2"/>
       <c r="AL73" s="2"/>
       <c r="AM73" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN73" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN73" s="2">
+        <v>0</v>
+      </c>
       <c r="AO73" s="2"/>
       <c r="AP73" s="2">
         <v>0</v>
       </c>
       <c r="AQ73" s="1">
-        <v>45420</v>
+        <v>45413</v>
       </c>
       <c r="AR73" s="2">
         <v>1</v>
@@ -13769,22 +13549,22 @@
       </c>
       <c r="AT73" s="2"/>
       <c r="AU73" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV73" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA73" s="2">
         <v>0</v>
@@ -13793,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="BC73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD73" s="2">
         <v>0</v>
@@ -13823,25 +13603,22 @@
         <v>0</v>
       </c>
       <c r="BM73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO73" t="s">
         <v>181</v>
       </c>
       <c r="BP73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ73" t="s">
         <v>186</v>
       </c>
       <c r="BR73" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS73" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74">
@@ -13858,31 +13635,31 @@
         <v>82</v>
       </c>
       <c r="E74" s="1">
-        <v>45029</v>
+        <v>45069</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="2">
         <v>0</v>
       </c>
       <c r="M74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" s="2">
         <v>0</v>
@@ -13891,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="2">
         <v>0</v>
@@ -13900,13 +13677,13 @@
         <v>0</v>
       </c>
       <c r="S74" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="T74" s="2">
         <v>0</v>
       </c>
       <c r="U74" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
@@ -13917,10 +13694,12 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
       <c r="AB74" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="AC74" s="2"/>
-      <c r="AD74" s="2"/>
+      <c r="AD74" s="2">
+        <v>1</v>
+      </c>
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
       <c r="AG74" s="2"/>
@@ -13930,42 +13709,40 @@
       <c r="AK74" s="2"/>
       <c r="AL74" s="2"/>
       <c r="AM74" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN74" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN74" s="2"/>
       <c r="AO74" s="2"/>
       <c r="AP74" s="2">
         <v>0</v>
       </c>
       <c r="AQ74" s="1">
-        <v>45050</v>
+        <v>45089</v>
       </c>
       <c r="AR74" s="2">
         <v>1</v>
       </c>
       <c r="AS74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="2"/>
       <c r="AU74" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV74" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA74" s="2">
         <v>0</v>
@@ -13977,10 +13754,10 @@
         <v>0</v>
       </c>
       <c r="BD74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF74" s="2">
         <v>0</v>
@@ -14013,16 +13790,13 @@
         <v>181</v>
       </c>
       <c r="BP74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ74" t="s">
         <v>186</v>
       </c>
       <c r="BR74" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS74" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75">
@@ -14039,19 +13813,19 @@
         <v>82</v>
       </c>
       <c r="E75" s="1">
-        <v>45069</v>
+        <v>45354</v>
       </c>
       <c r="F75" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
@@ -14081,7 +13855,7 @@
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T75" s="2">
         <v>0</v>
@@ -14098,7 +13872,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
       <c r="AB75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
@@ -14111,17 +13885,15 @@
       <c r="AK75" s="2"/>
       <c r="AL75" s="2"/>
       <c r="AM75" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN75" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN75" s="2"/>
       <c r="AO75" s="2"/>
       <c r="AP75" s="2">
         <v>0</v>
       </c>
       <c r="AQ75" s="1">
-        <v>45096</v>
+        <v>45369</v>
       </c>
       <c r="AR75" s="2">
         <v>1</v>
@@ -14131,7 +13903,7 @@
       </c>
       <c r="AT75" s="2"/>
       <c r="AU75" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV75" s="2">
         <v>2</v>
@@ -14194,16 +13966,13 @@
         <v>181</v>
       </c>
       <c r="BP75" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ75" t="s">
         <v>186</v>
       </c>
       <c r="BR75" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS75" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76">
@@ -14223,10 +13992,10 @@
         <v>45326</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -14262,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="S76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T76" s="2">
         <v>0</v>
@@ -14279,7 +14048,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
       <c r="AB76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
@@ -14292,7 +14061,7 @@
       <c r="AK76" s="2"/>
       <c r="AL76" s="2"/>
       <c r="AM76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN76" s="2"/>
       <c r="AO76" s="2"/>
@@ -14370,19 +14139,16 @@
         <v>0</v>
       </c>
       <c r="BO76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BP76" t="s">
         <v>184</v>
       </c>
       <c r="BQ76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BR76" t="s">
-        <v>189</v>
-      </c>
-      <c r="BS76" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/AC/analysis_dataset.xlsx
+++ b/datasets/selfservice/AC/analysis_dataset.xlsx
@@ -18,228 +18,228 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600366</t>
+  </si>
+  <si>
     <t>600812</t>
   </si>
   <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>600383</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>600790</t>
+  </si>
+  <si>
+    <t>500906</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
+    <t>600374</t>
+  </si>
+  <si>
+    <t>600865</t>
+  </si>
+  <si>
+    <t>600322</t>
+  </si>
+  <si>
+    <t>600604</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>600947</t>
+  </si>
+  <si>
+    <t>400238</t>
+  </si>
+  <si>
+    <t>600611</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>600896</t>
+  </si>
+  <si>
+    <t>600758</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>500025</t>
+  </si>
+  <si>
+    <t>600886</t>
+  </si>
+  <si>
+    <t>600996</t>
+  </si>
+  <si>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
+    <t>500454</t>
+  </si>
+  <si>
+    <t>600898</t>
+  </si>
+  <si>
+    <t>500005</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
+    <t>600310</t>
+  </si>
+  <si>
     <t>600856</t>
   </si>
   <si>
-    <t>400224</t>
+    <t>600320</t>
+  </si>
+  <si>
+    <t>600822</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>600672</t>
+  </si>
+  <si>
+    <t>600881</t>
+  </si>
+  <si>
+    <t>600727</t>
+  </si>
+  <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>500684</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>600346</t>
+  </si>
+  <si>
+    <t>600919</t>
   </si>
   <si>
     <t>600961</t>
   </si>
   <si>
+    <t>600614</t>
+  </si>
+  <si>
+    <t>600920</t>
+  </si>
+  <si>
     <t>500951</t>
   </si>
   <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>500901</t>
+    <t>600978</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
+    <t>600326</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>600398</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>600853</t>
+  </si>
+  <si>
+    <t>600860</t>
+  </si>
+  <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>600640</t>
+  </si>
+  <si>
+    <t>600775</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
+    <t>600381</t>
+  </si>
+  <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>600859</t>
+  </si>
+  <si>
+    <t>600687</t>
+  </si>
+  <si>
+    <t>600360</t>
   </si>
   <si>
     <t>600699</t>
   </si>
   <si>
-    <t>500221</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>600366</t>
-  </si>
-  <si>
-    <t>600682</t>
-  </si>
-  <si>
-    <t>600786</t>
-  </si>
-  <si>
-    <t>600383</t>
-  </si>
-  <si>
-    <t>600322</t>
-  </si>
-  <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>600614</t>
-  </si>
-  <si>
-    <t>600640</t>
-  </si>
-  <si>
-    <t>600388</t>
-  </si>
-  <si>
-    <t>600853</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>600604</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>600396</t>
-  </si>
-  <si>
-    <t>600996</t>
-  </si>
-  <si>
-    <t>600898</t>
-  </si>
-  <si>
-    <t>600919</t>
-  </si>
-  <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>600978</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>600672</t>
-  </si>
-  <si>
-    <t>600790</t>
-  </si>
-  <si>
-    <t>600859</t>
-  </si>
-  <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>600771</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>500025</t>
-  </si>
-  <si>
-    <t>600758</t>
-  </si>
-  <si>
-    <t>600886</t>
-  </si>
-  <si>
-    <t>500355</t>
-  </si>
-  <si>
-    <t>600920</t>
-  </si>
-  <si>
-    <t>600703</t>
-  </si>
-  <si>
-    <t>600860</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>600374</t>
-  </si>
-  <si>
-    <t>600775</t>
-  </si>
-  <si>
-    <t>600610</t>
-  </si>
-  <si>
-    <t>600881</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>600326</t>
-  </si>
-  <si>
-    <t>600398</t>
-  </si>
-  <si>
-    <t>600780</t>
-  </si>
-  <si>
-    <t>600360</t>
-  </si>
-  <si>
-    <t>500454</t>
-  </si>
-  <si>
-    <t>400230</t>
-  </si>
-  <si>
-    <t>600865</t>
-  </si>
-  <si>
-    <t>600947</t>
+    <t>600923</t>
+  </si>
+  <si>
+    <t>600882</t>
   </si>
   <si>
     <t>600602</t>
   </si>
   <si>
-    <t>600309</t>
-  </si>
-  <si>
-    <t>600982</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>600822</t>
-  </si>
-  <si>
-    <t>600923</t>
-  </si>
-  <si>
-    <t>600687</t>
-  </si>
-  <si>
-    <t>600346</t>
-  </si>
-  <si>
-    <t>600310</t>
-  </si>
-  <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>600896</t>
-  </si>
-  <si>
-    <t>400238</t>
-  </si>
-  <si>
-    <t>500005</t>
-  </si>
-  <si>
-    <t>600882</t>
-  </si>
-  <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>600611</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -273,15 +273,15 @@
     <t>swab</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>pill</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -294,39 +294,39 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
+    <t>cocaine; fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>xylazine; fentanyl</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>benzodiazepine</t>
   </si>
   <si>
-    <t>xylazine; fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine; fentanyl</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
-    <t>cocaine</t>
+    <t>heroin</t>
   </si>
   <si>
     <t>fentanyl; crack</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>heroin; fentanyl; xylazine</t>
   </si>
   <si>
@@ -366,12 +366,12 @@
     <t>pink</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>yellow</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
     <t>gray</t>
   </si>
   <si>
@@ -384,18 +384,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; chunky; rock</t>
+  </si>
+  <si>
+    <t>rock; crystals</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder; chunky; rock</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>rock; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -408,31 +408,31 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>unpleasant</t>
   </si>
   <si>
+    <t>unpleasant; hallucinations</t>
+  </si>
+  <si>
     <t>long; unpleasant; hallucinations</t>
   </si>
   <si>
     <t>sedating</t>
   </si>
   <si>
-    <t>unpleasant; hallucinations</t>
+    <t>weird; sedating</t>
+  </si>
+  <si>
+    <t>stronger</t>
   </si>
   <si>
     <t>nice</t>
-  </si>
-  <si>
-    <t>stronger</t>
-  </si>
-  <si>
-    <t>weird; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -707,7 +707,7 @@
         <v>127</v>
       </c>
       <c r="W1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X1" t="s">
         <v>122</v>
@@ -716,7 +716,7 @@
         <v>128</v>
       </c>
       <c r="Z1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AA1" t="s">
         <v>129</v>
@@ -865,7 +865,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="1">
-        <v>45365</v>
+        <v>45252</v>
       </c>
       <c r="F2" t="s">
         <v>85</v>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -937,28 +937,30 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN2" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2">
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>45399</v>
+        <v>45261</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
       </c>
       <c r="AS2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2">
         <v>2</v>
       </c>
       <c r="AV2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
         <v>1</v>
@@ -1041,13 +1043,13 @@
         <v>82</v>
       </c>
       <c r="E3" s="1">
-        <v>45404</v>
+        <v>45365</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1056,19 +1058,19 @@
         <v>94</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -1083,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="V3" s="2"/>
-      <c r="W3" s="2">
-        <v>1</v>
-      </c>
-      <c r="X3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
@@ -1113,17 +1115,15 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2">
         <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>45415</v>
+        <v>45399</v>
       </c>
       <c r="AR3" s="2">
         <v>1</v>
@@ -1139,10 +1139,10 @@
         <v>2</v>
       </c>
       <c r="AW3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
         <v>0</v>
@@ -1219,31 +1219,31 @@
         <v>82</v>
       </c>
       <c r="E4" s="1">
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1261,17 +1261,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
@@ -1299,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>45032</v>
+        <v>45050</v>
       </c>
       <c r="AR4" s="2">
         <v>1</v>
@@ -1309,22 +1311,22 @@
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AV4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
         <v>1</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4" s="2">
         <v>0</v>
@@ -1395,19 +1397,19 @@
         <v>82</v>
       </c>
       <c r="E5" s="1">
-        <v>45354</v>
+        <v>45026</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -1443,13 +1445,11 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
+      <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>45394</v>
+        <v>45032</v>
       </c>
       <c r="AR5" s="2">
         <v>1</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AV5" s="2">
         <v>3</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5" s="2">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>82</v>
       </c>
       <c r="E6" s="1">
-        <v>45069</v>
+        <v>45312</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -1594,10 +1594,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
@@ -1632,10 +1632,12 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
+      <c r="AD6" s="2">
+        <v>1</v>
+      </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -1645,42 +1647,40 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2">
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>45089</v>
+        <v>45316</v>
       </c>
       <c r="AR6" s="2">
         <v>1</v>
       </c>
       <c r="AS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1751,19 +1751,19 @@
         <v>82</v>
       </c>
       <c r="E7" s="1">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1819,36 +1819,32 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2">
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>45294</v>
+        <v>45308</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
       </c>
       <c r="AS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW7" s="2">
         <v>1</v>
@@ -1857,13 +1853,13 @@
         <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -1931,37 +1927,37 @@
         <v>82</v>
       </c>
       <c r="E8" s="1">
-        <v>45041</v>
+        <v>45333</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2">
         <v>0</v>
@@ -1973,26 +1969,28 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="2">
-        <v>1</v>
-      </c>
+      <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
+      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
       <c r="AA8" s="2"/>
       <c r="AB8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -2013,26 +2011,26 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>45062</v>
+        <v>45364</v>
       </c>
       <c r="AR8" s="2">
         <v>1</v>
       </c>
       <c r="AS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV8" s="2">
         <v>2</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
         <v>0</v>
@@ -2044,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="BB8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
         <v>0</v>
@@ -2109,19 +2107,19 @@
         <v>82</v>
       </c>
       <c r="E9" s="1">
-        <v>45340</v>
+        <v>45319</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2181,30 +2179,30 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2">
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>45369</v>
+        <v>45336</v>
       </c>
       <c r="AR9" s="2">
         <v>1</v>
       </c>
       <c r="AS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW9" s="2">
         <v>1</v>
@@ -2234,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2287,7 +2285,7 @@
         <v>82</v>
       </c>
       <c r="E10" s="1">
-        <v>45041</v>
+        <v>45069</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -2299,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2308,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -2359,43 +2357,45 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN10" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>0</v>
+      </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2">
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>45062</v>
+        <v>45096</v>
       </c>
       <c r="AR10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
         <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>82</v>
       </c>
       <c r="E11" s="1">
-        <v>45034</v>
+        <v>45300</v>
       </c>
       <c r="F11" t="s">
         <v>85</v>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2522,12 +2522,12 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2">
+        <v>1</v>
+      </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -2537,17 +2537,15 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>0</v>
-      </c>
+        <v>87<